--- a/!parsed_items_100/1299/1299_199-300.xlsx
+++ b/!parsed_items_100/1299/1299_199-300.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -650,17 +650,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Арома средство для тела с феромонами</t>
+          <t>Гель-лубрикант Услада с провитамином B5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>id-26861-1299</t>
+          <t>id-12975-1299</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -674,10 +674,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12975/12975_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12975/12975_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12975/12975_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятное наслаждение!.Арома средство для тела с феромонами SEXY SWEET FROST CHERRY с ароматом вишни (10 мл).  Арома средство для тела с феромонами SEXY SWEET FROST CHERRY с ароматом вишни (10 мл). Модель: bioritm-16119. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Витамин В5 и его предшественника провитамин В5 (пантенол-Д) по праву называют витамином красоты. Его недостаток в организме проявляется в увядании и старении: на коже образуются морщинки, на слизистой  трещинки. Поэтому провитамин В5 является незаменимым средством восстановления. Гель-лубрикант Услада с провитамином В5 усиленно регенерирует и интенсивно увлажняет слизистые. Особенно эффективен при сухости влагалища. Обеспечивает нежное проникновение и длительное скольжение при интимной близости, сохраняя целостность слизистых. Обладает заживляющими и смягчающими свойствами. Возвращает сухой и чувствительной слизистой состояние комфорта. Гель-лубрикант Услада с провитамином В5 отлично подходит для профилактического деликатного ухода за слизистой (при сухости влагалища в период климакса, после родов, операций и т.п.) Клиническое исследование показало, что регулярное применение геля-лубриканта с провитамином В5 способствует: -устранению сухости половых органов. -увеличению выделения собственной смазки перед половым актом. -повышению эластичности слизистой влагалища. Применение: перед интимной близостью нанесите тонким слоем на половые органы (половые губы, клитор, вход во влагалище). Для деликатного ухода за слизистой нанесите небольшое количество геля на вход во влагалище 2-3 раза в день после гигиенических процедур. Гель-лубрикант Услада с провитамином B5 (30 г).  Гель-лубрикант Услада с провитамином B5 (30 г). Модель: bioritm-16391. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -699,17 +703,17 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
@@ -755,7 +759,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -766,17 +770,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Арома средство для тела с феромонами</t>
+          <t>Оральный гель Tutti-Frutti со вкусом</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>id-26858-1299</t>
+          <t>id-10320-1299</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -790,10 +794,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10320/10320_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10320/10320_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10320/10320_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятно</t>
+          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом сочной вишни (30 г).  Оральный гель Tutti-Frutti со вкусом сочной вишни (30 г). Модель: bioritm-16968. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -815,17 +823,17 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W3" t="inlineStr"/>
@@ -871,7 +879,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -882,17 +890,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Арома средство для тела с феромонами</t>
+          <t>Оральный гель Tutti-Frutti со вкусом</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>id-26859-1299</t>
+          <t>id-10318-1299</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -906,10 +914,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10318/10318_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10318/10318_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10318/10318_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятное наслаждение!.Арома средство для тела с феромонами SEXY SWEET WILD BERRY с ароматом ягод (10 мл).  Арома средство для тела с феромонами SEXY SWEET WILD BERRY с ароматом ягод (10 мл). Модель: bioritm-16121. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом тропических фруктов (30 г).  Оральный гель Tutti-Frutti со вкусом тропических фруктов (30 г). Модель: bioritm-16970. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -931,17 +943,17 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W4" t="inlineStr"/>
@@ -987,7 +999,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -998,17 +1010,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Арома средство для тела с феромонами</t>
+          <t>Гель-лубрикант Услада с провитамином B5</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>id-26863-1299</t>
+          <t>id-12974-1299</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -1022,10 +1034,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12974/12974_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12974/12974_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12974/12974_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятное наслаждение!.Арома средство для тела с феромонами SEXY SWEET HOT CHOCOLATE с ароматом шоколада (10 мл).  Арома средство для тела с феромонами SEXY SWEET HOT CHOCOLATE с ароматом шоколада (10 мл). Модель: bioritm-16122. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Витамин В5 и его предшественника провитамин В5 (пантенол-Д) по праву называют витамином красоты. Его недостаток в организме проявляется в увядании и старении: на коже образуются морщинки, на слизистой  трещинки. Поэтому провитамин В5 является незаменимым средством восстановления. Гель-лубрикант Услада с провитамином В5 усиленно регенерирует и интенсивно увлажняет слизистые. Особенно эффективен при сухости влагалища. Обеспечивает нежное проникновение и длительное скольжение при интимной близости, сохраняя целостность слизистых. Обладает заживляющими и смягчающими свойствами. Возвращает сухой и чувствительной слизистой состояние комфорта. Гель-лубрикант Услада с провитамином В5 отлично подходит для профилактического деликатного ухода за слизистой (при сухости влагалища в период климакса, после родов, операций и т.п.) Клиническое исследование показало, что регулярное применение геля-лубриканта с провитамином В5 способствует: -устранению сухости половых органов. -увеличению выделения собственной смазки перед половым актом. -повышению эластичности слизистой влагалища. Применение: перед интимной близостью нанесите тонким слоем на половые органы (половые губы, клитор, вход во влагалище). Для деликатного ухода за слизистой нанесите небольшое количество геля на вход во влагалище 2-3 раза в день после гигиенических процедур. Гель-лубрикант Услада с провитамином B5 (120 г).  Гель-лубрикант Услада с провитамином B5 (120 г). Модель: bioritm-18419. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1035,29 +1051,29 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>120 г</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>120</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>120 г</t>
         </is>
       </c>
       <c r="W5" t="inlineStr"/>
@@ -1103,7 +1119,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1119,12 +1135,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Арома средство для тела с феромонами</t>
+          <t>Интимный дезодорант для женщин DEO 18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>id-26857-1299</t>
+          <t>id-11581-1299</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1138,10 +1154,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/11581/11581_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/11581/11581_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести</t>
+          <t xml:space="preserve">Безусловный маст хэв косметички каждой женщины  интим-дезодорант Lovespray deo. Это первый помощник и отличное дополнение к гигиенической процедуре в путешествиях. Специальный нежный дезодорант для интимных зон не содержит спирта. Продукт разработан с учетом сохранения здоровой микрофлоры интимной области. Деликатно устраняет ненужный запах и препятствует его дальнейшему появлению. Дарит длительное ощущение свежести и уверенности в себе. Обладает приятным ненавязчивым ароматом и смягчающим действием. Способствует снятию раздражения от моющих средств и депиляторов в области бикини. Современный флакон удобен в применении и позволяет нанести дезодорант максимально гигиенично. Применение: распылите на область бикини. Lovespray deo - незаменимое средство ухода для современной женщины. Интимный дезодорант для женщин DEO (18 мл).  Интимный дезодорант для женщин DEO (18 мл). Модель: bioritm-18772. Косметика, препараты. Смазки, косметика &gt; Косметика. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1151,29 +1171,29 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>18 мл</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>18 мл</t>
         </is>
       </c>
       <c r="W6" t="inlineStr"/>
@@ -1219,7 +1239,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1230,17 +1250,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Арома средство для тела с феромонами</t>
+          <t>Лубрикант на водной основе ОКЕЙ с</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>id-26860-1299</t>
+          <t>id-28096-1299</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -1254,10 +1274,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28096/28096_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятное наслаждение!.Арома средство для тела с феромонами SEXY SWEET FRESH ORANGE с ароматом апельсина (10 мл).  Арома средство для тела с феромонами SEXY SWEET FRESH ORANGE с ароматом апельсина (10 мл). Модель: bioritm-16124. Косметика, препараты. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Ароматический лубрикант позволяет дополнить удовольствие от интимной близости любимым ароматом. Гель обеспечивает отличное скольжение и увлажнение на протяжении всего акта. Совместим с секс-игрушками, презервативами. Легко смывается водой, не пачкает белье. Лубрикант на водной основе ОКЕЙ с ароматом вишни (50 г).  Лубрикант на водной основе ОКЕЙ с ароматом вишни (50 г). Модель: bioritm-20004. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1279,17 +1303,17 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W7" t="inlineStr"/>
@@ -1335,7 +1359,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1346,17 +1370,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Арома средство для тела с феромонами</t>
+          <t>Лубрикант на водной основе ОКЕЙ с</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>id-26862-1299</t>
+          <t>id-2267-1299</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1370,10 +1394,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2267/2267_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/2267/2267_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Потрясающая парфюмированная композиция с феромонами Sexy Sweet вскружит голову, заворожит, разбудит эротическую фантазию! Её яркий аромат в сочетании с феромонами раскроет чувственность и сексуальность, раскрепостит, поможет создать свой неповторимый соблазнительный образ.Sexy Sweet работает на подсознательном уровне, без видимых усилий привлекая внимание, возбуждая и вызывая желание заняться любовью.Обладательница аппетитной новинки станет объектом обожания, пробудит желание вкусить все её прелести и подарить невероятное наслаждение!.Арома средство для тела с феромонами SEXY SWEET BANANA SPLIT с ароматом ба</t>
+          <t xml:space="preserve">Ароматический лубрикант позволяет дополнить удовольствие от интимной близости любимым ароматом. Гель обеспечивает отличное скольжение и увлажнение на протяжении всего акта. Совместим с секс-игрушками, презервативами. Легко смывается водой, не пачкает белье. Лубрикант на водной основе ОКЕЙ с ароматом яблока (50 г).  Лубрикант на водной основе ОКЕЙ с ароматом яблока (50 г). Модель: bioritm-20005. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1395,17 +1423,17 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
@@ -1467,12 +1495,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Восстанавливающая смазка с прополисом</t>
+          <t>Лубрикант на водной основе ОКЕЙ с</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>id-12821-1299</t>
+          <t>id-28094-1299</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -1486,10 +1514,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28094/28094_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28094/28094_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прополис  один из важнейших продуктов пчеловодства. Его химический состав включает в числе прочих и 10 жизненно необходимых витаминов, среди которых В1, В2, В6, А, Е, никотиновая и пантотеновая кислоты. Благодаря удачному сочетанию компонентов гель-лубрикант Услада с прополисом способствует быстрому восстановлению поврежденной слизистой, подавляет зуд и воспаление, при этом, сохраняя здоровую микрофлору. Услада с прополисом обладает уникальной способностью ускорять обновление тканей, оказывает дезодорирующее действие, препятствуя появлению неприятного запаха. Хорошо имитирует естественную женскую смазку. Обеспечивает нежное проникновение, длительное скольжение и сохранение целостн</t>
+          <t xml:space="preserve">Ароматический лубрикант позволяет дополнить удовольствие от интимной близости любимым ароматом. Гель обеспечивает отличное скольжение и увлажнение на протяжении всего акта. Совместим с секс-игрушками, презервативами. Легко смывается водой, не пачкает белье. Лубрикант на водной основе ОКЕЙ с ароматом абрикоса (50 г).  Лубрикант на водной основе ОКЕЙ с ароматом абрикоса (50 г). Модель: bioritm-20006. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1511,17 +1543,17 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -1567,7 +1599,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1578,17 +1610,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Антибактериальная смазка УСЛАДА с</t>
+          <t>Лубрикант на водной основе ОКЕЙ с</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>id-12977-1299</t>
+          <t>id-28093-1299</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1602,10 +1634,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28093/28093_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28093/28093_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Коллоидное серебро - это полностью натуральный продукт. Его безопасная и эффективная форма используется в качестве природного антисептика и как дезинфицирующее средство широкого спектра действия, способное значительно снизить остроту и длительность многих инфекционных заболеваний. Активно работает против 700 видов бактерий, вирусов и грибков. Гель-лубрикант Услада с серебром обеспечивает защиту слизистых от повреждений и препятствует распространению патогенных микробов во время полового акта. Рекомендуется использовать в качестве профилактики развития микроорганизмов, вызывающих дискомфортные ощущения в области влагалища (зуд, жжение). Гель-лубрикант Услада с серебром хорошо имитирует естеств</t>
+          <t xml:space="preserve">Ароматический лубрикант позволяет дополнить удовольствие от интимной близости любимым ароматом. Гель обеспечивает отличное скольжение и увлажнение на протяжении всего акта. Совместим с секс-игрушками, презервативами. Легко смывается водой, не пачкает белье. Лубрикант на водной основе ОКЕЙ с ароматом ананаса (50 г).  Лубрикант на водной основе ОКЕЙ с ароматом ананаса (50 г). Модель: bioritm-20007. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1627,17 +1663,17 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -1699,12 +1735,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Гель-лубрикант Услада с провитамином B5</t>
+          <t>Лубрикант на водной основе ОКЕЙ с</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>id-12975-1299</t>
+          <t>id-28095-1299</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -1718,10 +1754,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28095/28095_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28095/28095_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Витамин В5 и его предшественника провитамин В5 (пантенол-Д) по праву называют витамином красоты. Его недостаток в организме проявляется в увядании и старении: на коже образуются морщинки, на слизистой  трещинки. Поэтому провитамин В5 является незаменимым средством восстановления. Гель-лубрикант Услада с провитамином В5 усиленно регенерирует и интенсивно увлажняет слизистые. Особенно эффективен при сухости влагалища. Обеспечивает нежное проникновение и длительное скольжение при интимной близости, сохраняя целостность слизистых. Обладает заживляющими и смягчающими свойствами. Возвращает сухой и чувствительной слизистой состояние комфорта. Гель-лубрикант Услада с провитамином В5 отлично подходит для профилактического деликатного ухода за слизистой (при сухости влагалища в период климакса, после родов, операций и т.п.) Клиническое исследование показало, что регулярное применение геля-лубриканта с провитамином В5 способствует: -устранению сухости половых органов. -увеличению выделения собственной смазки перед половым актом. -повышению эластичности слизистой влагалища. Применение: перед интимной близостью нанесите тонким слоем на половые органы (половые губы, клитор, вход во влагалище). Для деликатного ухода за слизистой нанесите небольшое количество геля на вход во влагалище 2-3 раза в день после гигиенических процедур. Гель-лубрикант Услада с провитамином B5 (30 г).  Гель-лубрикант Услада с провитамином B5 (30 г). Модель: bioritm-16391. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Ароматический лубрикант позволяет дополнить удовольствие от интимной близости любимым ароматом. Гель обеспечивает отличное скольжение и увлажнение на протяжении всего акта. Совместим с секс-игрушками, презервативами. Легко смывается водой, не пачкает белье. Лубрикант на водной основе ОКЕЙ с ароматом малины (50 г).  Лубрикант на водной основе ОКЕЙ с ароматом малины (50 г). Модель: bioritm-20010. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1743,17 +1783,17 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -1799,7 +1839,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1815,12 +1855,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Гель на водной основе с хлоргексидином</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>id-10320-1299</t>
+          <t>id-21528-1299</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1834,10 +1874,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21528/21528_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21528/21528_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом сочной вишни (30 г).  Оральный гель Tutti-Frutti со вкусом сочной вишни (30 г). Модель: bioritm-16968. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Ораль</t>
+          <t xml:space="preserve">Гель-лубрикант О'кей плюс с хлоргексидином на водной основе  потрясающее средство для комфорта интимных отношений! Оно создано специально для тех, кто заботится о своем здоровье и стремится сделать секс более защищенным.О'кей плюс с хлоргексидином это:- прекрасное увлажнение:- продолжительное скольжение.- восполнение недостатка собственной смазки.- защита слизистых от повреждений во время секса.Гель-лубрикант не имеет цвета и запаха, легко смывается водой.О'кей плюс с хлоргексидином вознесет вашу интимную жизнь на новые вершины, сделает ее более насыщенной и безопасной!.Гель на водной основе с хлоргексидином ОКЕЙ плюс (50 г).  Гель на водной основе с хлоргексидином ОКЕЙ плюс (50 г). Модель: bioritm-20019. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1859,17 +1903,17 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -1931,12 +1975,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Охлаждающий гибридный лубрикант SILICON</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>id-10318-1299</t>
+          <t>id-25281-1299</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1950,10 +1994,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25281/25281_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом тропических фруктов (30 г).  Оральный гель Tutti-Frutti со вкусом тропических фруктов (30 г). Модель: bioritm-16970. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Silicon Love Cool - анальный водно-силиконовый гель-лубрикант для любителей особых удовольствий! После нанесения лубрикант дарит ощущение холодка. Обеспечивает безболезненное проникновение и длительное скольжение во время интимной близости.Масло мяты в составе придаёт лубриканту аромат свежести. Экстракт корней дуба успокаивает кожу, снижает чувствительность и способствует расслаблению.Гель-лубрикант не оставляет ощущения липкости. Совместим с презервативами и секс-игрушками.Способ применения: нанести на зону анального отверстия.Если во время интимной близости используется презерватив, гель наносится на надетый на пенис презерватив. Охлаждающий гибридный лубрикант SILICON LOVE COOL (50 г).  Охлаждающий гибридный лубрикант SILICON LOVE COOL (50 г). Модель: bioritm-21004. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1975,17 +2023,17 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -2047,12 +2095,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Силиконовый спрей-лубрикант LOVESPRAY</t>
+          <t>Согревающий гибридный лубрикант SILICON</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>id-27771-1299</t>
+          <t>id-25280-1299</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -2066,10 +2114,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25280/25280_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Осмельтесь на самые откровенные желания с Lovespray profi! Благодаря специальной формуле силиконовый лубрикант в форме спрея обеспечивает умопомрачительно долгое скольжение. Быстро и легко наносится на интимные зоны. Идеально подходит и мужчинам, и женщинам для любых видов интимной близости. С Lovespray profi легко взять курс на оргазм и быстро достигнуть нужных берегов. Особый состав спрея позволяет забыть об ощущении липкости и жирности. Огромный плюс спрея-лубриканта, что он гипоаллергенный, не содержит консервантов, без цвета и запаха. Lovespray profi - прекрасный вариант для чувствительной кожи. Применение: перед интимной близостью распылите спрей на интимные зоны, требующие смазывания. Lovespray profi - твой помощник в исполнении эротических фантазий!.Силиконовый спрей-лубрикант LOVESPRAY PROFI (18 мл).  Силиконовый спрей-лубрикант LOVESPRAY PROFI (18 мл). Модель: bioritm-18005. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Откройте для себя мир новых сексуальных удовольствий с анальным водно-силиконовым лубрикантом Silicon Love Surprise! Лубрикант вызывает приятное ощущение тепла, способствует лёгкому проникновению, обеспечивает длительное скольжение.После нанесения лубрикант не оставляет ощущения липкости. Подходит для использования с секс-игрушками и презервативами.Способ применения: нанести на зону анального отверстия.Если во время интимной близости используется презерватив, гель наносится на надетый на пенис презерватив. Согревающий гибридный лубрикант SILICON LOVE SURPRISE (50 г).  Согревающий гибридный лубрикант SILICON LOVE SURPRISE (50 г). Модель: bioritm-21005. Секс-игрушки. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2091,17 +2143,13 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
-          <t>18 мл</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>18 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -2147,7 +2195,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -2163,12 +2211,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Анальный силиконовый спрей с</t>
+          <t>Массажное масло с возбуждающим ароматом</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>id-17254-1299</t>
+          <t>id-13000-1299</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -2182,10 +2230,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13000/13000_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальный силиконовый лубрикант в форме спрея. Благодаря специальному охлаждающему компоненту лубрикант обеспечивает комфортное, безболезненное проникновение, 100% силиконовый состав дарит длительное скольжение. Современный флакон удобен в применении, позволяет нанести лубрикант точно и аккуратно. Способ применения: повернуть верхнюю часть корпуса по часовой стрелке, нажать на выдвинувшейся распылитель и нанесите на область ануса и половой член (при необходимости) перед интимной близостью. Доза подбирается индивидуально, начиная с одного нажатия. Анальный силиконовый спрей с охлаждающим эффектом COMFORT (18 мл).  Анальный силиконовый спрей с охлаждающим эффектом COMFORT (18 мл). Модель: bioritm-18006. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Приобщиться к особому искусству  жизни в гармонии с собой, своим телом и основным инстинктом  поможет масло Silk. Тонкий возбуждающий аромат иланг-иланга в составе создает эротическое настроение. Нежное, легкое масло для массажа обеспечивает равномерное и длительное скольжение. Придает коже шелковистость и мягкость. Приносит пользу телу и поднимет настроение. Массажное масло с возбуждающим ароматом Silk (50 г).  Массажное масло с возбуждающим ароматом Silk (50 г). Модель: bioritm-22018. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2207,17 +2259,17 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
-          <t>18 мл</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>18 мл</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
@@ -2263,7 +2315,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -2279,12 +2331,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Гель-лубрикант Услада с провитамином B5</t>
+          <t>Массажное масло с феромонами Love 50</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>id-12974-1299</t>
+          <t>id-13001-1299</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -2298,10 +2350,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13001/13001_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Витамин В5 и его предшественника провитамин В5 (пантенол-Д) по праву называют витамином красоты. Его недостаток в организме проявляется в увядании и старении: на коже образуются морщинки, на слизистой  трещинки. Поэтому провитамин В5 является незаменимым средством восстановления. Гель-лубрикант Услада с провитамином В5 усиленно регенерирует и интенсивно увлажняет слизистые. Особенно эффективен при сухости влагалища. Обеспечивает нежное проникновение и длительное скольжение при интимной близости, сохраняя целостность слизистых. Обладает заживляющими и смягчающими свойствами. Возвращает сухой и чувствительной слизистой состояние комфорта. Гель-лубрикант Услада с провитамином В5 отлично подходит для профилактического деликатного ухода за слизистой (при сухости влагалища в период климакса, после родов, операций и т.п.) Клиническое исследование показало, что регулярное применение геля-лубриканта с провитамином В5 способствует: -устранению сухости половых органов. -увеличению выделения собственной смазки перед половым актом. -повышению эластичности слизистой влагалища. Применение: перед интимной близостью нанесите тонким слоем на половые органы (половые губы, клитор, вход во влагалище). Для деликатного ухода за слизистой нанесите небольшое количество геля на вход во влагалище 2-3 раза в день после гигиенических процедур. Гель-лубрикант Услада с провитамином B5 (120 г).  Гель-лубрикант Услада с провитамином B5 (120 г). Модель: bioritm-18419. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Полное погружение в мир гармонии и чувственного наслаждения гарантировано. Благодаря действию феромонов и природных афродизиаков масло усиливает сексуальную притягательность партнеров. Придает коже мягкость и упругость. Обеспечивает длительное скольжение и приятные ощущения. Массаж с маслом с феромонами  альтернативный вариант романтическому вечеру и отличный способ получить удовольствие от нежных прикосновений. Массажное масло с феромонами Love (50 г).  Массажное масло с феромонами Love (50 г). Модель: bioritm-22019. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2309,31 +2365,23 @@
           <t>Россия</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
-          <t>120 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>120 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -2379,7 +2427,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -2390,17 +2438,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Интимный дезодорант для женщин DEO 18</t>
+          <t>Масло Eros для эротического массажа с</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>id-11581-1299</t>
+          <t>id-12991-1299</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -2414,10 +2462,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12991/12991_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Безусловный маст хэв косметички каждой женщины  интим-дезодорант Lovespray deo. Это первый помощник и отличное дополнение к гигиенической процедуре в путешествиях. Специальный нежный дезодорант для интимных зон не содержит спирта. Продукт разработан с учетом сохранения здоровой микрофлоры интимной области. Деликатно устраняет ненужный запах и препятствует его дальнейшему появлению. Дарит длительное ощущение свежести и уверенности в себе. Обладает приятным ненавязчивым ароматом и смягчающим действием. Способствует снятию раздражения от моющих средств и депиляторов в области бикини. Современный флакон удобен в применении и позволяет нанести дезодорант максимально гигиенично. Применение: распылите на область бикини. Lovespray deo - незаменимое средство ухода для современной женщины. Интимный дезодорант для женщин DEO (18 мл).  Интимный дезодорант для женщин DEO (18 мл). Модель: bioritm-18772. Косметика, препараты. Смазки, косметика &gt; Косметика. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Побалуйте себя великолепным ароматом. Масло для эротического массажа Eros tasty вызывает ощущение тепла, особенно при дуновении. Повышает чувствительность. Имеет приятный аромат шоколада и сладкий вкус. Eros tasty обеспечивают длительное скольжение. Легко смывается водой. Масло Eros для эротического массажа с ароматом шоколада (50 мл).  Масло Eros для эротического массажа с ароматом шоколада (50 мл). Модель: bioritm-22021. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2427,29 +2479,29 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr">
         <is>
-          <t>18 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>18 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -2495,7 +2547,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -2511,12 +2563,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Лубрикант на водной основе ОКЕЙ с</t>
+          <t>Масло Eros для эротического массажа с</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>id-28096-1299</t>
+          <t>id-12990-1299</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -2530,10 +2582,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12990/12990_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматический лубрикант позволяет дополнить удовольствие от интимной близости любимым ароматом. Гель обеспечивает отличное скольжение и увлажнение на протяжении всего акта. Совместим с секс-игрушками, презервативами. Легко смывается водой, не пачкает белье. Лубрикант на водной основе ОКЕЙ с ароматом вишни (50 г).  Лубрикант на водной основе ОКЕЙ с ароматом вишни (50 г). Модель: bioritm-20004. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Побалуйте себя великолепным ароматом. Масло для эротического массажа Eros вызывает ощущение тепла, особенно при дуновении. Повышает чувствительность. Имеет приятный аромат персика и сладкий вкус. Eros обеспечивают длительное скольжение. Легко смывается водой. Масло Eros для эротического массажа с ароматом персика (50 мл).  Масло Eros для эротического массажа с ароматом персика (50 мл). Модель: bioritm-22022. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2555,7 +2611,7 @@
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -2565,7 +2621,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -2627,12 +2683,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Лубрикант на водной основе ОКЕЙ с</t>
+          <t>Возбуждающий и согревающий лубрикант на</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>id-2267-1299</t>
+          <t>id-16490-1299</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -2646,10 +2702,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16490/16490_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматический лубрикант позволяет дополнить удовольствие от интимной близости любимым ароматом. Гель обеспечивает отличное скольжение и увлажнение на протяжении всего акта. Совместим с секс-игрушками, презервативами. Легко смывается водой, не пачкает белье. Лубрикант на водной основе ОКЕЙ с ароматом яблока (50 г).  Лубрикант на водной основе ОКЕЙ с ароматом яблока (50 г). Модель: bioritm-20005. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Ключ к яркому сексу - стимулирующий лубрикант нового поколения на силиконовой основе Cosmo vibro. Это больше, чем просто лубрикант! Активный компонент в составе - экстракт муира-пуамы - оказывает необычное стимулирующее действие, вызывая нежную вибрацию и возбуждающие мурашки. Обладает легкой текстурой, дарит необычные сладостные ощущения обоим партнерам и обеспечивает длительное скольжение. Оказывает увлажняющее и смягчающее действие. Совместим с изделиями из латекса и полимерных материалов. Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (50 г).  Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (50 г). Модель: bioritm-23001. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2727,7 +2787,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -2743,12 +2803,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Лубрикант на водной основе ОКЕЙ с</t>
+          <t>Небольшой анальный стимулятор на</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>id-28094-1299</t>
+          <t>id-16993-1299</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2762,10 +2822,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16993/16993_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16993/16993_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматический лубрикант позволяет дополнить удовольствие от интимной близости любимым ароматом. Гель обеспечивает отличное скольжение и увлажнение на протяжении всего акта. Совместим с секс-игрушками, презервативами. Легко смывается водой, не пачкает белье. Лубрикант на водной основе ОКЕЙ с ароматом абрикоса (50 г).  Лубрикант на водной основе ОКЕЙ с ароматом абрикоса (50 г). Модель: bioritm-20006. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Открыть новые горизонты интимной жизни позволит анальная втулка из серии COSMO. Эротический аксессуар идеально подойдет для подготовки к анальному сексу. Форма изделия в виде елочки и оптимальный размер обеспечит максимально комфортное введение и выведение втулки. Для контроля глубины проникновения секс-игрушка снабжена специальным ограничителем. Приятный на ощупь интимный аксессуар изготовлен из гипоаллергенного силикона. Он выполнен в красивом цвете. Очень компактен и удобен в использовании. Секс-игрушка подарит яркие и незабываемые эмоции своей хозяйке, став настоящим помощником в покорении новых вершин. Для более комфортного использования рекомендуем приобрести лубрикант на водной основе и очищающий спрей с антимикробным эффектом ClearToy для экспресс-обработки изделия. Небольшой анальный стимулятор на присоске Cosmo.  Небольшой анальный стимулятор на присоске Cosmo. Модель: bioritm-23028. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2783,34 +2847,44 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
-          <t>50 г</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
+      <c r="Y20" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>8</v>
+      </c>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
+      <c r="AF20" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1.7</v>
+      </c>
       <c r="AH20" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2843,7 +2917,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -2859,12 +2933,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Лубрикант на водной основе ОКЕЙ с</t>
+          <t>Рельефный анальный стимулятор Cosmo с</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>id-28093-1299</t>
+          <t>id-17000-1299</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -2878,10 +2952,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17000/17000_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17000/17000_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17000/17000_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматический лубрикант позволяет дополнить удовольствие от интимной близости любимым ароматом. Гель обеспечивает отличное скольжение и увлажнение на протяжении всего акта. Совместим с секс-игрушками, презервативами. Легко смывается водой, не пачкает белье. Лубрикант на водной основе ОКЕЙ с ароматом ананаса (50 г).  Лубрикант на водной основе ОКЕЙ с ароматом ананаса (50 г). Модель: bioritm-20007. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Вибромассажер из коллекции COSMO - источник настоящего удовольствия. Это потрясающая секс-игрушка, которая доставит много незабываемых эмоций своей обладательнице.Форма изделия в виде классической елочки и вибрация подарят яркие фантастические эмоции. Интимный аксессуар легко вводится и извлекается, не доставляя неудобств в процессе эксплуатации.Вибромассажер изготовлен из гипоаллергенного силикона, имеет мягкую, бархатистую, приятную на ощупь текстуру, выполнен в красивом цвете. Все это несомненно порадует представительниц прекрасной половины человечества.Для комфортного использования рекомендуется приобрести лубрикант на водной основе и очищающий спрей с антимикробным эффектом ClearToy для экспресс-обработки изделия. Рельефный анальный стимулятор Cosmo с вибрацией.  Рельефный анальный стимулятор Cosmo с вибрацией. Модель: bioritm-23046. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью. LR 44 x 3 шт (в комплекте)Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2899,34 +2977,44 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
-          <t>50 г</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
+      <c r="Y21" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>12</v>
+      </c>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
+      <c r="AF21" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>2.2</v>
+      </c>
       <c r="AH21" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2975,12 +3063,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Лубрикант на водной основе ОКЕЙ с</t>
+          <t>Возбуждающий и согревающий лубрикант на</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>id-28097-1299</t>
+          <t>id-23176-1299</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -2994,10 +3082,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23176/23176_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматический лубрикант позволяет дополнить удовольствие от интимной близости любимым ароматом. Гель обеспечивает отличное скольжение и увлажнение на протяжении всего акта. Совместим с секс-игрушками, презервативами. Легко смывается водой, не пачкает белье. Лубрикант на водной основе ОКЕЙ с ароматом клубники (50 г).  Лубрикант на водной основе ОКЕЙ с ароматом клубники (50 г). Модель: bioritm-20009. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Ключ к яркому сексу - стимулирующий лубрикант нового поколения на силиконовой основе Cosmo vibro. Это больше, чем просто лубрикант! Активный компонент в составе - экстракт муира-пуамы - оказывает необычное стимулирующее действие, вызывая нежную вибрацию и возбуждающие мурашки. Обладает легкой текстурой, дарит необычные сладостные ощущения обоим партнерам и обеспечивает длительное скольжение. Оказывает увлажняющее и смягчающее действие. Совместим с изделиями из латекса и полимерных материалов. Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (3 г  5 шт).  Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (3 г  5 шт). Модель: bioritm-23067t. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Препараты и возбудители &gt; Чувствительный клитор. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -3019,17 +3111,17 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>3 ** 5 г</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>3 ** 5</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>3 ** 5 г</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -3055,7 +3147,7 @@
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 пробников лубриканта</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
@@ -3091,12 +3183,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Лубрикант на водной основе ОКЕЙ с</t>
+          <t>Возбуждающий и согревающий лубрикант на</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>id-28095-1299</t>
+          <t>id-19160-1299</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -3110,10 +3202,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19160/19160_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматический лубрикант позволяет дополнить удовольствие от интимной близости любимым ароматом. Гель обеспечивает отличное скольжение и увлажнение на протяжении всего акта. Совместим с секс-игрушками, презервативами. Легко смывается водой, не пачкает белье. Лубрикант на водной основе ОКЕЙ с ароматом малины (50 г).  Лубрикант на водной основе ОКЕЙ с ароматом малины (50 г). Модель: bioritm-20010. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Ключ к яркому сексу - стимулирующий лубрикант нового поколения на силиконовой основе Cosmo vibro. Это больше, чем просто лубрикант! Активный компонент в составе - экстракт муира-пуамы - оказывает необычное стимулирующее действие, вызывая нежную вибрацию и возбуждающие мурашки. Обладает легкой текстурой, дарит необычные сладостные ощущения обоим партнерам и обеспечивает длительное скольжение. Оказывает увлажняющее и смягчающее действие. Совместим с изделиями из латекса и полимерных материалов. Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (25 г).  Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (25 г). Модель: bioritm-23122. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -3135,17 +3231,17 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>25 г</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>25 г</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -3191,7 +3287,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -3207,12 +3303,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Гель на водной основе с хлоргексидином</t>
+          <t>Мини вибромассажер для эрогенных зон</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>id-21528-1299</t>
+          <t>id-23468-1299</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -3226,10 +3322,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23468/23468_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23468/23468_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23468/23468_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гель-лубрикант О'кей плюс с хлоргексидином на водной основе  потрясающее средство для комфорта интимных отношений! Оно создано специально для тех, кто заботится о своем здоровье и стремится сделать секс более защищенным.О'кей плюс с хлоргексидином это:- прекрасное увлажнение:- продолжительное скольжение.- восполнение недостатка собственной смазки.- защита слизистых от повреждений во время секса.Гель-лубрикант не имеет цвета и запаха, легко смывается водой.О'кей плюс с хлоргексидином вознесет вашу интимную жизнь на новые вершины, сделает ее более насыщенной и безопасной!.Гель на водной основе с хлоргексидином ОКЕЙ плюс (50 г).  Гель на водной основе с хлоргексидином ОКЕЙ плюс (50 г). Модель: bioritm-20019. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Миниатюрный вибромассажёр предназначен для стимуляции эрогенных зон  стенок влагалища, клитора, сосков, точки G и т.д. Вибрация осуществляется за счёт съёмной вибропули. При желании вибропулю можно извлечь и использовать секс-игрушку в качестве насадки на палец, с помощью которой легко доставлять удовольствие себе или партнёру.Интимный аксессуар изготовлен из мягкого материала, дарящего приятные тактильные ощущения. Прост в использовании, не требует специального ухода.Вибромассажёр имеет оригинальный дизайн и станет прекрасным подарком на любой праздник.Благодаря небольшому размеру изделие можно брать с собой в поездки.Совместно с секс-игрушкой рекомендуется использовать гель-лубрикант на водной основе. Мини вибромассажер для эрогенных зон COSMO.  Мини вибромассажер для эрогенных зон COSMO. Модель: bioritm-23153. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вибромассажеры. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. LR 44 x 3 шт (в комплекте)Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -3247,34 +3347,44 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+        </is>
+      </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
-          <t>50 г</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
+      <c r="Y24" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>9</v>
+      </c>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
+      <c r="AF24" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>2.9</v>
+      </c>
       <c r="AH24" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3307,7 +3417,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -3323,12 +3433,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Охлаждающий гибридный лубрикант SILICON</t>
+          <t>Универсальный мини-вибратор COSMO</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>id-25281-1299</t>
+          <t>id-23394-1299</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -3342,10 +3452,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23394/23394_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23394/23394_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23394/23394_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Silicon Love Cool - анальный водно-силиконовый гель-лубрикант для любителей особых удовольствий! После нанесения лубрикант дарит ощущение холодка. Обеспечивает безболезненное проникновение и длительное скольжение во время интимной близости.Масло мяты в составе придаёт лубриканту аромат свежести. Экстракт корней дуба успокаивает кожу, снижает чувствительность и способствует расслаблению.Гель-лубрикант не оставляет ощущения липкости. Совместим с презервативами и секс-игрушками.Способ применения: нанести на зону анального отверстия.Если во время интимной близости используется презерватив, гель наносится на надетый на пенис презерватив. Охлаждающий гибридный лубрикант SILICON LOVE COOL (50 г).  Охлаждающий гибридный лубрикант SILICON LOVE COOL (50 г). Модель: bioritm-21004. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">.Универсальный мини-вибратор COSMO.  Универсальный мини-вибратор COSMO. Модель: bioritm-23154. Секс-игрушки. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вибромассажеры. Цвет: сиреневый. Материал: гипоаллергенный силикон. LR 44 x 3 шт (в комплекте)Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3355,42 +3469,52 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>гипоаллергенный силикон</t>
+        </is>
+      </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
-          <t>50 г</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
+      <c r="Y25" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>8.5</v>
+      </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
+      <c r="AF25" t="n">
+        <v>2.365</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>2.15</v>
+      </c>
       <c r="AH25" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3423,7 +3547,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -3439,12 +3563,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Согревающий гибридный лубрикант SILICON</t>
+          <t>Универсальный вибромассажер с двумя</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>id-25280-1299</t>
+          <t>id-27894-1299</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -3458,10 +3582,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27894/27894_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27894/27894_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27894/27894_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27894/27894_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27894/27894_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27894/27894_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Откройте для себя мир новых сексуальных удовольствий с анальным водно-силиконовым лубрикантом Silicon Love Surprise! Лубрикант вызывает приятное ощущение тепла, способствует лёгкому проникновению, обеспечивает длительное скольжение.После нанесения лубрикант не оставляет ощущения липкости. Подходит для использования с секс-игрушками и презервативами.Способ применения: нанести на зону анального отверстия.Если во время интимной близости используется презерватив, гель наносится на надетый на пенис презерватив. Согревающий гибридный лубрикант SILICON LOVE SURPRISE (50 г).  Согревающий гибридный лубрикант SILICON LOVE SURPRISE (50 г). Модель: bioritm-21005. Секс-игрушки. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Уникальный дивайс для любителей яркого и разнообразного секса. После введения гибкие лепестки раскрываются и дарят потрясающее чувство наполненности. Различные режимы вибрации позволяют менять интенсивность стимуляции интимных зон.Лепестками вибратора можно ласкать клитор, соски, анус, а также усилить эрекцию партнёра, воздействуя на головку или мошонку.Включение.выключение вибрации: нажать и в течение 2 секунд удерживать кнопку, расположенную ближе к основанию изделия. Переключение виброрежимов: короткое нажатие любой из двух кнопок, расположенных на корпусе. Включать, выключать или переключать виброрежимы можно даже во время использования изделия.Секс-игрушка изготовлена из высококачественных материалов. Проста в использовании и уходе. Универсальный вибромассажер с двумя моторами Cosmo Orgasm (7 режимов).  Универсальный вибромассажер с двумя моторами Cosmo Orgasm (7 режимов). Модель: bioritm-23157. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Вибраторы и фаллоимитаторы &gt; Двойные. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Металлические. Цвет: розовый с черным. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -3471,15 +3599,19 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr">
         <is>
@@ -3492,17 +3624,31 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
+      <c r="W26" t="n">
+        <v>3</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>22</v>
+      </c>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
+      <c r="AF26" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>3.4</v>
+      </c>
       <c r="AH26" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3515,7 +3661,7 @@
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
@@ -3535,7 +3681,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -3551,12 +3697,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Массажное масло с возбуждающим ароматом</t>
+          <t>Перезаряжаемый универсальный стимулятор</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>id-13000-1299</t>
+          <t>id-27890-1299</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3570,10 +3716,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27890/27890_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27890/27890_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27890/27890_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27890/27890_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27890/27890_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27890/27890_6_650.jpg</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Приобщиться к особому искусству  жизни в гармонии с собой, своим телом и основным инстинктом  поможет масло Silk. Тонкий возбуждающий аромат иланг-иланга в составе создает эротическое настроение. Нежное, легкое масло для массажа обеспечивает равномерное и длительное скольжение. Придает коже шелковистость и мягкость. Приносит пользу телу и поднимет настроение. Массажное масло с возбуждающим ароматом Silk (50 г).  Массажное масло с возбуждающим ароматом Silk (50 г). Модель: bioritm-22018. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Окунись в мир сексуального наслаждения и фееричных оргазмов вместе с вибромассажёром Cosmo Orgasm! Сделай его участником эротической прелюдии или проведи с ним незабываемый вечер соло.Эргономичная форма интимного аксессуара с гибким основанием обеспечит комфортное введение и подарит незабываемые эмоции во время близости. Женщина может поместить стимулятор в анус и заниматься классическим сексом с партнером. Также стимулятор можно поместить вагинально и заниматься анальным сексом. Ощущения обоих будут бомбическими! Разнообразные режимы вибрации - от прерывистой и дразнящей до интенсивной и пульсирующей добавят удовольствия.Включение.выключение виброрежимов: нажать и удерживать кнопку на основании изделия в течение 2 секунд. Переключение режимов вибрации - короткое нажатие на эту же кнопку.Удобное расположение кнопки вкл. выкл. позволяет выбрать подходящий режим вибрации непосредственно во время использования.Секс-игрушка выполнена из высококачественного бархатистого силикона. Перезаряжаемый универсальный стимулятор Cosmo Orgasm (10 режимов).  Перезаряжаемый универсальный стимулятор Cosmo Orgasm (10 режимов). Модель: bioritm-23160. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные ст</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3591,34 +3741,48 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
-          <t>50 г</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
+      <c r="Y27" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>15.5</v>
+      </c>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
+      <c r="AD27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>2.585</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>2.35</v>
+      </c>
       <c r="AH27" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3631,7 +3795,7 @@
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
@@ -3651,7 +3815,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -3667,12 +3831,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Массажное масло с феромонами Love 50</t>
+          <t>Перезаряжаемый универсальный стимулятор</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>id-13001-1299</t>
+          <t>id-27889-1299</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -3686,10 +3850,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27889/27889_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27889/27889_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27889/27889_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27889/27889_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27889/27889_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Полное погружение в мир гармонии и чувственного наслаждения гарантировано. Благодаря действию феромонов и природных афродизиаков масло усиливает сексуальную притягательность партнеров. Придает коже мягкость и упругость. Обеспечивает длительное скольжение и приятные ощущения. Массаж с маслом с феромонами  альтернативный вариант романтическому вечеру и отличный способ получить удовольствие от нежных прикосновений. Массажное масло с феромонами Love (50 г).  Массажное масло с феромонами Love (50 г). Модель: bioritm-22019. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Окунись в мир сексуального наслаждения и фееричных оргазмов вместе с вибромассажёром Cosmo Orgasm! Сделай его участником эротической прелюдии или проведи с ним незабываемый вечер соло.Эргономичная форма интимного аксессуара с гибким основанием обеспечит комфортное введение и подарит незабываемые эмоции во время близости. Женщина может поместить стимулятор в анус и заниматься классическим сексом с партнером. Также стимулятор можно поместить вагинально и заниматься анальным сексом. Ощущения обоих будут бомбическими! Разнообразные режимы вибрации - от прерывистой и дразнящей до интенсивной и пульсирующей добавят удовольствия.Включение.выключение виброрежимов: нажать и удерживать кнопку на основании изделия в течение 2 секунд. Переключение режимов вибрации - короткое нажатие на эту же кнопку.Удобное расположение кнопки вкл. выкл. позволяет выбрать подходящий режим вибрации непосредственно во время использования.Секс-игрушка выполнена из высококачественного бархатистого силикона. Перезаряжаемый универсальный стимулятор Cosmo Orgasm (10 режимов).  Перезаряжаемый универсальный стимулятор Cosmo Orgasm (10 режимов). Модель: bioritm-23161. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: фиолетовый с золотым. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -3697,36 +3865,58 @@
           <t>Россия</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
-          <t>50 г</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
+      <c r="Y28" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>15.5</v>
+      </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
+      <c r="AD28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>2.2</v>
+      </c>
       <c r="AH28" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3739,7 +3929,7 @@
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
@@ -3759,7 +3949,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -3770,17 +3960,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Масло Eros для эротического массажа с</t>
+          <t>Перезаряжаемый вибратор для двойной</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>id-12991-1299</t>
+          <t>id-27895-1299</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -3794,10 +3984,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27895/27895_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27895/27895_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27895/27895_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27895/27895_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27895/27895_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27895/27895_6_650.jpg</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Побалуйте себя великолепным ароматом. Масло для эротического массажа Eros tasty вызывает ощущение тепла, особенно при дуновении. Повышает чувствительность. Имеет приятный аромат шоколада и сладкий вкус. Eros tasty обеспечивают длительное скольжение. Легко смывается водой. Масло Eros для эротического массажа с ароматом шоколада (50 мл).  Масло Eros для эротического массажа с ароматом шоколада (50 мл). Модель: bioritm-22021. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Оригинальная секс-игрушка для двойного удовольствия. Может одновременно воздействовать на стенки влагалища и клитор. Разнообразные режимы вибрации обеспечат дополнительную стимуляцию.Изделие имеет два моторчика, которые позволяют равномерно распределять вибрацию по всей поверхности, включая отросток в виде бабочки.Включение вибрации: нажать и в течение 2 секунд удерживать кнопку на корпусе изделия. Должен загореться световой индикатор. Выключение: нажать и в течение 2 секунд удерживать ту же кнопку. Световой индикатор должен погаснуть. Переключение виброрежимов: короткое нажатие той же кнопки. Включать, выключать или переключать виброрежимы можно даже во время использования изделия.Секс-игрушка имеет гибкий ствол, изготовлена из высококачественных материалов. Перезаряжаемый вибратор для двойной стимуляции Cosmo Orgasm (10 режимов).  Перезаряжаемый вибратор для двойной стимуляции Cosmo Orgasm (10 режимов). Модель: bioritm-23162. Секс-и</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -3807,42 +4001,56 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
+      <c r="Y29" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>21</v>
+      </c>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
+      <c r="AD29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>3.355</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>3.05</v>
+      </c>
       <c r="AH29" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3855,7 +4063,7 @@
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
@@ -3875,7 +4083,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -3886,17 +4094,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Масло Eros для эротического массажа с</t>
+          <t>Перезаряжаемый стимулятор двойного</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>id-12990-1299</t>
+          <t>id-27892-1299</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -3910,10 +4118,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27892/27892_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27892/27892_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27892/27892_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27892/27892_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27892/27892_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27892/27892_6_650.jpg</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Побалуйте себя великолепным ароматом. Масло для эротического массажа Eros вызывает ощущение тепла, особенно при дуновении. Повышает чувствительность. Имеет приятный аромат персика и сладкий вкус. Eros обеспечивают длительное скольжение. Легко смывается водой. Масло Eros для эротического массажа с ароматом персика (50 мл).  Масло Eros для эротического массажа с ароматом персика (50 мл). Модель: bioritm-22022. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Вибромассажёр двойного действия с вакуумно-волновой стимуляцией клитора и разнообразными режимами вибрации. Изогнутая форма изделия с гибкой серединой в сочетании с интенсивной вибрацией подарит максимум удовольствия. Мягкая имитация оральных ласк погрузят в настоящую негу удовольствия.Интимный аксессуар оснащен двумя кнопками. Удерживай в течение 2 секунд нижнюю для запуска вибрации, а верхнюю для запуска вакуумно-волновой стимуляции. Короткими нажатиями на каждую из кнопок выбери интенсивность воздействия. Чтобы выключить девайс, снова удерживай каждую из кнопок в течение 2 секунд. Удобное расположение кнопки позволит выбрать подходящий режим вибрации непосредственно во время использования.Игрушка выполнена из высококачественного бархатистого силикона. Перезаряжаемый стимулятор двойного действия Cosmo Orgasm (10 режимов).  Перезаряжаемый стимулятор двойного действия Cosmo Orgasm (10 режимов). Модель: bioritm-23163. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: розовый с золоты</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -3923,42 +4135,56 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
+      <c r="Y30" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>13.5</v>
+      </c>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
+      <c r="AD30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>3.6</v>
+      </c>
       <c r="AH30" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3971,7 +4197,7 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
@@ -3991,7 +4217,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -4002,17 +4228,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Возбуждающий и согревающий лубрикант на</t>
+          <t>Перезаряжаемый стимулятор двойного</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>id-16490-1299</t>
+          <t>id-27891-1299</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -4026,10 +4252,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27891/27891_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27891/27891_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27891/27891_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27891/27891_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27891/27891_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27891/27891_6_650.jpg</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ключ к яркому сексу - стимулирующий лубрикант нового поколения на силиконовой основе Cosmo vibro. Это больше, чем просто лубрикант! Активный компонент в составе - экстракт муира-пуамы - оказывает необычное стимулирующее действие, вызывая нежную вибрацию и возбуждающие мурашки. Обладает легкой текстурой, дарит необычные сладостные ощущения обоим партнерам и обеспечивает длительное скольжение. Оказывает увлажняющее и смягчающее действие. Совместим с изделиями из латекса и полимерных материалов. Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (50 г).  Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (50 г). Модель: bioritm-23001. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Вибромассажёр двойного действия с разнообразными режимами вибрации и точечной стимуляцией клитора. Пульсирующая вибрация усилит возбуждение, а дополнительное синхронное воздействие на клитор поможет достичь фееричного оргазма.Для включения.выключения вибратора нажать и удерживать кнопку на основании в течение 2 секунд. Переключение режимов вибрации осуществляется короткими нажатиями на эту же кнопку. Удобное расположение кнопки позволит выбрать подходящий режим вибрации непосредственно во время использования.Игрушка выполнена из высококачественного бархатистого силикона. Перезаряжаемый стимулятор двойного действия Cosmo Orgasm (7 режимов).  Перезаряжаемый стимулятор двойного действия Cosmo Orgasm (7 режимов). Модель: bioritm-23164. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: фиолетовый с золотым. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -4039,42 +4269,56 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
-          <t>50 г</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
+      <c r="Y31" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>12</v>
+      </c>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
+      <c r="AD31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>2.805</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>2.55</v>
+      </c>
       <c r="AH31" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4087,7 +4331,7 @@
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
@@ -4107,7 +4351,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -4118,17 +4362,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Небольшой анальный стимулятор на</t>
+          <t>Небольшой перезаряжаемый G-вибратор</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>id-16993-1299</t>
+          <t>id-27893-1299</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -4142,10 +4386,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27893/27893_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27893/27893_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27893/27893_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27893/27893_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27893/27893_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Открыть новые горизонты интимной жизни позволит анальная втулка из серии COSMO. Эротический аксессуар идеально подойдет для подготовки к анальному сексу. Форма изделия в виде елочки и оптимальный размер обеспечит максимально комфортное введение и выведение втулки. Для контроля глубины проникновения секс-игрушка снабжена специальным ограничителем. Приятный на ощупь интимный аксессуар изготовлен из гипоаллергенного силикона. Он выполнен в красивом цвете. Очень компактен и удобен в использовании. Секс-игрушка подарит яркие и незабываемые эмоции своей хозяйке, став настоящим помощником в покорении новых вершин. Для более комфортного использования рекомендуем приобрести лубрикант на водной основе и очищающий спрей с антимикробным эффектом ClearToy для экспресс-обработки изделия. Небольшой анальный стимулятор на присоске Cosmo.  Небольшой анальный стимулятор на присоске Cosmo. Модель: bioritm-23028. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Мини вибромассажёр для стимуляции влагалища, клитора, ануса, сосков и других эрогенных зон. Начни с него прелюдию, сделай полноценным участником секс-игры или проведи вечер с ним наедине.Гладкая поверхность интимного аксессуара с изогнутым кончиком идеальна для комфортного введения и получения максимального наслаждения. Разнообразие виброрежимов  возможность выбирать силу и интенсивность воздействия.Для включения.выключения вибрации нажми и 2 секунды удерживай кнопку на корпусе изделия. Переключай виброрежимы коротким нажатием той же кнопки. Удобное расположение кнопки позволяет включать, выключать или переключать виброрежимы даже во время использования девайса.Секс-игрушка изготовлена из пластика с бархатистым напылением. Небольшой перезаряжаемый G-вибратор Cosmo Orgasm (10 режимов).  Небольшой перезаряжаемый G-вибратор Cosmo Orgasm (10 режимов). Модель: bioritm-23168. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Цвет: фиолетовый. Материал: ABS пластик с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -4155,17 +4403,17 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>ABS пластик с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -4183,23 +4431,23 @@
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="n">
-        <v>8.800000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="Z32" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AA32" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="n">
-        <v>1.87</v>
+        <v>2.09</v>
       </c>
       <c r="AG32" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
@@ -4213,7 +4461,7 @@
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
@@ -4233,7 +4481,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -4249,12 +4497,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Рельефный анальный стимулятор Cosmo с</t>
+          <t>Анальная силиконовая крем-смазка ACC</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>id-17000-1299</t>
+          <t>id-12036-1299</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -4268,10 +4516,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12036/12036_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибромассажер из коллекции COSMO - источник настоящего удовольствия. Это потрясающая секс-игрушка, которая доставит много незабываемых эмоций своей обладательнице.Форма изделия в виде классической елочки и вибрация подарят яркие фантастические эмоции. Интимный аксессуар легко вводится и извлекается, не доставляя неудобств в процессе эксплуатации.Вибромассажер изготовлен из гипоаллергенного силикона, имеет мягкую, бархатистую, приятную на ощупь текстуру, выполнен в красивом цвете. Все это несомненно порадует представительниц прекрасной половины человечества.Для комфортного использования рекомендуется приобрести лубрикант на водной основе и очищающий спрей с антимикробным эффектом ClearToy для экспресс-обработки изделия. Рельефный анальный стимулятор Cosmo с вибрацией.  Рельефный анальный стимулятор Cosmo с вибрацией. Модель: bioritm-23046. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью. LR 44 x 3 шт (в комплекте)Бренд: BIORITM. </t>
+          <t xml:space="preserve">Уникальный кремлубрикант с эфирными маслами на силиконовой основе. Подходит как для опытных, так и для начинающих пар. Эфирные масла в составе крема способствуют расслаблению мышц ануса, делая вход более свободным, оказывают антибактериальное, заживляющее и дезодорирующее действия. Особая, ни с чем не сравнимая, шелковистая текстура крема обеспечивает легкость проникновения и супердлительное скольжение. Анальная силиконовая крем-смазка ACC (95 г).  Анальная силиконовая крем-смазка ACC (95 г). Модель: bioritm-2506. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -4289,44 +4541,34 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr"/>
+          <t>95 г</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>95 г</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>12</v>
-      </c>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>2.2</v>
-      </c>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4375,12 +4617,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Возбуждающий и согревающий лубрикант на</t>
+          <t>Универсальный гибридный лубрикант</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>id-23176-1299</t>
+          <t>id-23462-1299</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -4394,10 +4636,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23462/23462_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ключ к яркому сексу - стимулирующий лубрикант нового поколения на силиконовой основе Cosmo vibro. Это больше, чем просто лубрикант! Активный компонент в составе - экстракт муира-пуамы - оказывает необычное стимулирующее действие, вызывая нежную вибрацию и возбуждающие мурашки. Обладает легкой текстурой, дарит необычные сладостные ощущения обоим партнерам и обеспечивает длительное скольжение. Оказывает увлажняющее и смягчающее действие. Совместим с изделиями из латекса и полимерных материалов. Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (3 г  5 шт).  Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (3 г  5 шт). Модель: bioritm-23067t. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Препараты и возбудители &gt; Чувствительный клитор. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Откройте новые эротические возможности с гибридным лубрикантом Hybrid-Silicone! Он сочетает в себе нежность водного лубриканта и супер долгое скольжение силикона, дарит невероятный комфорт во время анального секса.Лубрикант Hybrid-Silicone:- смягчает ткани и облегчает проникновение.- обеспечивает мягкое длительное скольжение.- подходит для использования с секс-игрушками.- не имеет цвета и запаха.ПрименениеВо время анального секса лубрикант наносится на область анального отверстия и.или пенис непосредственно перед половым актом.При использовании презерватива, смазка наносится на анальное отверстие и.или поверх контрацептива, надетого на мужской половой член.При использовании секс-игрушек лубрикант наносится на зону анального отверстия и.или интимный аксессуар. Универсальный гибридный лубрикант Hybrid Silicone PRO ANAL (50 г).  Универсальный гибридный лубрикант Hybrid Silicone PRO ANAL (50 г). Модель: bioritm-27001. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -4419,17 +4665,17 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr">
         <is>
-          <t>3 ** 5 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>3 ** 5</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>3 ** 5 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -4455,7 +4701,7 @@
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>5 пробников лубриканта</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
@@ -4491,12 +4737,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Возбуждающий и согревающий лубрикант на</t>
+          <t xml:space="preserve">Лубрикант с ромашкой BIO ACTIVE 5 шт </t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>id-19160-1299</t>
+          <t>id-28038-1299</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -4510,10 +4756,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28038/28038_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ключ к яркому сексу - стимулирующий лубрикант нового поколения на силиконовой основе Cosmo vibro. Это больше, чем просто лубрикант! Активный компонент в составе - экстракт муира-пуамы - оказывает необычное стимулирующее действие, вызывая нежную вибрацию и возбуждающие мурашки. Обладает легкой текстурой, дарит необычные сладостные ощущения обоим партнерам и обеспечивает длительное скольжение. Оказывает увлажняющее и смягчающее действие. Совместим с изделиями из латекса и полимерных материалов. Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (25 г).  Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (25 г). Модель: bioritm-23122. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Нежный гель-лубрикант Bio Active на водной основе  это бережный уход за половыми органами, великолепное увлажнение и восхитительное чувство комфорта во время интимной близости!В состав Bio Active входят натуральные ингредиенты.Д-пантенол обладает глубоким увлажняющим действием, устраняет сухость кожи и слизистых, придаёт тканям мягкость и эластичность. Благодаря своим регенерирующим свойствам ускоряет восстановление барьерных свойств кожи и слизистых, нормализует клеточный метаболизм.Экстракт ромашки успокаивает раздражённую слизистую, оказывает антибактериальное и противовоспалительное действие.Bio Active не имеет цвета и запаха, поэтому подходит даже тем, кто предпочитает интимные средства без каких-либо ароматов. Легко смывается водой.Bio Active - для тех, кто заботится о своём интимном здоровье и предпочитает качественный секс!.Лубрикант с ромашкой BIO ACTIVE (5 шт  3 г).  Лубрикант с ромашкой BIO ACTIVE (5 шт  3 г). Модель: bioritm-27006. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -4535,17 +4785,17 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
-          <t>25 г</t>
+          <t>3 ** 5 г</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>3 ** 5</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>25 г</t>
+          <t>3 ** 5 г</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -4571,7 +4821,7 @@
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 саше по 3 г</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
@@ -4591,7 +4841,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -4607,12 +4857,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Мини вибромассажер для эрогенных зон</t>
+          <t>Универсальный гибридный лубрикант</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>id-23468-1299</t>
+          <t>id-23463-1299</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -4626,10 +4876,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23463/23463_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Миниатюрный вибромассажёр предназначен для стимуляции эрогенных зон  стенок влагалища, клитора, сосков, точки G и т.д. Вибрация осуществляется за счёт съёмной вибропули. При желании вибропулю можно извлечь и использовать секс-игрушку в качестве насадки на палец, с помощью которой легко доставлять удовольствие себе или партнёру.Интимный аксессуар изготовлен из мягкого материала, дарящего приятные тактильные ощущения. Прост в использовании, не требует специального ухода.Вибромассажёр имеет оригинальный дизайн и станет прекрасным подарком на любой праздник.Благодаря небольшому размеру изделие можно брать с собой в поездки.Совместно с секс-игрушкой рекомендуется использовать гель-лубрикант на водной основе. Мини вибромассажер для эрогенных зон COSMO.  Мини вибромассажер для эрогенных зон COSMO. Модель: bioritm-23153. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вибромассажеры. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. LR 44 x 3 шт (в комплекте)Бренд: BIORITM. </t>
+          <t xml:space="preserve">Откройте новые эротические возможности с гибридным лубрикантом Hybrid-Silicone! Он сочетает в себе нежность водного лубриканта и супер долгое скольжение силикона, дарит невероятный комфорт во время анального секса.Лубрикант Hybrid-Silicone:- смягчает ткани и облегчает проникновение.- обеспечивает мягкое длительное скольжение.- подходит для использования с секс-игрушками.- не имеет цвета и запаха.ПрименениеВо время анального секса лубрикант наносится на область анального отверстия и.или пенис непосредственно перед половым актом.При использовании презерватива, смазка наносится на анальное отверстие и.или поверх контрацептива, надетого на мужской половой член.При использовании секс-игрушек лубрикант наносится на зону анального отверстия и.или интимный аксессуар. Универсальный гибридный лубрикант Hibrid Silicone PRO ANAL (5 шт  4 г).  Универсальный гибридный лубрикант Hibrid Silicone PRO ANAL (5 шт  4 г). Модель: bioritm-27007t. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -4647,44 +4901,34 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr"/>
+          <t>*5   4 мл</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>*5   4</t>
+        </is>
+      </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>*5   4 мл</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>9</v>
-      </c>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>2.9</v>
-      </c>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4717,7 +4961,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -4733,12 +4977,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Универсальный мини-вибратор COSMO</t>
+          <t>Классический лубрикант на водной основе</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>id-23394-1299</t>
+          <t>id-25841-1299</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -4752,10 +4996,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25841/25841_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Универсальный мини-вибратор COSMO.  Универсальный мини-вибратор COSMO. Модель: bioritm-23154. Секс-игрушки. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вибромассажеры. Цвет: сиреневый. Материал: гипоаллергенный силикон. LR 44 x 3 шт (в комплекте)Бренд: BIORITM. </t>
+          <t xml:space="preserve">Нежный гель-лубрикант Bio Active на водной основе  это бережный уход за половыми органами, великолепное увлажнение и восхитительное чувство комфорта во время интимной близости!В состав Bio Active входят натуральные ингредиенты.Д-пантенол обладает глубоким увлажняющим действием, устраняет сухость кожи и слизистых, придаёт тканям мягкость и эластичность. Благодаря своим регенерирующим свойствам ускоряет восстановление барьерных свойств кожи и слизистых, нормализует клеточный метаболизм.Экстракт ромашки успокаивает раздражённую слизистую, оказывает антибактериальное и противовоспалительное действие.Bio Active не имеет цвета и запаха, поэтому подходит даже тем, кто предпочитает интимные средства без каких-либо ароматов. Легко смывается водой.Bio Active - для тех, кто заботится о своём интимном здоровье и предпочитает качественный секс!.Классический лубрикант на водной основе с ромашкой SOFT LOVE (50 г).  Классический лубрикант на водной основе с ромашкой SOFT LOVE (50 г). Модель: bioritm-27008. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -4765,52 +5013,42 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>гипоаллергенный силикон</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr"/>
+          <t>50 г</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>8.5</v>
-      </c>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="n">
-        <v>2.365</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>2.15</v>
-      </c>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4843,7 +5081,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -4859,12 +5097,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Универсальный вибромассажер с двумя</t>
+          <t>Классический лубрикант на водной основе</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>id-27894-1299</t>
+          <t>id-25840-1299</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -4878,10 +5116,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25840/25840_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Уникальный дивайс для любителей яркого и разнообразного секса. После введения гибкие лепестки раскрываются и дарят потрясающее чувство наполненности. Различные режимы вибрации позволяют менять интенсивность стимуляции интимных зон.Лепестками вибратора можно ласкать клитор, соски, анус, а также усилить эрекцию партнёра, воздействуя на головку или мошонку.Включение.выключение вибрации: нажать и в течение 2 секунд удерживать кнопку, расположенную ближе к основанию изделия. Переключение виброрежимов: короткое нажатие любой из двух кнопок, расположенных на корпусе. Включать, выключать или переключать виброрежимы можно даже во время использования изделия.Секс-игрушка изготовлена из высококачественных материалов. Проста в использовании и уходе. Универсальный вибромассажер с двумя моторами Cosmo Orgasm (7 режимов).  Универсальный вибромассажер с двумя моторами Cosmo Orgasm (7 режимов). Модель: bioritm-23157. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Вибраторы и фаллоимитаторы &gt; Двойные. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Металлические. Цвет: розовый с черным. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Классический водной гель-лубрикант Soft Love для комфорта интимных отношений!- Обладает лёгкой нежной консистенцией- Дарит великолепное скольжение во время близости- После нанесения не оставляет ощущения липкости- Обеспечивает интенсивное увлажнение- Восполняет недостаток женской смазки- Подходит для использования с изделиями интимного назначения из любых искусственных материаловВ состав лубриканта входит альгин - природный компонент, получаемый из бурых водорослей (Laminaria, Fucus, Macrocystis). Благодаря своим уникальным свойствам, он способствует интенсивному увлажнению и смягчению кожи и слизистых.Гель-лубрикант Soft Love подарит невероятную чувственность интимной близости, позволит ощутить страсть и нежность каждого движения!.Классический лубрикант на водной основе с альгином SOFT LOVE (50 г).  Классический лубрикант на водной основе с альгином SOFT LOVE (50 г). Модель: bioritm-27009. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -4891,56 +5133,42 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr"/>
+          <t>50 г</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W38" t="n">
-        <v>3</v>
-      </c>
-      <c r="X38" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>22</v>
-      </c>
+          <t>50 г</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>3.4</v>
-      </c>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
       <c r="AH38" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4953,7 +5181,7 @@
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>стимулятор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
@@ -4973,7 +5201,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -4989,12 +5217,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Перезаряжаемый универсальный стимулятор</t>
+          <t>Мусс BIO ACTIVE для интимной гигиены</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>id-27890-1299</t>
+          <t>id-26925-1299</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -5008,10 +5236,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26925/26925_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Окунись в мир сексуального наслаждения и фееричных оргазмов вместе с вибромассажёром Cosmo Orgasm! Сделай его участником эротической прелюдии или проведи с ним незабываемый вечер соло.Эргономичная форма интимного аксессуара с гибким основанием обеспечит комфортное введение и подарит незабываемые эмоции во время близости. Женщина может поместить стимулятор в анус и заниматься классическим сексом с партнером. Также стимулятор можно поместить вагинально и заниматься анальным сексом. Ощущения обоих будут бомбическими! Разнообразные режимы вибрации - от прерывистой и дразнящей до интенсивной и пульсирующей добавят удовольствия.Включение.выключение виброрежимов: нажать и удерживать кнопку на основании изделия в течение 2 секунд. Переключение режимов вибрации - короткое нажатие на эту же кнопку.Удобное расположение кнопки вкл. выкл. позволяет выбрать подходящий режим вибрации непосредственно во время использования.Секс-игрушка выполнена из высококачественного бархатистого силикона. Перезаряжаемый универсальный стимулятор Cosmo Orgasm (10 режимов).  Перезаряжаемый универсальный стимулятор Cosmo Orgasm (10 режимов). Модель: bioritm-23160. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: розовый с золотым. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Нежный моющий мусс Bio Active предназначен для ежедневной интимной гигиены. После применения он дарит ощущение комфорта и свежести. Специально разработанная формула мусса обеспечивает бережное очищение и уход.В состав Bio Active входят уникальные природные компоненты.- Пребиотик, сохраняет полезную микрофлору интимных зон.- Молочная кислота поддерживает естественный уровень pH.- Аллантоин ускоряет естественную регенерацию клеток.- Экстракты алоэ вера и ромашки оказывают успокаивающее и увлажняющие действие. Мусс BIO ACTIVE для интимной гигиены (150 мл).  Мусс BIO ACTIVE для интимной гигиены (150 мл). Модель: bioritm-27010. Косметика, препараты. Смазки, косметика &gt; Очищающие средства, присыпки. Дезинфекция &gt; Очищающие средства. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -5021,56 +5253,42 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr"/>
+          <t>150 мл</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>150 мл</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>2.585</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>2.35</v>
-      </c>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5083,7 +5301,7 @@
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>стимулятор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
@@ -5103,7 +5321,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -5119,12 +5337,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Перезаряжаемый универсальный стимулятор</t>
+          <t>Универсальный гель-лубрикант на водной</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>id-27889-1299</t>
+          <t>id-22993-1299</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -5138,10 +5356,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22993/22993_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Окунись в мир сексуального наслаждения и фееричных оргазмов вместе с вибромассажёром Cosmo Orgasm! Сделай его участником эротической прелюдии или проведи с ним незабываемый вечер соло.Эргономичная форма интимного аксессуара с гибким основанием обеспечит комфортное введение и подарит незабываемые эмоции во время близости. Женщина может поместить стимулятор в анус и заниматься классическим сексом с партнером. Также стимулятор можно поместить вагинально и заниматься анальным сексом. Ощущения обоих будут бомбическими! Разнообразные режимы вибрации - от прерывистой и дразнящей до интенсивной и пульсирующей добавят удовольствия.Включение.выключение виброрежимов: нажать и удерживать кнопку на основании изделия в течение 2 секунд. Переключение режимов вибрации - короткое нажатие на эту же кнопку.Удобное расположение кнопки вкл. выкл. позволяет выбрать подходящий режим вибрации непосредственно во время использования.Секс-игрушка выполнена из высококачественного бархатистого силикона. Перезаряжаемый универсальный стимулятор Cosmo Orgasm (10 режимов).  Перезаряжаемый универсальный стимулятор Cosmo Orgasm (10 режимов). Модель: bioritm-23161. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: фиолетовый с золотым. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Средство может применяться для различных любовных забав.1. Как лубрикант во время полового контактаПосле нанесения великолепно увлажняет интимные зоны, обеспечивает комфортное и продолжительное скольжение. Не стекает и длительно удерживается на поверхности.2. Для использования совместно с секс-игрушкамиГель подходит для всех видов полимерных материалов. Не нарушает структуру эротических аксессуаров, способствует их лёгкому проникновению и отличному скольжению.3. В качестве средства для эротического массажаВо время стимуляции интимных зон помогает раскрепоститься и повысить чувственность.В состав лубриканта входит биоактивный комплекс из экстракта алоэ вера, витамина Е и аллантоина, который увлажняет, смягчает кожу, способствует быстрому восстановлению слизистых в случае их механического повреждения. Универсальный гель-лубрикант на водной основе SexToys 3 в 1 (75 мл).  Универсальный гель-лубрикант на водной основе SexToys 3 в 1 (75 мл). Модель: bioritm-28001. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -5151,56 +5373,42 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr"/>
+          <t>75 мл</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>75 мл</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>2.2</v>
-      </c>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5213,7 +5421,7 @@
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>стимулятор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
@@ -5233,7 +5441,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -5244,17 +5452,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Перезаряжаемый вибратор для двойной</t>
+          <t>Увлажняющий интимный гель ACTIVE GLIDE</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>id-27895-1299</t>
+          <t>id-24392-1299</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -5268,10 +5476,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24392/24392_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оригинальная секс-игрушка для двойного удовольствия. Может одновременно воздействовать на стенки влагалища и клитор. Разнообразные режимы вибрации обеспечат дополнительную стимуляцию.Изделие имеет два моторчика, которые позволяют равномерно распределять вибрацию по всей поверхности, включая отросток в виде бабочки.Включение вибрации: нажать и в течение 2 секунд удерживать кнопку на корпусе изделия. Должен загореться световой индикатор. Выключение: нажать и в течение 2 секунд удерживать ту же кнопку. Световой индикатор должен погаснуть. Переключение виброрежимов: короткое нажатие той же кнопки. Включать, выключать или переключать виброрежимы можно даже во время использования изделия.Секс-игрушка имеет гибкий ствол, изготовлена из высококачественных материалов. Перезаряжаемый вибратор для двойной стимуляции Cosmo Orgasm (10 режимов).  Перезаряжаемый вибратор для двойной стимуляции Cosmo Orgasm (10 режимов). Модель: bioritm-23162. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Прозрачный гель-любрикант на водной основе Active Glide с аллантоином активно увлажняет слизистые половых органов, устраняет сухость влагалища, нормализует водный баланс, восполняет недостаток природной смазки, дарит комфортное длительное скольжение, снимает раздражение слизистых, способствует регенерации тканей, препятствует появлению микротравм. Входящий в его состав аллантоин обладает противовоспалительными и регенерирующими свойствами. Прекрасно смягчает и успокаивает раздражённую кожу и слизистую, помогает улучшить состояние и внешний вид половых органов. Аллантоин гипоаллергенен, поэтому может применяться даже для очень чувствительной кожи.Гель-любрикант Active Glide с аллантоином обеспечивает бережный уход за интимными зонами женщин и мужчин. Не имеет цвета и запаха, легко смывается водой. Увлажняющий интимный гель ACTIVE GLIDE ALLANTOIN (100 г).  Увлажняющий интимный гель ACTIVE GLIDE ALLANTOIN (100 г). Модель: bioritm-29002. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -5289,48 +5501,34 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr"/>
+          <t>100 г</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>100 г</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>21</v>
-      </c>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>3.355</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>3.05</v>
-      </c>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5343,7 +5541,7 @@
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>стимулятор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
@@ -5363,7 +5561,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -5374,17 +5572,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Перезаряжаемый стимулятор двойного</t>
+          <t>Увлажняющий интимный гель с</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>id-27892-1299</t>
+          <t>id-24391-1299</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -5398,10 +5596,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24391/24391_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибромассажёр двойного действия с вакуумно-волновой стимуляцией клитора и разнообразными режимами вибрации. Изогнутая форма изделия с гибкой серединой в сочетании с интенсивной вибрацией подарит максимум удовольствия. Мягкая имитация оральных ласк погрузят в настоящую негу удовольствия.Интимный аксессуар оснащен двумя кнопками. Удерживай в течение 2 секунд нижнюю для запуска вибрации, а верхнюю для запуска вакуумно-волновой стимуляции. Короткими нажатиями на каждую из кнопок выбери интенсивность воздействия. Чтобы выключить девайс, снова удерживай каждую из кнопок в течение 2 секунд. Удобное расположение кнопки позволит выбрать подходящий режим вибрации непосредственно во время использования.Игрушка выполнена из высококачественного бархатистого силикона. Перезаряжаемый стимулятор двойного действия Cosmo Orgasm (10 режимов).  Перезаряжаемый стимулятор двойного действия Cosmo Orgasm (10 режимов). Модель: bioritm-23163. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: розовый с золотым. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Нежный гель-любрикант на водной основе Active Glide с гиалуроновой кислотой интенсивно и длительно увлажняет и смягчает интимные зоны, устраняет сухость влагалища, восполняет недостаток женской смазки, дарит приятное продолжительное скольжение во время близости, снимает раздражения, препятствует появлению микротравм. Входящая в состав любриканта гиалуроновая кислота нормализует водный баланс клеток, способствует регенерации кожи и слизистых, обеспечивает эластичность тканей половых органов. снижает чувствительность кожи, усиливает её защитные функции.Гель-любрикант Active Glide с гиалуроновой кислотой обеспечивает бережный уход за интимными зонами женщин и мужчин. Не имеет цвета и запаха, легко смывается водой. Увлажняющий интимный гель с гиалуроновой кислотой ACTIVE GLIDE HYALURONIC (100 г).  Увлажняющий интимный гель с гиалуроновой кислотой ACTIVE GLIDE HYALURONIC (100 г). Модель: bioritm-29003. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -5411,56 +5613,42 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr"/>
+          <t>100 г</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>100 г</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>3.6</v>
-      </c>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5473,7 +5661,7 @@
       <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>стимулятор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
@@ -5493,7 +5681,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -5504,17 +5692,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Перезаряжаемый стимулятор двойного</t>
+          <t>Увлажняющий интимный гель ACTIVE GLIDE</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>id-27891-1299</t>
+          <t>id-27830-1299</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -5528,10 +5716,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27830/27830_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27830/27830_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27830/27830_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27830/27830_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибромассажёр двойного действия с разнообразными режимами вибрации и точечной стимуляцией клитора. Пульсирующая вибрация усилит возбуждение, а дополнительное синхронное воздействие на клитор поможет достичь фееричного оргазма.Для включения.выключения вибратора нажать и удерживать кнопку на основании в течение 2 секунд. Переключение режимов вибрации осуществляется короткими нажатиями на эту же кнопку. Удобное расположение кнопки позволит выбрать подходящий режим вибрации непосредственно во время использования.Игрушка выполнена из высококачественного бархатистого силикона. Перезаряжаемый стимулятор двойного действия Cosmo Orgasm (7 режимов).  Перезаряжаемый стимулятор двойного действия Cosmo Orgasm (7 режимов). Модель: bioritm-23164. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: фиолетовый с золотым. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Нежный гель-любрикант на водной основе Active Glide с пребиотиком интенсивно увлажняет и смягчает интимные зоны, устраняет сухость влагалища, восполняет недостаток собственной смазки, дарит нежное и продолжительное скольжение, снимает раздражения, препятствует появлению микротравм, дарит потрясающее чувство комфорта во время близости. Входящий в состав любриканта натуральный пребиотик биолин восстанавливает и сохраняет здоровую микрофлору интимных зон, повышает сопротивляемость кожи и слизистых к неблагоприятным воздействиям. Пребиотик питает, нормализует pH-баланс, улучшает состояние кожи и слизистых, устраняет покраснения. Действие биолина очень деликатно, поэтому он подходит для ухода даже за очень капризной кожей. Гель-любрикант Active Glide с пребиотиком обеспечивает бережный уход за половыми органами женщин и мужчин. Не имеет цвета и запаха, легко смывается водой. Увлажняющий интимный гель ACTIVE GLIDE PREBIOTIC (в упаковке 5 шт).  Увлажняющий интимный гель ACTIVE GLIDE PREBIOTIC (в упаковке 5 шт). Модель: bioritm-29004t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -5541,56 +5733,42 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr"/>
+          <t>3 г</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>12</v>
-      </c>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>2.805</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>2.55</v>
-      </c>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5603,7 +5781,7 @@
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>стимулятор, зарядное USB-устройство</t>
+          <t>5 саше по 3 г</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
@@ -5623,7 +5801,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -5634,17 +5812,17 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Небольшой перезаряжаемый G-вибратор</t>
+          <t>Увлажняющий интимный гель ACTIVE GLIDE</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>id-27893-1299</t>
+          <t>id-27829-1299</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -5658,10 +5836,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27829/27829_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27829/27829_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27829/27829_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27829/27829_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мини вибромассажёр для стимуляции влагалища, клитора, ануса, сосков и других эрогенных зон. Начни с него прелюдию, сделай полноценным участником секс-игры или проведи вечер с ним наедине.Гладкая поверхность интимного аксессуара с изогнутым кончиком идеальна для комфортного введения и получения максимального наслаждения. Разнообразие виброрежимов  возможность выбирать силу и интенсивность воздействия.Для включения.выключения вибрации нажми и 2 секунды удерживай кнопку на корпусе изделия. Переключай виброрежимы коротким нажатием той же кнопки. Удобное расположение кнопки позволяет включать, выключать или переключать виброрежимы даже во время использования девайса.Секс-игрушка изготовлена из пластика с бархатистым напылением. Небольшой перезаряжаемый G-вибратор Cosmo Orgasm (10 режимов).  Небольшой перезаряжаемый G-вибратор Cosmo Orgasm (10 режимов). Модель: bioritm-23168. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Цвет: фиолетовый. Материал: ABS пластик с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Нежный гель-любрикант на водной основе Active Glide с гиалуроновой кислотой интенсивно и длительно увлажняет и смягчает интимные зоны, устраняет сухость влагалища, восполняет недостаток женской смазки, дарит приятное продолжительное скольжение во время близости, снимает раздражения, препятствует появлению микротравм. Входящая в состав любриканта гиалуроновая кислота нормализует водный баланс клеток, способствует регенерации кожи и слизистых, обеспечивает эластичность тканей половых органов. снижает чувствительность кожи, усиливает её защитные функции. Гель-любрикант Active Glide с гиалуроновой кислотой обеспечивает бережный уход за интимными зонами женщин и мужчин. Не имеет цвета и запаха, легко смывается водой. Увлажняющий интимный гель ACTIVE GLIDE HYALURONIC (в упаковке 5 шт).  Увлажняющий интимный гель ACTIVE GLIDE HYALURONIC (в упаковке 5 шт). Модель: bioritm-29005t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -5671,52 +5853,42 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>ABS пластик с бархатистой поверхностью</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr"/>
+          <t>3 г</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>13</v>
-      </c>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>1.9</v>
-      </c>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5729,7 +5901,7 @@
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>стимулятор, зарядное USB-устройство</t>
+          <t>5 саше по 3 г</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
@@ -5749,7 +5921,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -5765,12 +5937,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Анальная силиконовая крем-смазка ACC</t>
+          <t>Увлажняющий интимный гель ACTIVE GLIDE</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>id-12036-1299</t>
+          <t>id-27828-1299</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -5784,10 +5956,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27828/27828_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27828/27828_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27828/27828_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27828/27828_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Уникальный кремлубрикант с эфирными маслами на силиконовой основе. Подходит как для опытных, так и для начинающих пар. Эфирные масла в составе крема способствуют расслаблению мышц ануса, делая вход более свободным, оказывают антибактериальное, заживляющее и дезодорирующее действия. Особая, ни с чем не сравнимая, шелковистая текстура крема обеспечивает легкость проникновения и супердлительное скольжение. Анальная силиконовая крем-смазка ACC (95 г).  Анальная силиконовая крем-смазка ACC (95 г). Модель: bioritm-2506. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Прозрачный гель-любрикант на водной основе Active Glide с аллантоином активно увлажняет слизистые половых органов, устраняет сухость влагалища, нормализует водный баланс, восполняет недостаток природной смазки, дарит комфортное длительное скольжение, снимает раздражение слизистых, способствует регенерации тканей, препятствует появлению микротравм. Входящий в его состав аллантоин обладает противовоспалительными и регенерирующими свойствами. Прекрасно смягчает и успокаивает раздражённую кожу и слизистую, помогает улучшить состояние и внешний вид половых органов. Аллантоин гипоаллергенен, поэтому может применяться даже для очень чувствительной кожи. Гель-любрикант Active Glide с аллантоином обеспечивает бережный уход за интимными зонами женщин и мужчин. Не имеет цвета и запаха, легко смывается водой. Увлажняющий интимный гель ACTIVE GLIDE ALLANTOIN (в упаковке 5 шт).  Увлажняющий интимный гель ACTIVE GLIDE ALLANTOIN (в упаковке 5 шт). Модель: bioritm-29006t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -5809,17 +5985,17 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr">
         <is>
-          <t>95 г</t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>3</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>95 г</t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -5845,7 +6021,7 @@
       <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 саше по 3 г</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
@@ -5881,12 +6057,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Универсальный гибридный лубрикант</t>
+          <t>Оральный гель Tutti-Frutti со вкусом</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>id-23462-1299</t>
+          <t>id-10316-1299</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -5900,10 +6076,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10316/10316_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10316/10316_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Откройте новые эротические возможности с гибридным лубрикантом Hybrid-Silicone! Он сочетает в себе нежность водного лубриканта и супер долгое скольжение силикона, дарит невероятный комфорт во время анального секса.Лубрикант Hybrid-Silicone:- смягчает ткани и облегчает проникновение.- обеспечивает мягкое длительное скольжение.- подходит для использования с секс-игрушками.- не имеет цвета и запаха.ПрименениеВо время анального секса лубрикант наносится на область анального отверстия и.или пенис непосредственно перед половым актом.При использовании презерватива, смазка наносится на анальное отверстие и.или поверх контрацептива, надетого на мужской половой член.При использовании секс-игрушек лубрикант наносится на зону анального отверстия и.или интимный аксессуар. Универсальный гибридный лубрикант Hybrid Silicone PRO ANAL (50 г).  Универсальный гибридный лубрикант Hybrid Silicone PRO ANAL (50 г). Модель: bioritm-27001. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом земляники (30 г).  Оральный гель Tutti-Frutti со вкусом земляники (30 г). Модель: bioritm-30002. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -5925,17 +6105,17 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -5997,12 +6177,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Лубрикант с ромашкой BIO ACTIVE 5 шт </t>
+          <t>Оральный гель Tutti-Frutti со вкусом</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>id-28038-1299</t>
+          <t>id-10319-1299</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -6016,10 +6196,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10319/10319_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10319/10319_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный гель-лубрикант Bio Active на водной основе  это бережный уход за половыми органами, великолепное увлажнение и восхитительное чувство комфорта во время интимной близости!В состав Bio Active входят натуральные ингредиенты.Д-пантенол обладает глубоким увлажняющим действием, устраняет сухость кожи и слизистых, придаёт тканям мягкость и эластичность. Благодаря своим регенерирующим свойствам ускоряет восстановление барьерных свойств кожи и слизистых, нормализует клеточный метаболизм.Экстракт ромашки успокаивает раздражённую слизистую, оказывает антибактериальное и противовоспалительное действие.Bio Active не имеет цвета и запаха, поэтому подходит даже тем, кто предпочитает интимные средства без каких-либо ароматов. Легко смывается водой.Bio Active - для тех, кто заботится о своём интимном здоровье и предпочитает качественный секс!.Лубрикант с ромашкой BIO ACTIVE (5 шт  3 г).  Лубрикант с ромашкой BIO ACTIVE (5 шт  3 г). Модель: bioritm-27006. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом спелой малины (30 г).  Оральный гель Tutti-Frutti со вкусом спелой малины (30 г). Модель: bioritm-30003. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -6041,17 +6225,17 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
-          <t>3 ** 5 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>3 ** 5</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>3 ** 5 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -6077,7 +6261,7 @@
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>5 саше по 3 г</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
@@ -6097,7 +6281,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -6113,12 +6297,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Универсальный гибридный лубрикант</t>
+          <t>Оральный гель Tutti-Frutti со вкусом</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>id-23463-1299</t>
+          <t>id-22347-1299</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -6132,10 +6316,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22347/22347_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Откройте новые эротические возможности с гибридным лубрикантом Hybrid-Silicone! Он сочетает в себе нежность водного лубриканта и супер долгое скольжение силикона, дарит невероятный комфорт во время анального секса.Лубрикант Hybrid-Silicone:- смягчает ткани и облегчает проникновение.- обеспечивает мягкое длительное скольжение.- подходит для использования с секс-игрушками.- не имеет цвета и запаха.ПрименениеВо время анального секса лубрикант наносится на область анального отверстия и.или пенис непосредственно перед половым актом.При использовании презерватива, смазка наносится на анальное отверстие и.или поверх контрацептива, надетого на мужской половой член.При использовании секс-игрушек лубрикант наносится на зону анального отверстия и.или интимный аксессуар. Универсальный гибридный лубрикант Hibrid Silicone PRO ANAL (5 шт  4 г).  Универсальный гибридный лубрикант Hibrid Silicone PRO ANAL (5 шт  4 г). Модель: bioritm-27007t. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом тропических фруктов (5 шт по 4 г).  Оральный гель Tutti-Frutti со вкусом тропических фруктов (5 шт по 4 г). Модель: bioritm-30006t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -6157,17 +6345,17 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr">
         <is>
-          <t>*5   4 мл</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>*5   4</t>
+          <t>4 ** 5</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>*5   4 мл</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -6193,7 +6381,7 @@
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 пробников по 4 г</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
@@ -6213,7 +6401,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -6229,12 +6417,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Классический лубрикант на водной основе</t>
+          <t>Оральный гель Tutti-Frutti со вкусом</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>id-25841-1299</t>
+          <t>id-22346-1299</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -6248,10 +6436,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22346/22346_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный гель-лубрикант Bio Active на водной основе  это бережный уход за половыми органами, великолепное увлажнение и восхитительное чувство комфорта во время интимной близости!В состав Bio Active входят натуральные ингредиенты.Д-пантенол обладает глубоким увлажняющим действием, устраняет сухость кожи и слизистых, придаёт тканям мягкость и эластичность. Благодаря своим регенерирующим свойствам ускоряет восстановление барьерных свойств кожи и слизистых, нормализует клеточный метаболизм.Экстракт ромашки успокаивает раздражённую слизистую, оказывает антибактериальное и противовоспалительное действие.Bio Active не имеет цвета и запаха, поэтому подходит даже тем, кто предпочитает интимные средства без каких-либо ароматов. Легко смывается водой.Bio Active - для тех, кто заботится о своём интимном здоровье и предпочитает качественный секс!.Классический лубрикант на водной основе с ромашкой SOFT LOVE (50 г).  Классический лубрикант на водной основе с ромашкой SOFT LOVE (50 г). Модель: bioritm-27008. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом спелой малины (5 шт по 4 г).  Оральный гель Tutti-Frutti со вкусом спелой малины (5 шт по 4 г). Модель: bioritm-30007t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -6273,17 +6465,17 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>4 ** 5</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -6309,7 +6501,7 @@
       <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 пробников по 4 г</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
@@ -6329,7 +6521,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -6345,12 +6537,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Классический лубрикант на водной основе</t>
+          <t>Оральный гель Tutti-Frutti со вкусом</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>id-25840-1299</t>
+          <t>id-23042-1299</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -6364,10 +6556,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23042/23042_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классический водной гель-лубрикант Soft Love для комфорта интимных отношений!- Обладает лёгкой нежной консистенцией- Дарит великолепное скольжение во время близости- После нанесения не оставляет ощущения липкости- Обеспечивает интенсивное увлажнение- Восполняет недостаток женской смазки- Подходит для использования с изделиями интимного назначения из любых искусственных материаловВ состав лубриканта входит альгин - природный компонент, получаемый из бурых водорослей (Laminaria, Fucus, Macrocystis). Благодаря своим уникальным свойствам, он способствует интенсивному увлажнению и смягчению кожи и слизистых.Гель-лубрикант Soft Love подарит невероятную чувственность интимной близости, позволит ощутить страсть и нежность каждого движения!.Классический лубрикант на водной основе с альгином SOFT LOVE (50 г).  Классический лубрикант на водной основе с альгином SOFT LOVE (50 г). Модель: bioritm-27009. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом земляники (5 шт по 4 г).  Оральный гель Tutti-Frutti со вкусом земляники (5 шт по 4 г). Модель: bioritm-30008t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -6389,17 +6585,17 @@
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>4 ** 5</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -6445,7 +6641,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -6461,12 +6657,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Мусс BIO ACTIVE для интимной гигиены</t>
+          <t>Оральный гель Tutti-Frutti со вкусом</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>id-26925-1299</t>
+          <t>id-22348-1299</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -6480,10 +6676,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22348/22348_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный моющий мусс Bio Active предназначен для ежедневной интимной гигиены. После применения он дарит ощущение комфорта и свежести. Специально разработанная формула мусса обеспечивает бережное очищение и уход.В состав Bio Active входят уникальные природные компоненты.- Пребиотик, сохраняет полезную микрофлору интимных зон.- Молочная кислота поддерживает естественный уровень pH.- Аллантоин ускоряет естественную регенерацию клеток.- Экстракты алоэ вера и ромашки оказывают успокаивающее и увлажняющие действие. Мусс BIO ACTIVE для интимной гигиены (150 мл).  Мусс BIO ACTIVE для интимной гигиены (150 мл). Модель: bioritm-27010. Косметика, препараты. Смазки, косметика &gt; Очищающие средства, присыпки. Дезинфекция &gt; Очищающие средства. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом зеленого яблока (5 шт по 4 г).  Оральный гель Tutti-Frutti со вкусом зеленого яблока (5 шт по 4 г). Модель: bioritm-30010t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -6505,17 +6705,17 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr">
         <is>
-          <t>150 мл</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>4 ** 5</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>150 мл</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -6541,7 +6741,7 @@
       <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 пробников по 4 г</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
@@ -6561,7 +6761,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -6577,12 +6777,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Универсальный гель-лубрикант на водной</t>
+          <t>Оральный гель Tutti-Frutti со вкусом</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>id-22993-1299</t>
+          <t>id-23467-1299</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -6596,10 +6796,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23467/23467_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Средство может применяться для различных любовных забав.1. Как лубрикант во время полового контактаПосле нанесения великолепно увлажняет интимные зоны, обеспечивает комфортное и продолжительное скольжение. Не стекает и длительно удерживается на поверхности.2. Для использования совместно с секс-игрушкамиГель подходит для всех видов полимерных материалов. Не нарушает структуру эротических аксессуаров, способствует их лёгкому проникновению и отличному скольжению.3. В качестве средства для эротического массажаВо время стимуляции интимных зон помогает раскрепоститься и повысить чувственность.В состав лубриканта входит биоактивный комплекс из экстракта алоэ вера, витамина Е и аллантоина, который увлажняет, смягчает кожу, способствует быстрому восстановлению слизистых в случае их механического повреждения. Универсальный гель-лубрикант на водной основе SexToys 3 в 1 (75 мл).  Универсальный гель-лубрикант на водной основе SexToys 3 в 1 (75 мл). Модель: bioritm-28001. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Гель-лубрикант на водной основе TUTTI-FRUTTI мята создан специально для оральных утех. Он внесёт разнообразие в интимную жизнь, откроет новые грани эротических удовольствий! С ним секс станет по-настоящему волшебным!Приятный вкус и аромат мяты добавят изюминки в любовную игру, сделают её просто незабываемой.Лубрикант имеет нежную лёгкую текстуру, обладает увлажняющим и ароматизирующим действиями.TUTTI-FRUTTI мята не нарушает микрофлору интимных зон и подходит для использования в качестве лубриканта.Гель совместим с изделиями из латекса и синтетических материалов. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом сладкой мяты (5 шт  4 г).  Оральный гель Tutti-Frutti со вкусом сладкой мяты (5 шт  4 г). Модель: bioritm-30012t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -6621,17 +6825,17 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
-          <t>75 мл</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>4 ** 5</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>75 мл</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -6657,7 +6861,7 @@
       <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 саше по 4 г</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
@@ -6693,12 +6897,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Увлажняющий интимный гель ACTIVE GLIDE</t>
+          <t>Оральный гель TUTTI-FRUTTI сочная дыня</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>id-24390-1299</t>
+          <t>id-24090-1299</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -6712,10 +6916,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24090/24090_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный гель-любрикант на водной основе Active Glide с пребиотиком интенсивно увлажняет и смягчает интимные зоны, устраняет сухость влагалища, восполняет недостаток собственной смазки, дарит нежное и продолжительное скольжение, снимает раздражения, препятствует появлению микротравм, дарит потрясающее чувство комфорта во время близости.Входящий в состав любриканта натуральный пребиотик биолин восстанавливает и сохраняет здоровую микрофлору интимных зон, повышает сопротивляемость кожи и слизистых к неблагоприятным воздействиям. Пребиотик питает, нормализует pH-баланс, улучшает состояние кожи и слизистых, устраняет покраснения. Действие биолина очень деликатно, поэтому он подходит для ухода даже за очень капризной кожей.Гель-любрикант Active Glide с пребиотиком обеспечивает бережный уход за половыми органами женщин и мужчин. Не имеет цвета и запаха, легко смывается водой. Увлажняющий интимный гель ACTIVE GLIDE PREBIOTIC (100 г).  Увлажняющий интимный гель ACTIVE GLIDE PREBIOTIC (100 г). Модель: bioritm-29001. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">TUTTI-FRUTTI сочная дыня - гель-лубрикант на водной основе с сладким вкусом и головокружительным ароматом спелой дыни! Он откроет новые грани орального секса, подарит невероятные эмоции во время любовной игры!Гель имеет лёгкую нежную текстуру, увлажняет и ароматизирует. Не нарушает микрофлору интимных зон, подходит для использования в качестве лубриканта. Совместим с изделиями из латекса и синтетических материалов. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель TUTTI-FRUTTI сочная дыня (30 г).  Оральный гель TUTTI-FRUTTI сочная дыня (30 г). Модель: bioritm-30013. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -6737,17 +6945,17 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr">
         <is>
-          <t>100 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>100 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -6809,12 +7017,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Увлажняющий интимный гель ACTIVE GLIDE</t>
+          <t>Оральный гель TUTTI-FRUTTI сочная дыня</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>id-24392-1299</t>
+          <t>id-24089-1299</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -6828,10 +7036,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24089/24089_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прозрачный гель-любрикант на водной основе Active Glide с аллантоином активно увлажняет слизистые половых органов, устраняет сухость влагалища, нормализует водный баланс, восполняет недостаток природной смазки, дарит комфортное длительное скольжение, снимает раздражение слизистых, способствует регенерации тканей, препятствует появлению микротравм. Входящий в его состав аллантоин обладает противовоспалительными и регенерирующими свойствами. Прекрасно смягчает и успокаивает раздражённую кожу и слизистую, помогает улучшить состояние и внешний вид половых органов. Аллантоин гипоаллергенен, поэтому может применяться даже для очень чувствительной кожи.Гель-любрикант Active Glide с аллантоином обеспечивает бережный уход за интимными зонами женщин и мужчин. Не имеет цвета и запаха, легко смывается водой. Увлажняющий интимный гель ACTIVE GLIDE ALLANTOIN (100 г).  Увлажняющий интимный гель ACTIVE GLIDE ALLANTOIN (100 г). Модель: bioritm-29002. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">TUTTI-FRUTTI сочная дыня - гель-лубрикант на водной основе с сладким вкусом и головокружительным ароматом спелой дыни! Он откроет новые грани орального секса, подарит невероятные эмоции во время любовной игры!Гель имеет лёгкую нежную текстуру, увлажняет и ароматизирует. Не нарушает микрофлору интимных зон, подходит для использования в качестве лубриканта. Совместим с изделиями из латекса и синтетических материалов. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель TUTTI-FRUTTI сочная дыня (5 шт по 4 г).  Оральный гель TUTTI-FRUTTI сочная дыня (5 шт по 4 г). Модель: bioritm-30014. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -6841,29 +7053,29 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr">
         <is>
-          <t>100 г</t>
+          <t>5 * 4 г</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>5 * 4</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>100 г</t>
+          <t>5 * 4 г</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -6889,7 +7101,7 @@
       <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 одноразовых саше по 4 г</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
@@ -6925,12 +7137,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Увлажняющий интимный гель с</t>
+          <t>Оральный гель Tutti-Frutti со вкусом</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>id-24391-1299</t>
+          <t>id-23465-1299</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -6944,10 +7156,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23465/23465_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23465/23465_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный гель-любрикант на водной основе Active Glide с гиалуроновой кислотой интенсивно и длительно увлажняет и смягчает интимные зоны, устраняет сухость влагалища, восполняет недостаток женской смазки, дарит приятное продолжительное скольжение во время близости, снимает раздражения, препятствует появлению микротравм. Входящая в состав любриканта гиалуроновая кислота нормализует водный баланс клеток, способствует регенерации кожи и слизистых, обеспечивает эластичность тканей половых органов. снижает чувствительность кожи, усиливает её защитные функции.Гель-любрикант Active Glide с гиалуроновой кислотой обеспечивает бережный уход за интимными зонами женщин и мужчин. Не имеет цвета и запаха, легко смывается водой. Увлажняющий интимный гель с гиалуроновой кислотой ACTIVE GLIDE HYALURONIC (100 г).  Увлажняющий интимный гель с гиалуроновой кислотой ACTIVE GLIDE HYALURONIC (100 г). Модель: bioritm-29003. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Гель-лубрикант на водной основе с приятным ароматом десерта тирамису разработан специально для орального секса! Он подарит настоящую эротическую феерию, сделает интимную близость насыщенной и яркой! Сладкий вкус и десертный аромат смазки добавят страсти любовной игре!TUTTI-FRUTTI тирамису обладает нежной лёгкой консистенцией, дарящей приятные ощущения во время эротических забав.Гель увлажняет и ароматизирует, не нарушает микрофлору интимных зон, подходит для использования в качестве лубриканта.Смазка совместима с изделиями из латекса и синтетических материалов. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом тирамису (30 г).  Оральный гель Tutti-Frutti со вкусом тирамису (30 г). Модель: bioritm-30015. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -6969,17 +7185,17 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr">
         <is>
-          <t>100 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>100 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -7041,12 +7257,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Увлажняющий интимный гель ACTIVE GLIDE</t>
+          <t>Оральный гель Tutti-Frutti со вкусом</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>id-27830-1299</t>
+          <t>id-23466-1299</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -7060,10 +7276,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23466/23466_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный гель-любрикант на водной основе Active Glide с пребиотиком интенсивно увлажняет и смягчает интимные зоны, устраняет сухость влагалища, восполняет недостаток собственной смазки, дарит нежное и продолжительное скольжение, снимает раздражения, препятствует появлению микротравм, дарит потрясающее чувство комфорта во время близости. Входящий в состав любриканта натуральный пребиотик биолин восстанавливает и сохраняет здоровую микрофлору интимных зон, повышает сопротивляемость кожи и слизистых к неблагоприятным воздействиям. Пребиотик питает, нормализует pH-баланс, улучшает состояние кожи и слизистых, устраняет покраснения. Действие биолина очень деликатно, поэтому он подходит для ухода даже за очень капризной кожей. Гель-любрикант Active Glide с пребиотиком обеспечивает бережный уход за половыми органами женщин и мужчин. Не имеет цвета и запаха, легко смывается водой. Увлажняющий интимный гель ACTIVE GLIDE PREBIOTIC (в упаковке 5 шт).  Увлажняющий интимный гель ACTIVE GLIDE PREBIOTIC (в упаковке 5 шт). Модель: bioritm-29004t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Гель-лубрикант на водной основе с приятным ароматом десерта тирамису разработан специально для орального секса! Он подарит настоящую эротическую феерию, сделает интимную близость насыщенной и яркой! Сладкий вкус и десертный аромат смазки добавят страсти любовной игре!TUTTI-FRUTTI тирамису обладает нежной лёгкой консистенцией, дарящей приятные ощущения во время эротических забав.Гель увлажняет и ароматизирует, не нарушает микрофлору интимных зон, подходит для использования в качестве лубриканта.Смазка совместима с изделиями из латекса и синтетических материалов. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом тирамису (5 шт  4 г).  Оральный гель Tutti-Frutti со вкусом тирамису (5 шт  4 г). Модель: bioritm-30016t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -7085,17 +7305,17 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr">
         <is>
-          <t>3 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4 ** 5</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>3 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -7121,7 +7341,7 @@
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr">
         <is>
-          <t>5 саше по 3 г</t>
+          <t>5 саше по 4 г</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
@@ -7157,12 +7377,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Увлажняющий интимный гель ACTIVE GLIDE</t>
+          <t>Оральный гель Tutti-Frutti со вкусом</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>id-27829-1299</t>
+          <t>id-26741-1299</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -7176,10 +7396,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26741/26741_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26741/26741_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный гель-любрикант на водной основе Active Glide с гиалуроновой кислотой интенсивно и длительно увлажняет и смягчает интимные зоны, устраняет сухость влагалища, восполняет недостаток женской смазки, дарит приятное продолжительное скольжение во время близости, снимает раздражения, препятствует появлению микротравм. Входящая в состав любриканта гиалуроновая кислота нормализует водный баланс клеток, способствует регенерации кожи и слизистых, обеспечивает эластичность тканей половых органов. снижает чувствительность кожи, усиливает её защитные функции. Гель-любрикант Active Glide с гиалуроновой кислотой обеспечивает бережный уход за интимными зонами женщин и мужчин. Не имеет цвета и запаха, легко смывается водой. Увлажняющий интимный гель ACTIVE GLIDE HYALURONIC (в упаковке 5 шт).  Увлажняющий интимный гель ACTIVE GLIDE HYALURONIC (в упаковке 5 шт). Модель: bioritm-29005t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Конфетная сладость и восхитительный аромат TUTTI-FRUTTI сладкий барбарис разбудят сильное сексуальное желание, вознесут на вершину эротического блаженства!Гель-лубрикант на водной основе имеет лёгкую нежную текстуру, увлажняет и ароматизирует интимные зоны, придаёт им вкус сладости. Средство не нарушает микрофлору интимных зон, может использоваться в качестве старт-смазки, подходит для обоих партнёров.Лубрикант совместим с секс-игрушками и презервативами. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом барбариса (30 г).  Оральный гель Tutti-Frutti со вкусом барбариса (30 г). Модель: bioritm-30017. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -7201,17 +7425,17 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr">
         <is>
-          <t>3 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>3 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -7237,7 +7461,7 @@
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>5 саше по 3 г</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
@@ -7273,12 +7497,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Увлажняющий интимный гель ACTIVE GLIDE</t>
+          <t>Оральный гель Tutti-Frutti со вкусом</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>id-27828-1299</t>
+          <t>id-26740-1299</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -7292,10 +7516,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26740/26740_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26740/26740_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прозрачный гель-любрикант на водной основе Active Glide с аллантоином активно увлажняет слизистые половых органов, устраняет сухость влагалища, нормализует водный баланс, восполняет недостаток природной смазки, дарит комфортное длительное скольжение, снимает раздражение слизистых, способствует регенерации тканей, препятствует появлению микротравм. Входящий в его состав аллантоин обладает противовоспалительными и регенерирующими свойствами. Прекрасно смягчает и успокаивает раздражённую кожу и слизистую, помогает улучшить состояние и внешний вид половых органов. Аллантоин гипоаллергенен, поэтому может применяться даже для очень чувствительной кожи. Гель-любрикант Active Glide с аллантоином обеспечивает бережный уход за интимными зонами женщин и мужчин. Не имеет цвета и запаха, легко смывается водой. Увлажняющий интимный гель ACTIVE GLIDE ALLANTOIN (в упаковке 5 шт).  Увлажняющий интимный гель ACTIVE GLIDE ALLANTOIN (в упаковке 5 шт). Модель: bioritm-29006t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">TUTTI-FRUTTI свежая смородина со сладким вкусом и головокружительным ароматом раскрепостит, закружит в водовороте любви и удовольствия, внесёт в сексуальную жизнь новизну и разнообразие.Гель-лубрикант на водной основе обладает увлажняющим и ароматизирующим действием, придаёт половым органам вкус сладости. Лубрикант имеет нежную лёгкую консистенцию, не нарушает микрофлору интимных зон, подходит для обоих партнёров. TUTTI-FRUTTI свежая смородина совместим с секс-игрушками и презервативами, может использоваться в качестве старт-смазки, Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом смородины (30 г).  Оральный гель Tutti-Frutti со вкусом смородины (30 г). Модель: bioritm-30018. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -7317,17 +7545,17 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr">
         <is>
-          <t>3 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>3 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -7353,7 +7581,7 @@
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr">
         <is>
-          <t>5 саше по 3 г</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
@@ -7373,7 +7601,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -7394,7 +7622,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>id-10316-1299</t>
+          <t>id-28033-1299</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -7408,10 +7636,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28033/28033_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом земляники (30 г).  Оральный гель Tutti-Frutti со вкусом земляники (30 г). Модель: bioritm-30002. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">TUTTI-FRUTTI свежая смородина со сладким вкусом и головокружительным ароматом раскрепостит, закружит в водовороте любви и удовольствия, внесёт в сексуальную жизнь новизну и разнообразие.Гель-лубрикант на водной основе обладает увлажняющим и ароматизирующим действием, придаёт половым органам вкус сладости. Лубрикант имеет нежную лёгкую консистенцию, не нарушает микрофлору интимных зон, подходит для обоих партнёров. TUTTI-FRUTTI свежая смородина совместим с секс-игрушками и презервативами, может использоваться в качестве старт-смазки, Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом смородины (5 шт  4 г).  Оральный гель Tutti-Frutti со вкусом смородины (5 шт  4 г). Модель: bioritm-30019. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -7433,17 +7665,17 @@
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>4 ** 5</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -7469,7 +7701,7 @@
       <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 саше по 4 г</t>
         </is>
       </c>
       <c r="AO59" t="inlineStr">
@@ -7489,7 +7721,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -7510,7 +7742,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>id-10319-1299</t>
+          <t>id-28034-1299</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -7524,10 +7756,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28034/28034_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом спелой малины (30 г).  Оральный гель Tutti-Frutti со вкусом спелой малины (30 г). Модель: bioritm-30003. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Конфетная сладость и восхитительный аромат TUTTI-FRUTTI сладкий барбарис разбудят сильное сексуальное желание, вознесут на вершину эротического блаженства!Гель-лубрикант на водной основе имеет лёгкую нежную текстуру, увлажняет и ароматизирует интимные зоны, придаёт им вкус сладости. Средство не нарушает микрофлору интимных зон, может использоваться в качестве старт-смазки, подходит для обоих партнёров.Лубрикант совместим с секс-игрушками и презервативами. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом барбариса (5 шт  4 г).  Оральный гель Tutti-Frutti со вкусом барбариса (5 шт  4 г). Модель: bioritm-30020. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -7549,17 +7785,17 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>4 ** 5</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -7585,7 +7821,7 @@
       <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 саше по 4 г</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
@@ -7605,7 +7841,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -7621,12 +7857,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Увлажняющий интимный гель INTIM HEALTH</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>id-10317-1299</t>
+          <t>id-26742-1299</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -7640,10 +7876,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26742/26742_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26742/26742_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26742/26742_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26742/26742_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26742/26742_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26742/26742_6_650.jpg</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом зеленого яблока (30 г).  Оральный гель Tutti-Frutti со вкусом зеленого яблока (30 г). Модель: bioritm-30005. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Гель-лубрикант на водной основе глубоко и интенсивно увлажняет ткани половых органов, восполняет недостаток естественной смазки, обеспечивает нежное проникновение и продолжительное скольжение, защищает от микротравм. Бережно ухаживает за интимными зонами, устраняет сухость, повышает эластичность стенок влагалища, дарит ощущение комфорта, в т. ч. и в период менопаузы.Мочевина и аргинин в составе активно увлажняют и восстанавливают слизистые. Молочная кислота поддерживает нормальный pH баланс, способствует сохранению здоровой микрофлоры интимных зон.Не имеет цвета и запаха. Легко смывается водой. Подходит для ежедневного использования.Перед интимной близостью гель-лубрикант наносится на вход во влагалище и головку полового члена. Если во время секса используется презерватив, Intim Health распределяется на поверхность надетого на пенис контрацептива.Для профилактического ухода за интимной зоной средство наносится на вход во влагалище после гигиенических процедур. Увлажняющий интимный гель INTIM HEALTH (100 г).  Увлажняющий интимный гель INTIM HEALTH (100 г). Модель: bioritm-31001. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -7665,17 +7905,17 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>100 г</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>100</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>100 г</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -7732,17 +7972,17 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Увлажняющий интимный гель INTIM HEALTH</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>id-22347-1299</t>
+          <t>id-28036-1299</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -7756,10 +7996,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28036/28036_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом тропических фруктов (5 шт по 4 г).  Оральный гель Tutti-Frutti со вкусом тропических фруктов (5 шт по 4 г). Модель: bioritm-30006t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Гель-лубрикант на водной основе глубоко и интенсивно увлажняет ткани половых органов, восполняет недостаток естественной смазки, обеспечивает нежное проникновение и продолжительное скольжение, защищает от микротравм. Бережно ухаживает за интимными зонами, устраняет сухость, повышает эластичность стенок влагалища, дарит ощущение комфорта, в т. ч. и в период менопаузы.Мочевина и аргинин в составе активно увлажняют и восстанавливают слизистые. Молочная кислота поддерживает нормальный pH баланс, способствует сохранению здоровой микрофлоры интимных зон.Не имеет цвета и запаха. Легко смывается водой. Подходит для ежедневного использования.Перед интимной близостью гель-лубрикант наносится на вход во влагалище и головку полового члена. Если во время секса используется презерватив, Intim Health распределяется на поверхность надетого на пенис контрацептива.Для профилактического ухода за интимной зоной средство наносится на вход во влагалище после гигиенических процедур. Увлажняющий интимный гель INTIM HEALTH (5 шт  3 г).  Увлажняющий интимный гель INTIM HEALTH (5 шт  3 г). Модель: bioritm-31002. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -7781,17 +8025,17 @@
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t>5 * 3 г</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>4 ** 5</t>
+          <t>5 * 3</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t>5 * 3 г</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -7817,7 +8061,7 @@
       <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>5 пробников по 4 г</t>
+          <t>5 саше по 3 г</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
@@ -7837,7 +8081,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Страпоны</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -7848,17 +8092,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Безремневой страпон с вибрацией Sweet</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>id-22346-1299</t>
+          <t>id-19550-1299</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -7869,18 +8113,22 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr"/>
+          <t>Безремневой страпон с вибрацией Sweet Toys (розовый)</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19550/19550_19550_650.jpg</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом спелой малины (5 шт по 4 г).  Оральный гель Tutti-Frutti со вкусом спелой малины (5 шт по 4 г). Модель: bioritm-30007t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Хотите разнообразить сексуальную жизнь? Фантастический вибромассажер исполнит вашу мечту!Сочетание реалистичного пениса с четко очерченной головкой и пульсирующими венками, стимулятора в форме елочки и анальной втулки делает секс-игрушку просто необыкновенной. Она может использоваться как соло, так и в парной любовной игре. Режим вибрация добавит удовольствия от использования интимного аксессуара.Литая форма вибромассажера исключает наличие соединительных швов, в которых может образоваться неблагоприятная микрофлора, что обеспечивает максимальную гигиеничность. Изделие изготовлено из гипоаллергенного силикона, просто в применении и уходе.Рекомендуется использовать втулку совместно с лубрикантом на водной основе и очищающий спрей с антимикробным эффектом CLEARTOY для экспресс-обработки. Безремневой страпон с вибрацией Sweet Toys (розовый).  Безремневой страпон с вибрацией Sweet Toys (розовый). Модель: bioritm-40185-16. Секс-игрушки. Страпоны и фаллопротезы &gt; Страпоны. Страпоны и фаллопротезы &gt; Для двойного и тройного проникновения. Страпоны и фаллопротезы &gt; Безремневые страпоны. Цвет: розовый. высококачественный силикон с бархатистой поверхностьюБренд: BIORITM. </t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -7897,30 +8145,36 @@
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>4 ** 5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
+      <c r="Y63" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>14</v>
+      </c>
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
       <c r="AD63" t="inlineStr"/>
       <c r="AE63" t="inlineStr"/>
-      <c r="AF63" t="inlineStr"/>
-      <c r="AG63" t="inlineStr"/>
+      <c r="AF63" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>0.3</v>
+      </c>
       <c r="AH63" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -7933,7 +8187,7 @@
       <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="inlineStr">
         <is>
-          <t>5 пробников по 4 г</t>
+          <t xml:space="preserve"> длина вагин. фал-са 7 см, макс. диаметр 3,2 см, длина анал. фал-са 9,5 см, макс. диаметр 2,8 см</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
@@ -7953,7 +8207,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -7969,12 +8223,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Небольшая силиконовая пробка с</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>id-23042-1299</t>
+          <t>id-17166-1299</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -7988,10 +8242,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17166/17166_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17166/17166_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом земляники (5 шт по 4 г).  Оральный гель Tutti-Frutti со вкусом земляники (5 шт по 4 г). Модель: bioritm-30008t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">.Небольшая силиконовая пробка с металлическим кольцом Sex Expert.  Небольшая силиконовая пробка с металлическим кольцом Sex Expert. Модель: bioritm-55051. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: черный с серебряным. Материал: высококачественный силикон с бархатистой поверхностью, металл. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -8009,34 +8267,48 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью, металл</t>
+        </is>
+      </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>4 ** 5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr"/>
+      <c r="Y64" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr"/>
-      <c r="AD64" t="inlineStr"/>
-      <c r="AE64" t="inlineStr"/>
-      <c r="AF64" t="inlineStr"/>
-      <c r="AG64" t="inlineStr"/>
+      <c r="AD64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>2.8</v>
+      </c>
       <c r="AH64" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8069,7 +8341,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -8080,17 +8352,17 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Стимулятор простаты с массажером</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>id-22349-1299</t>
+          <t>id-17139-1299</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -8104,10 +8376,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17139/17139_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17139/17139_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом сочной вишни (5 шт по 4 г).  Оральный гель Tutti-Frutti со вкусом сочной вишни (5 шт по 4 г). Модель: bioritm-30009t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Activator of male power Вибромассажер - вибромассажер от Sex Expert работает на благо твоего здоровья и удовольствия! Стимулятор имеет эргономичную форму, что обеспечивает легкое и комфортное введение. Идеально подходит для массажа простаты. Режим вибрация дарит дополнительные ощущения. Секс-игрушка имеет специальный отросток, который воздействует на точку проекции простаты. Отросток также служит специальным ограничителем для контроля глубины проникновения. Приятный на ощупь интимный аксессуар сделан из гипоаллергенного силикона. Для более комфортного использования рекомендуем приобрести лубрикант на водной основе и очищающий спрей с антимикробным эффектом ClearToy для экспресс-обработки изделия. Стимулятор простаты с массажером мошонки с вибрацией Sex Expert (1 скорость).  Стимулятор простаты с массажером мошонки с вибрацией Sex Expert (1 скорость). Модель: bioritm-55073. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. AAA x 1 шт (в комплекте)Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -8117,42 +8393,52 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>4 ** 5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
+      <c r="Y65" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>10</v>
+      </c>
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
       <c r="AD65" t="inlineStr"/>
       <c r="AE65" t="inlineStr"/>
-      <c r="AF65" t="inlineStr"/>
-      <c r="AG65" t="inlineStr"/>
+      <c r="AF65" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>2.6</v>
+      </c>
       <c r="AH65" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8165,7 +8451,7 @@
       <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="inlineStr">
         <is>
-          <t>5 пробников по 4 г</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
@@ -8185,7 +8471,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -8196,17 +8482,17 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Перезаряжаемый массажер простаты Sex</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>id-22348-1299</t>
+          <t>id-27875-1299</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -8220,10 +8506,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27875/27875_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27875/27875_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27875/27875_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27875/27875_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27875/27875_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27875/27875_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27875/27875_6_650.jpg</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом зеленого яблока (5 шт по 4 г).  Оральный гель Tutti-Frutti со вкусом зеленого яблока (5 шт по 4 г). Модель: bioritm-30010t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Великолепная секс-игрушка для любителей особых удовольствий. Эргономичная форма интимного аксессуара обеспечит нежное проникновение, комфортное скольжение и незабываемые эмоции во время прелюдии или мастурбации. Остроты ощущениям добавят разнообразные режимы вибрации.Секс-игрушка может использоваться для стимуляции простаты.Изделие имеет твёрдый, но лёгкий корпус, что позволяет регулировать силу воздействия на эрогенный зоны.Включение.выключение вибрации: нажать и в течение 2 секунд удерживать кнопку на корпусе изделия. Переключение виброрежимов: короткое нажатие той же кнопки.Включать, выключать или переключать виброрежимы можно даже во время использования изделия.Вибромассажёр изготовлен из высококачественных материалов. Прост в использовании и уходе. Перезаряжаемый массажер простаты Sex Expert (10 режимов).  Перезаряжаемый массажер простаты Sex Expert (10 режимов). Модель: bioritm-55210. Секс-игрушки. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный с золотистым. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -8233,42 +8523,56 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+        </is>
+      </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
-        </is>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>4 ** 5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
+      <c r="Y66" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>22.5</v>
+      </c>
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
-      <c r="AD66" t="inlineStr"/>
-      <c r="AE66" t="inlineStr"/>
-      <c r="AF66" t="inlineStr"/>
-      <c r="AG66" t="inlineStr"/>
+      <c r="AD66" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>2.915</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>2.65</v>
+      </c>
       <c r="AH66" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8281,7 +8585,7 @@
       <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="inlineStr">
         <is>
-          <t>5 пробников по 4 г</t>
+          <t>стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
@@ -8301,7 +8605,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -8317,12 +8621,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Перезаряжаемый анальный стимулятор Sex</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>id-23464-1299</t>
+          <t>id-27878-1299</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -8336,10 +8640,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27878/27878_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27878/27878_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27878/27878_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27878/27878_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27878/27878_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гель-лубрикант на водной основе TUTTI-FRUTTI мята создан специально для оральных утех. Он внесёт разнообразие в интимную жизнь, откроет новые грани эротических удовольствий! С ним секс станет по-настоящему волшебным!Приятный вкус и аромат мяты добавят изюминки в любовную игру, сделают её просто незабываемой.Лубрикант имеет нежную лёгкую текстуру, обладает увлажняющим и ароматизирующим действиями.TUTTI-FRUTTI мята не нарушает микрофлору интимных зон и подходит для использования в качестве лубриканта.Гель совместим с изделиями из латекса и синтетических материалов. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом сладкой мяты (30 г).  Оральный гель Tutti-Frutti со вкусом сладкой мяты (30 г). Модель: bioritm-30011. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Анальная втулка с разнообразными режимами вибрации мягко подготовит к близости, познакомит с новыми ощущениями, сделает секс максимально насыщенным и ярким.Интимный аксессуар подойдет как для новичков, так и для опытных любителей особенных удовольствий.Эргономичная форма изделия обеспечит нежное введение, а удобная ручка-ограничитель позволит регулировать глубину проникновения.Чтобы включить втулку нажми и удерживай кнопку на основании в течение 2 секунд. Короткими нажатиями выбери нужный режим вибрации. Снова удерживай кнопку 2 секунды для выключения игрушки.Втулка выполнена из высококачественного бархатистого силикона. Перезаряжаемый анальный стимулятор Sex Expert (10 режимов).  Перезаряжаемый анальный стимулятор Sex Expert (10 режимов). Модель: bioritm-55212. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -8349,42 +8657,56 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+        </is>
+      </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr">
         <is>
-          <t>30 г</t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr"/>
+      <c r="Y67" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>13.5</v>
+      </c>
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
-      <c r="AD67" t="inlineStr"/>
-      <c r="AE67" t="inlineStr"/>
-      <c r="AF67" t="inlineStr"/>
-      <c r="AG67" t="inlineStr"/>
+      <c r="AD67" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>2.8</v>
+      </c>
       <c r="AH67" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8397,7 +8719,7 @@
       <c r="AM67" t="inlineStr"/>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>анальный стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
@@ -8417,7 +8739,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -8433,12 +8755,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Перезаряжаемый анальный стимулятор Sex</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>id-23467-1299</t>
+          <t>id-27879-1299</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -8452,10 +8774,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27879/27879_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27879/27879_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27879/27879_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27879/27879_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27879/27879_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27879/27879_6_650.jpg</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гель-лубрикант на водной основе TUTTI-FRUTTI мята создан специально для оральных утех. Он внесёт разнообразие в интимную жизнь, откроет новые грани эротических удовольствий! С ним секс станет по-настоящему волшебным!Приятный вкус и аромат мяты добавят изюминки в любовную игру, сделают её просто незабываемой.Лубрикант имеет нежную лёгкую текстуру, обладает увлажняющим и ароматизирующим действиями.TUTTI-FRUTTI мята не нарушает микрофлору интимных зон и подходит для использования в качестве лубриканта.Гель совместим с изделиями из латекса и синтетических материалов. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом сладкой мяты (5 шт  4 г).  Оральный гель Tutti-Frutti со вкусом сладкой мяты (5 шт  4 г). Модель: bioritm-30012t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Анальная втулка с разнообразными режимами вибрации мягко подготовит к близости, познакомит с новыми ощущениями, сделает секс максимально насыщенным и ярким.Интимный аксессуар подойдет как для новичков, так и для опытных любителей особенных удовольствий.Эргономичная форма изделия обеспечит нежное введение, а удобная ручка-ограничитель позволит регулировать глубину проникновения.Чтобы включить втулку нажми и удерживай кнопку на основании в течение 2 секунд. Короткими нажатиями выбери нужный режим вибрации. Снова удерживай кнопку 2 секунды для выключения игрушки.Втулка выполнена из высококачественного бархатистого силикона. Перезаряжаемый анальный стимулятор Sex Expert (10 режимов).  Перезаряжаемый анальный стимулятор Sex Expert (10 режимов). Модель: bioritm-55213. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -8465,42 +8791,56 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+        </is>
+      </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>4 ** 5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
+      <c r="Y68" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>13.5</v>
+      </c>
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
-      <c r="AD68" t="inlineStr"/>
-      <c r="AE68" t="inlineStr"/>
-      <c r="AF68" t="inlineStr"/>
-      <c r="AG68" t="inlineStr"/>
+      <c r="AD68" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>2.8</v>
+      </c>
       <c r="AH68" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8513,7 +8853,7 @@
       <c r="AM68" t="inlineStr"/>
       <c r="AN68" t="inlineStr">
         <is>
-          <t>5 саше по 4 г</t>
+          <t>анальный стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
@@ -8533,7 +8873,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -8549,12 +8889,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Оральный гель TUTTI-FRUTTI сочная дыня</t>
+          <t>Перезаряжаемая анальная втулка для</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>id-24090-1299</t>
+          <t>id-27880-1299</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -8568,10 +8908,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27880/27880_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27880/27880_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27880/27880_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27880/27880_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27880/27880_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27880/27880_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve">TUTTI-FRUTTI сочная дыня - гель-лубрикант на водной основе с сладким вкусом и головокружительным ароматом спелой дыни! Он откроет новые грани орального секса, подарит невероятные эмоции во время любовной игры!Гель имеет лёгкую нежную текстуру, увлажняет и ароматизирует. Не нарушает микрофлору интимных зон, подходит для использования в качестве лубриканта. Совместим с изделиями из латекса и синтетических материалов. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель TUTTI-FRUTTI сочная дыня (30 г).  Оральный гель TUTTI-FRUTTI сочная дыня (30 г). Модель: bioritm-30013. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Анальная втулка с разнообразными режимами вибрации мягко подготовит к близости, познакомит с новыми ощущениями, сделает секс максимально насыщенным и ярким.Интимный аксессуар подойдет как для новичков, так и для опытных любителей особенных удовольствий.Эргономичная форма изделия обеспечит нежное введение, а удобная ручка-ограничитель позволит регулировать глубину проникновения.Чтобы включить втулку нажми и удерживай кнопку на основании в течение 2 секунд. Короткими нажатиями выбери нужный режим вибрации. Снова удерживай кнопку 2 секунды для выключения игрушки.Втулка выполнена из высококачественного бархатистого силикона. Перезаряжаемая анальная втулка для ношения Sex Expert (10 режимов).  Перезаряжаемая анальная втулка для ношения Sex Expert (10 режимов). Модель: bioritm-55214. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -8581,42 +8925,56 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr">
         <is>
-          <t>30 г</t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
-      <c r="AA69" t="inlineStr"/>
+      <c r="Y69" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>12.3</v>
+      </c>
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr"/>
-      <c r="AD69" t="inlineStr"/>
-      <c r="AE69" t="inlineStr"/>
-      <c r="AF69" t="inlineStr"/>
-      <c r="AG69" t="inlineStr"/>
+      <c r="AD69" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>3.3</v>
+      </c>
       <c r="AH69" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8629,7 +8987,7 @@
       <c r="AM69" t="inlineStr"/>
       <c r="AN69" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>анальный стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO69" t="inlineStr">
@@ -8649,7 +9007,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Эрекционные кольца</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -8660,17 +9018,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Оральный гель TUTTI-FRUTTI сочная дыня</t>
+          <t>Кольцо эрекционное двойное со</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>id-24089-1299</t>
+          <t>id-27877-1299</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -8684,10 +9042,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27877/27877_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27877/27877_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27877/27877_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27877/27877_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27877/27877_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27877/27877_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27877/27877_7_650.jpg</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t xml:space="preserve">TUTTI-FRUTTI сочная дыня - гель-лубрикант на водной основе с сладким вкусом и головокружительным ароматом спелой дыни! Он откроет новые грани орального секса, подарит невероятные эмоции во время любовной игры!Гель имеет лёгкую нежную текстуру, увлажняет и ароматизирует. Не нарушает микрофлору интимных зон, подходит для использования в качестве лубриканта. Совместим с изделиями из латекса и синтетических материалов. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель TUTTI-FRUTTI сочная дыня (5 шт по 4 г).  Оральный гель TUTTI-FRUTTI сочная дыня (5 шт по 4 г). Модель: bioritm-30014. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Двойное эрекционное кольцо со стимулятором промежности для удовлетворения твоих сексуальных желаний! Интимный аксессуар усиливает эрекцию и нежно воздействует на область промежности, доводя до пика возбуждения.Изделие состоит из двух колец. Одно имеет классическую круглую форму, второе из круга переходит в небольшой отросток с выпуклостями и утолщённым концом. Оба кольца надеваются на основание пениса, при этом стимулирующий отросток располагается по направлению к анусу. Нижнее кольцо с отростком фиксируется на мошонке.Благодаря своей упругости и эластичности интимный аксессуар плотно прилегает к пенису и мошонке, интенсивнее воздействуя на эрогенные зоны.Эрекционное кольцо выполнено из высококачественного бархатистого силикона. Кольцо эрекционное двойное со стимулятором промежности.  Кольцо эрекционное двойное со стимулятором промежности. Модель: bioritm-55215. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Без вибрации. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -8697,42 +9059,52 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr">
         <is>
-          <t>5 * 4 г</t>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>5 * 4</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr">
         <is>
-          <t>5 * 4 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
-      <c r="AA70" t="inlineStr"/>
+      <c r="Y70" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>10</v>
+      </c>
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr"/>
       <c r="AD70" t="inlineStr"/>
       <c r="AE70" t="inlineStr"/>
-      <c r="AF70" t="inlineStr"/>
-      <c r="AG70" t="inlineStr"/>
+      <c r="AF70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>3</v>
+      </c>
       <c r="AH70" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8745,7 +9117,7 @@
       <c r="AM70" t="inlineStr"/>
       <c r="AN70" t="inlineStr">
         <is>
-          <t>5 одноразовых саше по 4 г</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
@@ -8765,7 +9137,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -8776,17 +9148,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Перезаряжаемое эрекционное кольцо с</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>id-23465-1299</t>
+          <t>id-27881-1299</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -8800,10 +9172,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_8_650.jpg</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гель-лубрикант на водной основе с приятным ароматом десерта тирамису разработан специально для орального секса! Он подарит настоящую эротическую феерию, сделает интимную близость насыщенной и яркой! Сладкий вкус и десертный аромат смазки добавят страсти любовной игре!TUTTI-FRUTTI тирамису обладает нежной лёгкой консистенцией, дарящей приятные ощущения во время эротических забав.Гель увлажняет и ароматизирует, не нарушает микрофлору интимных зон, подходит для использования в качестве лубриканта.Смазка совместима с изделиями из латекса и синтетических материалов. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом тирамису (30 г).  Оральный гель Tutti-Frutti со вкусом тирамису (30 г). Модель: bioritm-30015. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Эрекционное кольцо с вибрацией для незабываемого наслаждения и ярких оргазмов! Благодаря своей эластичности плотно обхватывает пенис, усиливая эрекцию и продлевая удовольствие. Отросток большего размера стимулирует промежность мужчины, меньшего  клитор партнёрши. Разнообразные режимы вибрации позволяют выбирать нужную интенсивность воздействия.Интимный аксессуар надевается на половой член и мошонку, отросток большего размера располагается в зоне промежности ребристой поверхностью по направлению к анальному отверстию.Включить.выключить девайс: нажать и в течение 2 секунд удерживать кнопку на корпусе изделия. Переключение режимов вибрации: короткое нажатие той же кнопки.Кольцо выполнено из высококачественного бархатистого силикона. Перезаряжаемое эрекционное кольцо с вибрацией Sex Expert (10 режимов).  Перезаряжаемое эрекционное кольцо с вибрацией Sex Expert (10 режимов). Модель: bioritm-55216. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -8813,42 +9189,60 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr">
         <is>
-          <t>30 г</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr">
         <is>
-          <t>30 г</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
-      <c r="AA71" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W71" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>11</v>
+      </c>
       <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
-      <c r="AD71" t="inlineStr"/>
-      <c r="AE71" t="inlineStr"/>
-      <c r="AF71" t="inlineStr"/>
-      <c r="AG71" t="inlineStr"/>
+      <c r="AD71" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>0.5</v>
+      </c>
       <c r="AH71" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8861,7 +9255,7 @@
       <c r="AM71" t="inlineStr"/>
       <c r="AN71" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>эрекционное кольцо, магнитное зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO71" t="inlineStr">
@@ -8881,7 +9275,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -8897,12 +9291,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Гель-лубрикант на водной основе Intim</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>id-23466-1299</t>
+          <t>id-23018-1299</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -8916,10 +9310,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23018/23018_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гель-лубрикант на водной основе с приятным ароматом десерта тирамису разработан специально для орального секса! Он подарит настоящую эротическую феерию, сделает интимную близость насыщенной и яркой! Сладкий вкус и десертный аромат смазки добавят страсти любовной игре!TUTTI-FRUTTI тирамису обладает нежной лёгкой консистенцией, дарящей приятные ощущения во время эротических забав.Гель увлажняет и ароматизирует, не нарушает микрофлору интимных зон, подходит для использования в качестве лубриканта.Смазка совместима с изделиями из латекса и синтетических материалов. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом тирамису (5 шт  4 г).  Оральный гель Tutti-Frutti со вкусом тирамису (5 шт  4 г). Модель: bioritm-30016t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Гель-любрикант на водной основе с приятным освежающим ароматом мохито обеспечивает мягкое проникновение и лёгкое скольжение во время интимной близости. Великолепно увлажняет, после нанесения даёт эффект холодка. Легко смывается водой. Может использоваться с презервативами и интимными игрушками из разных материалов.Способ нанесения: гель-любрикант наносится на вход во влагалище и.или головку пениса непосредственно перед половым контактом. Если во время интимной близости используется презерватив, то любрикант наносится на вход во влагалище или на поверхность презерватива. Гель-лубрикант на водной основе Intim aroma Мохито (60 г).  Гель-лубрикант на водной основе Intim aroma Мохито (60 г). Модель: bioritm-60002. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -8941,17 +9339,17 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>4 ** 5</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="W72" t="inlineStr"/>
@@ -8977,7 +9375,7 @@
       <c r="AM72" t="inlineStr"/>
       <c r="AN72" t="inlineStr">
         <is>
-          <t>5 саше по 4 г</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO72" t="inlineStr">
@@ -9013,12 +9411,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Гель-лубрикан на водной основе Intim</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>id-26741-1299</t>
+          <t>id-6729-1299</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -9032,10 +9430,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/6729/6729_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Конфетная сладость и восхитительный аромат TUTTI-FRUTTI сладкий барбарис разбудят сильное сексуальное желание, вознесут на вершину эротического блаженства!Гель-лубрикант на водной основе имеет лёгкую нежную текстуру, увлажняет и ароматизирует интимные зоны, придаёт им вкус сладости. Средство не нарушает микрофлору интимных зон, может использоваться в качестве старт-смазки, подходит для обоих партнёров.Лубрикант совместим с секс-игрушками и презервативами. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом барбариса (30 г).  Оральный гель Tutti-Frutti со вкусом барбариса (30 г). Модель: bioritm-30017. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">В продолжении классной вечеринки предстоит бурная ночь? Лубрикант Intim classic идеально подходит для романтического свидания. Он обеспечивает нежное проникновение, чувственное скольжение. В состав геля входят специальные компоненты: витамин Е стимулирует защиту слизистых, алоэ вера дополнительно увлажняет. Гель-лубрикант абсолютно без запаха. Легко смывается водой. Совместим с любыми изделиями из латекса и синтетических материалов. Применение: нанесите тонким слоем на области, требующие смазывания. Гель-лубрикан на водной основе Intim Classic (60 г).  Гель-лубрикан на водной основе Intim Classic (60 г). Модель: bioritm-60003. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -9057,17 +9459,17 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
@@ -9113,7 +9515,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -9129,12 +9531,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Возбуждающий лубрикант с согревающим</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>id-26740-1299</t>
+          <t>id-6730-1299</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -9148,10 +9550,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/6730/6730_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t xml:space="preserve">TUTTI-FRUTTI свежая смородина со сладким вкусом и головокружительным ароматом раскрепостит, закружит в водовороте любви и удовольствия, внесёт в сексуальную жизнь новизну и разнообразие.Гель-лубрикант на водной основе обладает увлажняющим и ароматизирующим действием, придаёт половым органам вкус сладости. Лубрикант имеет нежную лёгкую консистенцию, не нарушает микрофлору интимных зон, подходит для обоих партнёров. TUTTI-FRUTTI свежая смородина совместим с секс-игрушками и презервативами, может использоваться в качестве старт-смазки, Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом смородины (30 г).  Оральный гель Tutti-Frutti со вкусом смородины (30 г). Модель: bioritm-30018. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Это своеобразное горючее, которое разжигает огонь любви с новой силой и помогает настроиться на нужный лад. Благодаря экстракту имбиря в составе лубрикант добавит вашей встрече перчинки. Природный афродизиак вызывает приятное ощущение тепла и усиливает возбуждение. Гель подарит нежное скольжение. Intim hot - это микс страсти и нежности. Легко смывается водой. Совместим с изделиями из латекса и синтетических материалов. Применение: нанесите тонким слоем на эрогенные зоны перед половым контактом. Возбуждающий лубрикант с согревающим эффектом Intim Hot (60 г).  Возбуждающий лубрикант с согревающим эффектом Intim Hot (60 г). Модель: bioritm-60004. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -9173,17 +9579,17 @@
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
@@ -9229,7 +9635,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -9245,12 +9651,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Лубрикант на силиконовой основе Intim</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>id-28033-1299</t>
+          <t>id-6727-1299</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -9264,10 +9670,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/6727/6727_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t xml:space="preserve">TUTTI-FRUTTI свежая смородина со сладким вкусом и головокружительным ароматом раскрепостит, закружит в водовороте любви и удовольствия, внесёт в сексуальную жизнь новизну и разнообразие.Гель-лубрикант на водной основе обладает увлажняющим и ароматизирующим действием, придаёт половым органам вкус сладости. Лубрикант имеет нежную лёгкую консистенцию, не нарушает микрофлору интимных зон, подходит для обоих партнёров. TUTTI-FRUTTI свежая смородина совместим с секс-игрушками и презервативами, может использоваться в качестве старт-смазки, Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом смородины (5 шт  4 г).  Оральный гель Tutti-Frutti со вкусом смородины (5 шт  4 г). Модель: bioritm-30019. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Позволит дать волю самым смелым фантазиям, сексуальным желаниям и страсти. Идеально подходит для эротического массажа и интимной близости. Специальная формула гарантирует долгое и легкое скольжение. Вы забудете об ощущении липкости и жирности и будете наслаждаться каждым движением. Гипоаллергенно, не препятствует кожному дыханию, без запаха и цвета, совместим с изделиями из латекса (презервативами), но с секс-игрушками его лучше не использовать. Лубрикант на силиконовой основе Intim Silicon (60 г).  Лубрикант на силиконовой основе Intim Silicon (60 г). Модель: bioritm-60005. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -9289,17 +9699,17 @@
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>4 ** 5</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="W75" t="inlineStr"/>
@@ -9325,7 +9735,7 @@
       <c r="AM75" t="inlineStr"/>
       <c r="AN75" t="inlineStr">
         <is>
-          <t>5 саше по 4 г</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO75" t="inlineStr">
@@ -9345,7 +9755,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -9361,12 +9771,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Анальный лубрикант INTIM HOT SECRET</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>id-28034-1299</t>
+          <t>id-28173-1299</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -9380,10 +9790,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28173/28173_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Конфетная сладость и восхитительный аромат TUTTI-FRUTTI сладкий барбарис разбудят сильное сексуальное желание, вознесут на вершину эротического блаженства!Гель-лубрикант на водной основе имеет лёгкую нежную текстуру, увлажняет и ароматизирует интимные зоны, придаёт им вкус сладости. Средство не нарушает микрофлору интимных зон, может использоваться в качестве старт-смазки, подходит для обоих партнёров.Лубрикант совместим с секс-игрушками и презервативами. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом барбариса (5 шт  4 г).  Оральный гель Tutti-Frutti со вкусом барбариса (5 шт  4 г). Модель: bioritm-30020. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Анальный гель-лубрикант на силиконовой основе разработан специально для любителей особых удовольствий! Хорошо смягчает ткани ануса, обеспечивает комфортные ощущения и дарит великолепное скольжение на протяжении всего полового акта. Не оставляет ощущения липкости. Легко смывается водой. Анальный лубрикант INTIM HOT SECRET ANAL (25 г).  Анальный лубрикант INTIM HOT SECRET ANAL (25 г). Модель: bioritm-60009-1. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -9405,17 +9819,17 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t>25 г</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>4 ** 5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t>25 г</t>
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
@@ -9441,7 +9855,7 @@
       <c r="AM76" t="inlineStr"/>
       <c r="AN76" t="inlineStr">
         <is>
-          <t>5 саше по 4 г</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
@@ -9461,7 +9875,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -9472,17 +9886,17 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ротационно-фрикционный фаллос на</t>
+          <t>Увлажняющая гель-смазка на водной</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>id-23498-1299</t>
+          <t>id-22991-1299</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -9496,10 +9910,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22991/22991_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Реалистичный вибромассажёр с разнообразными режимами ротации и возвратно-поступательными движениями.Присоска позволит прочно закреплять фаллос на ровной поверхности в горизонтальном или вертикальном положении.Для включения.выключения вибромассажёра необходимо нажать и две секунды удерживать кнопку на его корпусе. Переключение возвратно-поступательных режимов осуществляется с помощью краткого нажатия на ту же кнопку.Для управления работой эротического аксессуара с помощью пульта, необходимо сначала нажать кнопку включения.выключения на его корпусе, а затем использовать кнопки на самом пульте. Выключить секс-игрушку также можно с помощью соответствующей кнопки на пульте. Ротационно-фрикционный фаллос на присоске и ДУ REALISTIC.  Ротационно-фрикционный фаллос на присоске и ДУ REALISTIC. Модель: bioritm-30072. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Вибраторы и фаллоимитаторы &gt; Супер реалистичные. Вибраторы и фаллоимитаторы &gt; С ротацией (вращение). Цвет: телесный. Материал: мягкий силикон (имитация кожи человека). 23 A (12 V) x 1 шт (в комплекте)Бренд: BIORITM. </t>
+          <t xml:space="preserve">Нежный гель-лубрикант на водной основе дарит интенсивное увлажнение и потрясающее скольжение во время интимной близости. Великолепно устраняет сухость тканей половых органов, смягчает, дарит ощущение комфорта. Гиалуроновая кислота в составе лубриканта бережно ухаживает за слизистой, способствует нормализации водного баланса, активизирует процессы регенерации.Гель не имеет цвета и запаха. Не оставляет пятен на белье. Легко смывается водой. Увлажняющая гель-смазка на водной основе с дозатором LoveLove (50 г).  Увлажняющая гель-смазка на водной основе с дозатором LoveLove (50 г). Модель: bioritm-70025. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -9509,52 +9927,42 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>мягкий силикон (имитация кожи человека)</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U77" t="inlineStr"/>
+          <t>50 г</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>20.5</v>
-      </c>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
       <c r="AE77" t="inlineStr"/>
-      <c r="AF77" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>4.1</v>
-      </c>
+      <c r="AF77" t="inlineStr"/>
+      <c r="AG77" t="inlineStr"/>
       <c r="AH77" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -9567,7 +9975,7 @@
       <c r="AM77" t="inlineStr"/>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>фаллос, дистанционный пульт управления, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
@@ -9587,7 +9995,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -9598,17 +10006,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Фрикционный фаллос на присоске и</t>
+          <t>Увлажняющая гель-смазка на водной</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>id-23500-1299</t>
+          <t>id-22992-1299</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -9622,10 +10030,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22992/22992_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Реалистичный вибромассажёр с разнообразными режимами возвратно-поступательных движений.Внутри изделия расположены небольшие шарики, которые при вращении дополнительно стимулируют эрогенные зоны во время интимной близости.Для включения.выключения вибромассажёра необходимо нажать и две секунды удерживать нижнюю кнопку на его корпусе. Переключение возвратно-поступательных режимов и вращения шариков осуществляется с помощью краткого нажатия верхней кнопки.Для управления работой фаллоса с помощью пульта необходимо сначала нажать кнопку включения.выключения на его корпусе, а затем использовать кнопки на самом пульте. Выключить секс-игрушку также можно с помощью соответствующей кнопки на пульте.Совместно с изделием рекомендуется использовать гель-лубрикант на водной основе и очищающий спрей с антимикробным эффектом. Фрикционный фаллос на присоске и дистанционном управлении REALISTIC.  Фрикционный фаллос на присоске и дистанционном управлении REALISTIC. Модель: bioritm-30075. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Супер реалистичные. Цвет: телесный. Материал: мягкий силикон (имитация кожи человека). 23 A (12 V) x 1 шт (в комплекте)Бренд: BIORITM. </t>
+          <t xml:space="preserve">Нежный гель-лубрикант на водной основе дарит интенсивное увлажнение и потрясающее скольжение во время интимной близости. Великолепно устраняет сухость тканей половых органов, смягчает, дарит ощущение комфорта. Гиалуроновая кислота в составе лубриканта бережно ухаживает за слизистой, способствует нормализации водного баланса, активизирует процессы регенерации. Увлажняющая гель-смазка на водной основе с дозатором LoveLove (20 г).  Увлажняющая гель-смазка на водной основе с дозатором LoveLove (20 г). Модель: bioritm-70026. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -9635,52 +10047,42 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>мягкий силикон (имитация кожи человека)</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U78" t="inlineStr"/>
+          <t>20 г</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>19.5</v>
-      </c>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr"/>
       <c r="AD78" t="inlineStr"/>
       <c r="AE78" t="inlineStr"/>
-      <c r="AF78" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>3.6</v>
-      </c>
+      <c r="AF78" t="inlineStr"/>
+      <c r="AG78" t="inlineStr"/>
       <c r="AH78" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -9693,7 +10095,7 @@
       <c r="AM78" t="inlineStr"/>
       <c r="AN78" t="inlineStr">
         <is>
-          <t>фаллос, дистанционный пульт управления, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO78" t="inlineStr">
@@ -9729,12 +10131,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Увлажняющий интимный гель INTIM HEALTH</t>
+          <t>Увлажняющий интимный гель Love Love в</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>id-26742-1299</t>
+          <t>id-27207-1299</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -9748,10 +10150,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27207/27207_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гель-лубрикант на водной основе глубоко и интенсивно увлажняет ткани половых органов, восполняет недостаток естественной смазки, обеспечивает нежное проникновение и продолжительное скольжение, защищает от микротравм. Бережно ухаживает за интимными зонами, устраняет сухость, повышает эластичность стенок влагалища, дарит ощущение комфорта, в т. ч. и в период менопаузы.Мочевина и аргинин в составе активно увлажняют и восстанавливают слизистые. Молочная кислота поддерживает нормальный pH баланс, способствует сохранению здоровой микрофлоры интимных зон.Не имеет цвета и запаха. Легко смывается водой. Подходит для ежедневного использования.Перед интимной близостью гель-лубрикант наносится на вход во влагалище и головку полового члена. Если во время секса используется презерватив, Intim Health распределяется на поверхность надетого на пенис контрацептива.Для профилактического ухода за интимной зоной средство наносится на вход во влагалище после гигиенических процедур. Увлажняющий интимный гель INTIM HEALTH (100 г).  Увлажняющий интимный гель INTIM HEALTH (100 г). Модель: bioritm-31001. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Нежный гель-лубрикант на водной основе дарит интенсивное увлажнение и потрясающее скольжение во время интимной близости. Великолепно устраняет сухость тканей половых органов, смягчает, дарит ощущение комфорта. Гиалуроновая кислота в составе лубритканта бережно ухаживает за слизистой, способствует нормализации водного баланса, активизирует процессы регенерации. Гель не имеет цвета и запаха. Не оставляет пятен на белье. Легко смывается водой. Увлажняющий интимный гель Love Love (в упаковке 5 шт).  Увлажняющий интимный гель Love Love (в упаковке 5 шт). Модель: bioritm-70027. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -9773,17 +10179,17 @@
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr">
         <is>
-          <t>100 г</t>
+          <t>5 * 4 г</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>5 * 4</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>100 г</t>
+          <t>5 * 4 г</t>
         </is>
       </c>
       <c r="W79" t="inlineStr"/>
@@ -9809,7 +10215,7 @@
       <c r="AM79" t="inlineStr"/>
       <c r="AN79" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 пробников</t>
         </is>
       </c>
       <c r="AO79" t="inlineStr">
@@ -9829,7 +10235,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Возбуждающие препараты</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -9845,12 +10251,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Увлажняющий интимный гель INTIM HEALTH</t>
+          <t>Возбуждающий крем для женщин ВОЖДЕЛЕНИЕ</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>id-28036-1299</t>
+          <t>id-3354-1299</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -9864,10 +10270,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3354/3354_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3354/3354_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3354/3354_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3354/3354_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гель-лубрикант на водной основе глубоко и интенсивно увлажняет ткани половых органов, восполняет недостаток естественной смазки, обеспечивает нежное проникновение и продолжительное скольжение, защищает от микротравм. Бережно ухаживает за интимными зонами, устраняет сухость, повышает эластичность стенок влагалища, дарит ощущение комфорта, в т. ч. и в период менопаузы.Мочевина и аргинин в составе активно увлажняют и восстанавливают слизистые. Молочная кислота поддерживает нормальный pH баланс, способствует сохранению здоровой микрофлоры интимных зон.Не имеет цвета и запаха. Легко смывается водой. Подходит для ежедневного использования.Перед интимной близостью гель-лубрикант наносится на вход во влагалище и головку полового члена. Если во время секса используется презерватив, Intim Health распределяется на поверхность надетого на пенис контрацептива.Для профилактического ухода за интимной зоной средство наносится на вход во влагалище после гигиенических процедур. Увлажняющий интимный гель INTIM HEALTH (5 шт  3 г).  Увлажняющий интимный гель INTIM HEALTH (5 шт  3 г). Модель: bioritm-31002. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Крем Вожделение поможет вырваться голосу страсти наружу. Затаив дыхание и предвкушая свои самые смелые эротические фантазии, обладательница средства претворит в жизнь самые изощренные сексуальные грезы. Крем сразу впитывается и усиливает кровоток в области клитора. Повышает чувствительности эрогенных зон, усиливает возбуждение и приближает время оргазма. Начинает действовать через 7-12 минут. Вызывает ощущение тепла и приятной щекотки в эрогенной зоне. Оказывает смягчающее и увлажняющее действие. Применение: нанесите на эрогенные зоны и наружные половые органы женщины (половые губы, клитор) за 5-15 минут до интимной близости. Доза подбирается индивидуально  от 1-2 капель. Возбуждающий крем для женщин ВОЖДЕЛЕНИЕ (15 мл).  Возбуждающий крем для женщин ВОЖДЕЛЕНИЕ (15 мл). Модель: bioritm-80002. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -9889,17 +10299,17 @@
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr">
         <is>
-          <t>5 * 3 г</t>
+          <t>15 мл</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>5 * 3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>5 * 3 г</t>
+          <t>15 мл</t>
         </is>
       </c>
       <c r="W80" t="inlineStr"/>
@@ -9925,7 +10335,7 @@
       <c r="AM80" t="inlineStr"/>
       <c r="AN80" t="inlineStr">
         <is>
-          <t>5 саше по 3 г</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO80" t="inlineStr">
@@ -9945,7 +10355,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Возбуждающие препараты</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -9956,17 +10366,17 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Клиторальный вибростимулятор Sweet Toys</t>
+          <t>Возбуждающий крем для мужчин Stand Up</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>id-25986-1299</t>
+          <t>id-21963-1299</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -9980,10 +10390,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21963/21963_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21963/21963_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21963/21963_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Миниатюрный вибростимулятор подойдет как для игры соло, так и в паре для стимуляции любых внешних эрогенных зон (клитора, сосков и т.д.). Работает игрушка от трех батареек. Кнопка включения находится на корпусе вибропули. Модель имеет один режим вибрации. Вибростимулятор имеет мягкие точки и выступ на корпусе для дополнительных ощущений. Игрушка изготовлена из мягкого тактильного силикона. Клиторальный вибростимулятор Sweet Toys.  Клиторальный вибростимулятор Sweet Toys. Модель: bioritm-40144-3. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: красный. Материал: высококачественный силикон с бархатистой поверхностью. LR 44 x 3 шт (в комплекте)Бренд: BIORITM. </t>
+          <t xml:space="preserve">Крем Stand Up существенно отличается от других стимуляторов тем, что дарит мужчине необычные, приносящие удовольствие ощущения. После нанесения он не только разогревает, повышая уровень сексуального возбуждения и увеличивая чувствительность, но и даёт ни с чем не сравнимую волнообразную смену ощущений - возбуждающее тепло и стимулирующий холодок. А приятный аромат земляники добавляет пикантности любовной игре.Stand Up - это не просто стимулирующий крем, но и возможность испытать невероятное тактильное наслаждение. Благодаря своему необычному действию, крем позволяет мужчине ощутить неповторимую гамму чувств!Stand Up прост в применении. Достаточно нанести небольшое количество крема на кожу полового члена и слегка втереть массирующими движениями незадолго до интимной близости.Stand Up обладает нежной и лёгкой текстурой. Экстракт перца красного в составе крема усиливает кровоток и повышает чувствительность. Аргинин положительно влияет на эрекцию. Возбуждающий крем для мужчин Stand Up (25 г).  Возбуждающий крем для мужчин Stand Up (25 г). Модель: bioritm-80006. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Препараты и возбудители &gt; Усиление эрекции. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -9993,46 +10407,36 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U81" t="inlineStr"/>
+          <t>25 г</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W81" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="X81" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>12.7</v>
-      </c>
+          <t>25 г</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
       <c r="AC81" t="inlineStr"/>
       <c r="AD81" t="inlineStr"/>
@@ -10071,7 +10475,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Пэстис эротик</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -10082,52 +10486,68 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Безремневой страпон с вибрацией Sweet</t>
+          <t>Блестящие черные пестисы-сердечки с</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>id-19550-1299</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
+          <t>id-28178-1299</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
         <v>99999</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Безремневой страпон с вибрацией Sweet Toys (розовый)</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28178/28178_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28178/28178_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28178/28178_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28178/28178_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Хотите разнообразить сексуальную жизнь? Фантастический вибромассажер исполнит вашу мечту!Сочетание реалистичного пениса с четко очерченной головкой и пульсирующими венками, стимулятора в форме елочки и анальной втулки делает секс-игрушку просто необыкновенной. Она может использоваться как соло, так и в парной любовной игре. Режим вибрация добавит удовольствия от использования интимного аксессуара.Литая форма вибромассажера исключает наличие соединительных швов, в которых может образоваться неблагоприятная микрофлора, что обеспечивает максимальную гигиеничность. Изделие изготовлено из гипоаллергенного силикона, просто в применении и уходе.Рекомендуется использовать втулку совместно с лубрикантом на водной основе и очищающий спрей с антимикробным эффектом CLEARTOY для экспресс-обработки. Безремневой страпон с вибрацией Sweet Toys (розовый).  Безремневой страпон с вибрацией Sweet Toys (розовый). Модель: bioritm-40185-16. Секс-игрушки. Страпоны и фаллопротезы &gt; Страпоны. Страпоны и фаллопротезы &gt; Для двойного и тройного проникновения. Страпоны и фаллопротезы &gt; Безремневые страпоны. Цвет: розовый. высококачественный силикон с бархатистой поверхностьюБренд: BIORITM. </t>
+          <t xml:space="preserve">Добавить изюминку в любовную игру помогут оригинальные пэстисы с игривыми кисточками. Они украсят соски, сделав грудь привлекательной и манящей. Внешняя сторона изделий отделана пайетками. На внутренней имеется специальный силиконовый слой, за счёт которого аксессуары держаться на сосках.Перед использованием с внутренней стороны пэстисов необходимо снять защитную накладку. Интимные аксессуары наклеиваются на чистую кожу без использования косметических средств. Блестящие черные пестисы-сердечки с кисточками.  Блестящие черные пестисы-сердечки с кисточками. Модель: bioritm-80598. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный. Материал: текстиль. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>текстиль</t>
+        </is>
+      </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr">
         <is>
@@ -10142,25 +10562,15 @@
       </c>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="Z82" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA82" t="n">
-        <v>14</v>
-      </c>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
       <c r="AD82" t="inlineStr"/>
       <c r="AE82" t="inlineStr"/>
-      <c r="AF82" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>0.3</v>
-      </c>
+      <c r="AF82" t="inlineStr"/>
+      <c r="AG82" t="inlineStr"/>
       <c r="AH82" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10173,7 +10583,7 @@
       <c r="AM82" t="inlineStr"/>
       <c r="AN82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> длина вагин. фал-са 7 см, макс. диаметр 3,2 см, длина анал. фал-са 9,5 см, макс. диаметр 2,8 см</t>
+          <t>два пестиса</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
@@ -10193,7 +10603,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Пэстис эротик</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -10204,21 +10614,29 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Небольшая силиконовая пробка с</t>
+          <t>Блестящие красные пестисы с кисточками</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>id-17166-1299</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
+          <t>id-28177-1299</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>50-52</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
         <v>99999</v>
@@ -10228,10 +10646,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28177/28177_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28177/28177_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28177/28177_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28177/28177_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Небольшая силиконовая пробка с металлическим кольцом Sex Expert.  Небольшая силиконовая пробка с металлическим кольцом Sex Expert. Модель: bioritm-55051. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: черный с серебряным. Материал: высококачественный силикон с бархатистой поверхностью, металл. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Добавить изюминку в любовную игру помогут оригинальные пестисы с игривыми кисточками. Они украсят соски, сделав грудь привлекательной и манящей. Внешняя сторона изделий отделана блестками, а на внутренней имеется специальный силиконовый слой, за счёт которого аксессуары держаться на сосках.Перед использованием с внутренней стороны пестисов необходимо снять защитную накладку. Интимные аксессуары наклеиваются на чистую кожу без использования косметических средств. Блестящие красные пестисы с кисточками.  Блестящие красные пестисы с кисточками. Модель: bioritm-80599. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: красный. Материал: текстиль. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -10251,7 +10673,7 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, металл</t>
+          <t>текстиль</t>
         </is>
       </c>
       <c r="S83" t="inlineStr"/>
@@ -10268,29 +10690,15 @@
       </c>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="Z83" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AA83" t="n">
-        <v>9.800000000000001</v>
-      </c>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
       <c r="AC83" t="inlineStr"/>
-      <c r="AD83" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="AF83" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="AD83" t="inlineStr"/>
+      <c r="AE83" t="inlineStr"/>
+      <c r="AF83" t="inlineStr"/>
+      <c r="AG83" t="inlineStr"/>
       <c r="AH83" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10303,7 +10711,7 @@
       <c r="AM83" t="inlineStr"/>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>два пестиса</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
@@ -10323,7 +10731,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -10339,12 +10747,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Стимулятор простаты с вибрацией Sex</t>
+          <t>Крем для увеличения пениса MISTER XXL</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>id-17152-1299</t>
+          <t>id-18515-1299</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -10358,10 +10766,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18515/18515_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sexual health and pleasure - вибромассажер от Sex Expert работает на благо твоего здоровья и удовольствия! Стимулятор имеет эргономичную форму, что обеспечивает легкое и комфортное введение. Для усиления приятных ощущений секс-игрушка состоит из нескольких стимулирующих элементов. Подходит для анальной стимуляции и для массажа простаты. Аксессуар снабжен специальным ограничителем для контроля глубины проникновения. Вибрация дарит дополнительное наслаждение. Приятный на ощупь интимный аксессуар сделан из гипоаллергенного силикона. Для более комфортного использования рекомендуем приобрести лубрикант на водной основе и очищающий спрей с антимикробным эффектом ClearToy для экспресс-обработки изделия. Стимулятор простаты с вибрацией Sex Expert (1 скорость).  Стимулятор простаты с вибрацией Sex Expert (1 скорость). Модель: bioritm-55072. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. AAA x 1 шт (в комплекте)Бренд: BIORITM. </t>
+          <t xml:space="preserve">Доступный, простой и эффективный способ увеличения пропорций члена  сочетание специальных упражнений и крема для коррекции размеров МИСТЕР XXL.Ткани, из которых состоит пенис, способны к растяжению. Правильное воздействие на них позволяет дорастить член. Использование МИСТЕР XXL ускоряет этот процесс. Экстракт имбиря в составе усиливает кровообращение, помогает повысить чувственность, повышает сексуальное влечение.Биоактивный комплекс крема способствует нормализации эрекции, интенсивно питает, стимулирует обменные процессы, повышает тонус тканей. Его применение эффективно как при ручном массаже, так и совместно с помпой или экстендером.МИСТЕР XXL это:- увеличение члена в длину и ширину.- улучшение кровообращения.- обогащение клеток полезными компонентами.- сильное сексуальное влечение.- продолжительная эрекция.- упругие и эластичные ткани пениса. Крем для увеличения пениса MISTER XXL (50 г).  Крем для увеличения пениса MISTER XXL (50 г). Модель: bioritm-90006. Косметика, препараты. Смазки, косметика &gt; Увеличение размера члена. Увеличение пениса &gt; Кремы, препараты. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -10379,48 +10791,34 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+      <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U84" t="inlineStr"/>
+          <t>50 г</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>14</v>
-      </c>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
       <c r="AC84" t="inlineStr"/>
-      <c r="AD84" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>2.915</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>2.65</v>
-      </c>
+      <c r="AD84" t="inlineStr"/>
+      <c r="AE84" t="inlineStr"/>
+      <c r="AF84" t="inlineStr"/>
+      <c r="AG84" t="inlineStr"/>
       <c r="AH84" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10453,7 +10851,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вагинальные шарики</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -10464,17 +10862,17 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Стимулятор простаты с массажером</t>
+          <t>Шарик вагинальный силиконовый Cosmo</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>id-17139-1299</t>
+          <t>id-18136-1299</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -10488,25 +10886,29 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18136/18136_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18136/18136_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18136/18136_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activator of male power Вибромассажер - вибромассажер от Sex Expert работает на благо твоего здоровья и удовольствия! Стимулятор имеет эргономичную форму, что обеспечивает легкое и комфортное введение. Идеально подходит для массажа простаты. Режим вибрация дарит дополнительные ощущения. Секс-игрушка имеет специальный отросток, который воздействует на точку проекции простаты. Отросток также служит специальным ограничителем для контроля глубины проникновения. Приятный на ощупь интимный аксессуар сделан из гипоаллергенного силикона. Для более комфортного использования рекомендуем приобрести лубрикант на водной основе и очищающий спрей с антимикробным эффектом ClearToy для экспресс-обработки изделия. Стимулятор простаты с массажером мошонки с вибрацией Sex Expert (1 скорость).  Стимулятор простаты с массажером мошонки с вибрацией Sex Expert (1 скорость). Модель: bioritm-55073. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. AAA x 1 шт (в комплекте)Бренд: BIORITM. </t>
+          <t xml:space="preserve">Вагинальный шарик из линейки COSMO - возможность поднять сексуальные отношения на качественно новый уровень! Компактный эротический аксессуар предназначен для тренировки мышц любви. Он прекрасно подойдет для начинающих практиковать интимный фитнес. Систематические занятия позволят дарить и получать невероятное удовольствие от занятий сексом.Изделие снабжено шнурком-хвостиком для легкого извлечения. Секс-игрушка имеет мягкую, приятную на ощупь поверхность, изготовлена из высококачественного силикона.Для комфортного использования рекомендуется применять лубрикант на водной основе и очищающий спрей с антимикробным эффектом ClearToy для экспресс-обработки. Шарик вагинальный силиконовый Cosmo.  Шарик вагинальный силиконовый Cosmo. Модель: bioritm-csm-23078. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Цвет: розовый с фиолетовым. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -10528,24 +10930,18 @@
       </c>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>10</v>
-      </c>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="inlineStr"/>
       <c r="AD85" t="inlineStr"/>
       <c r="AE85" t="inlineStr"/>
       <c r="AF85" t="n">
-        <v>2.86</v>
+        <v>3.63</v>
       </c>
       <c r="AG85" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="AH85" t="inlineStr">
         <is>
@@ -10579,7 +10975,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -10590,17 +10986,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Перезаряжаемый массажер простаты Sex</t>
+          <t>Вибромассажер с щетинками на головке</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>id-27875-1299</t>
+          <t>id-18118-1299</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -10614,30 +11010,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18118/18118_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18118/18118_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18118/18118_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Великолепная секс-игрушка для любителей особых удовольствий. Эргономичная форма интимного аксессуара обеспечит нежное проникновение, комфортное скольжение и незабываемые эмоции во время прелюдии или мастурбации. Остроты ощущениям добавят разнообразные режимы вибрации.Секс-игрушка может использоваться для стимуляции простаты.Изделие имеет твёрдый, но лёгкий корпус, что позволяет регулировать силу воздействия на эрогенный зоны.Включение.выключение вибрации: нажать и в течение 2 секунд удерживать кнопку на корпусе изделия. Переключение виброрежимов: короткое нажатие той же кнопки.Включать, выключать или переключать виброрежимы можно даже во время использования изделия.Вибромассажёр изготовлен из высококачественных материалов. Прост в использовании и уходе. Перезаряжаемый массажер простаты Sex Expert (10 режимов).  Перезаряжаемый массажер простаты Sex Expert (10 режимов). Модель: bioritm-55210. Секс-игрушки. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный с золотистым. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Любите яркий и разнообразный секс? Вибромассажер из серии COSMO создан специально для вас! Эргономичная форма способствует комфортному использованию эротического аксессуара. Небольшие пупырышки на конце секс-игрушки позволяют стимулировать точку G. Изделие имеет вибрацию с возможностью переключения скорости работы.Вибромассажер изготовлен из гипоаллергенного силикона, выполнен в приятном фиолетовом цвете.Для комфортного использования рекомендуется применять лубрикант на водной основе и очищающий спрей с антимикробным эффектом ClearToy для экспресс-обработки. Вибромассажер с щетинками на головке Cosmo Lady's Dream (20 режимов).  Вибромассажер с щетинками на головке Cosmo Lady's Dream (20 режимов). Модель: bioritm-csm-23100. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: фиолетовый. Материал: высококачественный силикон с бархатистой поверхностью. AA x 1 шт (в комплекте)Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S86" t="inlineStr"/>
@@ -10655,27 +11055,23 @@
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="n">
-        <v>24.75</v>
+        <v>16.5</v>
       </c>
       <c r="Z86" t="n">
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="AA86" t="n">
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="AB86" t="inlineStr"/>
       <c r="AC86" t="inlineStr"/>
-      <c r="AD86" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="AD86" t="inlineStr"/>
+      <c r="AE86" t="inlineStr"/>
       <c r="AF86" t="n">
-        <v>2.915</v>
+        <v>3.08</v>
       </c>
       <c r="AG86" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="AH86" t="inlineStr">
         <is>
@@ -10689,7 +11085,7 @@
       <c r="AM86" t="inlineStr"/>
       <c r="AN86" t="inlineStr">
         <is>
-          <t>стимулятор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO86" t="inlineStr">
@@ -10709,7 +11105,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Эрекционные кольца</t>
+          <t>Возбуждающие препараты</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -10725,12 +11121,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Мощное перезаряжаемое эрекционное</t>
+          <t>Возбуждающий крем для мужчин Sextaz-M c</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>id-27876-1299</t>
+          <t>id-2315-1299</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -10744,10 +11140,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2315/2315_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/2315/2315_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оригинальная секс-игрушка для усиления эрекции. Надевается на неэрегированный половой член. На пике возбуждения кольцо плотно обхватывает основание пениса, уменьшая отток крови и укрепляя эрекцию. В результате повышается уровень возбуждения, а близость становится максимально чувственной. Остроты ощущениям добавляют разнообразные режимы вибрации.Эротический аксессуар изготовлен из высококачественных материалов. Прост в использовании и уходе.Включение.выключение вибрации: нажать и в течение 2 секунд удерживать кнопку на корпусе изделия. Переключение виброрежимов: короткое нажатие той же кнопки. Мощное перезаряжаемое эрекционное вибро-кольцо Sex Expert.  Мощное перезаряжаемое эрекционное вибро-кольцо Sex Expert. Модель: bioritm-55211. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Крем для мужчин с возбуждающим эффектом. Действует мгновенно и продолжительно. Обостряет ощущения во время близости. Усиливает возбуждение и эрекцию. Быстрая и длительная стимуляция возбуждения. Наносится на половой орган мужчины (головка полового члена и крайняя плоть) перед контактом. Дозировка от 1-2 капель, подбирается индивидуально. Возбуждающий крем для мужчин Sextaz-M c разогревающим эффектом (20 мл).  Возбуждающий крем для мужчин Sextaz-M c разогревающим эффектом (20 мл). Модель: bioritm-m9. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Препараты и возбудители &gt; Усиление эрекции. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -10757,29 +11157,29 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U87" t="inlineStr"/>
+          <t>20 мл</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>20 мл</t>
         </is>
       </c>
       <c r="W87" t="inlineStr"/>
@@ -10791,12 +11191,8 @@
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="inlineStr"/>
-      <c r="AF87" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="AF87" t="inlineStr"/>
+      <c r="AG87" t="inlineStr"/>
       <c r="AH87" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10809,7 +11205,7 @@
       <c r="AM87" t="inlineStr"/>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>эрекционное кольцо, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO87" t="inlineStr">
@@ -10829,32 +11225,40 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Пояса верности</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>BIORITM</t>
+          <t>BLUE LINE</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Перезаряжаемый анальный стимулятор Sex</t>
+          <t>Плотная сбруя целомудрия для члена с</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>id-27878-1299</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
+          <t>id-22799-1299</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
         <v>99999</v>
@@ -10864,15 +11268,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22799/22799_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22799/22799_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальная втулка с разнообразными режимами вибрации мягко подготовит к близости, познакомит с новыми ощущениями, сделает секс максимально насыщенным и ярким.Интимный аксессуар подойдет как для новичков, так и для опытных любителей особенных удовольствий.Эргономичная форма изделия обеспечит нежное введение, а удобная ручка-ограничитель позволит регулировать глубину проникновения.Чтобы включить втулку нажми и удерживай кнопку на основании в течение 2 секунд. Короткими нажатиями выбери нужный режим вибрации. Снова удерживай кнопку 2 секунды для выключения игрушки.Втулка выполнена из высококачественного бархатистого силикона. Перезаряжаемый анальный стимулятор Sex Expert (10 режимов).  Перезаряжаемый анальный стимулятор Sex Expert (10 режимов). Модель: bioritm-55212. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Фиксирующая оболочка целомудрия - идеальный способ запереть член во время сексуальных пыток. Уникальный дизайн выполнен из 2 стальных колец и фиксирующего ремешка. Плотная сбруя целомудрия для члена с замком.  Плотная сбруя целомудрия для члена с замком. Модель: blueline-blm3069. БДСМ. БДСМ товары и фетиш &gt; Пояса верности. Цвет: черный с серебристым. Материал: эко кожа, металл. Батареек нет в комплекте. Бренд: BLUE LINE. </t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -10887,7 +11295,7 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>эко кожа, металл</t>
         </is>
       </c>
       <c r="S88" t="inlineStr"/>
@@ -10904,29 +11312,15 @@
       </c>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA88" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr"/>
       <c r="AC88" t="inlineStr"/>
-      <c r="AD88" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="AF88" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AG88" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="AD88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr"/>
+      <c r="AF88" t="inlineStr"/>
+      <c r="AG88" t="inlineStr"/>
       <c r="AH88" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10939,7 +11333,7 @@
       <c r="AM88" t="inlineStr"/>
       <c r="AN88" t="inlineStr">
         <is>
-          <t>анальный стимулятор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO88" t="inlineStr">
@@ -10959,13 +11353,13 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>BIORITM</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -10975,12 +11369,12 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Перезаряжаемый анальный стимулятор Sex</t>
+          <t>Интимный гель-смазка на водной основе</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>id-27879-1299</t>
+          <t>id-19693-1299</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -10994,10 +11388,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19693/19693_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19693/19693_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальная втулка с разнообразными режимами вибрации мягко подготовит к близости, познакомит с новыми ощущениями, сделает секс максимально насыщенным и ярким.Интимный аксессуар подойдет как для новичков, так и для опытных любителей особенных удовольствий.Эргономичная форма изделия обеспечит нежное введение, а удобная ручка-ограничитель позволит регулировать глубину проникновения.Чтобы включить втулку нажми и удерживай кнопку на основании в течение 2 секунд. Короткими нажатиями выбери нужный режим вибрации. Снова удерживай кнопку 2 секунды для выключения игрушки.Втулка выполнена из высококачественного бархатистого силикона. Перезаряжаемый анальный стимулятор Sex Expert (10 режимов).  Перезаряжаемый анальный стимулятор Sex Expert (10 режимов). Модель: bioritm-55213. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Освежить сексуальную жизнь и привнести в нее нотку новизны поможет интимная смазка в стильной упаковке UNIVERSAL SEX. Гель имеет ненавязчивый запах, пробуждающий чувственность. С ним легко безбоязненно экспериментировать и открывать новые горизонты в сексе - лубрикант увлажняет, питает, улучшает скольжение. Он позволит забыть о натирании, жжении, боли и других неприятных ощущениях. Интимный гель-смазка на водной основе UNIVERSAL SEX (200 мл).  Интимный гель-смазка на водной основе UNIVERSAL SEX (200 мл). Модель: bmn-0002. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -11007,56 +11405,42 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U89" t="inlineStr"/>
+          <t>200 мл</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="Z89" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA89" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="inlineStr"/>
       <c r="AC89" t="inlineStr"/>
-      <c r="AD89" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="AF89" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="AD89" t="inlineStr"/>
+      <c r="AE89" t="inlineStr"/>
+      <c r="AF89" t="inlineStr"/>
+      <c r="AG89" t="inlineStr"/>
       <c r="AH89" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11069,7 +11453,7 @@
       <c r="AM89" t="inlineStr"/>
       <c r="AN89" t="inlineStr">
         <is>
-          <t>анальный стимулятор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO89" t="inlineStr">
@@ -11089,13 +11473,13 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>BIORITM</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -11105,12 +11489,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Перезаряжаемая анальная втулка для</t>
+          <t>Увлажняющий интимный гель-смазка на</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>id-27880-1299</t>
+          <t>id-19694-1299</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -11124,10 +11508,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19694/19694_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальная втулка с разнообразными режимами вибрации мягко подготовит к близости, познакомит с новыми ощущениями, сделает секс максимально насыщенным и ярким.Интимный аксессуар подойдет как для новичков, так и для опытных любителей особенных удовольствий.Эргономичная форма изделия обеспечит нежное введение, а удобная ручка-ограничитель позволит регулировать глубину проникновения.Чтобы включить втулку нажми и удерживай кнопку на основании в течение 2 секунд. Короткими нажатиями выбери нужный режим вибрации. Снова удерживай кнопку 2 секунды для выключения игрушки.Втулка выполнена из высококачественного бархатистого силикона. Перезаряжаемая анальная втулка для ношения Sex Expert (10 режимов).  Перезаряжаемая анальная втулка для ношения Sex Expert (10 режимов). Модель: bioritm-55214. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Интимный гель-смазка (лубрикант) SAVE SEX увлажняет, стимулирует и обостряет чувствительность, делая интимную близость страстной и чувственной. Шелковая и нежная структура лубриканта нежно заботится о самых нежных частях женского тела: предотвращает покраснения, препятствует натиранию, обладает регенерирующими и антибактериальным свойствами. Поддерживает и нормализует PH микрофлоры. Гель смазка идентична по органолептической структуре естественной смазке влагалища. Идеально сочетается с презервативами не вызывает натирания, долго сохраняет структуру скольжения, удобна и проста в применении. Эфирное масла Жасмина, входящие в состав геля, способствуют возбуждению партнеров, а нежный аромат этого цветка расслабит и настроит на ночь любви. Антоцианы (экстракт черники) в свою очередь выполняют роль спазмолитического, противовоспалительного, бактерицидного и антивирусного средства. Идеально сочетается со средствами контрацепции (презервативы) и любыми секс игрушками.  Удобен в применении. Легко смывается водой, не оставляет следов на одежде. Безопасен для применения с резиной и латексом, а также с устройствами, призванными обострить и разнообразить сексуальные отношения. Благодаря натуральным веществам, содержащимся в лубриканте нормализуется кровообращение половых органов обоих партнеров. Идеально увлажняет кожу интимных зон, повышая комфортность интимных отношений, обостряет эротические чувства, повышает чувственность эрогенных зон. Создает частый интерес и наслаждение к сексу. Увлажняющий интимный гель-смазка на водной основе SAVE SEX (200 мл).  Увлажняющий интимный гель-смазка на водной основе SAVE SEX (200 мл). Модель: bmn-0004. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -11137,56 +11525,42 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U90" t="inlineStr"/>
+          <t>200 мл</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="Z90" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="AA90" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="inlineStr"/>
       <c r="AC90" t="inlineStr"/>
-      <c r="AD90" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="AF90" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="AD90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr"/>
+      <c r="AF90" t="inlineStr"/>
+      <c r="AG90" t="inlineStr"/>
       <c r="AH90" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11199,7 +11573,7 @@
       <c r="AM90" t="inlineStr"/>
       <c r="AN90" t="inlineStr">
         <is>
-          <t>анальный стимулятор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO90" t="inlineStr">
@@ -11219,28 +11593,28 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Эрекционные кольца</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>BIORITM</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Кольцо эрекционное двойное со</t>
+          <t>Интимный гель-смазка на водной основе</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>id-27877-1299</t>
+          <t>id-19684-1299</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -11254,10 +11628,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19684/19684_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Двойное эрекционное кольцо со стимулятором промежности для удовлетворения твоих сексуальных желаний! Интимный аксессуар усиливает эрекцию и нежно воздействует на область промежности, доводя до пика возбуждения.Изделие состоит из двух колец. Одно имеет классическую круглую форму, второе из круга переходит в небольшой отросток с выпуклостями и утолщённым концом. Оба кольца надеваются на основание пениса, при этом стимулирующий отросток располагается по направлению к анусу. Нижнее кольцо с отростком фиксируется на мошонке.Благодаря своей упругости и эластичности интимный аксессуар плотно прилегает к пенису и мошонке, интенсивнее воздействуя на эрогенные зоны.Эрекционное кольцо выполнено из высококачественного бархатистого силикона. Кольцо эрекционное двойное со стимулятором промежности.  Кольцо эрекционное двойное со стимулятором промежности. Модель: bioritm-55215. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Без вибрации. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Интимный гель лубрикант JUICY FRUIT увлажняет, тонизирует, стимулирует и обостряет чувствительность интимных мест. Подходит обоим партнерам. Оберегает от раздражения. Универсальный гель на водной основе можно использовать для различных прелюдий. Если у вас возникли трудности на пути преодоления определенного барьера, а также во избежание неудобства и неприятных ощущений мы создали маленькую сладкую хитрость, интимный гель JUICY FRUIT Отлично подойдет для легкого массажа эрогенных зон. Натуральные вещества и экстракты, содержащиеся в геле помогут нормализовать кровообращение, снять усталость, улучшить эмоциональный фон и почувствовать бодрость и прилив сил. Идеально увлажняет кожу интимных зон, повышая комфортность интимных отношений. Интимный гель-смазка на водной основе JUICY FRUIT (200 мл).  Интимный гель-смазка на водной основе JUICY FRUIT (200 мл). Модель: bmn-0012. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -11267,52 +11645,42 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U91" t="inlineStr"/>
+          <t>200 мл</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z91" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA91" t="n">
-        <v>10</v>
-      </c>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
       <c r="AB91" t="inlineStr"/>
       <c r="AC91" t="inlineStr"/>
       <c r="AD91" t="inlineStr"/>
       <c r="AE91" t="inlineStr"/>
-      <c r="AF91" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AG91" t="n">
-        <v>3</v>
-      </c>
+      <c r="AF91" t="inlineStr"/>
+      <c r="AG91" t="inlineStr"/>
       <c r="AH91" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11345,28 +11713,28 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>BIORITM</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Перезаряжаемое эрекционное кольцо с</t>
+          <t>Интимный гель-смазка для фистинга и</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>id-27881-1299</t>
+          <t>id-19692-1299</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -11380,10 +11748,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19692/19692_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19692/19692_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19692/19692_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19692/19692_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19692/19692_6_650.jpg</t>
+        </is>
+      </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эрекционное кольцо с вибрацией для незабываемого наслаждения и ярких оргазмов! Благодаря своей эластичности плотно обхватывает пенис, усиливая эрекцию и продлевая удовольствие. Отросток большего размера стимулирует промежность мужчины, меньшего  клитор партнёрши. Разнообразные режимы вибрации позволяют выбирать нужную интенсивность воздействия.Интимный аксессуар надевается на половой член и мошонку, отросток большего размера располагается в зоне промежности ребристой поверхностью по направлению к анальному отверстию.Включить.выключить девайс: нажать и в течение 2 секунд удерживать кнопку на корпусе изделия. Переключение режимов вибрации: короткое нажатие той же кнопки.Кольцо выполнено из высококачественного бархатистого силикона. Перезаряжаемое эрекционное кольцо с вибрацией Sex Expert (10 режимов).  Перезаряжаемое эрекционное кольцо с вибрацией Sex Expert (10 режимов). Модель: bioritm-55216. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Анальная смазка (лубрикант) ANAL SEX FIST идеально подходит для анального секса, фистинга, а так же для использования с большими игрушками. Уникальная формула состава была создана специально для того, чтобы обеспечить максимально комфортное ощущение и максимально предотвратить болезненное проникновение, но при этом сохранить чувствительность. Не травмирует, регенерирует и расслабляет анальное кольцо. Дополнительно увлажняет и тонизирует. Эта смазка для фистинга антибактериальным эффектом. Идеально сочетается с презервативами и секс-игрушками больших размеров. Эфирное масло майорана, входящее в состав геля, способствует болеутоляющему, противовоспалительному и спазмолитическому действию, а так же, используется в качестве антибактериального, противогрибкового и антисептического средства. Смазка для анального фистинга смывается водой, не оставляет следов на одежде. Безопасен для применения с резиной и латексом, а так же с устройствами, призванными обострить и разнообразить сексуальные отношения.   Способ применения: Гель наносится на область анального отверстия, внешнюю сторону презерватива или часть тела призванную подарить незабываемые ощущения. После полового акта желательно смыть гель-смазку теплой водой с мылом. Избегайте попадания в глаза. Использовать строго по назначению! Не является контрацептивом. Не использовать при поврежденной коже, при чувствительности на какой-либо компонент средства или при возникновении аллергии. Интимный гель-смазка для фистинга и анального секса ANAL SEX fist (200 мл).  Интимный гель-смазка для фистинга и анального секса ANAL SEX fist (200 мл). Модель: bmn-0013. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Смазки, косметика &gt; Для фистинга. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -11393,60 +11765,42 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U92" t="inlineStr"/>
+          <t>200 мл</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W92" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="X92" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="Y92" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="Z92" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA92" t="n">
-        <v>11</v>
-      </c>
+          <t>200 мл</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="inlineStr"/>
-      <c r="AD92" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE92" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="AF92" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AG92" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="AD92" t="inlineStr"/>
+      <c r="AE92" t="inlineStr"/>
+      <c r="AF92" t="inlineStr"/>
+      <c r="AG92" t="inlineStr"/>
       <c r="AH92" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11459,7 +11813,7 @@
       <c r="AM92" t="inlineStr"/>
       <c r="AN92" t="inlineStr">
         <is>
-          <t>эрекционное кольцо, магнитное зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO92" t="inlineStr">
@@ -11479,13 +11833,13 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>BIORITM</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -11495,12 +11849,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Гель-лубрикант на водной основе Intim</t>
+          <t>Оральный интимный гель JUICY FRUIT со</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>id-23018-1299</t>
+          <t>id-25798-1299</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -11514,10 +11868,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25798/25798_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гель-любрикант на водной основе с приятным освежающим ароматом мохито обеспечивает мягкое проникновение и лёгкое скольжение во время интимной близости. Великолепно увлажняет, после нанесения даёт эффект холодка. Легко смывается водой. Может использоваться с презервативами и интимными игрушками из разных материалов.Способ нанесения: гель-любрикант наносится на вход во влагалище и.или головку пениса непосредственно перед половым контактом. Если во время интимной близости используется презерватив, то любрикант наносится на вход во влагалище или на поверхность презерватива. Гель-лубрикант на водной основе Intim aroma Мохито (60 г).  Гель-лубрикант на водной основе Intim aroma Мохито (60 г). Модель: bioritm-60002. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Интимный гель-лубрикант JUICY FRUIT со вкусом сочной дыни прекрасно увлажняет, тонизирует, стимулирует и обостряет чувствительность интимных мест. Подходит обоим партнерам. Оберегает от раздражения. Универсальный гель на водной основе можно использовать для различных прелюдий. Если у вас возникли трудности на пути преодоления определенного барьера, а также во избежание неудобства и неприятных ощущений мы создали маленькую сладкую хитрость, интимный гель JUICY FRUIT. Отлично подойдет для легкого массажа эрогенных зон. Натуральные вещества и экстракты, содержащиеся в геле, помогут нормализовать кровообращение, снять усталость, улучшить эмоциональный фон и почувствовать бодрость и прилив сил. Идеально увлажняет кожу интимных зон, повышая комфортность интимных отношений. Оральный интимный гель JUICY FRUIT со вкусом дыни (100 мл).  Оральный интимный гель JUICY FRUIT со вкусом дыни (100 мл). Модель: bmn-0020. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -11539,17 +11897,17 @@
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>100</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="W93" t="inlineStr"/>
@@ -11595,13 +11953,13 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>BIORITM</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -11611,12 +11969,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Гель-лубрикан на водной основе Intim</t>
+          <t>Лубрикант Juicy Fruit на водной основе</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>id-6729-1299</t>
+          <t>id-20253-1299</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -11630,10 +11988,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20253/20253_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t xml:space="preserve">В продолжении классной вечеринки предстоит бурная ночь? Лубрикант Intim classic идеально подходит для романтического свидания. Он обеспечивает нежное проникновение, чувственное скольжение. В состав геля входят специальные компоненты: витамин Е стимулирует защиту слизистых, алоэ вера дополнительно увлажняет. Гель-лубрикант абсолютно без запаха. Легко смывается водой. Совместим с любыми изделиями из латекса и синтетических материалов. Применение: нанесите тонким слоем на области, требующие смазывания. Гель-лубрикан на водной основе Intim Classic (60 г).  Гель-лубрикан на водной основе Intim Classic (60 г). Модель: bioritm-60003. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Любите эксперименты в сексе и не боитесь радовать партнера новыми интересными идеями? Попробуйте интимный гель JUICY FRUIT со сладким ароматом дыни, чтобы провести незабываемую ночь страсти. Лубрикант облегчает проникновение и гарантирует легкое скольжение, он позволит получить максимум удовольствия без каких-либо неприятных ощущений. Гель-смазка подойдет для легкого массажа чувствительных эрогенных зон, чтобы прелюдия стала источником наслаждения для обоих партнеров.Гель изготовлен на водной основе без добавления жировых компонентов, поэтому им легко и удобно пользоваться. Он не оставляет пятен на постельном белье, после применения его можно просто смыть водой. Лубрикант легко распределяется по поверхности, шелковистая текстура дает приятное ощущение прохлады и свежести. Ощущения во время секса станут более яркими. Выбрать его стоит еще по нескольким причинам:    Гипоаллергенный состав. Безопасное средство не вызывает раздражения кожи и слизистой, не провоцирует неприятных ощущений.    Экономичность. Одной упаковки смазки хватает на долгое время благодаря небольшому расходу.    Легкое нанесение. Улучшение тонуса интимных мышц позволит сделать удовольствие насыщенным и продолжительным. Средство подойдет для использования во время упражнений Кегеля.Особенности примененияИспользуйте лубрикант во время прелюдии, чтобы максимально насладиться интимной близостью с партнером и создать нужный настрой. Он подходит для использования с силиконовыми и иными эротическими игрушками, это универсальный выбор для анального и вагинального секса. Лубрикант Juicy Fruit на водной основе с ароматом ДЫНИ (200 мл).  Лубрикант Juicy Fruit на водной основе с ароматом ДЫНИ (200 мл). Модель: bmn-0024. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -11655,17 +12017,17 @@
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>200</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W94" t="inlineStr"/>
@@ -11717,7 +12079,7 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>BIORITM</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -11727,12 +12089,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Возбуждающий лубрикант с согревающим</t>
+          <t>Лубрикант Juicy Fruit на водной основе</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>id-6730-1299</t>
+          <t>id-20252-1299</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -11746,10 +12108,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20252/20252_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Это своеобразное горючее, которое разжигает огонь любви с новой силой и помогает настроиться на нужный лад. Благодаря экстракту имбиря в составе лубрикант добавит вашей встрече перчинки. Природный афродизиак вызывает приятное ощущение тепла и усиливает возбуждение. Гель подарит нежное скольжение. Intim hot - это микс страсти и нежности. Легко смывается водой. Совместим с изделиями из латекса и синтетических материалов. Применение: нанесите тонким слоем на эрогенные зоны перед половым контактом. Возбуждающий лубрикант с согревающим эффектом Intim Hot (60 г).  Возбуждающий лубрикант с согревающим эффектом Intim Hot (60 г). Модель: bioritm-60004. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Интимный гель JUICY FRUIT с освежающим ароматом кокоса внесет приятное разнообразие в интимную жизнь пары и поможет открыть новые грани удовольствия. Смазка подойдет для вагинального и анального секса, это универсальный вариант для любых эротических экспериментов вдвоем или наедине с собой. Состав на водной основе удобен для нанесения, он не пачкается и легко смывается.Гипоаллергенный гель подходит всем, смазка станет пикантным дополнением к любовной прелюдии и повысит удовольствие от секса. Легкий запах кокоса не покажется навязчивым, тропическая свежесть поможет забыть о скованности во время любовной игры и полностью отдаться наслаждению. Продукт имеет ряд преимуществ:    Удобное применение. Средством легко воспользоваться во время эротической прелюдии. Нежными массирующими движениями нанесите его на чувствительные зоны, чтобы обеспечить легкое проникновение.    Безопасность. В составе отсутствуют любые вредные компоненты, средство не вызывает аллергических реакций.    Экономичность. Благодаря небольшому расходу одной упаковки хватит надолго.Гель поможет забыть о скованности и дискомфорте, он специально создан для тех, кто не боится экспериментировать. Лубрикант Juicy Fruit на водной основе с ароматом КОКОСА (200 мл).  Лубрикант Juicy Fruit на водной основе с ароматом КОКОСА (200 мл). Модель: bmn-0025. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -11771,17 +12137,17 @@
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>200</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W95" t="inlineStr"/>
@@ -11833,7 +12199,7 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>BIORITM</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -11843,12 +12209,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Лубрикант на силиконовой основе Intim</t>
+          <t>Лубрикант Juicy Fruit на водной основе</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>id-6727-1299</t>
+          <t>id-20251-1299</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -11862,10 +12228,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20251/20251_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Позволит дать волю самым смелым фантазиям, сексуальным желаниям и страсти. Идеально подходит для эротического массажа и интимной близости. Специальная формула гарантирует долгое и легкое скольжение. Вы забудете об ощущении липкости и жирности и будете наслаждаться каждым движением. Гипоаллергенно, не препятствует кожному дыханию, без запаха и цвета, совместим с изделиями из латекса (презервативами), но с секс-игрушками его лучше не использовать. Лубрикант на силиконовой основе Intim Silicon (60 г).  Лубрикант на силиконовой основе Intim Silicon (60 г). Модель: bioritm-60005. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Гель JUICY FRUIT со вкусом и ароматом коктейля Пина колада - отличный выбор для тех, кто хочет разнообразить интимную жизнь и подарить партнеру незабываемую ночь страсти. Гель-смазка подойдет для вагинального или анального секса, его легко использовать с любыми эротическими игрушками и презервативами. Он сделает интимные места более чувствительными, что позволит получить максимум удовольствия от любовных переживаний.Гель обеспечивает мягкое проникновение и нежное скольжение, он позволит забыть о любых неприятных ощущениях и отдаться чувственной страсти. Использовать его удобно по нескольким причинам:    Водная основа. Состав без жировых компонентов не пачкает одежду и постельное белье, его легко смыть водой.    Гипоаллергенный состав. Смазка не содержит веществ, способных спровоцировать неприятные реакции.    Освежающий аромат. Ненавязчивый запах поможет создать нужный настрой, чтобы забыть о скованности и раскрыться перед партнером.В составе присутствуют натуральные компоненты и экстракты, которые подарят бодрость и обеспечат прилив сил для любовных свершений.Способ примененияСмазка наносится тонким слоем на интимную зону или секс-предмет, ее удобно использовать во время эротической прелюдии. Она отлично подойдет для массажа чувствительных областей тела для возбуждения и положительного настроя. Идеальное увлажнение повысит комфорт обоих партнеров во время секса, и ночь станет по-настоящему незабываемой. Лубрикант Juicy Fruit на водной основе и с ароматом Пина Колада (200 мл).  Лубрикант Juicy Fruit на водной основе и с ароматом Пина Колада (200 мл). Модель: bmn-0026. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -11887,17 +12257,17 @@
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>200</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W96" t="inlineStr"/>
@@ -11949,7 +12319,7 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>BIORITM</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -11959,12 +12329,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Анальный лубрикант INTIM HOT SECRET</t>
+          <t>Анальный лубрикант ANAL SEX FIST 200</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>id-28173-1299</t>
+          <t>id-26804-1299</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -11978,10 +12348,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26804/26804_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26804/26804_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26804/26804_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальный гель-лубрикант на силиконовой основе разработан специально для любителей особых удовольствий! Хорошо смягчает ткани ануса, обеспечивает комфортные ощущения и дарит великолепное скольжение на протяжении всего полового акта. Не оставляет ощущения липкости. Легко смывается водой. Анальный лубрикант INTIM HOT SECRET ANAL (25 г).  Анальный лубрикант INTIM HOT SECRET ANAL (25 г). Модель: bioritm-60009-1. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Интимный гель-смазка (лубрикант) ANAL SEX FIST идеально подходит для анального секса, фистинга, а также для использования с большими игрушками. Уникальная формула состава была создана специально для того, чтобы обеспечить максимально комфортное ощущение и максимально предотвратить болезненное проникновение, но при этом сохранить чувствительность. Не травмирует, регенерирует и расслабляет анальное кольцо. Дополнительно увлажняет и тонизирует. Обладает антибактериальным эффектом. Идеально сочетается с презервативами и секс-игрушками больших размеров. Эфирное масло майорана, входящее в состав геля, способствует болеутоляющему, противовоспалительному и спазмолитическому действию, а также, используется в качестве антибактериального, противогрибкового и антисептического средства. Легко смывается водой, не оставляет следов на одежде. Безопасен для применения с резиной и латексом, а также с устройствами, призванными обострить и разнообразить сексуальные отношения. Способ применения: Гель наносится на область анального отверстия, внешнюю сторону презерватива или часть тела призванную подарить незабываемые ощущения. После полового акта желательно смыть гель-смазку теплой водой с мылом. Избегайте попадания в глаза. Использовать строго по назначению! Не является контрацептивом. Не использовать при поврежденной коже, при чувствительности на какой-либо компонент средства или при возникновении аллергии. Анальный лубрикант ANAL SEX FIST (200 мл).  Анальный лубрикант ANAL SEX FIST (200 мл). Модель: bmn-0036. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Смазки, косметика &gt; Для фистинга. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -12003,17 +12377,17 @@
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr">
         <is>
-          <t>25 г</t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>200</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>25 г</t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W97" t="inlineStr"/>
@@ -12059,13 +12433,13 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>BIORITM</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -12075,12 +12449,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Увлажняющая гель-смазка на водной</t>
+          <t>Натуральное массажное масло с</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>id-22991-1299</t>
+          <t>id-21698-1299</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -12094,10 +12468,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21698/21698_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21698/21698_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный гель-лубрикант на водной основе дарит интенсивное увлажнение и потрясающее скольжение во время интимной близости. Великолепно устраняет сухость тканей половых органов, смягчает, дарит ощущение комфорта. Гиалуроновая кислота в составе лубриканта бережно ухаживает за слизистой, способствует нормализации водного баланса, активизирует процессы регенерации.Гель не имеет цвета и запаха. Не оставляет пятен на белье. Легко смывается водой. Увлажняющая гель-смазка на водной основе с дозатором LoveLove (50 г).  Увлажняющая гель-смазка на водной основе с дозатором LoveLove (50 г). Модель: bioritm-70025. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Массажное масло с феромонами и чувственными ароматами, усилит сексуальные переживания и подарит незабываемое наслаждение! Создано специально для интимного массажа, мягко стимулирует самые чувствительные участки тела Вашего партнера и служит идеальной прелюдией для самых изысканных эротических сценариев.Всего несколько его капель обеспечивают отзывчивость эрогенных зон и прекрасное скольжение, приглашая Вас окунуться в проникновенный мир любовных приключений.Прекрасно ухаживает за кожей, увлажняя ее, не оставляет ощущения липкости.Натуральные ингредиенты, входящие в его состав, бережно питают и восстанавливают вашу кожу, делая ее бархатистой, насыщая витаминами, в то время пока Вы наслаждаетесь страстными прикосновения Вашего партнера. Натуральное массажное масло с феромонами Клубника в сливках (50 мл).  Натуральное массажное масло с феромонами Клубника в сливках (50 мл). Модель: bmn-0039. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -12119,7 +12497,7 @@
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
@@ -12129,7 +12507,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W98" t="inlineStr"/>
@@ -12175,13 +12553,13 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>BIORITM</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -12191,12 +12569,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Увлажняющая гель-смазка на водной</t>
+          <t>Натуральное массажное масло с</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>id-22992-1299</t>
+          <t>id-21703-1299</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -12210,10 +12588,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21703/21703_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21703/21703_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный гель-лубрикант на водной основе дарит интенсивное увлажнение и потрясающее скольжение во время интимной близости. Великолепно устраняет сухость тканей половых органов, смягчает, дарит ощущение комфорта. Гиалуроновая кислота в составе лубриканта бережно ухаживает за слизистой, способствует нормализации водного баланса, активизирует процессы регенерации. Увлажняющая гель-смазка на водной основе с дозатором LoveLove (20 г).  Увлажняющая гель-смазка на водной основе с дозатором LoveLove (20 г). Модель: bioritm-70026. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Массажное масло с феромонами и чувственными ароматами, усилит сексуальные переживания и подарит незабываемое наслаждение! Создано специально для интимного массажа, мягко стимулирует самые чувствительные участки тела Вашего партнера и служит идеальной прелюдией для самых изысканных эротических сценариев.Всего несколько его капель обеспечивают отзывчивость эрогенных зон и прекрасное скольжение, приглашая Вас окунуться в проникновенный мир любовных приключений.Прекрасно ухаживает за кожей, увлажняя ее, не оставляет ощущения липкости.Натуральные ингредиенты, входящие в его состав, бережно питают и восстанавливают вашу кожу, делая ее бархатистой, насыщая витаминами, в то время пока Вы наслаждаетесь страстными прикосновения Вашего партнера. Натуральное массажное масло с феромонами Янтарное утро (50 мл).  Натуральное массажное масло с феромонами Янтарное утро (50 мл). Модель: bmn-0040. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -12235,17 +12617,17 @@
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W99" t="inlineStr"/>
@@ -12291,13 +12673,13 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>BIORITM</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -12307,12 +12689,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Увлажняющий интимный гель Love Love в</t>
+          <t>Натуральное массажное масло с</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>id-27207-1299</t>
+          <t>id-21705-1299</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -12326,10 +12708,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21705/21705_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21705/21705_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный гель-лубрикант на водной основе дарит интенсивное увлажнение и потрясающее скольжение во время интимной близости. Великолепно устраняет сухость тканей половых органов, смягчает, дарит ощущение комфорта. Гиалуроновая кислота в составе лубритканта бережно ухаживает за слизистой, способствует нормализации водного баланса, активизирует процессы регенерации. Гель не имеет цвета и запаха. Не оставляет пятен на белье. Легко смывается водой. Увлажняющий интимный гель Love Love (в упаковке 5 шт).  Увлажняющий интимный гель Love Love (в упаковке 5 шт). Модель: bioritm-70027. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Массажное масло с феромонами и чувственными ароматами, усилит сексуальные переживания и подарит незабываемое наслаждение! Создано специально для интимного массажа, мягко стимулирует самые чувствительные участки тела Вашего партнера и служит идеальной прелюдией для самых изысканных эротических сценариев.Всего несколько его капель обеспечивают отзывчивость эрогенных зон и прекрасное скольжение, приглашая Вас окунуться в проникновенный мир любовных приключений.Прекрасно ухаживает за кожей, увлажняя ее, не оставляет ощущения липкости.Натуральные ингредиенты, входящие в его состав, бережно питают и восстанавливают вашу кожу, делая ее бархатистой, насыщая витаминами, в то время пока Вы наслаждаетесь страстными прикосновения Вашего партнера. Натуральное массажное масло с феромонами Гавайское лето (50 мл).  Натуральное массажное масло с феромонами Гавайское лето (50 мл). Модель: bmn-0042. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -12351,17 +12737,17 @@
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr">
         <is>
-          <t>5 * 4 г</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>5 * 4</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>5 * 4 г</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W100" t="inlineStr"/>
@@ -12387,7 +12773,7 @@
       <c r="AM100" t="inlineStr"/>
       <c r="AN100" t="inlineStr">
         <is>
-          <t>5 пробников</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO100" t="inlineStr">
@@ -12407,28 +12793,28 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Возбуждающие средства</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>BIORITM</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Возбуждающий крем для женщин ВОЖДЕЛЕНИЕ</t>
+          <t>Натуральное массажное масло с</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>id-3354-1299</t>
+          <t>id-21704-1299</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -12442,10 +12828,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21704/21704_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21704/21704_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Крем Вожделение поможет вырваться голосу страсти наружу. Затаив дыхание и предвкушая свои самые смелые эротические фантазии, обладательница средства претворит в жизнь самые изощренные сексуальные грезы. Крем сразу впитывается и усиливает кровоток в области клитора. Повышает чувствительности эрогенных зон, усиливает возбуждение и приближает время оргазма. Начинает действовать через 7-12 минут. Вызывает ощущение тепла и приятной щекотки в эрогенной зоне. Оказывает смягчающее и увлажняющее действие. Применение: нанесите на эрогенные зоны и наружные половые органы женщины (половые губы, клитор) за 5-15 минут до интимной близости. Доза подбирается индивидуально  от 1-2 капель. Возбуждающий крем для женщин ВОЖДЕЛЕНИЕ (15 мл).  Возбуждающий крем для женщин ВОЖДЕЛЕНИЕ (15 мл). Модель: bioritm-80002. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Массажное масло с феромонами и чувственными ароматами, усилит сексуальные переживания и подарит незабываемое наслаждение! Создано специально для интимного массажа, мягко стимулирует самые чувствительные участки тела Вашего партнера и служит идеальной прелюдией для самых изысканных эротических сценариев.Всего несколько его капель обеспечивают отзывчивость эрогенных зон и прекрасное скольжение, приглашая Вас окунуться в проникновенный мир любовных приключений.Прекрасно ухаживает за кожей, увлажняя ее, не оставляет ощущения липкости.Натуральные ингредиенты, входящие в его состав, бережно питают и восстанавливают вашу кожу, делая ее бархатистой, насыщая витаминами, в то время пока Вы наслаждаетесь страстными прикосновения Вашего партнера. Натуральное массажное масло с феромонами Райская вишня (50 мл).  Натуральное массажное масло с феромонами Райская вишня (50 мл). Модель: bmn-0043. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -12467,17 +12857,17 @@
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr">
         <is>
-          <t>15 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>15 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W101" t="inlineStr"/>

--- a/!parsed_items_100/1299/1299_199-300.xlsx
+++ b/!parsed_items_100/1299/1299_199-300.xlsx
@@ -655,12 +655,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Гель-лубрикант Услада с провитамином B5</t>
+          <t>Лубрикант на водной основе ОКЕЙ с</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>id-12975-1299</t>
+          <t>id-2267-1299</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -676,12 +676,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12975/12975_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12975/12975_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12975/12975_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2267/2267_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/2267/2267_3_650.jpg</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Витамин В5 и его предшественника провитамин В5 (пантенол-Д) по праву называют витамином красоты. Его недостаток в организме проявляется в увядании и старении: на коже образуются морщинки, на слизистой  трещинки. Поэтому провитамин В5 является незаменимым средством восстановления. Гель-лубрикант Услада с провитамином В5 усиленно регенерирует и интенсивно увлажняет слизистые. Особенно эффективен при сухости влагалища. Обеспечивает нежное проникновение и длительное скольжение при интимной близости, сохраняя целостность слизистых. Обладает заживляющими и смягчающими свойствами. Возвращает сухой и чувствительной слизистой состояние комфорта. Гель-лубрикант Услада с провитамином В5 отлично подходит для профилактического деликатного ухода за слизистой (при сухости влагалища в период климакса, после родов, операций и т.п.) Клиническое исследование показало, что регулярное применение геля-лубриканта с провитамином В5 способствует: -устранению сухости половых органов. -увеличению выделения собственной смазки перед половым актом. -повышению эластичности слизистой влагалища. Применение: перед интимной близостью нанесите тонким слоем на половые органы (половые губы, клитор, вход во влагалище). Для деликатного ухода за слизистой нанесите небольшое количество геля на вход во влагалище 2-3 раза в день после гигиенических процедур. Гель-лубрикант Услада с провитамином B5 (30 г).  Гель-лубрикант Услада с провитамином B5 (30 г). Модель: bioritm-16391. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Ароматический лубрикант позволяет дополнить удовольствие от интимной близости любимым ароматом. Гель обеспечивает отличное скольжение и увлажнение на протяжении всего акта. Совместим с секс-игрушками, презервативами. Легко смывается водой, не пачкает белье. Лубрикант на водной основе ОКЕЙ с ароматом яблока (50 г).  Лубрикант на водной основе ОКЕЙ с ароматом яблока (50 г). Модель: bioritm-20005. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -703,17 +703,17 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
@@ -775,12 +775,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Лубрикант на водной основе ОКЕЙ с</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>id-10320-1299</t>
+          <t>id-28094-1299</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -796,12 +796,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10320/10320_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10320/10320_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10320/10320_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28094/28094_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28094/28094_2_650.jpg</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом сочной вишни (30 г).  Оральный гель Tutti-Frutti со вкусом сочной вишни (30 г). Модель: bioritm-16968. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Ароматический лубрикант позволяет дополнить удовольствие от интимной близости любимым ароматом. Гель обеспечивает отличное скольжение и увлажнение на протяжении всего акта. Совместим с секс-игрушками, презервативами. Легко смывается водой, не пачкает белье. Лубрикант на водной основе ОКЕЙ с ароматом абрикоса (50 г).  Лубрикант на водной основе ОКЕЙ с ароматом абрикоса (50 г). Модель: bioritm-20006. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -823,17 +823,17 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W3" t="inlineStr"/>
@@ -895,12 +895,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Лубрикант на водной основе ОКЕЙ с</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>id-10318-1299</t>
+          <t>id-28093-1299</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -916,12 +916,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10318/10318_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10318/10318_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10318/10318_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28093/28093_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28093/28093_2_650.jpg</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом тропических фруктов (30 г).  Оральный гель Tutti-Frutti со вкусом тропических фруктов (30 г). Модель: bioritm-16970. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Ароматический лубрикант позволяет дополнить удовольствие от интимной близости любимым ароматом. Гель обеспечивает отличное скольжение и увлажнение на протяжении всего акта. Совместим с секс-игрушками, презервативами. Легко смывается водой, не пачкает белье. Лубрикант на водной основе ОКЕЙ с ароматом ананаса (50 г).  Лубрикант на водной основе ОКЕЙ с ароматом ананаса (50 г). Модель: bioritm-20007. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -943,17 +943,17 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W4" t="inlineStr"/>
@@ -1015,12 +1015,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Гель-лубрикант Услада с провитамином B5</t>
+          <t>Лубрикант на водной основе ОКЕЙ с</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>id-12974-1299</t>
+          <t>id-28095-1299</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12974/12974_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12974/12974_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12974/12974_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28095/28095_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28095/28095_2_650.jpg</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Витамин В5 и его предшественника провитамин В5 (пантенол-Д) по праву называют витамином красоты. Его недостаток в организме проявляется в увядании и старении: на коже образуются морщинки, на слизистой  трещинки. Поэтому провитамин В5 является незаменимым средством восстановления. Гель-лубрикант Услада с провитамином В5 усиленно регенерирует и интенсивно увлажняет слизистые. Особенно эффективен при сухости влагалища. Обеспечивает нежное проникновение и длительное скольжение при интимной близости, сохраняя целостность слизистых. Обладает заживляющими и смягчающими свойствами. Возвращает сухой и чувствительной слизистой состояние комфорта. Гель-лубрикант Услада с провитамином В5 отлично подходит для профилактического деликатного ухода за слизистой (при сухости влагалища в период климакса, после родов, операций и т.п.) Клиническое исследование показало, что регулярное применение геля-лубриканта с провитамином В5 способствует: -устранению сухости половых органов. -увеличению выделения собственной смазки перед половым актом. -повышению эластичности слизистой влагалища. Применение: перед интимной близостью нанесите тонким слоем на половые органы (половые губы, клитор, вход во влагалище). Для деликатного ухода за слизистой нанесите небольшое количество геля на вход во влагалище 2-3 раза в день после гигиенических процедур. Гель-лубрикант Услада с провитамином B5 (120 г).  Гель-лубрикант Услада с провитамином B5 (120 г). Модель: bioritm-18419. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Ароматический лубрикант позволяет дополнить удовольствие от интимной близости любимым ароматом. Гель обеспечивает отличное скольжение и увлажнение на протяжении всего акта. Совместим с секс-игрушками, презервативами. Легко смывается водой, не пачкает белье. Лубрикант на водной основе ОКЕЙ с ароматом малины (50 г).  Лубрикант на водной основе ОКЕЙ с ароматом малины (50 г). Модель: bioritm-20010. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1051,29 +1051,29 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
-          <t>120 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>120 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W5" t="inlineStr"/>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1130,17 +1130,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Интимный дезодорант для женщин DEO 18</t>
+          <t>Гель на водной основе с хлоргексидином</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>id-11581-1299</t>
+          <t>id-21528-1299</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11581/11581_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/11581/11581_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21528/21528_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21528/21528_2_650.jpg</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Безусловный маст хэв косметички каждой женщины  интим-дезодорант Lovespray deo. Это первый помощник и отличное дополнение к гигиенической процедуре в путешествиях. Специальный нежный дезодорант для интимных зон не содержит спирта. Продукт разработан с учетом сохранения здоровой микрофлоры интимной области. Деликатно устраняет ненужный запах и препятствует его дальнейшему появлению. Дарит длительное ощущение свежести и уверенности в себе. Обладает приятным ненавязчивым ароматом и смягчающим действием. Способствует снятию раздражения от моющих средств и депиляторов в области бикини. Современный флакон удобен в применении и позволяет нанести дезодорант максимально гигиенично. Применение: распылите на область бикини. Lovespray deo - незаменимое средство ухода для современной женщины. Интимный дезодорант для женщин DEO (18 мл).  Интимный дезодорант для женщин DEO (18 мл). Модель: bioritm-18772. Косметика, препараты. Смазки, косметика &gt; Косметика. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Гель-лубрикант О'кей плюс с хлоргексидином на водной основе  потрясающее средство для комфорта интимных отношений! Оно создано специально для тех, кто заботится о своем здоровье и стремится сделать секс более защищенным.О'кей плюс с хлоргексидином это:- прекрасное увлажнение:- продолжительное скольжение.- восполнение недостатка собственной смазки.- защита слизистых от повреждений во время секса.Гель-лубрикант не имеет цвета и запаха, легко смывается водой.О'кей плюс с хлоргексидином вознесет вашу интимную жизнь на новые вершины, сделает ее более насыщенной и безопасной!.Гель на водной основе с хлоргексидином ОКЕЙ плюс (50 г).  Гель на водной основе с хлоргексидином ОКЕЙ плюс (50 г). Модель: bioritm-20019. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
-          <t>18 мл</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>18 мл</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W6" t="inlineStr"/>
@@ -1255,12 +1255,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Лубрикант на водной основе ОКЕЙ с</t>
+          <t>Охлаждающий гибридный лубрикант SILICON</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>id-28096-1299</t>
+          <t>id-25281-1299</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -1276,12 +1276,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28096/28096_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25281/25281_1_650.jpg</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматический лубрикант позволяет дополнить удовольствие от интимной близости любимым ароматом. Гель обеспечивает отличное скольжение и увлажнение на протяжении всего акта. Совместим с секс-игрушками, презервативами. Легко смывается водой, не пачкает белье. Лубрикант на водной основе ОКЕЙ с ароматом вишни (50 г).  Лубрикант на водной основе ОКЕЙ с ароматом вишни (50 г). Модель: bioritm-20004. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Silicon Love Cool - анальный водно-силиконовый гель-лубрикант для любителей особых удовольствий! После нанесения лубрикант дарит ощущение холодка. Обеспечивает безболезненное проникновение и длительное скольжение во время интимной близости.Масло мяты в составе придаёт лубриканту аромат свежести. Экстракт корней дуба успокаивает кожу, снижает чувствительность и способствует расслаблению.Гель-лубрикант не оставляет ощущения липкости. Совместим с презервативами и секс-игрушками.Способ применения: нанести на зону анального отверстия.Если во время интимной близости используется презерватив, гель наносится на надетый на пенис презерватив. Охлаждающий гибридный лубрикант SILICON LOVE COOL (50 г).  Охлаждающий гибридный лубрикант SILICON LOVE COOL (50 г). Модель: bioritm-21004. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Лубрикант на водной основе ОКЕЙ с</t>
+          <t>Согревающий гибридный лубрикант SILICON</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>id-2267-1299</t>
+          <t>id-25280-1299</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/2267/2267_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/2267/2267_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25280/25280_1_650.jpg</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматический лубрикант позволяет дополнить удовольствие от интимной близости любимым ароматом. Гель обеспечивает отличное скольжение и увлажнение на протяжении всего акта. Совместим с секс-игрушками, презервативами. Легко смывается водой, не пачкает белье. Лубрикант на водной основе ОКЕЙ с ароматом яблока (50 г).  Лубрикант на водной основе ОКЕЙ с ароматом яблока (50 г). Модель: bioritm-20005. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Откройте для себя мир новых сексуальных удовольствий с анальным водно-силиконовым лубрикантом Silicon Love Surprise! Лубрикант вызывает приятное ощущение тепла, способствует лёгкому проникновению, обеспечивает длительное скольжение.После нанесения лубрикант не оставляет ощущения липкости. Подходит для использования с секс-игрушками и презервативами.Способ применения: нанести на зону анального отверстия.Если во время интимной близости используется презерватив, гель наносится на надетый на пенис презерватив. Согревающий гибридный лубрикант SILICON LOVE SURPRISE (50 г).  Согревающий гибридный лубрикант SILICON LOVE SURPRISE (50 г). Модель: bioritm-21005. Секс-игрушки. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1423,17 +1423,13 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
-          <t>50 г</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
@@ -1479,7 +1475,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1495,12 +1491,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Лубрикант на водной основе ОКЕЙ с</t>
+          <t>Массажное масло с возбуждающим ароматом</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>id-28094-1299</t>
+          <t>id-13000-1299</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -1516,12 +1512,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28094/28094_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28094/28094_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13000/13000_1_650.jpg</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматический лубрикант позволяет дополнить удовольствие от интимной близости любимым ароматом. Гель обеспечивает отличное скольжение и увлажнение на протяжении всего акта. Совместим с секс-игрушками, презервативами. Легко смывается водой, не пачкает белье. Лубрикант на водной основе ОКЕЙ с ароматом абрикоса (50 г).  Лубрикант на водной основе ОКЕЙ с ароматом абрикоса (50 г). Модель: bioritm-20006. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Приобщиться к особому искусству  жизни в гармонии с собой, своим телом и основным инстинктом  поможет масло Silk. Тонкий возбуждающий аромат иланг-иланга в составе создает эротическое настроение. Нежное, легкое масло для массажа обеспечивает равномерное и длительное скольжение. Придает коже шелковистость и мягкость. Приносит пользу телу и поднимет настроение. Массажное масло с возбуждающим ароматом Silk (50 г).  Массажное масло с возбуждающим ароматом Silk (50 г). Модель: bioritm-22018. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1531,12 +1527,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -1599,7 +1595,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1615,12 +1611,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Лубрикант на водной основе ОКЕЙ с</t>
+          <t>Массажное масло с феромонами Love 50</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>id-28093-1299</t>
+          <t>id-13001-1299</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1636,12 +1632,12 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28093/28093_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28093/28093_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13001/13001_1_650.jpg</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматический лубрикант позволяет дополнить удовольствие от интимной близости любимым ароматом. Гель обеспечивает отличное скольжение и увлажнение на протяжении всего акта. Совместим с секс-игрушками, презервативами. Легко смывается водой, не пачкает белье. Лубрикант на водной основе ОКЕЙ с ароматом ананаса (50 г).  Лубрикант на водной основе ОКЕЙ с ароматом ананаса (50 г). Модель: bioritm-20007. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Полное погружение в мир гармонии и чувственного наслаждения гарантировано. Благодаря действию феромонов и природных афродизиаков масло усиливает сексуальную притягательность партнеров. Придает коже мягкость и упругость. Обеспечивает длительное скольжение и приятные ощущения. Массаж с маслом с феромонами  альтернативный вариант романтическому вечеру и отличный способ получить удовольствие от нежных прикосновений. Массажное масло с феромонами Love (50 г).  Массажное масло с феромонами Love (50 г). Модель: bioritm-22019. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1649,16 +1645,8 @@
           <t>Россия</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
@@ -1719,7 +1707,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1735,12 +1723,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Лубрикант на водной основе ОКЕЙ с</t>
+          <t>Масло Eros для эротического массажа с</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>id-28095-1299</t>
+          <t>id-12991-1299</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -1756,12 +1744,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28095/28095_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28095/28095_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12991/12991_1_650.jpg</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматический лубрикант позволяет дополнить удовольствие от интимной близости любимым ароматом. Гель обеспечивает отличное скольжение и увлажнение на протяжении всего акта. Совместим с секс-игрушками, презервативами. Легко смывается водой, не пачкает белье. Лубрикант на водной основе ОКЕЙ с ароматом малины (50 г).  Лубрикант на водной основе ОКЕЙ с ароматом малины (50 г). Модель: bioritm-20010. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Побалуйте себя великолепным ароматом. Масло для эротического массажа Eros tasty вызывает ощущение тепла, особенно при дуновении. Повышает чувствительность. Имеет приятный аромат шоколада и сладкий вкус. Eros tasty обеспечивают длительное скольжение. Легко смывается водой. Масло Eros для эротического массажа с ароматом шоколада (50 мл).  Масло Eros для эротического массажа с ароматом шоколада (50 мл). Модель: bioritm-22021. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1783,7 +1771,7 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1793,7 +1781,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -1839,7 +1827,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1855,12 +1843,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Гель на водной основе с хлоргексидином</t>
+          <t>Масло Eros для эротического массажа с</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>id-21528-1299</t>
+          <t>id-12990-1299</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1876,12 +1864,12 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21528/21528_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21528/21528_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12990/12990_1_650.jpg</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гель-лубрикант О'кей плюс с хлоргексидином на водной основе  потрясающее средство для комфорта интимных отношений! Оно создано специально для тех, кто заботится о своем здоровье и стремится сделать секс более защищенным.О'кей плюс с хлоргексидином это:- прекрасное увлажнение:- продолжительное скольжение.- восполнение недостатка собственной смазки.- защита слизистых от повреждений во время секса.Гель-лубрикант не имеет цвета и запаха, легко смывается водой.О'кей плюс с хлоргексидином вознесет вашу интимную жизнь на новые вершины, сделает ее более насыщенной и безопасной!.Гель на водной основе с хлоргексидином ОКЕЙ плюс (50 г).  Гель на водной основе с хлоргексидином ОКЕЙ плюс (50 г). Модель: bioritm-20019. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Побалуйте себя великолепным ароматом. Масло для эротического массажа Eros вызывает ощущение тепла, особенно при дуновении. Повышает чувствительность. Имеет приятный аромат персика и сладкий вкус. Eros обеспечивают длительное скольжение. Легко смывается водой. Масло Eros для эротического массажа с ароматом персика (50 мл).  Масло Eros для эротического массажа с ароматом персика (50 мл). Модель: bioritm-22022. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1903,7 +1891,7 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -1913,7 +1901,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -1959,7 +1947,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1975,12 +1963,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Охлаждающий гибридный лубрикант SILICON</t>
+          <t>Масло Eros для эротического массажа с</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>id-25281-1299</t>
+          <t>id-12999-1299</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1996,12 +1984,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25281/25281_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12999/12999_1_650.jpg</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Silicon Love Cool - анальный водно-силиконовый гель-лубрикант для любителей особых удовольствий! После нанесения лубрикант дарит ощущение холодка. Обеспечивает безболезненное проникновение и длительное скольжение во время интимной близости.Масло мяты в составе придаёт лубриканту аромат свежести. Экстракт корней дуба успокаивает кожу, снижает чувствительность и способствует расслаблению.Гель-лубрикант не оставляет ощущения липкости. Совместим с презервативами и секс-игрушками.Способ применения: нанести на зону анального отверстия.Если во время интимной близости используется презерватив, гель наносится на надетый на пенис презерватив. Охлаждающий гибридный лубрикант SILICON LOVE COOL (50 г).  Охлаждающий гибридный лубрикант SILICON LOVE COOL (50 г). Модель: bioritm-21004. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Побалуйте себя великолепным ароматом. Масло для эротического массажа Eros вызывает ощущение тепла, особенно при дуновении. Повышает чувствительность. Имеет приятный аромат ванили и сладкий вкус. Eros обеспечивают длительное скольжение. Легко смывается водой. Масло Eros для эротического массажа с ароматом ванили (50 мл).  Масло Eros для эротического массажа с ароматом ванили (50 мл). Модель: bioritm-22023. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2011,19 +1999,19 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -2033,7 +2021,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -2095,12 +2083,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Согревающий гибридный лубрикант SILICON</t>
+          <t>Возбуждающий и согревающий лубрикант на</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>id-25280-1299</t>
+          <t>id-16490-1299</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -2116,12 +2104,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25280/25280_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16490/16490_1_650.jpg</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Откройте для себя мир новых сексуальных удовольствий с анальным водно-силиконовым лубрикантом Silicon Love Surprise! Лубрикант вызывает приятное ощущение тепла, способствует лёгкому проникновению, обеспечивает длительное скольжение.После нанесения лубрикант не оставляет ощущения липкости. Подходит для использования с секс-игрушками и презервативами.Способ применения: нанести на зону анального отверстия.Если во время интимной близости используется презерватив, гель наносится на надетый на пенис презерватив. Согревающий гибридный лубрикант SILICON LOVE SURPRISE (50 г).  Согревающий гибридный лубрикант SILICON LOVE SURPRISE (50 г). Модель: bioritm-21005. Секс-игрушки. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Ключ к яркому сексу - стимулирующий лубрикант нового поколения на силиконовой основе Cosmo vibro. Это больше, чем просто лубрикант! Активный компонент в составе - экстракт муира-пуамы - оказывает необычное стимулирующее действие, вызывая нежную вибрацию и возбуждающие мурашки. Обладает легкой текстурой, дарит необычные сладостные ощущения обоим партнерам и обеспечивает длительное скольжение. Оказывает увлажняющее и смягчающее действие. Совместим с изделиями из латекса и полимерных материалов. Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (50 г).  Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (50 г). Модель: bioritm-23001. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2143,13 +2131,17 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr"/>
+          <t>50 г</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -2195,7 +2187,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -2211,12 +2203,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Массажное масло с возбуждающим ароматом</t>
+          <t>Небольшой анальный стимулятор на</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>id-13000-1299</t>
+          <t>id-16993-1299</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -2232,12 +2224,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13000/13000_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16993/16993_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16993/16993_2_650.jpg</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Приобщиться к особому искусству  жизни в гармонии с собой, своим телом и основным инстинктом  поможет масло Silk. Тонкий возбуждающий аромат иланг-иланга в составе создает эротическое настроение. Нежное, легкое масло для массажа обеспечивает равномерное и длительное скольжение. Придает коже шелковистость и мягкость. Приносит пользу телу и поднимет настроение. Массажное масло с возбуждающим ароматом Silk (50 г).  Массажное масло с возбуждающим ароматом Silk (50 г). Модель: bioritm-22018. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Открыть новые горизонты интимной жизни позволит анальная втулка из серии COSMO. Эротический аксессуар идеально подойдет для подготовки к анальному сексу. Форма изделия в виде елочки и оптимальный размер обеспечит максимально комфортное введение и выведение втулки. Для контроля глубины проникновения секс-игрушка снабжена специальным ограничителем. Приятный на ощупь интимный аксессуар изготовлен из гипоаллергенного силикона. Он выполнен в красивом цвете. Очень компактен и удобен в использовании. Секс-игрушка подарит яркие и незабываемые эмоции своей хозяйке, став настоящим помощником в покорении новых вершин. Для более комфортного использования рекомендуем приобрести лубрикант на водной основе и очищающий спрей с антимикробным эффектом ClearToy для экспресс-обработки изделия. Небольшой анальный стимулятор на присоске Cosmo.  Небольшой анальный стимулятор на присоске Cosmo. Модель: bioritm-23028. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2247,42 +2239,52 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
-          <t>50 г</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
+      <c r="Y15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>8</v>
+      </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
+      <c r="AF15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1.7</v>
+      </c>
       <c r="AH15" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2315,7 +2317,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -2331,12 +2333,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Массажное масло с феромонами Love 50</t>
+          <t>Рельефный анальный стимулятор Cosmo с</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>id-13001-1299</t>
+          <t>id-17000-1299</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -2352,12 +2354,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13001/13001_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17000/17000_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17000/17000_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17000/17000_5_650.jpg</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Полное погружение в мир гармонии и чувственного наслаждения гарантировано. Благодаря действию феромонов и природных афродизиаков масло усиливает сексуальную притягательность партнеров. Придает коже мягкость и упругость. Обеспечивает длительное скольжение и приятные ощущения. Массаж с маслом с феромонами  альтернативный вариант романтическому вечеру и отличный способ получить удовольствие от нежных прикосновений. Массажное масло с феромонами Love (50 г).  Массажное масло с феромонами Love (50 г). Модель: bioritm-22019. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Вибромассажер из коллекции COSMO - источник настоящего удовольствия. Это потрясающая секс-игрушка, которая доставит много незабываемых эмоций своей обладательнице.Форма изделия в виде классической елочки и вибрация подарят яркие фантастические эмоции. Интимный аксессуар легко вводится и извлекается, не доставляя неудобств в процессе эксплуатации.Вибромассажер изготовлен из гипоаллергенного силикона, имеет мягкую, бархатистую, приятную на ощупь текстуру, выполнен в красивом цвете. Все это несомненно порадует представительниц прекрасной половины человечества.Для комфортного использования рекомендуется приобрести лубрикант на водной основе и очищающий спрей с антимикробным эффектом ClearToy для экспресс-обработки изделия. Рельефный анальный стимулятор Cosmo с вибрацией.  Рельефный анальный стимулятор Cosmo с вибрацией. Модель: bioritm-23046. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью. LR 44 x 3 шт (в комплекте)Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2365,36 +2367,54 @@
           <t>Россия</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
-          <t>50 г</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
+      <c r="Y16" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>12</v>
+      </c>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
+      <c r="AF16" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>2.2</v>
+      </c>
       <c r="AH16" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2427,7 +2447,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -2443,12 +2463,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Масло Eros для эротического массажа с</t>
+          <t>Возбуждающий и согревающий лубрикант на</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>id-12991-1299</t>
+          <t>id-23176-1299</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -2464,12 +2484,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12991/12991_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23176/23176_1_650.jpg</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Побалуйте себя великолепным ароматом. Масло для эротического массажа Eros tasty вызывает ощущение тепла, особенно при дуновении. Повышает чувствительность. Имеет приятный аромат шоколада и сладкий вкус. Eros tasty обеспечивают длительное скольжение. Легко смывается водой. Масло Eros для эротического массажа с ароматом шоколада (50 мл).  Масло Eros для эротического массажа с ароматом шоколада (50 мл). Модель: bioritm-22021. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Ключ к яркому сексу - стимулирующий лубрикант нового поколения на силиконовой основе Cosmo vibro. Это больше, чем просто лубрикант! Активный компонент в составе - экстракт муира-пуамы - оказывает необычное стимулирующее действие, вызывая нежную вибрацию и возбуждающие мурашки. Обладает легкой текстурой, дарит необычные сладостные ощущения обоим партнерам и обеспечивает длительное скольжение. Оказывает увлажняющее и смягчающее действие. Совместим с изделиями из латекса и полимерных материалов. Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (3 г  5 шт).  Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (3 г  5 шт). Модель: bioritm-23067t. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Препараты и возбудители &gt; Чувствительный клитор. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2491,17 +2511,17 @@
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t>3 ** 5 г</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>3 ** 5</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t>3 ** 5 г</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -2527,7 +2547,7 @@
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 пробников лубриканта</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
@@ -2547,7 +2567,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -2563,12 +2583,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Масло Eros для эротического массажа с</t>
+          <t>Возбуждающий и согревающий лубрикант на</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>id-12990-1299</t>
+          <t>id-19160-1299</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -2584,12 +2604,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12990/12990_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19160/19160_1_650.jpg</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Побалуйте себя великолепным ароматом. Масло для эротического массажа Eros вызывает ощущение тепла, особенно при дуновении. Повышает чувствительность. Имеет приятный аромат персика и сладкий вкус. Eros обеспечивают длительное скольжение. Легко смывается водой. Масло Eros для эротического массажа с ароматом персика (50 мл).  Масло Eros для эротического массажа с ароматом персика (50 мл). Модель: bioritm-22022. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Ключ к яркому сексу - стимулирующий лубрикант нового поколения на силиконовой основе Cosmo vibro. Это больше, чем просто лубрикант! Активный компонент в составе - экстракт муира-пуамы - оказывает необычное стимулирующее действие, вызывая нежную вибрацию и возбуждающие мурашки. Обладает легкой текстурой, дарит необычные сладостные ощущения обоим партнерам и обеспечивает длительное скольжение. Оказывает увлажняющее и смягчающее действие. Совместим с изделиями из латекса и полимерных материалов. Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (25 г).  Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (25 г). Модель: bioritm-23122. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2611,17 +2631,17 @@
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t>25 г</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t>25 г</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -2667,7 +2687,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -2683,12 +2703,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Возбуждающий и согревающий лубрикант на</t>
+          <t>Мини вибромассажер для эрогенных зон</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>id-16490-1299</t>
+          <t>id-23468-1299</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -2704,12 +2724,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16490/16490_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23468/23468_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23468/23468_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23468/23468_3_650.jpg</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ключ к яркому сексу - стимулирующий лубрикант нового поколения на силиконовой основе Cosmo vibro. Это больше, чем просто лубрикант! Активный компонент в составе - экстракт муира-пуамы - оказывает необычное стимулирующее действие, вызывая нежную вибрацию и возбуждающие мурашки. Обладает легкой текстурой, дарит необычные сладостные ощущения обоим партнерам и обеспечивает длительное скольжение. Оказывает увлажняющее и смягчающее действие. Совместим с изделиями из латекса и полимерных материалов. Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (50 г).  Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (50 г). Модель: bioritm-23001. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Миниатюрный вибромассажёр предназначен для стимуляции эрогенных зон  стенок влагалища, клитора, сосков, точки G и т.д. Вибрация осуществляется за счёт съёмной вибропули. При желании вибропулю можно извлечь и использовать секс-игрушку в качестве насадки на палец, с помощью которой легко доставлять удовольствие себе или партнёру.Интимный аксессуар изготовлен из мягкого материала, дарящего приятные тактильные ощущения. Прост в использовании, не требует специального ухода.Вибромассажёр имеет оригинальный дизайн и станет прекрасным подарком на любой праздник.Благодаря небольшому размеру изделие можно брать с собой в поездки.Совместно с секс-игрушкой рекомендуется использовать гель-лубрикант на водной основе. Мини вибромассажер для эрогенных зон COSMO.  Мини вибромассажер для эрогенных зон COSMO. Модель: bioritm-23153. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вибромассажеры. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. LR 44 x 3 шт (в комплекте)Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2727,34 +2747,44 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t>50 г</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
+      <c r="Y19" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>9</v>
+      </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
+      <c r="AF19" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>2.9</v>
+      </c>
       <c r="AH19" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2787,7 +2817,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -2803,12 +2833,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Небольшой анальный стимулятор на</t>
+          <t>Универсальный мини-вибратор COSMO</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>id-16993-1299</t>
+          <t>id-23394-1299</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2824,12 +2854,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16993/16993_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16993/16993_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23394/23394_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23394/23394_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23394/23394_2_650.jpg</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Открыть новые горизонты интимной жизни позволит анальная втулка из серии COSMO. Эротический аксессуар идеально подойдет для подготовки к анальному сексу. Форма изделия в виде елочки и оптимальный размер обеспечит максимально комфортное введение и выведение втулки. Для контроля глубины проникновения секс-игрушка снабжена специальным ограничителем. Приятный на ощупь интимный аксессуар изготовлен из гипоаллергенного силикона. Он выполнен в красивом цвете. Очень компактен и удобен в использовании. Секс-игрушка подарит яркие и незабываемые эмоции своей хозяйке, став настоящим помощником в покорении новых вершин. Для более комфортного использования рекомендуем приобрести лубрикант на водной основе и очищающий спрей с антимикробным эффектом ClearToy для экспресс-обработки изделия. Небольшой анальный стимулятор на присоске Cosmo.  Небольшой анальный стимулятор на присоске Cosmo. Модель: bioritm-23028. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">.Универсальный мини-вибратор COSMO.  Универсальный мини-вибратор COSMO. Модель: bioritm-23154. Секс-игрушки. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вибромассажеры. Цвет: сиреневый. Материал: гипоаллергенный силикон. LR 44 x 3 шт (в комплекте)Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2839,17 +2869,17 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>гипоаллергенный силикон</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -2867,23 +2897,23 @@
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="n">
-        <v>8.800000000000001</v>
+        <v>9.35</v>
       </c>
       <c r="Z20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="n">
-        <v>1.87</v>
+        <v>2.365</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
@@ -2917,7 +2947,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -2933,12 +2963,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Рельефный анальный стимулятор Cosmo с</t>
+          <t>Универсальный вибромассажер с двумя</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>id-17000-1299</t>
+          <t>id-27894-1299</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -2954,12 +2984,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17000/17000_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17000/17000_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17000/17000_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27894/27894_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27894/27894_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27894/27894_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27894/27894_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27894/27894_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27894/27894_3_650.jpg</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибромассажер из коллекции COSMO - источник настоящего удовольствия. Это потрясающая секс-игрушка, которая доставит много незабываемых эмоций своей обладательнице.Форма изделия в виде классической елочки и вибрация подарят яркие фантастические эмоции. Интимный аксессуар легко вводится и извлекается, не доставляя неудобств в процессе эксплуатации.Вибромассажер изготовлен из гипоаллергенного силикона, имеет мягкую, бархатистую, приятную на ощупь текстуру, выполнен в красивом цвете. Все это несомненно порадует представительниц прекрасной половины человечества.Для комфортного использования рекомендуется приобрести лубрикант на водной основе и очищающий спрей с антимикробным эффектом ClearToy для экспресс-обработки изделия. Рельефный анальный стимулятор Cosmo с вибрацией.  Рельефный анальный стимулятор Cosmo с вибрацией. Модель: bioritm-23046. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью. LR 44 x 3 шт (в комплекте)Бренд: BIORITM. </t>
+          <t xml:space="preserve">Уникальный дивайс для любителей яркого и разнообразного секса. После введения гибкие лепестки раскрываются и дарят потрясающее чувство наполненности. Различные режимы вибрации позволяют менять интенсивность стимуляции интимных зон.Лепестками вибратора можно ласкать клитор, соски, анус, а также усилить эрекцию партнёра, воздействуя на головку или мошонку.Включение.выключение вибрации: нажать и в течение 2 секунд удерживать кнопку, расположенную ближе к основанию изделия. Переключение виброрежимов: короткое нажатие любой из двух кнопок, расположенных на корпусе. Включать, выключать или переключать виброрежимы можно даже во время использования изделия.Секс-игрушка изготовлена из высококачественных материалов. Проста в использовании и уходе. Универсальный вибромассажер с двумя моторами Cosmo Orgasm (7 режимов).  Универсальный вибромассажер с двумя моторами Cosmo Orgasm (7 режимов). Модель: bioritm-23157. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Вибраторы и фаллоимитаторы &gt; Двойные. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Металлические. Цвет: розовый с черным. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2969,17 +2999,17 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -2994,26 +3024,30 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
+      <c r="W21" t="n">
+        <v>3</v>
+      </c>
+      <c r="X21" t="n">
+        <v>3.3</v>
+      </c>
       <c r="Y21" t="n">
-        <v>13.2</v>
+        <v>24.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AA21" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="n">
-        <v>2.42</v>
+        <v>3.74</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
@@ -3027,7 +3061,7 @@
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
@@ -3047,7 +3081,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -3063,12 +3097,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Возбуждающий и согревающий лубрикант на</t>
+          <t>Перезаряжаемый универсальный стимулятор</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>id-23176-1299</t>
+          <t>id-27890-1299</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -3084,12 +3118,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23176/23176_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27890/27890_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27890/27890_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27890/27890_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27890/27890_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27890/27890_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27890/27890_6_650.jpg</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ключ к яркому сексу - стимулирующий лубрикант нового поколения на силиконовой основе Cosmo vibro. Это больше, чем просто лубрикант! Активный компонент в составе - экстракт муира-пуамы - оказывает необычное стимулирующее действие, вызывая нежную вибрацию и возбуждающие мурашки. Обладает легкой текстурой, дарит необычные сладостные ощущения обоим партнерам и обеспечивает длительное скольжение. Оказывает увлажняющее и смягчающее действие. Совместим с изделиями из латекса и полимерных материалов. Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (3 г  5 шт).  Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (3 г  5 шт). Модель: bioritm-23067t. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Препараты и возбудители &gt; Чувствительный клитор. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Окунись в мир сексуального наслаждения и фееричных оргазмов вместе с вибромассажёром Cosmo Orgasm! Сделай его участником эротической прелюдии или проведи с ним незабываемый вечер соло.Эргономичная форма интимного аксессуара с гибким основанием обеспечит комфортное введение и подарит незабываемые эмоции во время близости. Женщина может поместить стимулятор в анус и заниматься классическим сексом с партнером. Также стимулятор можно поместить вагинально и заниматься анальным сексом. Ощущения обоих будут бомбическими! Разнообразные режимы вибрации - от прерывистой и дразнящей до интенсивной и пульсирующей добавят удовольствия.Включение.выключение виброрежимов: нажать и удерживать кнопку на основании изделия в течение 2 секунд. Переключение режимов вибрации - короткое нажатие на эту же кнопку.Удобное расположение кнопки вкл. выкл. позволяет выбрать подходящий режим вибрации непосредственно во время использования.Секс-игрушка выполнена из высококачественного бархатистого силикона. Перезаряжаемый универсальный стимулятор Cosmo Orgasm (10 режимов).  Перезаряжаемый универсальный стимулятор Cosmo Orgasm (10 режимов). Модель: bioritm-23160. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: розовый с золотым. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -3099,42 +3133,56 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
-          <t>3 ** 5 г</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>3 ** 5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr">
         <is>
-          <t>3 ** 5 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
+      <c r="Y22" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>15.5</v>
+      </c>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
+      <c r="AD22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>2.585</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>2.35</v>
+      </c>
       <c r="AH22" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3147,7 +3195,7 @@
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>5 пробников лубриканта</t>
+          <t>стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
@@ -3167,7 +3215,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -3183,12 +3231,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Возбуждающий и согревающий лубрикант на</t>
+          <t>Перезаряжаемый универсальный стимулятор</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>id-19160-1299</t>
+          <t>id-27889-1299</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -3204,12 +3252,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19160/19160_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27889/27889_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27889/27889_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27889/27889_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27889/27889_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27889/27889_5_650.jpg</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ключ к яркому сексу - стимулирующий лубрикант нового поколения на силиконовой основе Cosmo vibro. Это больше, чем просто лубрикант! Активный компонент в составе - экстракт муира-пуамы - оказывает необычное стимулирующее действие, вызывая нежную вибрацию и возбуждающие мурашки. Обладает легкой текстурой, дарит необычные сладостные ощущения обоим партнерам и обеспечивает длительное скольжение. Оказывает увлажняющее и смягчающее действие. Совместим с изделиями из латекса и полимерных материалов. Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (25 г).  Возбуждающий и согревающий лубрикант на силиконовой основе Cosmo Vibro (25 г). Модель: bioritm-23122. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Окунись в мир сексуального наслаждения и фееричных оргазмов вместе с вибромассажёром Cosmo Orgasm! Сделай его участником эротической прелюдии или проведи с ним незабываемый вечер соло.Эргономичная форма интимного аксессуара с гибким основанием обеспечит комфортное введение и подарит незабываемые эмоции во время близости. Женщина может поместить стимулятор в анус и заниматься классическим сексом с партнером. Также стимулятор можно поместить вагинально и заниматься анальным сексом. Ощущения обоих будут бомбическими! Разнообразные режимы вибрации - от прерывистой и дразнящей до интенсивной и пульсирующей добавят удовольствия.Включение.выключение виброрежимов: нажать и удерживать кнопку на основании изделия в течение 2 секунд. Переключение режимов вибрации - короткое нажатие на эту же кнопку.Удобное расположение кнопки вкл. выкл. позволяет выбрать подходящий режим вибрации непосредственно во время использования.Секс-игрушка выполнена из высококачественного бархатистого силикона. Перезаряжаемый универсальный стимулятор Cosmo Orgasm (10 режимов).  Перезаряжаемый универсальный стимулятор Cosmo Orgasm (10 режимов). Модель: bioritm-23161. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: фиолетовый с золотым. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -3219,42 +3267,56 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
-          <t>25 г</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr">
         <is>
-          <t>25 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
+      <c r="Y23" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>15.5</v>
+      </c>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
+      <c r="AD23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>2.2</v>
+      </c>
       <c r="AH23" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3267,7 +3329,7 @@
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
@@ -3298,17 +3360,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Мини вибромассажер для эрогенных зон</t>
+          <t>Перезаряжаемый вибратор для двойной</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>id-23468-1299</t>
+          <t>id-27895-1299</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -3324,12 +3386,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23468/23468_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23468/23468_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23468/23468_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27895/27895_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27895/27895_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27895/27895_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27895/27895_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27895/27895_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27895/27895_6_650.jpg</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Миниатюрный вибромассажёр предназначен для стимуляции эрогенных зон  стенок влагалища, клитора, сосков, точки G и т.д. Вибрация осуществляется за счёт съёмной вибропули. При желании вибропулю можно извлечь и использовать секс-игрушку в качестве насадки на палец, с помощью которой легко доставлять удовольствие себе или партнёру.Интимный аксессуар изготовлен из мягкого материала, дарящего приятные тактильные ощущения. Прост в использовании, не требует специального ухода.Вибромассажёр имеет оригинальный дизайн и станет прекрасным подарком на любой праздник.Благодаря небольшому размеру изделие можно брать с собой в поездки.Совместно с секс-игрушкой рекомендуется использовать гель-лубрикант на водной основе. Мини вибромассажер для эрогенных зон COSMO.  Мини вибромассажер для эрогенных зон COSMO. Модель: bioritm-23153. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вибромассажеры. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. LR 44 x 3 шт (в комплекте)Бренд: BIORITM. </t>
+          <t xml:space="preserve">Оригинальная секс-игрушка для двойного удовольствия. Может одновременно воздействовать на стенки влагалища и клитор. Разнообразные режимы вибрации обеспечат дополнительную стимуляцию.Изделие имеет два моторчика, которые позволяют равномерно распределять вибрацию по всей поверхности, включая отросток в виде бабочки.Включение вибрации: нажать и в течение 2 секунд удерживать кнопку на корпусе изделия. Должен загореться световой индикатор. Выключение: нажать и в течение 2 секунд удерживать ту же кнопку. Световой индикатор должен погаснуть. Переключение виброрежимов: короткое нажатие той же кнопки. Включать, выключать или переключать виброрежимы можно даже во время использования изделия.Секс-игрушка имеет гибкий ствол, изготовлена из высококачественных материалов. Перезаряжаемый вибратор для двойной стимуляции Cosmo Orgasm (10 режимов).  Перезаряжаемый вибратор для двойной стимуляции Cosmo Orgasm (10 режимов). Модель: bioritm-23162. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -3339,17 +3401,17 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -3367,23 +3429,27 @@
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="n">
-        <v>9.9</v>
+        <v>23.1</v>
       </c>
       <c r="Z24" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AA24" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
+      <c r="AD24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>14.3</v>
+      </c>
       <c r="AF24" t="n">
-        <v>3.19</v>
+        <v>3.355</v>
       </c>
       <c r="AG24" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
@@ -3397,7 +3463,7 @@
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
@@ -3428,17 +3494,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Универсальный мини-вибратор COSMO</t>
+          <t>Перезаряжаемый стимулятор двойного</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>id-23394-1299</t>
+          <t>id-27892-1299</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -3454,12 +3520,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23394/23394_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23394/23394_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23394/23394_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27892/27892_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27892/27892_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27892/27892_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27892/27892_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27892/27892_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27892/27892_6_650.jpg</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Универсальный мини-вибратор COSMO.  Универсальный мини-вибратор COSMO. Модель: bioritm-23154. Секс-игрушки. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вибромассажеры. Цвет: сиреневый. Материал: гипоаллергенный силикон. LR 44 x 3 шт (в комплекте)Бренд: BIORITM. </t>
+          <t xml:space="preserve">Вибромассажёр двойного действия с вакуумно-волновой стимуляцией клитора и разнообразными режимами вибрации. Изогнутая форма изделия с гибкой серединой в сочетании с интенсивной вибрацией подарит максимум удовольствия. Мягкая имитация оральных ласк погрузят в настоящую негу удовольствия.Интимный аксессуар оснащен двумя кнопками. Удерживай в течение 2 секунд нижнюю для запуска вибрации, а верхнюю для запуска вакуумно-волновой стимуляции. Короткими нажатиями на каждую из кнопок выбери интенсивность воздействия. Чтобы выключить девайс, снова удерживай каждую из кнопок в течение 2 секунд. Удобное расположение кнопки позволит выбрать подходящий режим вибрации непосредственно во время использования.Игрушка выполнена из высококачественного бархатистого силикона. Перезаряжаемый стимулятор двойного действия Cosmo Orgasm (10 режимов).  Перезаряжаемый стимулятор двойного действия Cosmo Orgasm (10 режимов). Модель: bioritm-23163. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: розовый с золотым. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3479,7 +3545,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>гипоаллергенный силикон</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -3497,23 +3563,27 @@
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="n">
-        <v>9.35</v>
+        <v>14.85</v>
       </c>
       <c r="Z25" t="n">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
+      <c r="AD25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>13.2</v>
+      </c>
       <c r="AF25" t="n">
-        <v>2.365</v>
+        <v>3.96</v>
       </c>
       <c r="AG25" t="n">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
@@ -3527,7 +3597,7 @@
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
@@ -3558,17 +3628,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Универсальный вибромассажер с двумя</t>
+          <t>Перезаряжаемый стимулятор двойного</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>id-27894-1299</t>
+          <t>id-27891-1299</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -3584,12 +3654,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27894/27894_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27894/27894_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27894/27894_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27894/27894_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27894/27894_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27894/27894_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27891/27891_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27891/27891_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27891/27891_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27891/27891_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27891/27891_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27891/27891_6_650.jpg</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Уникальный дивайс для любителей яркого и разнообразного секса. После введения гибкие лепестки раскрываются и дарят потрясающее чувство наполненности. Различные режимы вибрации позволяют менять интенсивность стимуляции интимных зон.Лепестками вибратора можно ласкать клитор, соски, анус, а также усилить эрекцию партнёра, воздействуя на головку или мошонку.Включение.выключение вибрации: нажать и в течение 2 секунд удерживать кнопку, расположенную ближе к основанию изделия. Переключение виброрежимов: короткое нажатие любой из двух кнопок, расположенных на корпусе. Включать, выключать или переключать виброрежимы можно даже во время использования изделия.Секс-игрушка изготовлена из высококачественных материалов. Проста в использовании и уходе. Универсальный вибромассажер с двумя моторами Cosmo Orgasm (7 режимов).  Универсальный вибромассажер с двумя моторами Cosmo Orgasm (7 режимов). Модель: bioritm-23157. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Вибраторы и фаллоимитаторы &gt; Двойные. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Металлические. Цвет: розовый с черным. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Вибромассажёр двойного действия с разнообразными режимами вибрации и точечной стимуляцией клитора. Пульсирующая вибрация усилит возбуждение, а дополнительное синхронное воздействие на клитор поможет достичь фееричного оргазма.Для включения.выключения вибратора нажать и удерживать кнопку на основании в течение 2 секунд. Переключение режимов вибрации осуществляется короткими нажатиями на эту же кнопку. Удобное расположение кнопки позволит выбрать подходящий режим вибрации непосредственно во время использования.Игрушка выполнена из высококачественного бархатистого силикона. Перезаряжаемый стимулятор двойного действия Cosmo Orgasm (7 режимов).  Перезаряжаемый стимулятор двойного действия Cosmo Orgasm (7 режимов). Модель: bioritm-23164. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: фиолетовый с золотым. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -3609,7 +3679,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -3624,30 +3694,30 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W26" t="n">
-        <v>3</v>
-      </c>
-      <c r="X26" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
       <c r="Y26" t="n">
-        <v>24.2</v>
+        <v>13.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AA26" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
+      <c r="AD26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>10.45</v>
+      </c>
       <c r="AF26" t="n">
-        <v>3.74</v>
+        <v>2.805</v>
       </c>
       <c r="AG26" t="n">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
@@ -3681,7 +3751,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -3692,17 +3762,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Перезаряжаемый универсальный стимулятор</t>
+          <t>Небольшой перезаряжаемый G-вибратор</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>id-27890-1299</t>
+          <t>id-27893-1299</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3718,12 +3788,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27890/27890_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27890/27890_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27890/27890_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27890/27890_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27890/27890_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27890/27890_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27893/27893_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27893/27893_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27893/27893_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27893/27893_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27893/27893_5_650.jpg</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Окунись в мир сексуального наслаждения и фееричных оргазмов вместе с вибромассажёром Cosmo Orgasm! Сделай его участником эротической прелюдии или проведи с ним незабываемый вечер соло.Эргономичная форма интимного аксессуара с гибким основанием обеспечит комфортное введение и подарит незабываемые эмоции во время близости. Женщина может поместить стимулятор в анус и заниматься классическим сексом с партнером. Также стимулятор можно поместить вагинально и заниматься анальным сексом. Ощущения обоих будут бомбическими! Разнообразные режимы вибрации - от прерывистой и дразнящей до интенсивной и пульсирующей добавят удовольствия.Включение.выключение виброрежимов: нажать и удерживать кнопку на основании изделия в течение 2 секунд. Переключение режимов вибрации - короткое нажатие на эту же кнопку.Удобное расположение кнопки вкл. выкл. позволяет выбрать подходящий режим вибрации непосредственно во время использования.Секс-игрушка выполнена из высококачественного бархатистого силикона. Перезаряжаемый универсальный стимулятор Cosmo Orgasm (10 режимов).  Перезаряжаемый универсальный стимулятор Cosmo Orgasm (10 режимов). Модель: bioritm-23160. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные ст</t>
+          <t xml:space="preserve">Мини вибромассажёр для стимуляции влагалища, клитора, ануса, сосков и других эрогенных зон. Начни с него прелюдию, сделай полноценным участником секс-игры или проведи вечер с ним наедине.Гладкая поверхность интимного аксессуара с изогнутым кончиком идеальна для комфортного введения и получения максимального наслаждения. Разнообразие виброрежимов  возможность выбирать силу и интенсивность воздействия.Для включения.выключения вибрации нажми и 2 секунды удерживай кнопку на корпусе изделия. Переключай виброрежимы коротким нажатием той же кнопки. Удобное расположение кнопки позволяет включать, выключать или переключать виброрежимы даже во время использования девайса.Секс-игрушка изготовлена из пластика с бархатистым напылением. Небольшой перезаряжаемый G-вибратор Cosmo Orgasm (10 режимов).  Небольшой перезаряжаемый G-вибратор Cosmo Orgasm (10 режимов). Модель: bioritm-23168. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Цвет: фиолетовый. Материал: ABS пластик с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3743,7 +3813,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>ABS пластик с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -3761,27 +3831,23 @@
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="n">
-        <v>17.05</v>
+        <v>14.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AA27" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="n">
-        <v>2.585</v>
+        <v>2.09</v>
       </c>
       <c r="AG27" t="n">
-        <v>2.35</v>
+        <v>1.9</v>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
@@ -3815,7 +3881,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -3831,12 +3897,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Перезаряжаемый универсальный стимулятор</t>
+          <t>Анальная силиконовая крем-смазка ACC</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>id-27889-1299</t>
+          <t>id-12036-1299</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -3852,12 +3918,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27889/27889_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27889/27889_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27889/27889_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27889/27889_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27889/27889_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12036/12036_2_650.jpg</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Окунись в мир сексуального наслаждения и фееричных оргазмов вместе с вибромассажёром Cosmo Orgasm! Сделай его участником эротической прелюдии или проведи с ним незабываемый вечер соло.Эргономичная форма интимного аксессуара с гибким основанием обеспечит комфортное введение и подарит незабываемые эмоции во время близости. Женщина может поместить стимулятор в анус и заниматься классическим сексом с партнером. Также стимулятор можно поместить вагинально и заниматься анальным сексом. Ощущения обоих будут бомбическими! Разнообразные режимы вибрации - от прерывистой и дразнящей до интенсивной и пульсирующей добавят удовольствия.Включение.выключение виброрежимов: нажать и удерживать кнопку на основании изделия в течение 2 секунд. Переключение режимов вибрации - короткое нажатие на эту же кнопку.Удобное расположение кнопки вкл. выкл. позволяет выбрать подходящий режим вибрации непосредственно во время использования.Секс-игрушка выполнена из высококачественного бархатистого силикона. Перезаряжаемый универсальный стимулятор Cosmo Orgasm (10 режимов).  Перезаряжаемый универсальный стимулятор Cosmo Orgasm (10 режимов). Модель: bioritm-23161. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: фиолетовый с золотым. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Уникальный кремлубрикант с эфирными маслами на силиконовой основе. Подходит как для опытных, так и для начинающих пар. Эфирные масла в составе крема способствуют расслаблению мышц ануса, делая вход более свободным, оказывают антибактериальное, заживляющее и дезодорирующее действия. Особая, ни с чем не сравнимая, шелковистая текстура крема обеспечивает легкость проникновения и супердлительное скольжение. Анальная силиконовая крем-смазка ACC (95 г).  Анальная силиконовая крем-смазка ACC (95 г). Модель: bioritm-2506. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -3867,56 +3933,42 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr"/>
+          <t>95 г</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>95 г</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>2.2</v>
-      </c>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
       <c r="AH28" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3929,7 +3981,7 @@
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>стимулятор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
@@ -3949,7 +4001,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -3960,17 +4012,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Перезаряжаемый вибратор для двойной</t>
+          <t>Универсальный гибридный лубрикант</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>id-27895-1299</t>
+          <t>id-23462-1299</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -3986,12 +4038,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27895/27895_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27895/27895_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27895/27895_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27895/27895_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27895/27895_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27895/27895_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23462/23462_1_650.jpg</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оригинальная секс-игрушка для двойного удовольствия. Может одновременно воздействовать на стенки влагалища и клитор. Разнообразные режимы вибрации обеспечат дополнительную стимуляцию.Изделие имеет два моторчика, которые позволяют равномерно распределять вибрацию по всей поверхности, включая отросток в виде бабочки.Включение вибрации: нажать и в течение 2 секунд удерживать кнопку на корпусе изделия. Должен загореться световой индикатор. Выключение: нажать и в течение 2 секунд удерживать ту же кнопку. Световой индикатор должен погаснуть. Переключение виброрежимов: короткое нажатие той же кнопки. Включать, выключать или переключать виброрежимы можно даже во время использования изделия.Секс-игрушка имеет гибкий ствол, изготовлена из высококачественных материалов. Перезаряжаемый вибратор для двойной стимуляции Cosmo Orgasm (10 режимов).  Перезаряжаемый вибратор для двойной стимуляции Cosmo Orgasm (10 режимов). Модель: bioritm-23162. Секс-и</t>
+          <t xml:space="preserve">Откройте новые эротические возможности с гибридным лубрикантом Hybrid-Silicone! Он сочетает в себе нежность водного лубриканта и супер долгое скольжение силикона, дарит невероятный комфорт во время анального секса.Лубрикант Hybrid-Silicone:- смягчает ткани и облегчает проникновение.- обеспечивает мягкое длительное скольжение.- подходит для использования с секс-игрушками.- не имеет цвета и запаха.ПрименениеВо время анального секса лубрикант наносится на область анального отверстия и.или пенис непосредственно перед половым актом.При использовании презерватива, смазка наносится на анальное отверстие и.или поверх контрацептива, надетого на мужской половой член.При использовании секс-игрушек лубрикант наносится на зону анального отверстия и.или интимный аксессуар. Универсальный гибридный лубрикант Hybrid Silicone PRO ANAL (50 г).  Универсальный гибридный лубрикант Hybrid Silicone PRO ANAL (50 г). Модель: bioritm-27001. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -4001,56 +4053,42 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr"/>
+          <t>50 г</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>21</v>
-      </c>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>3.355</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>3.05</v>
-      </c>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4063,7 +4101,7 @@
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>стимулятор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
@@ -4083,7 +4121,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -4094,17 +4132,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Перезаряжаемый стимулятор двойного</t>
+          <t xml:space="preserve">Лубрикант с ромашкой BIO ACTIVE 5 шт </t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>id-27892-1299</t>
+          <t>id-28038-1299</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -4120,12 +4158,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27892/27892_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27892/27892_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27892/27892_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27892/27892_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27892/27892_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27892/27892_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28038/28038_1_650.jpg</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибромассажёр двойного действия с вакуумно-волновой стимуляцией клитора и разнообразными режимами вибрации. Изогнутая форма изделия с гибкой серединой в сочетании с интенсивной вибрацией подарит максимум удовольствия. Мягкая имитация оральных ласк погрузят в настоящую негу удовольствия.Интимный аксессуар оснащен двумя кнопками. Удерживай в течение 2 секунд нижнюю для запуска вибрации, а верхнюю для запуска вакуумно-волновой стимуляции. Короткими нажатиями на каждую из кнопок выбери интенсивность воздействия. Чтобы выключить девайс, снова удерживай каждую из кнопок в течение 2 секунд. Удобное расположение кнопки позволит выбрать подходящий режим вибрации непосредственно во время использования.Игрушка выполнена из высококачественного бархатистого силикона. Перезаряжаемый стимулятор двойного действия Cosmo Orgasm (10 режимов).  Перезаряжаемый стимулятор двойного действия Cosmo Orgasm (10 режимов). Модель: bioritm-23163. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: розовый с золоты</t>
+          <t xml:space="preserve">Нежный гель-лубрикант Bio Active на водной основе  это бережный уход за половыми органами, великолепное увлажнение и восхитительное чувство комфорта во время интимной близости!В состав Bio Active входят натуральные ингредиенты.Д-пантенол обладает глубоким увлажняющим действием, устраняет сухость кожи и слизистых, придаёт тканям мягкость и эластичность. Благодаря своим регенерирующим свойствам ускоряет восстановление барьерных свойств кожи и слизистых, нормализует клеточный метаболизм.Экстракт ромашки успокаивает раздражённую слизистую, оказывает антибактериальное и противовоспалительное действие.Bio Active не имеет цвета и запаха, поэтому подходит даже тем, кто предпочитает интимные средства без каких-либо ароматов. Легко смывается водой.Bio Active - для тех, кто заботится о своём интимном здоровье и предпочитает качественный секс!.Лубрикант с ромашкой BIO ACTIVE (5 шт  3 г).  Лубрикант с ромашкой BIO ACTIVE (5 шт  3 г). Модель: bioritm-27006. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -4135,56 +4173,42 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr"/>
+          <t>3 ** 5 г</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>3 ** 5</t>
+        </is>
+      </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>3 ** 5 г</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>3.6</v>
-      </c>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4197,7 +4221,7 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>стимулятор, зарядное USB-устройство</t>
+          <t>5 саше по 3 г</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
@@ -4217,7 +4241,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -4228,17 +4252,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Перезаряжаемый стимулятор двойного</t>
+          <t>Универсальный гибридный лубрикант</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>id-27891-1299</t>
+          <t>id-23463-1299</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -4254,12 +4278,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27891/27891_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27891/27891_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27891/27891_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27891/27891_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27891/27891_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27891/27891_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23463/23463_1_650.jpg</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибромассажёр двойного действия с разнообразными режимами вибрации и точечной стимуляцией клитора. Пульсирующая вибрация усилит возбуждение, а дополнительное синхронное воздействие на клитор поможет достичь фееричного оргазма.Для включения.выключения вибратора нажать и удерживать кнопку на основании в течение 2 секунд. Переключение режимов вибрации осуществляется короткими нажатиями на эту же кнопку. Удобное расположение кнопки позволит выбрать подходящий режим вибрации непосредственно во время использования.Игрушка выполнена из высококачественного бархатистого силикона. Перезаряжаемый стимулятор двойного действия Cosmo Orgasm (7 режимов).  Перезаряжаемый стимулятор двойного действия Cosmo Orgasm (7 режимов). Модель: bioritm-23164. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: фиолетовый с золотым. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Откройте новые эротические возможности с гибридным лубрикантом Hybrid-Silicone! Он сочетает в себе нежность водного лубриканта и супер долгое скольжение силикона, дарит невероятный комфорт во время анального секса.Лубрикант Hybrid-Silicone:- смягчает ткани и облегчает проникновение.- обеспечивает мягкое длительное скольжение.- подходит для использования с секс-игрушками.- не имеет цвета и запаха.ПрименениеВо время анального секса лубрикант наносится на область анального отверстия и.или пенис непосредственно перед половым актом.При использовании презерватива, смазка наносится на анальное отверстие и.или поверх контрацептива, надетого на мужской половой член.При использовании секс-игрушек лубрикант наносится на зону анального отверстия и.или интимный аксессуар. Универсальный гибридный лубрикант Hibrid Silicone PRO ANAL (5 шт  4 г).  Универсальный гибридный лубрикант Hibrid Silicone PRO ANAL (5 шт  4 г). Модель: bioritm-27007t. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -4269,56 +4293,42 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr"/>
+          <t>*5   4 мл</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>*5   4</t>
+        </is>
+      </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>*5   4 мл</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>12</v>
-      </c>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>2.805</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>2.55</v>
-      </c>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4331,7 +4341,7 @@
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>стимулятор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
@@ -4351,7 +4361,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -4362,17 +4372,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Небольшой перезаряжаемый G-вибратор</t>
+          <t>Классический лубрикант на водной основе</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>id-27893-1299</t>
+          <t>id-25841-1299</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -4388,12 +4398,12 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27893/27893_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27893/27893_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27893/27893_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27893/27893_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27893/27893_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25841/25841_1_650.jpg</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мини вибромассажёр для стимуляции влагалища, клитора, ануса, сосков и других эрогенных зон. Начни с него прелюдию, сделай полноценным участником секс-игры или проведи вечер с ним наедине.Гладкая поверхность интимного аксессуара с изогнутым кончиком идеальна для комфортного введения и получения максимального наслаждения. Разнообразие виброрежимов  возможность выбирать силу и интенсивность воздействия.Для включения.выключения вибрации нажми и 2 секунды удерживай кнопку на корпусе изделия. Переключай виброрежимы коротким нажатием той же кнопки. Удобное расположение кнопки позволяет включать, выключать или переключать виброрежимы даже во время использования девайса.Секс-игрушка изготовлена из пластика с бархатистым напылением. Небольшой перезаряжаемый G-вибратор Cosmo Orgasm (10 режимов).  Небольшой перезаряжаемый G-вибратор Cosmo Orgasm (10 режимов). Модель: bioritm-23168. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Цвет: фиолетовый. Материал: ABS пластик с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Нежный гель-лубрикант Bio Active на водной основе  это бережный уход за половыми органами, великолепное увлажнение и восхитительное чувство комфорта во время интимной близости!В состав Bio Active входят натуральные ингредиенты.Д-пантенол обладает глубоким увлажняющим действием, устраняет сухость кожи и слизистых, придаёт тканям мягкость и эластичность. Благодаря своим регенерирующим свойствам ускоряет восстановление барьерных свойств кожи и слизистых, нормализует клеточный метаболизм.Экстракт ромашки успокаивает раздражённую слизистую, оказывает антибактериальное и противовоспалительное действие.Bio Active не имеет цвета и запаха, поэтому подходит даже тем, кто предпочитает интимные средства без каких-либо ароматов. Легко смывается водой.Bio Active - для тех, кто заботится о своём интимном здоровье и предпочитает качественный секс!.Классический лубрикант на водной основе с ромашкой SOFT LOVE (50 г).  Классический лубрикант на водной основе с ромашкой SOFT LOVE (50 г). Модель: bioritm-27008. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -4403,52 +4413,42 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>ABS пластик с бархатистой поверхностью</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr"/>
+          <t>50 г</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>13</v>
-      </c>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>1.9</v>
-      </c>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4461,7 +4461,7 @@
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>стимулятор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
@@ -4497,12 +4497,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Анальная силиконовая крем-смазка ACC</t>
+          <t>Классический лубрикант на водной основе</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>id-12036-1299</t>
+          <t>id-25840-1299</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -4518,12 +4518,12 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12036/12036_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25840/25840_1_650.jpg</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Уникальный кремлубрикант с эфирными маслами на силиконовой основе. Подходит как для опытных, так и для начинающих пар. Эфирные масла в составе крема способствуют расслаблению мышц ануса, делая вход более свободным, оказывают антибактериальное, заживляющее и дезодорирующее действия. Особая, ни с чем не сравнимая, шелковистая текстура крема обеспечивает легкость проникновения и супердлительное скольжение. Анальная силиконовая крем-смазка ACC (95 г).  Анальная силиконовая крем-смазка ACC (95 г). Модель: bioritm-2506. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Классический водной гель-лубрикант Soft Love для комфорта интимных отношений!- Обладает лёгкой нежной консистенцией- Дарит великолепное скольжение во время близости- После нанесения не оставляет ощущения липкости- Обеспечивает интенсивное увлажнение- Восполняет недостаток женской смазки- Подходит для использования с изделиями интимного назначения из любых искусственных материаловВ состав лубриканта входит альгин - природный компонент, получаемый из бурых водорослей (Laminaria, Fucus, Macrocystis). Благодаря своим уникальным свойствам, он способствует интенсивному увлажнению и смягчению кожи и слизистых.Гель-лубрикант Soft Love подарит невероятную чувственность интимной близости, позволит ощутить страсть и нежность каждого движения!.Классический лубрикант на водной основе с альгином SOFT LOVE (50 г).  Классический лубрикант на водной основе с альгином SOFT LOVE (50 г). Модель: bioritm-27009. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -4545,17 +4545,17 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
-          <t>95 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>95 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -4617,12 +4617,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Универсальный гибридный лубрикант</t>
+          <t>Мусс BIO ACTIVE для интимной гигиены</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>id-23462-1299</t>
+          <t>id-26925-1299</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -4638,12 +4638,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23462/23462_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26925/26925_1_650.jpg</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Откройте новые эротические возможности с гибридным лубрикантом Hybrid-Silicone! Он сочетает в себе нежность водного лубриканта и супер долгое скольжение силикона, дарит невероятный комфорт во время анального секса.Лубрикант Hybrid-Silicone:- смягчает ткани и облегчает проникновение.- обеспечивает мягкое длительное скольжение.- подходит для использования с секс-игрушками.- не имеет цвета и запаха.ПрименениеВо время анального секса лубрикант наносится на область анального отверстия и.или пенис непосредственно перед половым актом.При использовании презерватива, смазка наносится на анальное отверстие и.или поверх контрацептива, надетого на мужской половой член.При использовании секс-игрушек лубрикант наносится на зону анального отверстия и.или интимный аксессуар. Универсальный гибридный лубрикант Hybrid Silicone PRO ANAL (50 г).  Универсальный гибридный лубрикант Hybrid Silicone PRO ANAL (50 г). Модель: bioritm-27001. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Нежный моющий мусс Bio Active предназначен для ежедневной интимной гигиены. После применения он дарит ощущение комфорта и свежести. Специально разработанная формула мусса обеспечивает бережное очищение и уход.В состав Bio Active входят уникальные природные компоненты.- Пребиотик, сохраняет полезную микрофлору интимных зон.- Молочная кислота поддерживает естественный уровень pH.- Аллантоин ускоряет естественную регенерацию клеток.- Экстракты алоэ вера и ромашки оказывают успокаивающее и увлажняющие действие. Мусс BIO ACTIVE для интимной гигиены (150 мл).  Мусс BIO ACTIVE для интимной гигиены (150 мл). Модель: bioritm-27010. Косметика, препараты. Смазки, косметика &gt; Очищающие средства, присыпки. Дезинфекция &gt; Очищающие средства. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -4665,17 +4665,17 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>150 мл</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>150</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>150 мл</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -4737,12 +4737,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Лубрикант с ромашкой BIO ACTIVE 5 шт </t>
+          <t>Универсальный гель-лубрикант на водной</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>id-28038-1299</t>
+          <t>id-22993-1299</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -4758,12 +4758,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28038/28038_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22993/22993_1_650.jpg</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный гель-лубрикант Bio Active на водной основе  это бережный уход за половыми органами, великолепное увлажнение и восхитительное чувство комфорта во время интимной близости!В состав Bio Active входят натуральные ингредиенты.Д-пантенол обладает глубоким увлажняющим действием, устраняет сухость кожи и слизистых, придаёт тканям мягкость и эластичность. Благодаря своим регенерирующим свойствам ускоряет восстановление барьерных свойств кожи и слизистых, нормализует клеточный метаболизм.Экстракт ромашки успокаивает раздражённую слизистую, оказывает антибактериальное и противовоспалительное действие.Bio Active не имеет цвета и запаха, поэтому подходит даже тем, кто предпочитает интимные средства без каких-либо ароматов. Легко смывается водой.Bio Active - для тех, кто заботится о своём интимном здоровье и предпочитает качественный секс!.Лубрикант с ромашкой BIO ACTIVE (5 шт  3 г).  Лубрикант с ромашкой BIO ACTIVE (5 шт  3 г). Модель: bioritm-27006. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Средство может применяться для различных любовных забав.1. Как лубрикант во время полового контактаПосле нанесения великолепно увлажняет интимные зоны, обеспечивает комфортное и продолжительное скольжение. Не стекает и длительно удерживается на поверхности.2. Для использования совместно с секс-игрушкамиГель подходит для всех видов полимерных материалов. Не нарушает структуру эротических аксессуаров, способствует их лёгкому проникновению и отличному скольжению.3. В качестве средства для эротического массажаВо время стимуляции интимных зон помогает раскрепоститься и повысить чувственность.В состав лубриканта входит биоактивный комплекс из экстракта алоэ вера, витамина Е и аллантоина, который увлажняет, смягчает кожу, способствует быстрому восстановлению слизистых в случае их механического повреждения. Универсальный гель-лубрикант на водной основе SexToys 3 в 1 (75 мл).  Универсальный гель-лубрикант на водной основе SexToys 3 в 1 (75 мл). Модель: bioritm-28001. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -4785,17 +4785,17 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
-          <t>3 ** 5 г</t>
+          <t>75 мл</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>3 ** 5</t>
+          <t>75</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>3 ** 5 г</t>
+          <t>75 мл</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>5 саше по 3 г</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -4857,12 +4857,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Универсальный гибридный лубрикант</t>
+          <t>Увлажняющий интимный гель ACTIVE GLIDE</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>id-23463-1299</t>
+          <t>id-24392-1299</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -4878,12 +4878,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23463/23463_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24392/24392_1_650.jpg</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Откройте новые эротические возможности с гибридным лубрикантом Hybrid-Silicone! Он сочетает в себе нежность водного лубриканта и супер долгое скольжение силикона, дарит невероятный комфорт во время анального секса.Лубрикант Hybrid-Silicone:- смягчает ткани и облегчает проникновение.- обеспечивает мягкое длительное скольжение.- подходит для использования с секс-игрушками.- не имеет цвета и запаха.ПрименениеВо время анального секса лубрикант наносится на область анального отверстия и.или пенис непосредственно перед половым актом.При использовании презерватива, смазка наносится на анальное отверстие и.или поверх контрацептива, надетого на мужской половой член.При использовании секс-игрушек лубрикант наносится на зону анального отверстия и.или интимный аксессуар. Универсальный гибридный лубрикант Hibrid Silicone PRO ANAL (5 шт  4 г).  Универсальный гибридный лубрикант Hibrid Silicone PRO ANAL (5 шт  4 г). Модель: bioritm-27007t. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Прозрачный гель-любрикант на водной основе Active Glide с аллантоином активно увлажняет слизистые половых органов, устраняет сухость влагалища, нормализует водный баланс, восполняет недостаток природной смазки, дарит комфортное длительное скольжение, снимает раздражение слизистых, способствует регенерации тканей, препятствует появлению микротравм. Входящий в его состав аллантоин обладает противовоспалительными и регенерирующими свойствами. Прекрасно смягчает и успокаивает раздражённую кожу и слизистую, помогает улучшить состояние и внешний вид половых органов. Аллантоин гипоаллергенен, поэтому может применяться даже для очень чувствительной кожи.Гель-любрикант Active Glide с аллантоином обеспечивает бережный уход за интимными зонами женщин и мужчин. Не имеет цвета и запаха, легко смывается водой. Увлажняющий интимный гель ACTIVE GLIDE ALLANTOIN (100 г).  Увлажняющий интимный гель ACTIVE GLIDE ALLANTOIN (100 г). Модель: bioritm-29002. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -4893,29 +4893,29 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
-          <t>*5   4 мл</t>
+          <t>100 г</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>*5   4</t>
+          <t>100</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>*5   4 мл</t>
+          <t>100 г</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -4977,12 +4977,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Классический лубрикант на водной основе</t>
+          <t>Увлажняющий интимный гель с</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>id-25841-1299</t>
+          <t>id-24391-1299</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -4998,12 +4998,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25841/25841_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24391/24391_1_650.jpg</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный гель-лубрикант Bio Active на водной основе  это бережный уход за половыми органами, великолепное увлажнение и восхитительное чувство комфорта во время интимной близости!В состав Bio Active входят натуральные ингредиенты.Д-пантенол обладает глубоким увлажняющим действием, устраняет сухость кожи и слизистых, придаёт тканям мягкость и эластичность. Благодаря своим регенерирующим свойствам ускоряет восстановление барьерных свойств кожи и слизистых, нормализует клеточный метаболизм.Экстракт ромашки успокаивает раздражённую слизистую, оказывает антибактериальное и противовоспалительное действие.Bio Active не имеет цвета и запаха, поэтому подходит даже тем, кто предпочитает интимные средства без каких-либо ароматов. Легко смывается водой.Bio Active - для тех, кто заботится о своём интимном здоровье и предпочитает качественный секс!.Классический лубрикант на водной основе с ромашкой SOFT LOVE (50 г).  Классический лубрикант на водной основе с ромашкой SOFT LOVE (50 г). Модель: bioritm-27008. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Нежный гель-любрикант на водной основе Active Glide с гиалуроновой кислотой интенсивно и длительно увлажняет и смягчает интимные зоны, устраняет сухость влагалища, восполняет недостаток женской смазки, дарит приятное продолжительное скольжение во время близости, снимает раздражения, препятствует появлению микротравм. Входящая в состав любриканта гиалуроновая кислота нормализует водный баланс клеток, способствует регенерации кожи и слизистых, обеспечивает эластичность тканей половых органов. снижает чувствительность кожи, усиливает её защитные функции.Гель-любрикант Active Glide с гиалуроновой кислотой обеспечивает бережный уход за интимными зонами женщин и мужчин. Не имеет цвета и запаха, легко смывается водой. Увлажняющий интимный гель с гиалуроновой кислотой ACTIVE GLIDE HYALURONIC (100 г).  Увлажняющий интимный гель с гиалуроновой кислотой ACTIVE GLIDE HYALURONIC (100 г). Модель: bioritm-29003. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -5025,17 +5025,17 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>100 г</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>100 г</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -5097,12 +5097,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Классический лубрикант на водной основе</t>
+          <t>Увлажняющий интимный гель ACTIVE GLIDE</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>id-25840-1299</t>
+          <t>id-27830-1299</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -5118,12 +5118,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25840/25840_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27830/27830_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27830/27830_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27830/27830_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27830/27830_4_650.jpg</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классический водной гель-лубрикант Soft Love для комфорта интимных отношений!- Обладает лёгкой нежной консистенцией- Дарит великолепное скольжение во время близости- После нанесения не оставляет ощущения липкости- Обеспечивает интенсивное увлажнение- Восполняет недостаток женской смазки- Подходит для использования с изделиями интимного назначения из любых искусственных материаловВ состав лубриканта входит альгин - природный компонент, получаемый из бурых водорослей (Laminaria, Fucus, Macrocystis). Благодаря своим уникальным свойствам, он способствует интенсивному увлажнению и смягчению кожи и слизистых.Гель-лубрикант Soft Love подарит невероятную чувственность интимной близости, позволит ощутить страсть и нежность каждого движения!.Классический лубрикант на водной основе с альгином SOFT LOVE (50 г).  Классический лубрикант на водной основе с альгином SOFT LOVE (50 г). Модель: bioritm-27009. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Нежный гель-любрикант на водной основе Active Glide с пребиотиком интенсивно увлажняет и смягчает интимные зоны, устраняет сухость влагалища, восполняет недостаток собственной смазки, дарит нежное и продолжительное скольжение, снимает раздражения, препятствует появлению микротравм, дарит потрясающее чувство комфорта во время близости. Входящий в состав любриканта натуральный пребиотик биолин восстанавливает и сохраняет здоровую микрофлору интимных зон, повышает сопротивляемость кожи и слизистых к неблагоприятным воздействиям. Пребиотик питает, нормализует pH-баланс, улучшает состояние кожи и слизистых, устраняет покраснения. Действие биолина очень деликатно, поэтому он подходит для ухода даже за очень капризной кожей. Гель-любрикант Active Glide с пребиотиком обеспечивает бережный уход за половыми органами женщин и мужчин. Не имеет цвета и запаха, легко смывается водой. Увлажняющий интимный гель ACTIVE GLIDE PREBIOTIC (в упаковке 5 шт).  Увлажняющий интимный гель ACTIVE GLIDE PREBIOTIC (в упаковке 5 шт). Модель: bioritm-29004t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -5145,17 +5145,17 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>3</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -5181,7 +5181,7 @@
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 саше по 3 г</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -5217,12 +5217,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Мусс BIO ACTIVE для интимной гигиены</t>
+          <t>Увлажняющий интимный гель ACTIVE GLIDE</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>id-26925-1299</t>
+          <t>id-27829-1299</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -5238,12 +5238,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26925/26925_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27829/27829_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27829/27829_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27829/27829_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27829/27829_3_650.jpg</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный моющий мусс Bio Active предназначен для ежедневной интимной гигиены. После применения он дарит ощущение комфорта и свежести. Специально разработанная формула мусса обеспечивает бережное очищение и уход.В состав Bio Active входят уникальные природные компоненты.- Пребиотик, сохраняет полезную микрофлору интимных зон.- Молочная кислота поддерживает естественный уровень pH.- Аллантоин ускоряет естественную регенерацию клеток.- Экстракты алоэ вера и ромашки оказывают успокаивающее и увлажняющие действие. Мусс BIO ACTIVE для интимной гигиены (150 мл).  Мусс BIO ACTIVE для интимной гигиены (150 мл). Модель: bioritm-27010. Косметика, препараты. Смазки, косметика &gt; Очищающие средства, присыпки. Дезинфекция &gt; Очищающие средства. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Нежный гель-любрикант на водной основе Active Glide с гиалуроновой кислотой интенсивно и длительно увлажняет и смягчает интимные зоны, устраняет сухость влагалища, восполняет недостаток женской смазки, дарит приятное продолжительное скольжение во время близости, снимает раздражения, препятствует появлению микротравм. Входящая в состав любриканта гиалуроновая кислота нормализует водный баланс клеток, способствует регенерации кожи и слизистых, обеспечивает эластичность тканей половых органов. снижает чувствительность кожи, усиливает её защитные функции. Гель-любрикант Active Glide с гиалуроновой кислотой обеспечивает бережный уход за интимными зонами женщин и мужчин. Не имеет цвета и запаха, легко смывается водой. Увлажняющий интимный гель ACTIVE GLIDE HYALURONIC (в упаковке 5 шт).  Увлажняющий интимный гель ACTIVE GLIDE HYALURONIC (в упаковке 5 шт). Модель: bioritm-29005t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -5265,17 +5265,17 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr">
         <is>
-          <t>150 мл</t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>150 мл</t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -5301,7 +5301,7 @@
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 саше по 3 г</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -5337,12 +5337,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Универсальный гель-лубрикант на водной</t>
+          <t>Увлажняющий интимный гель ACTIVE GLIDE</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>id-22993-1299</t>
+          <t>id-27828-1299</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -5358,12 +5358,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22993/22993_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27828/27828_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27828/27828_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27828/27828_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27828/27828_4_650.jpg</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Средство может применяться для различных любовных забав.1. Как лубрикант во время полового контактаПосле нанесения великолепно увлажняет интимные зоны, обеспечивает комфортное и продолжительное скольжение. Не стекает и длительно удерживается на поверхности.2. Для использования совместно с секс-игрушкамиГель подходит для всех видов полимерных материалов. Не нарушает структуру эротических аксессуаров, способствует их лёгкому проникновению и отличному скольжению.3. В качестве средства для эротического массажаВо время стимуляции интимных зон помогает раскрепоститься и повысить чувственность.В состав лубриканта входит биоактивный комплекс из экстракта алоэ вера, витамина Е и аллантоина, который увлажняет, смягчает кожу, способствует быстрому восстановлению слизистых в случае их механического повреждения. Универсальный гель-лубрикант на водной основе SexToys 3 в 1 (75 мл).  Универсальный гель-лубрикант на водной основе SexToys 3 в 1 (75 мл). Модель: bioritm-28001. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Прозрачный гель-любрикант на водной основе Active Glide с аллантоином активно увлажняет слизистые половых органов, устраняет сухость влагалища, нормализует водный баланс, восполняет недостаток природной смазки, дарит комфортное длительное скольжение, снимает раздражение слизистых, способствует регенерации тканей, препятствует появлению микротравм. Входящий в его состав аллантоин обладает противовоспалительными и регенерирующими свойствами. Прекрасно смягчает и успокаивает раздражённую кожу и слизистую, помогает улучшить состояние и внешний вид половых органов. Аллантоин гипоаллергенен, поэтому может применяться даже для очень чувствительной кожи. Гель-любрикант Active Glide с аллантоином обеспечивает бережный уход за интимными зонами женщин и мужчин. Не имеет цвета и запаха, легко смывается водой. Увлажняющий интимный гель ACTIVE GLIDE ALLANTOIN (в упаковке 5 шт).  Увлажняющий интимный гель ACTIVE GLIDE ALLANTOIN (в упаковке 5 шт). Модель: bioritm-29006t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -5385,17 +5385,17 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr">
         <is>
-          <t>75 мл</t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>3</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>75 мл</t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 саше по 3 г</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -5457,12 +5457,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Увлажняющий интимный гель ACTIVE GLIDE</t>
+          <t>Оральный гель Tutti-Frutti со вкусом</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>id-24392-1299</t>
+          <t>id-10316-1299</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -5478,12 +5478,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24392/24392_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10316/10316_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10316/10316_2_650.jpg</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прозрачный гель-любрикант на водной основе Active Glide с аллантоином активно увлажняет слизистые половых органов, устраняет сухость влагалища, нормализует водный баланс, восполняет недостаток природной смазки, дарит комфортное длительное скольжение, снимает раздражение слизистых, способствует регенерации тканей, препятствует появлению микротравм. Входящий в его состав аллантоин обладает противовоспалительными и регенерирующими свойствами. Прекрасно смягчает и успокаивает раздражённую кожу и слизистую, помогает улучшить состояние и внешний вид половых органов. Аллантоин гипоаллергенен, поэтому может применяться даже для очень чувствительной кожи.Гель-любрикант Active Glide с аллантоином обеспечивает бережный уход за интимными зонами женщин и мужчин. Не имеет цвета и запаха, легко смывается водой. Увлажняющий интимный гель ACTIVE GLIDE ALLANTOIN (100 г).  Увлажняющий интимный гель ACTIVE GLIDE ALLANTOIN (100 г). Модель: bioritm-29002. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом земляники (30 г).  Оральный гель Tutti-Frutti со вкусом земляники (30 г). Модель: bioritm-30002. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -5493,29 +5493,29 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr">
         <is>
-          <t>100 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>100 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -5577,12 +5577,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Увлажняющий интимный гель с</t>
+          <t>Оральный гель Tutti-Frutti со вкусом</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>id-24391-1299</t>
+          <t>id-10319-1299</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -5598,12 +5598,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24391/24391_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10319/10319_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10319/10319_1_650.jpg</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный гель-любрикант на водной основе Active Glide с гиалуроновой кислотой интенсивно и длительно увлажняет и смягчает интимные зоны, устраняет сухость влагалища, восполняет недостаток женской смазки, дарит приятное продолжительное скольжение во время близости, снимает раздражения, препятствует появлению микротравм. Входящая в состав любриканта гиалуроновая кислота нормализует водный баланс клеток, способствует регенерации кожи и слизистых, обеспечивает эластичность тканей половых органов. снижает чувствительность кожи, усиливает её защитные функции.Гель-любрикант Active Glide с гиалуроновой кислотой обеспечивает бережный уход за интимными зонами женщин и мужчин. Не имеет цвета и запаха, легко смывается водой. Увлажняющий интимный гель с гиалуроновой кислотой ACTIVE GLIDE HYALURONIC (100 г).  Увлажняющий интимный гель с гиалуроновой кислотой ACTIVE GLIDE HYALURONIC (100 г). Модель: bioritm-29003. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом спелой малины (30 г).  Оральный гель Tutti-Frutti со вкусом спелой малины (30 г). Модель: bioritm-30003. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -5625,17 +5625,17 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr">
         <is>
-          <t>100 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>100 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -5697,12 +5697,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Увлажняющий интимный гель ACTIVE GLIDE</t>
+          <t>Оральный гель Tutti-Frutti со вкусом</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>id-27830-1299</t>
+          <t>id-22347-1299</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -5718,12 +5718,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27830/27830_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27830/27830_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27830/27830_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27830/27830_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22347/22347_1_650.jpg</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный гель-любрикант на водной основе Active Glide с пребиотиком интенсивно увлажняет и смягчает интимные зоны, устраняет сухость влагалища, восполняет недостаток собственной смазки, дарит нежное и продолжительное скольжение, снимает раздражения, препятствует появлению микротравм, дарит потрясающее чувство комфорта во время близости. Входящий в состав любриканта натуральный пребиотик биолин восстанавливает и сохраняет здоровую микрофлору интимных зон, повышает сопротивляемость кожи и слизистых к неблагоприятным воздействиям. Пребиотик питает, нормализует pH-баланс, улучшает состояние кожи и слизистых, устраняет покраснения. Действие биолина очень деликатно, поэтому он подходит для ухода даже за очень капризной кожей. Гель-любрикант Active Glide с пребиотиком обеспечивает бережный уход за половыми органами женщин и мужчин. Не имеет цвета и запаха, легко смывается водой. Увлажняющий интимный гель ACTIVE GLIDE PREBIOTIC (в упаковке 5 шт).  Увлажняющий интимный гель ACTIVE GLIDE PREBIOTIC (в упаковке 5 шт). Модель: bioritm-29004t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом тропических фруктов (5 шт по 4 г).  Оральный гель Tutti-Frutti со вкусом тропических фруктов (5 шт по 4 г). Модель: bioritm-30006t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -5745,17 +5745,17 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr">
         <is>
-          <t>3 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4 ** 5</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>3 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -5781,7 +5781,7 @@
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>5 саше по 3 г</t>
+          <t>5 пробников по 4 г</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
@@ -5817,12 +5817,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Увлажняющий интимный гель ACTIVE GLIDE</t>
+          <t>Оральный гель Tutti-Frutti со вкусом</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>id-27829-1299</t>
+          <t>id-22346-1299</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -5838,12 +5838,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27829/27829_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27829/27829_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27829/27829_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27829/27829_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22346/22346_1_650.jpg</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный гель-любрикант на водной основе Active Glide с гиалуроновой кислотой интенсивно и длительно увлажняет и смягчает интимные зоны, устраняет сухость влагалища, восполняет недостаток женской смазки, дарит приятное продолжительное скольжение во время близости, снимает раздражения, препятствует появлению микротравм. Входящая в состав любриканта гиалуроновая кислота нормализует водный баланс клеток, способствует регенерации кожи и слизистых, обеспечивает эластичность тканей половых органов. снижает чувствительность кожи, усиливает её защитные функции. Гель-любрикант Active Glide с гиалуроновой кислотой обеспечивает бережный уход за интимными зонами женщин и мужчин. Не имеет цвета и запаха, легко смывается водой. Увлажняющий интимный гель ACTIVE GLIDE HYALURONIC (в упаковке 5 шт).  Увлажняющий интимный гель ACTIVE GLIDE HYALURONIC (в упаковке 5 шт). Модель: bioritm-29005t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом спелой малины (5 шт по 4 г).  Оральный гель Tutti-Frutti со вкусом спелой малины (5 шт по 4 г). Модель: bioritm-30007t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -5865,17 +5865,17 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr">
         <is>
-          <t>3 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4 ** 5</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>3 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -5901,7 +5901,7 @@
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>5 саше по 3 г</t>
+          <t>5 пробников по 4 г</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
@@ -5937,12 +5937,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Увлажняющий интимный гель ACTIVE GLIDE</t>
+          <t>Оральный гель Tutti-Frutti со вкусом</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>id-27828-1299</t>
+          <t>id-23042-1299</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -5958,12 +5958,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27828/27828_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27828/27828_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27828/27828_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27828/27828_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23042/23042_1_650.jpg</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прозрачный гель-любрикант на водной основе Active Glide с аллантоином активно увлажняет слизистые половых органов, устраняет сухость влагалища, нормализует водный баланс, восполняет недостаток природной смазки, дарит комфортное длительное скольжение, снимает раздражение слизистых, способствует регенерации тканей, препятствует появлению микротравм. Входящий в его состав аллантоин обладает противовоспалительными и регенерирующими свойствами. Прекрасно смягчает и успокаивает раздражённую кожу и слизистую, помогает улучшить состояние и внешний вид половых органов. Аллантоин гипоаллергенен, поэтому может применяться даже для очень чувствительной кожи. Гель-любрикант Active Glide с аллантоином обеспечивает бережный уход за интимными зонами женщин и мужчин. Не имеет цвета и запаха, легко смывается водой. Увлажняющий интимный гель ACTIVE GLIDE ALLANTOIN (в упаковке 5 шт).  Увлажняющий интимный гель ACTIVE GLIDE ALLANTOIN (в упаковке 5 шт). Модель: bioritm-29006t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом земляники (5 шт по 4 г).  Оральный гель Tutti-Frutti со вкусом земляники (5 шт по 4 г). Модель: bioritm-30008t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -5985,17 +5985,17 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr">
         <is>
-          <t>3 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4 ** 5</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>3 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
       <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>5 саше по 3 г</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>id-10316-1299</t>
+          <t>id-22348-1299</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -6078,12 +6078,12 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10316/10316_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10316/10316_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22348/22348_1_650.jpg</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом земляники (30 г).  Оральный гель Tutti-Frutti со вкусом земляники (30 г). Модель: bioritm-30002. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом зеленого яблока (5 шт по 4 г).  Оральный гель Tutti-Frutti со вкусом зеленого яблока (5 шт по 4 г). Модель: bioritm-30010t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -6105,17 +6105,17 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>4 ** 5</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -6141,7 +6141,7 @@
       <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 пробников по 4 г</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>id-10319-1299</t>
+          <t>id-23467-1299</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -6198,12 +6198,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10319/10319_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10319/10319_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23467/23467_1_650.jpg</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом спелой малины (30 г).  Оральный гель Tutti-Frutti со вкусом спелой малины (30 г). Модель: bioritm-30003. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Гель-лубрикант на водной основе TUTTI-FRUTTI мята создан специально для оральных утех. Он внесёт разнообразие в интимную жизнь, откроет новые грани эротических удовольствий! С ним секс станет по-настоящему волшебным!Приятный вкус и аромат мяты добавят изюминки в любовную игру, сделают её просто незабываемой.Лубрикант имеет нежную лёгкую текстуру, обладает увлажняющим и ароматизирующим действиями.TUTTI-FRUTTI мята не нарушает микрофлору интимных зон и подходит для использования в качестве лубриканта.Гель совместим с изделиями из латекса и синтетических материалов. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом сладкой мяты (5 шт  4 г).  Оральный гель Tutti-Frutti со вкусом сладкой мяты (5 шт  4 г). Модель: bioritm-30012t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -6225,17 +6225,17 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>4 ** 5</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -6261,7 +6261,7 @@
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 саше по 4 г</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
@@ -6297,12 +6297,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Оральный гель TUTTI-FRUTTI сочная дыня</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>id-22347-1299</t>
+          <t>id-24090-1299</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -6318,12 +6318,12 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22347/22347_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24090/24090_1_650.jpg</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом тропических фруктов (5 шт по 4 г).  Оральный гель Tutti-Frutti со вкусом тропических фруктов (5 шт по 4 г). Модель: bioritm-30006t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">TUTTI-FRUTTI сочная дыня - гель-лубрикант на водной основе с сладким вкусом и головокружительным ароматом спелой дыни! Он откроет новые грани орального секса, подарит невероятные эмоции во время любовной игры!Гель имеет лёгкую нежную текстуру, увлажняет и ароматизирует. Не нарушает микрофлору интимных зон, подходит для использования в качестве лубриканта. Совместим с изделиями из латекса и синтетических материалов. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель TUTTI-FRUTTI сочная дыня (30 г).  Оральный гель TUTTI-FRUTTI сочная дыня (30 г). Модель: bioritm-30013. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -6345,17 +6345,17 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>4 ** 5</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -6381,7 +6381,7 @@
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>5 пробников по 4 г</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
@@ -6417,12 +6417,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Оральный гель TUTTI-FRUTTI сочная дыня</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>id-22346-1299</t>
+          <t>id-24089-1299</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -6438,12 +6438,12 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22346/22346_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24089/24089_1_650.jpg</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом спелой малины (5 шт по 4 г).  Оральный гель Tutti-Frutti со вкусом спелой малины (5 шт по 4 г). Модель: bioritm-30007t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">TUTTI-FRUTTI сочная дыня - гель-лубрикант на водной основе с сладким вкусом и головокружительным ароматом спелой дыни! Он откроет новые грани орального секса, подарит невероятные эмоции во время любовной игры!Гель имеет лёгкую нежную текстуру, увлажняет и ароматизирует. Не нарушает микрофлору интимных зон, подходит для использования в качестве лубриканта. Совместим с изделиями из латекса и синтетических материалов. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель TUTTI-FRUTTI сочная дыня (5 шт по 4 г).  Оральный гель TUTTI-FRUTTI сочная дыня (5 шт по 4 г). Модель: bioritm-30014. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -6465,17 +6465,17 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t>5 * 4 г</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>4 ** 5</t>
+          <t>5 * 4</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t>5 * 4 г</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -6501,7 +6501,7 @@
       <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr">
         <is>
-          <t>5 пробников по 4 г</t>
+          <t>5 одноразовых саше по 4 г</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>id-23042-1299</t>
+          <t>id-23465-1299</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -6558,12 +6558,12 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23042/23042_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23465/23465_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23465/23465_2_650.jpg</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом земляники (5 шт по 4 г).  Оральный гель Tutti-Frutti со вкусом земляники (5 шт по 4 г). Модель: bioritm-30008t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Гель-лубрикант на водной основе с приятным ароматом десерта тирамису разработан специально для орального секса! Он подарит настоящую эротическую феерию, сделает интимную близость насыщенной и яркой! Сладкий вкус и десертный аромат смазки добавят страсти любовной игре!TUTTI-FRUTTI тирамису обладает нежной лёгкой консистенцией, дарящей приятные ощущения во время эротических забав.Гель увлажняет и ароматизирует, не нарушает микрофлору интимных зон, подходит для использования в качестве лубриканта.Смазка совместима с изделиями из латекса и синтетических материалов. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом тирамису (30 г).  Оральный гель Tutti-Frutti со вкусом тирамису (30 г). Модель: bioritm-30015. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -6585,17 +6585,17 @@
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>4 ** 5</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -6662,7 +6662,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>id-22348-1299</t>
+          <t>id-23466-1299</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -6678,12 +6678,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22348/22348_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23466/23466_1_650.jpg</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Новый вкус вашей страсти - съедобные смазки Tutti Frutti из серии OraLove Вулкан страстей и незабываемый вкус эмоций смешались во флаконах съедобных смазок Tutti Frutti из серии OraLove. Вкус пламенной малины, неутомимой земляники, темпераментной вишни, пылкого яблока и чувственных экзотических фруктов подарят райское наслаждение, раскроют тайны создания гармонии интимных отношений. Многие пары для орального секса используют пищевые продукты (фрукты, взбитые сливки, шоколад и т.д). Такая гастрономическая практика может нанести существенный вред чувствительной микрофлоре половых органов. Продукция Tutti Frutti разработана специально для орального удовольствия. Съедобные смазки не нарушают баланс микрофлоры, а сохраняют его. Они придадут вашим любовным играм особый вкус и бережно позаботятся о чувствительной интимной зоне. Подходят для использования в качестве лубриканта. Обладают увлажняющим действием. Совместимы с изделиями из латекса и синтетических материалов. 5 причин попробовать съедобные смазки Tutti Frutti:  подходят для обоих партнеров  обладают увлажняющими свойствами  сочетаются с изделиями из латекса  придают новый вкус вашей страсти  добавят изюминку в отношения Применение: в момент любовных игр нанесите на наружные половые органы. НОВЫЙ ВКУС ВАШЕЙ СТРАСТИ - съедобные смазки Tutti Frutti из серии OraLove!.Оральный гель Tutti-Frutti со вкусом зеленого яблока (5 шт по 4 г).  Оральный гель Tutti-Frutti со вкусом зеленого яблока (5 шт по 4 г). Модель: bioritm-30010t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Гель-лубрикант на водной основе с приятным ароматом десерта тирамису разработан специально для орального секса! Он подарит настоящую эротическую феерию, сделает интимную близость насыщенной и яркой! Сладкий вкус и десертный аромат смазки добавят страсти любовной игре!TUTTI-FRUTTI тирамису обладает нежной лёгкой консистенцией, дарящей приятные ощущения во время эротических забав.Гель увлажняет и ароматизирует, не нарушает микрофлору интимных зон, подходит для использования в качестве лубриканта.Смазка совместима с изделиями из латекса и синтетических материалов. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом тирамису (5 шт  4 г).  Оральный гель Tutti-Frutti со вкусом тирамису (5 шт  4 г). Модель: bioritm-30016t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -6741,7 +6741,7 @@
       <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="inlineStr">
         <is>
-          <t>5 пробников по 4 г</t>
+          <t>5 саше по 4 г</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>id-23467-1299</t>
+          <t>id-26741-1299</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -6798,12 +6798,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23467/23467_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26741/26741_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26741/26741_1_650.jpg</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гель-лубрикант на водной основе TUTTI-FRUTTI мята создан специально для оральных утех. Он внесёт разнообразие в интимную жизнь, откроет новые грани эротических удовольствий! С ним секс станет по-настоящему волшебным!Приятный вкус и аромат мяты добавят изюминки в любовную игру, сделают её просто незабываемой.Лубрикант имеет нежную лёгкую текстуру, обладает увлажняющим и ароматизирующим действиями.TUTTI-FRUTTI мята не нарушает микрофлору интимных зон и подходит для использования в качестве лубриканта.Гель совместим с изделиями из латекса и синтетических материалов. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом сладкой мяты (5 шт  4 г).  Оральный гель Tutti-Frutti со вкусом сладкой мяты (5 шт  4 г). Модель: bioritm-30012t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Конфетная сладость и восхитительный аромат TUTTI-FRUTTI сладкий барбарис разбудят сильное сексуальное желание, вознесут на вершину эротического блаженства!Гель-лубрикант на водной основе имеет лёгкую нежную текстуру, увлажняет и ароматизирует интимные зоны, придаёт им вкус сладости. Средство не нарушает микрофлору интимных зон, может использоваться в качестве старт-смазки, подходит для обоих партнёров.Лубрикант совместим с секс-игрушками и презервативами. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом барбариса (30 г).  Оральный гель Tutti-Frutti со вкусом барбариса (30 г). Модель: bioritm-30017. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -6825,17 +6825,17 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>4 ** 5</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -6861,7 +6861,7 @@
       <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>5 саше по 4 г</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
@@ -6897,12 +6897,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Оральный гель TUTTI-FRUTTI сочная дыня</t>
+          <t>Оральный гель Tutti-Frutti со вкусом</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>id-24090-1299</t>
+          <t>id-26740-1299</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -6918,12 +6918,12 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24090/24090_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26740/26740_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26740/26740_1_650.jpg</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">TUTTI-FRUTTI сочная дыня - гель-лубрикант на водной основе с сладким вкусом и головокружительным ароматом спелой дыни! Он откроет новые грани орального секса, подарит невероятные эмоции во время любовной игры!Гель имеет лёгкую нежную текстуру, увлажняет и ароматизирует. Не нарушает микрофлору интимных зон, подходит для использования в качестве лубриканта. Совместим с изделиями из латекса и синтетических материалов. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель TUTTI-FRUTTI сочная дыня (30 г).  Оральный гель TUTTI-FRUTTI сочная дыня (30 г). Модель: bioritm-30013. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">TUTTI-FRUTTI свежая смородина со сладким вкусом и головокружительным ароматом раскрепостит, закружит в водовороте любви и удовольствия, внесёт в сексуальную жизнь новизну и разнообразие.Гель-лубрикант на водной основе обладает увлажняющим и ароматизирующим действием, придаёт половым органам вкус сладости. Лубрикант имеет нежную лёгкую консистенцию, не нарушает микрофлору интимных зон, подходит для обоих партнёров. TUTTI-FRUTTI свежая смородина совместим с секс-игрушками и презервативами, может использоваться в качестве старт-смазки, Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом смородины (30 г).  Оральный гель Tutti-Frutti со вкусом смородины (30 г). Модель: bioritm-30018. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -7017,12 +7017,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Оральный гель TUTTI-FRUTTI сочная дыня</t>
+          <t>Оральный гель Tutti-Frutti со вкусом</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>id-24089-1299</t>
+          <t>id-28033-1299</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -7038,12 +7038,12 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24089/24089_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28033/28033_1_650.jpg</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">TUTTI-FRUTTI сочная дыня - гель-лубрикант на водной основе с сладким вкусом и головокружительным ароматом спелой дыни! Он откроет новые грани орального секса, подарит невероятные эмоции во время любовной игры!Гель имеет лёгкую нежную текстуру, увлажняет и ароматизирует. Не нарушает микрофлору интимных зон, подходит для использования в качестве лубриканта. Совместим с изделиями из латекса и синтетических материалов. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель TUTTI-FRUTTI сочная дыня (5 шт по 4 г).  Оральный гель TUTTI-FRUTTI сочная дыня (5 шт по 4 г). Модель: bioritm-30014. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">TUTTI-FRUTTI свежая смородина со сладким вкусом и головокружительным ароматом раскрепостит, закружит в водовороте любви и удовольствия, внесёт в сексуальную жизнь новизну и разнообразие.Гель-лубрикант на водной основе обладает увлажняющим и ароматизирующим действием, придаёт половым органам вкус сладости. Лубрикант имеет нежную лёгкую консистенцию, не нарушает микрофлору интимных зон, подходит для обоих партнёров. TUTTI-FRUTTI свежая смородина совместим с секс-игрушками и презервативами, может использоваться в качестве старт-смазки, Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом смородины (5 шт  4 г).  Оральный гель Tutti-Frutti со вкусом смородины (5 шт  4 г). Модель: bioritm-30019. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -7065,17 +7065,17 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr">
         <is>
-          <t>5 * 4 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>5 * 4</t>
+          <t>4 ** 5</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>5 * 4 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -7101,7 +7101,7 @@
       <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>5 одноразовых саше по 4 г</t>
+          <t>5 саше по 4 г</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>id-23465-1299</t>
+          <t>id-28034-1299</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -7158,12 +7158,12 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23465/23465_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23465/23465_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28034/28034_2_650.jpg</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гель-лубрикант на водной основе с приятным ароматом десерта тирамису разработан специально для орального секса! Он подарит настоящую эротическую феерию, сделает интимную близость насыщенной и яркой! Сладкий вкус и десертный аромат смазки добавят страсти любовной игре!TUTTI-FRUTTI тирамису обладает нежной лёгкой консистенцией, дарящей приятные ощущения во время эротических забав.Гель увлажняет и ароматизирует, не нарушает микрофлору интимных зон, подходит для использования в качестве лубриканта.Смазка совместима с изделиями из латекса и синтетических материалов. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом тирамису (30 г).  Оральный гель Tutti-Frutti со вкусом тирамису (30 г). Модель: bioritm-30015. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Конфетная сладость и восхитительный аромат TUTTI-FRUTTI сладкий барбарис разбудят сильное сексуальное желание, вознесут на вершину эротического блаженства!Гель-лубрикант на водной основе имеет лёгкую нежную текстуру, увлажняет и ароматизирует интимные зоны, придаёт им вкус сладости. Средство не нарушает микрофлору интимных зон, может использоваться в качестве старт-смазки, подходит для обоих партнёров.Лубрикант совместим с секс-игрушками и презервативами. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом барбариса (5 шт  4 г).  Оральный гель Tutti-Frutti со вкусом барбариса (5 шт  4 г). Модель: bioritm-30020. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -7185,17 +7185,17 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>4 ** 5</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>4 ** 5 г</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 саше по 4 г</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
@@ -7257,12 +7257,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Увлажняющий интимный гель INTIM HEALTH</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>id-23466-1299</t>
+          <t>id-26742-1299</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -7278,12 +7278,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23466/23466_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26742/26742_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26742/26742_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26742/26742_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26742/26742_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26742/26742_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26742/26742_6_650.jpg</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гель-лубрикант на водной основе с приятным ароматом десерта тирамису разработан специально для орального секса! Он подарит настоящую эротическую феерию, сделает интимную близость насыщенной и яркой! Сладкий вкус и десертный аромат смазки добавят страсти любовной игре!TUTTI-FRUTTI тирамису обладает нежной лёгкой консистенцией, дарящей приятные ощущения во время эротических забав.Гель увлажняет и ароматизирует, не нарушает микрофлору интимных зон, подходит для использования в качестве лубриканта.Смазка совместима с изделиями из латекса и синтетических материалов. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом тирамису (5 шт  4 г).  Оральный гель Tutti-Frutti со вкусом тирамису (5 шт  4 г). Модель: bioritm-30016t. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Гель-лубрикант на водной основе глубоко и интенсивно увлажняет ткани половых органов, восполняет недостаток естественной смазки, обеспечивает нежное проникновение и продолжительное скольжение, защищает от микротравм. Бережно ухаживает за интимными зонами, устраняет сухость, повышает эластичность стенок влагалища, дарит ощущение комфорта, в т. ч. и в период менопаузы.Мочевина и аргинин в составе активно увлажняют и восстанавливают слизистые. Молочная кислота поддерживает нормальный pH баланс, способствует сохранению здоровой микрофлоры интимных зон.Не имеет цвета и запаха. Легко смывается водой. Подходит для ежедневного использования.Перед интимной близостью гель-лубрикант наносится на вход во влагалище и головку полового члена. Если во время секса используется презерватив, Intim Health распределяется на поверхность надетого на пенис контрацептива.Для профилактического ухода за интимной зоной средство наносится на вход во влагалище после гигиенических процедур. Увлажняющий интимный гель INTIM HEALTH (100 г).  Увлажняющий интимный гель INTIM HEALTH (100 г). Модель: bioritm-31001. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -7305,17 +7305,17 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t>100 г</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>4 ** 5</t>
+          <t>100</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t>100 г</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -7341,7 +7341,7 @@
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr">
         <is>
-          <t>5 саше по 4 г</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
@@ -7372,17 +7372,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Увлажняющий интимный гель INTIM HEALTH</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>id-26741-1299</t>
+          <t>id-28036-1299</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -7398,12 +7398,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26741/26741_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26741/26741_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28036/28036_1_650.jpg</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Конфетная сладость и восхитительный аромат TUTTI-FRUTTI сладкий барбарис разбудят сильное сексуальное желание, вознесут на вершину эротического блаженства!Гель-лубрикант на водной основе имеет лёгкую нежную текстуру, увлажняет и ароматизирует интимные зоны, придаёт им вкус сладости. Средство не нарушает микрофлору интимных зон, может использоваться в качестве старт-смазки, подходит для обоих партнёров.Лубрикант совместим с секс-игрушками и презервативами. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом барбариса (30 г).  Оральный гель Tutti-Frutti со вкусом барбариса (30 г). Модель: bioritm-30017. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Гель-лубрикант на водной основе глубоко и интенсивно увлажняет ткани половых органов, восполняет недостаток естественной смазки, обеспечивает нежное проникновение и продолжительное скольжение, защищает от микротравм. Бережно ухаживает за интимными зонами, устраняет сухость, повышает эластичность стенок влагалища, дарит ощущение комфорта, в т. ч. и в период менопаузы.Мочевина и аргинин в составе активно увлажняют и восстанавливают слизистые. Молочная кислота поддерживает нормальный pH баланс, способствует сохранению здоровой микрофлоры интимных зон.Не имеет цвета и запаха. Легко смывается водой. Подходит для ежедневного использования.Перед интимной близостью гель-лубрикант наносится на вход во влагалище и головку полового члена. Если во время секса используется презерватив, Intim Health распределяется на поверхность надетого на пенис контрацептива.Для профилактического ухода за интимной зоной средство наносится на вход во влагалище после гигиенических процедур. Увлажняющий интимный гель INTIM HEALTH (5 шт  3 г).  Увлажняющий интимный гель INTIM HEALTH (5 шт  3 г). Модель: bioritm-31002. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -7425,17 +7425,17 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>5 * 3 г</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>5 * 3</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t>5 * 3 г</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -7461,7 +7461,7 @@
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 саше по 3 г</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
@@ -7481,7 +7481,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Страпоны</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -7492,17 +7492,17 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Безремневой страпон с вибрацией Sweet</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>id-26740-1299</t>
+          <t>id-19550-1299</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -7513,22 +7513,22 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Безремневой страпон с вибрацией Sweet Toys (розовый)</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26740/26740_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26740/26740_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19550/19550_19550_650.jpg</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">TUTTI-FRUTTI свежая смородина со сладким вкусом и головокружительным ароматом раскрепостит, закружит в водовороте любви и удовольствия, внесёт в сексуальную жизнь новизну и разнообразие.Гель-лубрикант на водной основе обладает увлажняющим и ароматизирующим действием, придаёт половым органам вкус сладости. Лубрикант имеет нежную лёгкую консистенцию, не нарушает микрофлору интимных зон, подходит для обоих партнёров. TUTTI-FRUTTI свежая смородина совместим с секс-игрушками и презервативами, может использоваться в качестве старт-смазки, Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом смородины (30 г).  Оральный гель Tutti-Frutti со вкусом смородины (30 г). Модель: bioritm-30018. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Хотите разнообразить сексуальную жизнь? Фантастический вибромассажер исполнит вашу мечту!Сочетание реалистичного пениса с четко очерченной головкой и пульсирующими венками, стимулятора в форме елочки и анальной втулки делает секс-игрушку просто необыкновенной. Она может использоваться как соло, так и в парной любовной игре. Режим вибрация добавит удовольствия от использования интимного аксессуара.Литая форма вибромассажера исключает наличие соединительных швов, в которых может образоваться неблагоприятная микрофлора, что обеспечивает максимальную гигиеничность. Изделие изготовлено из гипоаллергенного силикона, просто в применении и уходе.Рекомендуется использовать втулку совместно с лубрикантом на водной основе и очищающий спрей с антимикробным эффектом CLEARTOY для экспресс-обработки. Безремневой страпон с вибрацией Sweet Toys (розовый).  Безремневой страпон с вибрацией Sweet Toys (розовый). Модель: bioritm-40185-16. Секс-игрушки. Страпоны и фаллопротезы &gt; Страпоны. Страпоны и фаллопротезы &gt; Для двойного и тройного проникновения. Страпоны и фаллопротезы &gt; Безремневые страпоны. Цвет: розовый. высококачественный силикон с бархатистой поверхностьюБренд: BIORITM. </t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -7545,30 +7545,36 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr">
         <is>
-          <t>30 г</t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>30 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
+      <c r="Y58" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>14</v>
+      </c>
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="inlineStr"/>
       <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="inlineStr"/>
+      <c r="AF58" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0.3</v>
+      </c>
       <c r="AH58" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -7581,7 +7587,7 @@
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t xml:space="preserve"> длина вагин. фал-са 7 см, макс. диаметр 3,2 см, длина анал. фал-са 9,5 см, макс. диаметр 2,8 см</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
@@ -7601,7 +7607,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -7617,12 +7623,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Небольшая силиконовая пробка с</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>id-28033-1299</t>
+          <t>id-17166-1299</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -7638,12 +7644,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28033/28033_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17166/17166_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17166/17166_2_650.jpg</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">TUTTI-FRUTTI свежая смородина со сладким вкусом и головокружительным ароматом раскрепостит, закружит в водовороте любви и удовольствия, внесёт в сексуальную жизнь новизну и разнообразие.Гель-лубрикант на водной основе обладает увлажняющим и ароматизирующим действием, придаёт половым органам вкус сладости. Лубрикант имеет нежную лёгкую консистенцию, не нарушает микрофлору интимных зон, подходит для обоих партнёров. TUTTI-FRUTTI свежая смородина совместим с секс-игрушками и презервативами, может использоваться в качестве старт-смазки, Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом смородины (5 шт  4 г).  Оральный гель Tutti-Frutti со вкусом смородины (5 шт  4 г). Модель: bioritm-30019. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">.Небольшая силиконовая пробка с металлическим кольцом Sex Expert.  Небольшая силиконовая пробка с металлическим кольцом Sex Expert. Модель: bioritm-55051. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: черный с серебряным. Материал: высококачественный силикон с бархатистой поверхностью, металл. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -7661,34 +7667,48 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью, металл</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>4 ** 5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
+      <c r="Y59" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="inlineStr"/>
-      <c r="AF59" t="inlineStr"/>
-      <c r="AG59" t="inlineStr"/>
+      <c r="AD59" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>2.8</v>
+      </c>
       <c r="AH59" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -7701,7 +7721,7 @@
       <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="inlineStr">
         <is>
-          <t>5 саше по 4 г</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO59" t="inlineStr">
@@ -7721,7 +7741,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -7732,17 +7752,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Оральный гель Tutti-Frutti со вкусом</t>
+          <t>Стимулятор простаты с массажером</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>id-28034-1299</t>
+          <t>id-17139-1299</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -7758,12 +7778,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28034/28034_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17139/17139_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17139/17139_2_650.jpg</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Конфетная сладость и восхитительный аромат TUTTI-FRUTTI сладкий барбарис разбудят сильное сексуальное желание, вознесут на вершину эротического блаженства!Гель-лубрикант на водной основе имеет лёгкую нежную текстуру, увлажняет и ароматизирует интимные зоны, придаёт им вкус сладости. Средство не нарушает микрофлору интимных зон, может использоваться в качестве старт-смазки, подходит для обоих партнёров.Лубрикант совместим с секс-игрушками и презервативами. Не липнет после нанесения. Легко смывается водой.БЕЗВРЕДЕН ПРИ ПРОГЛАТЫВАНИИ!.Оральный гель Tutti-Frutti со вкусом барбариса (5 шт  4 г).  Оральный гель Tutti-Frutti со вкусом барбариса (5 шт  4 г). Модель: bioritm-30020. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Activator of male power Вибромассажер - вибромассажер от Sex Expert работает на благо твоего здоровья и удовольствия! Стимулятор имеет эргономичную форму, что обеспечивает легкое и комфортное введение. Идеально подходит для массажа простаты. Режим вибрация дарит дополнительные ощущения. Секс-игрушка имеет специальный отросток, который воздействует на точку проекции простаты. Отросток также служит специальным ограничителем для контроля глубины проникновения. Приятный на ощупь интимный аксессуар сделан из гипоаллергенного силикона. Для более комфортного использования рекомендуем приобрести лубрикант на водной основе и очищающий спрей с антимикробным эффектом ClearToy для экспресс-обработки изделия. Стимулятор простаты с массажером мошонки с вибрацией Sex Expert (1 скорость).  Стимулятор простаты с массажером мошонки с вибрацией Sex Expert (1 скорость). Модель: bioritm-55073. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. AAA x 1 шт (в комплекте)Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -7773,42 +7793,52 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>4 ** 5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>4 ** 5 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
+      <c r="Y60" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>10</v>
+      </c>
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr"/>
       <c r="AE60" t="inlineStr"/>
-      <c r="AF60" t="inlineStr"/>
-      <c r="AG60" t="inlineStr"/>
+      <c r="AF60" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>2.6</v>
+      </c>
       <c r="AH60" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -7821,7 +7851,7 @@
       <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="inlineStr">
         <is>
-          <t>5 саше по 4 г</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
@@ -7841,7 +7871,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -7852,17 +7882,17 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Увлажняющий интимный гель INTIM HEALTH</t>
+          <t>Перезаряжаемый массажер простаты Sex</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>id-26742-1299</t>
+          <t>id-27875-1299</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -7878,12 +7908,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26742/26742_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26742/26742_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26742/26742_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26742/26742_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26742/26742_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26742/26742_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27875/27875_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27875/27875_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27875/27875_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27875/27875_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27875/27875_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27875/27875_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27875/27875_6_650.jpg</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гель-лубрикант на водной основе глубоко и интенсивно увлажняет ткани половых органов, восполняет недостаток естественной смазки, обеспечивает нежное проникновение и продолжительное скольжение, защищает от микротравм. Бережно ухаживает за интимными зонами, устраняет сухость, повышает эластичность стенок влагалища, дарит ощущение комфорта, в т. ч. и в период менопаузы.Мочевина и аргинин в составе активно увлажняют и восстанавливают слизистые. Молочная кислота поддерживает нормальный pH баланс, способствует сохранению здоровой микрофлоры интимных зон.Не имеет цвета и запаха. Легко смывается водой. Подходит для ежедневного использования.Перед интимной близостью гель-лубрикант наносится на вход во влагалище и головку полового члена. Если во время секса используется презерватив, Intim Health распределяется на поверхность надетого на пенис контрацептива.Для профилактического ухода за интимной зоной средство наносится на вход во влагалище после гигиенических процедур. Увлажняющий интимный гель INTIM HEALTH (100 г).  Увлажняющий интимный гель INTIM HEALTH (100 г). Модель: bioritm-31001. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Великолепная секс-игрушка для любителей особых удовольствий. Эргономичная форма интимного аксессуара обеспечит нежное проникновение, комфортное скольжение и незабываемые эмоции во время прелюдии или мастурбации. Остроты ощущениям добавят разнообразные режимы вибрации.Секс-игрушка может использоваться для стимуляции простаты.Изделие имеет твёрдый, но лёгкий корпус, что позволяет регулировать силу воздействия на эрогенный зоны.Включение.выключение вибрации: нажать и в течение 2 секунд удерживать кнопку на корпусе изделия. Переключение виброрежимов: короткое нажатие той же кнопки.Включать, выключать или переключать виброрежимы можно даже во время использования изделия.Вибромассажёр изготовлен из высококачественных материалов. Прост в использовании и уходе. Перезаряжаемый массажер простаты Sex Expert (10 режимов).  Перезаряжаемый массажер простаты Sex Expert (10 режимов). Модель: bioritm-55210. Секс-игрушки. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный с золотистым. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -7893,42 +7923,56 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr">
         <is>
-          <t>100 г</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>100 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
+      <c r="Y61" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>22.5</v>
+      </c>
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
-      <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="inlineStr"/>
+      <c r="AD61" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>2.915</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>2.65</v>
+      </c>
       <c r="AH61" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -7941,7 +7985,7 @@
       <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
@@ -7961,7 +8005,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -7972,17 +8016,17 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Увлажняющий интимный гель INTIM HEALTH</t>
+          <t>Перезаряжаемый анальный стимулятор Sex</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>id-28036-1299</t>
+          <t>id-27878-1299</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -7998,12 +8042,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28036/28036_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27878/27878_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27878/27878_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27878/27878_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27878/27878_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27878/27878_5_650.jpg</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гель-лубрикант на водной основе глубоко и интенсивно увлажняет ткани половых органов, восполняет недостаток естественной смазки, обеспечивает нежное проникновение и продолжительное скольжение, защищает от микротравм. Бережно ухаживает за интимными зонами, устраняет сухость, повышает эластичность стенок влагалища, дарит ощущение комфорта, в т. ч. и в период менопаузы.Мочевина и аргинин в составе активно увлажняют и восстанавливают слизистые. Молочная кислота поддерживает нормальный pH баланс, способствует сохранению здоровой микрофлоры интимных зон.Не имеет цвета и запаха. Легко смывается водой. Подходит для ежедневного использования.Перед интимной близостью гель-лубрикант наносится на вход во влагалище и головку полового члена. Если во время секса используется презерватив, Intim Health распределяется на поверхность надетого на пенис контрацептива.Для профилактического ухода за интимной зоной средство наносится на вход во влагалище после гигиенических процедур. Увлажняющий интимный гель INTIM HEALTH (5 шт  3 г).  Увлажняющий интимный гель INTIM HEALTH (5 шт  3 г). Модель: bioritm-31002. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Анальная втулка с разнообразными режимами вибрации мягко подготовит к близости, познакомит с новыми ощущениями, сделает секс максимально насыщенным и ярким.Интимный аксессуар подойдет как для новичков, так и для опытных любителей особенных удовольствий.Эргономичная форма изделия обеспечит нежное введение, а удобная ручка-ограничитель позволит регулировать глубину проникновения.Чтобы включить втулку нажми и удерживай кнопку на основании в течение 2 секунд. Короткими нажатиями выбери нужный режим вибрации. Снова удерживай кнопку 2 секунды для выключения игрушки.Втулка выполнена из высококачественного бархатистого силикона. Перезаряжаемый анальный стимулятор Sex Expert (10 режимов).  Перезаряжаемый анальный стимулятор Sex Expert (10 режимов). Модель: bioritm-55212. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -8013,42 +8057,56 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr">
         <is>
-          <t>5 * 3 г</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>5 * 3</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>5 * 3 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
+      <c r="Y62" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>13.5</v>
+      </c>
       <c r="AB62" t="inlineStr"/>
       <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="inlineStr"/>
-      <c r="AE62" t="inlineStr"/>
-      <c r="AF62" t="inlineStr"/>
-      <c r="AG62" t="inlineStr"/>
+      <c r="AD62" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>2.8</v>
+      </c>
       <c r="AH62" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8061,7 +8119,7 @@
       <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>5 саше по 3 г</t>
+          <t>анальный стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
@@ -8081,7 +8139,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -8092,17 +8150,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Безремневой страпон с вибрацией Sweet</t>
+          <t>Перезаряжаемый анальный стимулятор Sex</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>id-19550-1299</t>
+          <t>id-27879-1299</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -8113,35 +8171,39 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Безремневой страпон с вибрацией Sweet Toys (розовый)</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19550/19550_19550_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27879/27879_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27879/27879_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27879/27879_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27879/27879_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27879/27879_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27879/27879_6_650.jpg</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Хотите разнообразить сексуальную жизнь? Фантастический вибромассажер исполнит вашу мечту!Сочетание реалистичного пениса с четко очерченной головкой и пульсирующими венками, стимулятора в форме елочки и анальной втулки делает секс-игрушку просто необыкновенной. Она может использоваться как соло, так и в парной любовной игре. Режим вибрация добавит удовольствия от использования интимного аксессуара.Литая форма вибромассажера исключает наличие соединительных швов, в которых может образоваться неблагоприятная микрофлора, что обеспечивает максимальную гигиеничность. Изделие изготовлено из гипоаллергенного силикона, просто в применении и уходе.Рекомендуется использовать втулку совместно с лубрикантом на водной основе и очищающий спрей с антимикробным эффектом CLEARTOY для экспресс-обработки. Безремневой страпон с вибрацией Sweet Toys (розовый).  Безремневой страпон с вибрацией Sweet Toys (розовый). Модель: bioritm-40185-16. Секс-игрушки. Страпоны и фаллопротезы &gt; Страпоны. Страпоны и фаллопротезы &gt; Для двойного и тройного проникновения. Страпоны и фаллопротезы &gt; Безремневые страпоны. Цвет: розовый. высококачественный силикон с бархатистой поверхностьюБренд: BIORITM. </t>
+          <t xml:space="preserve">Анальная втулка с разнообразными режимами вибрации мягко подготовит к близости, познакомит с новыми ощущениями, сделает секс максимально насыщенным и ярким.Интимный аксессуар подойдет как для новичков, так и для опытных любителей особенных удовольствий.Эргономичная форма изделия обеспечит нежное введение, а удобная ручка-ограничитель позволит регулировать глубину проникновения.Чтобы включить втулку нажми и удерживай кнопку на основании в течение 2 секунд. Короткими нажатиями выбери нужный режим вибрации. Снова удерживай кнопку 2 секунды для выключения игрушки.Втулка выполнена из высококачественного бархатистого силикона. Перезаряжаемый анальный стимулятор Sex Expert (10 режимов).  Перезаряжаемый анальный стимулятор Sex Expert (10 режимов). Модель: bioritm-55213. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr">
         <is>
@@ -8157,23 +8219,27 @@
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="n">
-        <v>15.4</v>
+        <v>14.85</v>
       </c>
       <c r="Z63" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
-      <c r="AD63" t="inlineStr"/>
-      <c r="AE63" t="inlineStr"/>
+      <c r="AD63" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>10.45</v>
+      </c>
       <c r="AF63" t="n">
-        <v>0.33</v>
+        <v>3.08</v>
       </c>
       <c r="AG63" t="n">
-        <v>0.3</v>
+        <v>2.8</v>
       </c>
       <c r="AH63" t="inlineStr">
         <is>
@@ -8187,7 +8253,7 @@
       <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> длина вагин. фал-са 7 см, макс. диаметр 3,2 см, длина анал. фал-са 9,5 см, макс. диаметр 2,8 см</t>
+          <t>анальный стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
@@ -8223,12 +8289,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Небольшая силиконовая пробка с</t>
+          <t>Перезаряжаемая анальная втулка для</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>id-17166-1299</t>
+          <t>id-27880-1299</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -8244,12 +8310,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17166/17166_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17166/17166_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27880/27880_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27880/27880_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27880/27880_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27880/27880_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27880/27880_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27880/27880_2_650.jpg</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Небольшая силиконовая пробка с металлическим кольцом Sex Expert.  Небольшая силиконовая пробка с металлическим кольцом Sex Expert. Модель: bioritm-55051. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: черный с серебряным. Материал: высококачественный силикон с бархатистой поверхностью, металл. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Анальная втулка с разнообразными режимами вибрации мягко подготовит к близости, познакомит с новыми ощущениями, сделает секс максимально насыщенным и ярким.Интимный аксессуар подойдет как для новичков, так и для опытных любителей особенных удовольствий.Эргономичная форма изделия обеспечит нежное введение, а удобная ручка-ограничитель позволит регулировать глубину проникновения.Чтобы включить втулку нажми и удерживай кнопку на основании в течение 2 секунд. Короткими нажатиями выбери нужный режим вибрации. Снова удерживай кнопку 2 секунды для выключения игрушки.Втулка выполнена из высококачественного бархатистого силикона. Перезаряжаемая анальная втулка для ношения Sex Expert (10 режимов).  Перезаряжаемая анальная втулка для ношения Sex Expert (10 режимов). Модель: bioritm-55214. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -8259,17 +8325,17 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, металл</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -8287,27 +8353,27 @@
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="n">
-        <v>10.78</v>
+        <v>13.53</v>
       </c>
       <c r="Z64" t="n">
-        <v>9.800000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="AA64" t="n">
-        <v>9.800000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr"/>
       <c r="AD64" t="n">
-        <v>8.5</v>
+        <v>10.3</v>
       </c>
       <c r="AE64" t="n">
-        <v>9.35</v>
+        <v>11.33</v>
       </c>
       <c r="AF64" t="n">
-        <v>3.08</v>
+        <v>3.63</v>
       </c>
       <c r="AG64" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AH64" t="inlineStr">
         <is>
@@ -8321,7 +8387,7 @@
       <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>анальный стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
@@ -8341,7 +8407,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Эрекционные кольца</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -8357,12 +8423,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Стимулятор простаты с массажером</t>
+          <t>Кольцо эрекционное двойное со</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>id-17139-1299</t>
+          <t>id-27877-1299</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -8378,12 +8444,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17139/17139_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17139/17139_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27877/27877_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27877/27877_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27877/27877_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27877/27877_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27877/27877_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27877/27877_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27877/27877_7_650.jpg</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activator of male power Вибромассажер - вибромассажер от Sex Expert работает на благо твоего здоровья и удовольствия! Стимулятор имеет эргономичную форму, что обеспечивает легкое и комфортное введение. Идеально подходит для массажа простаты. Режим вибрация дарит дополнительные ощущения. Секс-игрушка имеет специальный отросток, который воздействует на точку проекции простаты. Отросток также служит специальным ограничителем для контроля глубины проникновения. Приятный на ощупь интимный аксессуар сделан из гипоаллергенного силикона. Для более комфортного использования рекомендуем приобрести лубрикант на водной основе и очищающий спрей с антимикробным эффектом ClearToy для экспресс-обработки изделия. Стимулятор простаты с массажером мошонки с вибрацией Sex Expert (1 скорость).  Стимулятор простаты с массажером мошонки с вибрацией Sex Expert (1 скорость). Модель: bioritm-55073. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. AAA x 1 шт (в комплекте)Бренд: BIORITM. </t>
+          <t xml:space="preserve">Двойное эрекционное кольцо со стимулятором промежности для удовлетворения твоих сексуальных желаний! Интимный аксессуар усиливает эрекцию и нежно воздействует на область промежности, доводя до пика возбуждения.Изделие состоит из двух колец. Одно имеет классическую круглую форму, второе из круга переходит в небольшой отросток с выпуклостями и утолщённым концом. Оба кольца надеваются на основание пениса, при этом стимулирующий отросток располагается по направлению к анусу. Нижнее кольцо с отростком фиксируется на мошонке.Благодаря своей упругости и эластичности интимный аксессуар плотно прилегает к пенису и мошонке, интенсивнее воздействуя на эрогенные зоны.Эрекционное кольцо выполнено из высококачественного бархатистого силикона. Кольцо эрекционное двойное со стимулятором промежности.  Кольцо эрекционное двойное со стимулятором промежности. Модель: bioritm-55215. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Без вибрации. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -8434,10 +8500,10 @@
       <c r="AD65" t="inlineStr"/>
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="n">
-        <v>2.86</v>
+        <v>3.3</v>
       </c>
       <c r="AG65" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AH65" t="inlineStr">
         <is>
@@ -8487,12 +8553,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Перезаряжаемый массажер простаты Sex</t>
+          <t>Перезаряжаемое эрекционное кольцо с</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>id-27875-1299</t>
+          <t>id-27881-1299</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -8508,12 +8574,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27875/27875_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27875/27875_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27875/27875_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27875/27875_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27875/27875_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27875/27875_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27875/27875_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_8_650.jpg</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Великолепная секс-игрушка для любителей особых удовольствий. Эргономичная форма интимного аксессуара обеспечит нежное проникновение, комфортное скольжение и незабываемые эмоции во время прелюдии или мастурбации. Остроты ощущениям добавят разнообразные режимы вибрации.Секс-игрушка может использоваться для стимуляции простаты.Изделие имеет твёрдый, но лёгкий корпус, что позволяет регулировать силу воздействия на эрогенный зоны.Включение.выключение вибрации: нажать и в течение 2 секунд удерживать кнопку на корпусе изделия. Переключение виброрежимов: короткое нажатие той же кнопки.Включать, выключать или переключать виброрежимы можно даже во время использования изделия.Вибромассажёр изготовлен из высококачественных материалов. Прост в использовании и уходе. Перезаряжаемый массажер простаты Sex Expert (10 режимов).  Перезаряжаемый массажер простаты Sex Expert (10 режимов). Модель: bioritm-55210. Секс-игрушки. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный с золотистым. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Эрекционное кольцо с вибрацией для незабываемого наслаждения и ярких оргазмов! Благодаря своей эластичности плотно обхватывает пенис, усиливая эрекцию и продлевая удовольствие. Отросток большего размера стимулирует промежность мужчины, меньшего  клитор партнёрши. Разнообразные режимы вибрации позволяют выбирать нужную интенсивность воздействия.Интимный аксессуар надевается на половой член и мошонку, отросток большего размера располагается в зоне промежности ребристой поверхностью по направлению к анальному отверстию.Включить.выключить девайс: нажать и в течение 2 секунд удерживать кнопку на корпусе изделия. Переключение режимов вибрации: короткое нажатие той же кнопки.Кольцо выполнено из высококачественного бархатистого силикона. Перезаряжаемое эрекционное кольцо с вибрацией Sex Expert (10 режимов).  Перезаряжаемое эрекционное кольцо с вибрацией Sex Expert (10 режимов). Модель: bioritm-55216. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -8533,7 +8599,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -8548,30 +8614,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
+      <c r="W66" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.97</v>
+      </c>
       <c r="Y66" t="n">
-        <v>24.75</v>
+        <v>12.1</v>
       </c>
       <c r="Z66" t="n">
-        <v>22.5</v>
+        <v>11</v>
       </c>
       <c r="AA66" t="n">
-        <v>22.5</v>
+        <v>11</v>
       </c>
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
       <c r="AD66" t="n">
-        <v>16</v>
+        <v>8.5</v>
       </c>
       <c r="AE66" t="n">
-        <v>17.6</v>
+        <v>9.35</v>
       </c>
       <c r="AF66" t="n">
-        <v>2.915</v>
+        <v>0.55</v>
       </c>
       <c r="AG66" t="n">
-        <v>2.65</v>
+        <v>0.5</v>
       </c>
       <c r="AH66" t="inlineStr">
         <is>
@@ -8585,7 +8655,7 @@
       <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="inlineStr">
         <is>
-          <t>стимулятор, зарядное USB-устройство</t>
+          <t>эрекционное кольцо, магнитное зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
@@ -8605,7 +8675,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -8621,12 +8691,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Перезаряжаемый анальный стимулятор Sex</t>
+          <t>Гель-лубрикант на водной основе Intim</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>id-27878-1299</t>
+          <t>id-23018-1299</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -8642,12 +8712,12 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27878/27878_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27878/27878_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27878/27878_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27878/27878_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27878/27878_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23018/23018_1_650.jpg</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальная втулка с разнообразными режимами вибрации мягко подготовит к близости, познакомит с новыми ощущениями, сделает секс максимально насыщенным и ярким.Интимный аксессуар подойдет как для новичков, так и для опытных любителей особенных удовольствий.Эргономичная форма изделия обеспечит нежное введение, а удобная ручка-ограничитель позволит регулировать глубину проникновения.Чтобы включить втулку нажми и удерживай кнопку на основании в течение 2 секунд. Короткими нажатиями выбери нужный режим вибрации. Снова удерживай кнопку 2 секунды для выключения игрушки.Втулка выполнена из высококачественного бархатистого силикона. Перезаряжаемый анальный стимулятор Sex Expert (10 режимов).  Перезаряжаемый анальный стимулятор Sex Expert (10 режимов). Модель: bioritm-55212. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Гель-любрикант на водной основе с приятным освежающим ароматом мохито обеспечивает мягкое проникновение и лёгкое скольжение во время интимной близости. Великолепно увлажняет, после нанесения даёт эффект холодка. Легко смывается водой. Может использоваться с презервативами и интимными игрушками из разных материалов.Способ нанесения: гель-любрикант наносится на вход во влагалище и.или головку пениса непосредственно перед половым контактом. Если во время интимной близости используется презерватив, то любрикант наносится на вход во влагалище или на поверхность презерватива. Гель-лубрикант на водной основе Intim aroma Мохито (60 г).  Гель-лубрикант на водной основе Intim aroma Мохито (60 г). Модель: bioritm-60002. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -8657,56 +8727,42 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr"/>
+          <t>60 г</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
-      <c r="AD67" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr"/>
+      <c r="AF67" t="inlineStr"/>
+      <c r="AG67" t="inlineStr"/>
       <c r="AH67" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8719,7 +8775,7 @@
       <c r="AM67" t="inlineStr"/>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>анальный стимулятор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
@@ -8739,7 +8795,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -8755,12 +8811,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Перезаряжаемый анальный стимулятор Sex</t>
+          <t>Гель-лубрикан на водной основе Intim</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>id-27879-1299</t>
+          <t>id-6729-1299</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -8776,12 +8832,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27879/27879_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27879/27879_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27879/27879_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27879/27879_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27879/27879_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27879/27879_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/6729/6729_2_650.jpg</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальная втулка с разнообразными режимами вибрации мягко подготовит к близости, познакомит с новыми ощущениями, сделает секс максимально насыщенным и ярким.Интимный аксессуар подойдет как для новичков, так и для опытных любителей особенных удовольствий.Эргономичная форма изделия обеспечит нежное введение, а удобная ручка-ограничитель позволит регулировать глубину проникновения.Чтобы включить втулку нажми и удерживай кнопку на основании в течение 2 секунд. Короткими нажатиями выбери нужный режим вибрации. Снова удерживай кнопку 2 секунды для выключения игрушки.Втулка выполнена из высококачественного бархатистого силикона. Перезаряжаемый анальный стимулятор Sex Expert (10 режимов).  Перезаряжаемый анальный стимулятор Sex Expert (10 режимов). Модель: bioritm-55213. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">В продолжении классной вечеринки предстоит бурная ночь? Лубрикант Intim classic идеально подходит для романтического свидания. Он обеспечивает нежное проникновение, чувственное скольжение. В состав геля входят специальные компоненты: витамин Е стимулирует защиту слизистых, алоэ вера дополнительно увлажняет. Гель-лубрикант абсолютно без запаха. Легко смывается водой. Совместим с любыми изделиями из латекса и синтетических материалов. Применение: нанесите тонким слоем на области, требующие смазывания. Гель-лубрикан на водной основе Intim Classic (60 г).  Гель-лубрикан на водной основе Intim Classic (60 г). Модель: bioritm-60003. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -8791,56 +8847,42 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr"/>
+          <t>60 г</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
-      <c r="AD68" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="inlineStr"/>
+      <c r="AG68" t="inlineStr"/>
       <c r="AH68" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8853,7 +8895,7 @@
       <c r="AM68" t="inlineStr"/>
       <c r="AN68" t="inlineStr">
         <is>
-          <t>анальный стимулятор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
@@ -8873,7 +8915,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -8889,12 +8931,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Перезаряжаемая анальная втулка для</t>
+          <t>Возбуждающий лубрикант с согревающим</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>id-27880-1299</t>
+          <t>id-6730-1299</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -8910,12 +8952,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27880/27880_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27880/27880_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27880/27880_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27880/27880_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27880/27880_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27880/27880_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/6730/6730_2_650.jpg</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальная втулка с разнообразными режимами вибрации мягко подготовит к близости, познакомит с новыми ощущениями, сделает секс максимально насыщенным и ярким.Интимный аксессуар подойдет как для новичков, так и для опытных любителей особенных удовольствий.Эргономичная форма изделия обеспечит нежное введение, а удобная ручка-ограничитель позволит регулировать глубину проникновения.Чтобы включить втулку нажми и удерживай кнопку на основании в течение 2 секунд. Короткими нажатиями выбери нужный режим вибрации. Снова удерживай кнопку 2 секунды для выключения игрушки.Втулка выполнена из высококачественного бархатистого силикона. Перезаряжаемая анальная втулка для ношения Sex Expert (10 режимов).  Перезаряжаемая анальная втулка для ношения Sex Expert (10 режимов). Модель: bioritm-55214. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Это своеобразное горючее, которое разжигает огонь любви с новой силой и помогает настроиться на нужный лад. Благодаря экстракту имбиря в составе лубрикант добавит вашей встрече перчинки. Природный афродизиак вызывает приятное ощущение тепла и усиливает возбуждение. Гель подарит нежное скольжение. Intim hot - это микс страсти и нежности. Легко смывается водой. Совместим с изделиями из латекса и синтетических материалов. Применение: нанесите тонким слоем на эрогенные зоны перед половым контактом. Возбуждающий лубрикант с согревающим эффектом Intim Hot (60 г).  Возбуждающий лубрикант с согревающим эффектом Intim Hot (60 г). Модель: bioritm-60004. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -8925,56 +8967,42 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr"/>
+          <t>60 г</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr"/>
-      <c r="AD69" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr"/>
+      <c r="AG69" t="inlineStr"/>
       <c r="AH69" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8987,7 +9015,7 @@
       <c r="AM69" t="inlineStr"/>
       <c r="AN69" t="inlineStr">
         <is>
-          <t>анальный стимулятор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO69" t="inlineStr">
@@ -9007,7 +9035,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Эрекционные кольца</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -9018,17 +9046,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Кольцо эрекционное двойное со</t>
+          <t>Лубрикант на силиконовой основе Intim</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>id-27877-1299</t>
+          <t>id-6727-1299</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -9044,12 +9072,12 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27877/27877_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27877/27877_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27877/27877_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27877/27877_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27877/27877_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27877/27877_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27877/27877_7_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/6727/6727_2_650.jpg</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Двойное эрекционное кольцо со стимулятором промежности для удовлетворения твоих сексуальных желаний! Интимный аксессуар усиливает эрекцию и нежно воздействует на область промежности, доводя до пика возбуждения.Изделие состоит из двух колец. Одно имеет классическую круглую форму, второе из круга переходит в небольшой отросток с выпуклостями и утолщённым концом. Оба кольца надеваются на основание пениса, при этом стимулирующий отросток располагается по направлению к анусу. Нижнее кольцо с отростком фиксируется на мошонке.Благодаря своей упругости и эластичности интимный аксессуар плотно прилегает к пенису и мошонке, интенсивнее воздействуя на эрогенные зоны.Эрекционное кольцо выполнено из высококачественного бархатистого силикона. Кольцо эрекционное двойное со стимулятором промежности.  Кольцо эрекционное двойное со стимулятором промежности. Модель: bioritm-55215. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Без вибрации. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Позволит дать волю самым смелым фантазиям, сексуальным желаниям и страсти. Идеально подходит для эротического массажа и интимной близости. Специальная формула гарантирует долгое и легкое скольжение. Вы забудете об ощущении липкости и жирности и будете наслаждаться каждым движением. Гипоаллергенно, не препятствует кожному дыханию, без запаха и цвета, совместим с изделиями из латекса (презервативами), но с секс-игрушками его лучше не использовать. Лубрикант на силиконовой основе Intim Silicon (60 г).  Лубрикант на силиконовой основе Intim Silicon (60 г). Модель: bioritm-60005. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -9059,52 +9087,42 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr"/>
+          <t>60 г</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>10</v>
-      </c>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr"/>
       <c r="AD70" t="inlineStr"/>
       <c r="AE70" t="inlineStr"/>
-      <c r="AF70" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>3</v>
-      </c>
+      <c r="AF70" t="inlineStr"/>
+      <c r="AG70" t="inlineStr"/>
       <c r="AH70" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -9137,7 +9155,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -9148,17 +9166,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Перезаряжаемое эрекционное кольцо с</t>
+          <t>Увлажняющая гель-смазка на водной</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>id-27881-1299</t>
+          <t>id-22991-1299</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -9174,12 +9192,12 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27881/27881_8_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22991/22991_1_650.jpg</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эрекционное кольцо с вибрацией для незабываемого наслаждения и ярких оргазмов! Благодаря своей эластичности плотно обхватывает пенис, усиливая эрекцию и продлевая удовольствие. Отросток большего размера стимулирует промежность мужчины, меньшего  клитор партнёрши. Разнообразные режимы вибрации позволяют выбирать нужную интенсивность воздействия.Интимный аксессуар надевается на половой член и мошонку, отросток большего размера располагается в зоне промежности ребристой поверхностью по направлению к анальному отверстию.Включить.выключить девайс: нажать и в течение 2 секунд удерживать кнопку на корпусе изделия. Переключение режимов вибрации: короткое нажатие той же кнопки.Кольцо выполнено из высококачественного бархатистого силикона. Перезаряжаемое эрекционное кольцо с вибрацией Sex Expert (10 режимов).  Перезаряжаемое эрекционное кольцо с вибрацией Sex Expert (10 режимов). Модель: bioritm-55216. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Нежный гель-лубрикант на водной основе дарит интенсивное увлажнение и потрясающее скольжение во время интимной близости. Великолепно устраняет сухость тканей половых органов, смягчает, дарит ощущение комфорта. Гиалуроновая кислота в составе лубриканта бережно ухаживает за слизистой, способствует нормализации водного баланса, активизирует процессы регенерации.Гель не имеет цвета и запаха. Не оставляет пятен на белье. Легко смывается водой. Увлажняющая гель-смазка на водной основе с дозатором LoveLove (50 г).  Увлажняющая гель-смазка на водной основе с дозатором LoveLove (50 г). Модель</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -9189,60 +9207,42 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr"/>
+          <t>50 г</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W71" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="X71" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>11</v>
-      </c>
+          <t>50 г</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
-      <c r="AD71" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
+      <c r="AG71" t="inlineStr"/>
       <c r="AH71" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -9255,7 +9255,7 @@
       <c r="AM71" t="inlineStr"/>
       <c r="AN71" t="inlineStr">
         <is>
-          <t>эрекционное кольцо, магнитное зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO71" t="inlineStr">
@@ -9275,7 +9275,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -9291,12 +9291,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Гель-лубрикант на водной основе Intim</t>
+          <t>Увлажняющая гель-смазка на водной</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>id-23018-1299</t>
+          <t>id-22992-1299</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -9312,12 +9312,12 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23018/23018_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22992/22992_1_650.jpg</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гель-любрикант на водной основе с приятным освежающим ароматом мохито обеспечивает мягкое проникновение и лёгкое скольжение во время интимной близости. Великолепно увлажняет, после нанесения даёт эффект холодка. Легко смывается водой. Может использоваться с презервативами и интимными игрушками из разных материалов.Способ нанесения: гель-любрикант наносится на вход во влагалище и.или головку пениса непосредственно перед половым контактом. Если во время интимной близости используется презерватив, то любрикант наносится на вход во влагалище или на поверхность презерватива. Гель-лубрикант на водной основе Intim aroma Мохито (60 г).  Гель-лубрикант на водной основе Intim aroma Мохито (60 г). Модель: bioritm-60002. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Нежный гель-лубрикант на водной основе дарит интенсивное увлажнение и потрясающее скольжение во время интимной близости. Великолепно устраняет сухость тканей половых органов, смягчает, дарит ощущение комфорта. Гиалуроновая кислота в составе лубриканта бережно ухаживает за слизистой, способствует нормализации водного баланса, активизирует процессы регенерации. Увлажняющая гель-смазка на водной основе с дозатором LoveLove (20 г).  Увлажняющая гель-смазка на водной основе с дозатором LoveLove (20 г). Модель: bioritm-70026. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -9339,17 +9339,17 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>20</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="W72" t="inlineStr"/>
@@ -9411,12 +9411,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Гель-лубрикан на водной основе Intim</t>
+          <t>Увлажняющий интимный гель Love Love в</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>id-6729-1299</t>
+          <t>id-27207-1299</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -9432,12 +9432,12 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/6729/6729_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27207/27207_1_650.jpg</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t xml:space="preserve">В продолжении классной вечеринки предстоит бурная ночь? Лубрикант Intim classic идеально подходит для романтического свидания. Он обеспечивает нежное проникновение, чувственное скольжение. В состав геля входят специальные компоненты: витамин Е стимулирует защиту слизистых, алоэ вера дополнительно увлажняет. Гель-лубрикант абсолютно без запаха. Легко смывается водой. Совместим с любыми изделиями из латекса и синтетических материалов. Применение: нанесите тонким слоем на области, требующие смазывания. Гель-лубрикан на водной основе Intim Classic (60 г).  Гель-лубрикан на водной основе Intim Classic (60 г). Модель: bioritm-60003. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Нежный гель-лубрикант на водной основе дарит интенсивное увлажнение и потрясающее скольжение во время интимной близости. Великолепно устраняет сухость тканей половых органов, смягчает, дарит ощущение комфорта. Гиалуроновая кислота в составе лубритканта бережно ухаживает за слизистой, способствует нормализации водного баланса, активизирует процессы регенерации. Гель не имеет цвета и запаха. Не оставляет пятен на белье. Легко смывается водой. Увлажняющий интимный гель Love Love (в упаковке 5 шт).  Увлажняющий интимный гель Love Love (в упаковке 5 шт). Модель: bioritm-70027. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -9459,17 +9459,17 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>5 * 4 г</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>5 * 4</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>5 * 4 г</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
@@ -9495,7 +9495,7 @@
       <c r="AM73" t="inlineStr"/>
       <c r="AN73" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 пробников</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
@@ -9515,7 +9515,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Возбуждающие средства</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -9526,17 +9526,17 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Возбуждающий лубрикант с согревающим</t>
+          <t>Возбуждающий крем для женщин ВОЖДЕЛЕНИЕ</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>id-6730-1299</t>
+          <t>id-3354-1299</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -9552,12 +9552,12 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/6730/6730_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3354/3354_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3354/3354_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3354/3354_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3354/3354_5_650.jpg</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Это своеобразное горючее, которое разжигает огонь любви с новой силой и помогает настроиться на нужный лад. Благодаря экстракту имбиря в составе лубрикант добавит вашей встрече перчинки. Природный афродизиак вызывает приятное ощущение тепла и усиливает возбуждение. Гель подарит нежное скольжение. Intim hot - это микс страсти и нежности. Легко смывается водой. Совместим с изделиями из латекса и синтетических материалов. Применение: нанесите тонким слоем на эрогенные зоны перед половым контактом. Возбуждающий лубрикант с согревающим эффектом Intim Hot (60 г).  Возбуждающий лубрикант с согревающим эффектом Intim Hot (60 г). Модель: bioritm-60004. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Крем Вожделение поможет вырваться голосу страсти наружу. Затаив дыхание и предвкушая свои самые смелые эротические фантазии, обладательница средства претворит в жизнь самые изощренные сексуальные грезы. Крем сразу впитывается и усиливает кровоток в области клитора. Повышает чувствительности эрогенных зон, усиливает возбуждение и приближает время оргазма. Начинает действовать через 7-12 минут. Вызывает ощущение тепла и приятной щекотки в эрогенной зоне. Оказывает смягчающее и увлажняющее действие. Применение: нанесите на эрогенные зоны и наружные половые органы женщины (половые губы, клитор) за 5-15 минут до интимной близости. Доза подбирается индивидуально  от 1-2 капель. Возбуждающий крем для женщин ВОЖДЕЛЕНИЕ (15 мл).  Возбуждающий крем для женщин ВОЖДЕЛЕНИЕ (15 мл). Модель: bioritm-80002. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -9579,17 +9579,17 @@
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>15 мл</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>15</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>15 мл</t>
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Возбуждающие средства</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -9646,17 +9646,17 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Лубрикант на силиконовой основе Intim</t>
+          <t>Возбуждающий крем для мужчин Stand Up</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>id-6727-1299</t>
+          <t>id-21963-1299</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -9672,12 +9672,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/6727/6727_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21963/21963_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21963/21963_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21963/21963_3_650.jpg</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Позволит дать волю самым смелым фантазиям, сексуальным желаниям и страсти. Идеально подходит для эротического массажа и интимной близости. Специальная формула гарантирует долгое и легкое скольжение. Вы забудете об ощущении липкости и жирности и будете наслаждаться каждым движением. Гипоаллергенно, не препятствует кожному дыханию, без запаха и цвета, совместим с изделиями из латекса (презервативами), но с секс-игрушками его лучше не использовать. Лубрикант на силиконовой основе Intim Silicon (60 г).  Лубрикант на силиконовой основе Intim Silicon (60 г). Модель: bioritm-60005. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Крем Stand Up существенно отличается от других стимуляторов тем, что дарит мужчине необычные, приносящие удовольствие ощущения. После нанесения он не только разогревает, повышая уровень сексуального возбуждения и увеличивая чувствительность, но и даёт ни с чем не сравнимую волнообразную смену ощущений - возбуждающее тепло и стимулирующий холодок. А приятный аромат земляники добавляет пикантности любовной игре.Stand Up - это не просто стимулирующий крем, но и возможность испытать невероятное тактильное наслаждение. Благодаря своему необычному действию, крем позволяет мужчине ощутить неповторимую гамму чувств!Stand Up прост в применении. Достаточно нанести небольшое количество крема на кожу полового члена и слегка втереть массирующими движениями незадолго до интимной близости.Stand Up обладает нежной и лёгкой текстурой. Экстракт перца красного в составе крема усиливает кровоток и повышает чувствительность. Аргинин положительно влияет на эрекцию. Возбуждающий крем для мужчин Stand Up (25 г).  Возбуждающий крем для мужчин Stand Up (25 г). Модель: bioritm-80006. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Препараты и возбудители &gt; Усиление эрекции. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -9699,17 +9699,17 @@
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>25 г</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>25</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>60 г</t>
+          <t>25 г</t>
         </is>
       </c>
       <c r="W75" t="inlineStr"/>
@@ -9755,7 +9755,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Пэстис эротик</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -9766,21 +9766,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Анальный лубрикант INTIM HOT SECRET</t>
+          <t>Блестящие черные пестисы-сердечки с</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>id-28173-1299</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
+          <t>id-28178-1299</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
         <v>99999</v>
@@ -9792,12 +9800,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28173/28173_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28178/28178_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28178/28178_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28178/28178_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28178/28178_4_650.jpg</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальный гель-лубрикант на силиконовой основе разработан специально для любителей особых удовольствий! Хорошо смягчает ткани ануса, обеспечивает комфортные ощущения и дарит великолепное скольжение на протяжении всего полового акта. Не оставляет ощущения липкости. Легко смывается водой. Анальный лубрикант INTIM HOT SECRET ANAL (25 г).  Анальный лубрикант INTIM HOT SECRET ANAL (25 г). Модель: bioritm-60009-1. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Добавить изюминку в любовную игру помогут оригинальные пэстисы с игривыми кисточками. Они украсят соски, сделав грудь привлекательной и манящей. Внешняя сторона изделий отделана пайетками. На внутренней имеется специальный силиконовый слой, за счёт которого аксессуары держаться на сосках.Перед использованием с внутренней стороны пэстисов необходимо снять защитную накладку. Интимные аксессуары наклеиваются на чистую кожу без использования косметических средств. Блестящие черные пестисы-сердечки с кисточками.  Блестящие черные пестисы-сердечки с кисточками. Модель: bioritm-80598. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный. Материал: текстиль. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -9807,29 +9815,29 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>текстиль</t>
+        </is>
+      </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr">
         <is>
-          <t>25 г</t>
-        </is>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr">
         <is>
-          <t>25 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
@@ -9855,7 +9863,7 @@
       <c r="AM76" t="inlineStr"/>
       <c r="AN76" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>два пестиса</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
@@ -9875,7 +9883,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Пэстис эротик</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -9886,21 +9894,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Увлажняющая гель-смазка на водной</t>
+          <t>Блестящие красные пестисы с кисточками</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>id-22991-1299</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
+          <t>id-28177-1299</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>50-52</t>
+        </is>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
         <v>99999</v>
@@ -9912,12 +9928,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22991/22991_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28177/28177_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28177/28177_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28177/28177_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28177/28177_4_650.jpg</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный гель-лубрикант на водной основе дарит интенсивное увлажнение и потрясающее скольжение во время интимной близости. Великолепно устраняет сухость тканей половых органов, смягчает, дарит ощущение комфорта. Гиалуроновая кислота в составе лубриканта бережно ухаживает за слизистой, способствует нормализации водного баланса, активизирует процессы регенерации.Гель не имеет цвета и запаха. Не оставляет пятен на белье. Легко смывается водой. Увлажняющая гель-смазка на водной основе с дозатором LoveLove (50 г).  Увлажняющая гель-смазка на водной основе с дозатором LoveLove (50 г). Модель: bioritm-70025. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Добавить изюминку в любовную игру помогут оригинальные пестисы с игривыми кисточками. Они украсят соски, сделав грудь привлекательной и манящей. Внешняя сторона изделий отделана блестками, а на внутренней имеется специальный силиконовый слой, за счёт которого аксессуары держаться на сосках.Перед использованием с внутренней стороны пестисов необходимо снять защитную накладку. Интимные аксессуары наклеиваются на чистую кожу без использования косметических средств. Блестящие красные пестисы с кисточками.  Блестящие красные пестисы с кисточками. Модель: bioritm-80599. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: красный. Материал: текстиль. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -9935,21 +9951,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R77" t="inlineStr"/>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>текстиль</t>
+        </is>
+      </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr">
         <is>
-          <t>50 г</t>
-        </is>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W77" t="inlineStr"/>
@@ -9975,7 +9991,7 @@
       <c r="AM77" t="inlineStr"/>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>два пестиса</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
@@ -10006,17 +10022,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Увлажняющая гель-смазка на водной</t>
+          <t>Крем для увеличения пениса MISTER XXL</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>id-22992-1299</t>
+          <t>id-18515-1299</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -10032,12 +10048,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22992/22992_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18515/18515_1_650.jpg</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный гель-лубрикант на водной основе дарит интенсивное увлажнение и потрясающее скольжение во время интимной близости. Великолепно устраняет сухость тканей половых органов, смягчает, дарит ощущение комфорта. Гиалуроновая кислота в составе лубриканта бережно ухаживает за слизистой, способствует нормализации водного баланса, активизирует процессы регенерации. Увлажняющая гель-смазка на водной основе с дозатором LoveLove (20 г).  Увлажняющая гель-смазка на водной основе с дозатором LoveLove (20 г). Модель: bioritm-70026. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Доступный, простой и эффективный способ увеличения пропорций члена  сочетание специальных упражнений и крема для коррекции размеров МИСТЕР XXL.Ткани, из которых состоит пенис, способны к растяжению. Правильное воздействие на них позволяет дорастить член. Использование МИСТЕР XXL ускоряет этот процесс. Экстракт имбиря в составе усиливает кровообращение, помогает повысить чувственность, повышает сексуальное влечение.Биоактивный комплекс крема способствует нормализации эрекции, интенсивно питает, стимулирует обменные процессы, повышает тонус тканей. Его применение эффективно как при ручном массаже, так и совместно с помпой или экстендером.МИСТЕР XXL это:- увеличение члена в длину и ширину.- улучшение кровообращения.- обогащение клеток полезными компонентами.- сильное сексуальное влечение.- продолжительная эрекция.- упругие и эластичные ткани пениса. Крем для увеличения пениса MISTER XXL (50 г).  Крем для увеличения пениса MISTER XXL (50 г). Модель: bioritm-90006. Косметика, препараты. Смазки, косметика &gt; Увеличение размера члена. Увеличение пениса &gt; Кремы, препараты. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -10059,17 +10075,17 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>20 г</t>
+          <t>50 г</t>
         </is>
       </c>
       <c r="W78" t="inlineStr"/>
@@ -10115,7 +10131,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Вагинальные шарики</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -10126,17 +10142,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Увлажняющий интимный гель Love Love в</t>
+          <t>Шарик вагинальный силиконовый Cosmo</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>id-27207-1299</t>
+          <t>id-18136-1299</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -10152,17 +10168,17 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27207/27207_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18136/18136_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18136/18136_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18136/18136_3_650.jpg</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный гель-лубрикант на водной основе дарит интенсивное увлажнение и потрясающее скольжение во время интимной близости. Великолепно устраняет сухость тканей половых органов, смягчает, дарит ощущение комфорта. Гиалуроновая кислота в составе лубритканта бережно ухаживает за слизистой, способствует нормализации водного баланса, активизирует процессы регенерации. Гель не имеет цвета и запаха. Не оставляет пятен на белье. Легко смывается водой. Увлажняющий интимный гель Love Love (в упаковке 5 шт).  Увлажняющий интимный гель Love Love (в упаковке 5 шт). Модель: bioritm-70027. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Вагинальный шарик из линейки COSMO - возможность поднять сексуальные отношения на качественно новый уровень! Компактный эротический аксессуар предназначен для тренировки мышц любви. Он прекрасно подойдет для начинающих практиковать интимный фитнес. Систематические занятия позволят дарить и получать невероятное удовольствие от занятий сексом.Изделие снабжено шнурком-хвостиком для легкого извлечения. Секс-игрушка имеет мягкую, приятную на ощупь поверхность, изготовлена из высококачественного силикона.Для комфортного использования рекомендуется применять лубрикант на водной основе и очищающий спрей с антимикробным эффектом ClearToy для экспресс-обработки. Шарик вагинальный силиконовый Cosmo.  Шарик вагинальный силиконовый Cosmo. Модель: bioritm-csm-23078. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Цвет: розовый с фиолетовым. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -10175,21 +10191,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R79" t="inlineStr"/>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr">
         <is>
-          <t>5 * 4 г</t>
-        </is>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>5 * 4</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr">
         <is>
-          <t>5 * 4 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W79" t="inlineStr"/>
@@ -10201,8 +10217,12 @@
       <c r="AC79" t="inlineStr"/>
       <c r="AD79" t="inlineStr"/>
       <c r="AE79" t="inlineStr"/>
-      <c r="AF79" t="inlineStr"/>
-      <c r="AG79" t="inlineStr"/>
+      <c r="AF79" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>3.3</v>
+      </c>
       <c r="AH79" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10215,7 +10235,7 @@
       <c r="AM79" t="inlineStr"/>
       <c r="AN79" t="inlineStr">
         <is>
-          <t>5 пробников</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO79" t="inlineStr">
@@ -10235,7 +10255,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -10251,12 +10271,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Возбуждающий крем для женщин ВОЖДЕЛЕНИЕ</t>
+          <t>Вибромассажер с щетинками на головке</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>id-3354-1299</t>
+          <t>id-18118-1299</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -10272,17 +10292,17 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3354/3354_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3354/3354_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3354/3354_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3354/3354_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18118/18118_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18118/18118_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18118/18118_3_650.jpg</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Крем Вожделение поможет вырваться голосу страсти наружу. Затаив дыхание и предвкушая свои самые смелые эротические фантазии, обладательница средства претворит в жизнь самые изощренные сексуальные грезы. Крем сразу впитывается и усиливает кровоток в области клитора. Повышает чувствительности эрогенных зон, усиливает возбуждение и приближает время оргазма. Начинает действовать через 7-12 минут. Вызывает ощущение тепла и приятной щекотки в эрогенной зоне. Оказывает смягчающее и увлажняющее действие. Применение: нанесите на эрогенные зоны и наружные половые органы женщины (половые губы, клитор) за 5-15 минут до интимной близости. Доза подбирается индивидуально  от 1-2 капель. Возбуждающий крем для женщин ВОЖДЕЛЕНИЕ (15 мл).  Возбуждающий крем для женщин ВОЖДЕЛЕНИЕ (15 мл). Модель: bioritm-80002. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для женщин. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Любите яркий и разнообразный секс? Вибромассажер из серии COSMO создан специально для вас! Эргономичная форма способствует комфортному использованию эротического аксессуара. Небольшие пупырышки на конце секс-игрушки позволяют стимулировать точку G. Изделие имеет вибрацию с возможностью переключения скорости работы.Вибромассажер изготовлен из гипоаллергенного силикона, выполнен в приятном фиолетовом цвете.Для комфортного использования рекомендуется применять лубрикант на водной основе и очищающий спрей с антимикробным эффектом ClearToy для экспресс-обработки. Вибромассажер с щетинками на головке Cosmo Lady's Dream (20 режимов).  Вибромассажер с щетинками на головке Cosmo Lady's Dream (20 режимов). Модель: bioritm-csm-23100. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: фиолетовый. Материал: высококачественный силикон с бархатистой поверхностью. AA x 1 шт (в комплекте)Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -10295,34 +10315,44 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R80" t="inlineStr"/>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr">
         <is>
-          <t>15 мл</t>
-        </is>
-      </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr">
         <is>
-          <t>15 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
-      <c r="AA80" t="inlineStr"/>
+      <c r="Y80" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>15</v>
+      </c>
       <c r="AB80" t="inlineStr"/>
       <c r="AC80" t="inlineStr"/>
       <c r="AD80" t="inlineStr"/>
       <c r="AE80" t="inlineStr"/>
-      <c r="AF80" t="inlineStr"/>
-      <c r="AG80" t="inlineStr"/>
+      <c r="AF80" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>2.8</v>
+      </c>
       <c r="AH80" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10355,7 +10385,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Возбуждающие средства</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -10371,12 +10401,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Возбуждающий крем для мужчин Stand Up</t>
+          <t>Возбуждающий крем для мужчин Sextaz-M c</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>id-21963-1299</t>
+          <t>id-2315-1299</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -10392,12 +10422,12 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21963/21963_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21963/21963_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21963/21963_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2315/2315_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/2315/2315_1_650.jpg</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Крем Stand Up существенно отличается от других стимуляторов тем, что дарит мужчине необычные, приносящие удовольствие ощущения. После нанесения он не только разогревает, повышая уровень сексуального возбуждения и увеличивая чувствительность, но и даёт ни с чем не сравнимую волнообразную смену ощущений - возбуждающее тепло и стимулирующий холодок. А приятный аромат земляники добавляет пикантности любовной игре.Stand Up - это не просто стимулирующий крем, но и возможность испытать невероятное тактильное наслаждение. Благодаря своему необычному действию, крем позволяет мужчине ощутить неповторимую гамму чувств!Stand Up прост в применении. Достаточно нанести небольшое количество крема на кожу полового члена и слегка втереть массирующими движениями незадолго до интимной близости.Stand Up обладает нежной и лёгкой текстурой. Экстракт перца красного в составе крема усиливает кровоток и повышает чувствительность. Аргинин положительно влияет на эрекцию. Возбуждающий крем для мужчин Stand Up (25 г).  Возбуждающий крем для мужчин Stand Up (25 г). Модель: bioritm-80006. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Препараты и возбудители &gt; Усиление эрекции. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Крем для мужчин с возбуждающим эффектом. Действует мгновенно и продолжительно. Обостряет ощущения во время близости. Усиливает возбуждение и эрекцию. Быстрая и длительная стимуляция возбуждения. Наносится на половой орган мужчины (головка полового члена и крайняя плоть) перед контактом. Дозировка от 1-2 капель, подбирается индивидуально. Возбуждающий крем для мужчин Sextaz-M c разогревающим эффектом (20 мл).  Возбуждающий крем для мужчин Sextaz-M c разогревающим эффектом (20 мл). Модель: bioritm-m9. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Препараты и возбудители &gt; Усиление эрекции. Батареек нет в комплекте. Бренд: BIORITM. </t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -10419,17 +10449,17 @@
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr">
         <is>
-          <t>25 г</t>
+          <t>20 мл</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>25 г</t>
+          <t>20 мл</t>
         </is>
       </c>
       <c r="W81" t="inlineStr"/>
@@ -10475,40 +10505,32 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Пэстис эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>BIORITM</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Блестящие черные пестисы-сердечки с</t>
+          <t>Интимный гель-смазка на водной основе</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>id-28178-1299</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>46-48</t>
-        </is>
-      </c>
+          <t>id-19693-1299</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
         <v>99999</v>
@@ -10520,12 +10542,12 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28178/28178_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28178/28178_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28178/28178_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28178/28178_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19693/19693_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19693/19693_1_650.jpg</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Добавить изюминку в любовную игру помогут оригинальные пэстисы с игривыми кисточками. Они украсят соски, сделав грудь привлекательной и манящей. Внешняя сторона изделий отделана пайетками. На внутренней имеется специальный силиконовый слой, за счёт которого аксессуары держаться на сосках.Перед использованием с внутренней стороны пэстисов необходимо снять защитную накладку. Интимные аксессуары наклеиваются на чистую кожу без использования косметических средств. Блестящие черные пестисы-сердечки с кисточками.  Блестящие черные пестисы-сердечки с кисточками. Модель: bioritm-80598. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный. Материал: текстиль. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Освежить сексуальную жизнь и привнести в нее нотку новизны поможет интимная смазка в стильной упаковке UNIVERSAL SEX. Гель имеет ненавязчивый запах, пробуждающий чувственность. С ним легко безбоязненно экспериментировать и открывать новые горизонты в сексе - лубрикант увлажняет, питает, улучшает скольжение. Он позволит забыть о натирании, жжении, боли и других неприятных ощущениях. Интимный гель-смазка на водной основе UNIVERSAL SEX (200 мл).  Интимный гель-смазка на водной основе UNIVERSAL SEX (200 мл). Модель: bmn-0002. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -10535,29 +10557,29 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>текстиль</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U82" t="inlineStr"/>
+          <t>200 мл</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W82" t="inlineStr"/>
@@ -10583,7 +10605,7 @@
       <c r="AM82" t="inlineStr"/>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>два пестиса</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
@@ -10603,40 +10625,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Пэстис эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>BIORITM</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Блестящие красные пестисы с кисточками</t>
+          <t>Увлажняющий интимный гель-смазка на</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>id-28177-1299</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>50-52</t>
-        </is>
-      </c>
+          <t>id-19694-1299</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
         <v>99999</v>
@@ -10648,12 +10662,12 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28177/28177_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28177/28177_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28177/28177_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28177/28177_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19694/19694_2_650.jpg</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Добавить изюминку в любовную игру помогут оригинальные пестисы с игривыми кисточками. Они украсят соски, сделав грудь привлекательной и манящей. Внешняя сторона изделий отделана блестками, а на внутренней имеется специальный силиконовый слой, за счёт которого аксессуары держаться на сосках.Перед использованием с внутренней стороны пестисов необходимо снять защитную накладку. Интимные аксессуары наклеиваются на чистую кожу без использования косметических средств. Блестящие красные пестисы с кисточками.  Блестящие красные пестисы с кисточками. Модель: bioritm-80599. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: красный. Материал: текстиль. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Интимный гель-смазка (лубрикант) SAVE SEX увлажняет, стимулирует и обостряет чувствительность, делая интимную близость страстной и чувственной. Шелковая и нежная структура лубриканта нежно заботится о самых нежных частях женского тела: предотвращает покраснения, препятствует натиранию, обладает регенерирующими и антибактериальным свойствами. Поддерживает и нормализует PH микрофлоры. Гель смазка идентична по органолептической структуре естественной смазке влагалища. Идеально сочетается с презервативами не вызывает натирания, долго сохраняет структуру скольжения, удобна и проста в применении. Эфирное масла Жасмина, входящие в состав геля, способствуют возбуждению партнеров, а нежный аромат этого цветка расслабит и настроит на ночь любви. Антоцианы (экстракт черники) в свою очередь выполняют роль спазмолитического, противовоспалительного, бактерицидного и антивирусного средства. Идеально сочетается со средствами контрацепции (презервативы) и любыми секс игрушками.  Удобен в применении. Легко смывается водой, не оставляет следов на одежде. Безопасен для применения с резиной и латексом, а также с устройствами, призванными обострить и разнообразить сексуальные отношения. Благодаря натуральным веществам, содержащимся в лубриканте нормализуется кровообращение половых органов обоих партнеров. Идеально увлажняет кожу интимных зон, повышая комфортность интимных отношений, обостряет эротические чувства, повышает чувственность эрогенных зон. Создает частый интерес и наслаждение к сексу. Увлажняющий интимный гель-смазка на водной основе SAVE SEX (200 мл).  Увлажняющий интимный гель-смазка на водной основе SAVE SEX (200 мл). Модель: bmn-0004. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -10671,21 +10685,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>текстиль</t>
-        </is>
-      </c>
+      <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr"/>
+          <t>200 мл</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W83" t="inlineStr"/>
@@ -10711,7 +10725,7 @@
       <c r="AM83" t="inlineStr"/>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>два пестиса</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
@@ -10737,22 +10751,22 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>BIORITM</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Крем для увеличения пениса MISTER XXL</t>
+          <t>Интимный гель-смазка на водной основе</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>id-18515-1299</t>
+          <t>id-19684-1299</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -10768,12 +10782,12 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18515/18515_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19684/19684_2_650.jpg</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Доступный, простой и эффективный способ увеличения пропорций члена  сочетание специальных упражнений и крема для коррекции размеров МИСТЕР XXL.Ткани, из которых состоит пенис, способны к растяжению. Правильное воздействие на них позволяет дорастить член. Использование МИСТЕР XXL ускоряет этот процесс. Экстракт имбиря в составе усиливает кровообращение, помогает повысить чувственность, повышает сексуальное влечение.Биоактивный комплекс крема способствует нормализации эрекции, интенсивно питает, стимулирует обменные процессы, повышает тонус тканей. Его применение эффективно как при ручном массаже, так и совместно с помпой или экстендером.МИСТЕР XXL это:- увеличение члена в длину и ширину.- улучшение кровообращения.- обогащение клеток полезными компонентами.- сильное сексуальное влечение.- продолжительная эрекция.- упругие и эластичные ткани пениса. Крем для увеличения пениса MISTER XXL (50 г).  Крем для увеличения пениса MISTER XXL (50 г). Модель: bioritm-90006. Косметика, препараты. Смазки, косметика &gt; Увеличение размера члена. Увеличение пениса &gt; Кремы, препараты. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Интимный гель лубрикант JUICY FRUIT увлажняет, тонизирует, стимулирует и обостряет чувствительность интимных мест. Подходит обоим партнерам. Оберегает от раздражения. Универсальный гель на водной основе можно использовать для различных прелюдий. Если у вас возникли трудности на пути преодоления определенного барьера, а также во избежание неудобства и неприятных ощущений мы создали маленькую сладкую хитрость, интимный гель JUICY FRUIT Отлично подойдет для легкого массажа эрогенных зон. Натуральные вещества и экстракты, содержащиеся в геле помогут нормализовать кровообращение, снять усталость, улучшить эмоциональный фон и почувствовать бодрость и прилив сил. Идеально увлажняет кожу интимных зон, повышая комфортность интимных отношений. Интимный гель-смазка на водной основе JUICY FRUIT (200 мл).  Интимный гель-смазка на водной основе JUICY FRUIT (200 мл). Модель: bmn-0012. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -10795,17 +10809,17 @@
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>200</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>50 г</t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W84" t="inlineStr"/>
@@ -10851,28 +10865,28 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Вагинальные шарики</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>BIORITM</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Шарик вагинальный силиконовый Cosmo</t>
+          <t>Интимный гель-смазка для фистинга и</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>id-18136-1299</t>
+          <t>id-19692-1299</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -10888,17 +10902,17 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18136/18136_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18136/18136_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18136/18136_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19692/19692_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19692/19692_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19692/19692_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19692/19692_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19692/19692_6_650.jpg</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вагинальный шарик из линейки COSMO - возможность поднять сексуальные отношения на качественно новый уровень! Компактный эротический аксессуар предназначен для тренировки мышц любви. Он прекрасно подойдет для начинающих практиковать интимный фитнес. Систематические занятия позволят дарить и получать невероятное удовольствие от занятий сексом.Изделие снабжено шнурком-хвостиком для легкого извлечения. Секс-игрушка имеет мягкую, приятную на ощупь поверхность, изготовлена из высококачественного силикона.Для комфортного использования рекомендуется применять лубрикант на водной основе и очищающий спрей с антимикробным эффектом ClearToy для экспресс-обработки. Шарик вагинальный силиконовый Cosmo.  Шарик вагинальный силиконовый Cosmo. Модель: bioritm-csm-23078. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Цвет: розовый с фиолетовым. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Анальная смазка (лубрикант) ANAL SEX FIST идеально подходит для анального секса, фистинга, а так же для использования с большими игрушками. Уникальная формула состава была создана специально для того, чтобы обеспечить максимально комфортное ощущение и максимально предотвратить болезненное проникновение, но при этом сохранить чувствительность. Не травмирует, регенерирует и расслабляет анальное кольцо. Дополнительно увлажняет и тонизирует. Эта смазка для фистинга антибактериальным эффектом. Идеально сочетается с презервативами и секс-игрушками больших размеров. Эфирное масло майорана, входящее в состав геля, способствует болеутоляющему, противовоспалительному и спазмолитическому действию, а так же, используется в качестве антибактериального, противогрибкового и антисептического средства. Смазка для анального фистинга смывается водой, не оставляет следов на одежде. Безопасен для применения с резиной и латексом, а так же с устройствами, призванными обострить и разнообразить сексуальные отношения.   Способ применения: Гель наносится на область анального отверстия, внешнюю сторону презерватива или часть тела призванную подарить незабываемые ощущения. После полового акта желательно смыть гель-смазку теплой водой с мылом. Избегайте попадания в глаза. Использовать строго по назначению! Не является контрацептивом. Не использовать при поврежденной коже, при чувствительности на какой-либо компонент средства или при возникновении аллергии. Интимный гель-смазка для фистинга и анального секса ANAL SEX fist (200 мл).  Интимный гель-смазка для фистинга и анального секса ANAL SEX fist (200 мл). Модель: bmn-0013. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Смазки, косметика &gt; Для фистинга. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -10911,21 +10925,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+      <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U85" t="inlineStr"/>
+          <t>200 мл</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W85" t="inlineStr"/>
@@ -10937,12 +10951,8 @@
       <c r="AC85" t="inlineStr"/>
       <c r="AD85" t="inlineStr"/>
       <c r="AE85" t="inlineStr"/>
-      <c r="AF85" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="AF85" t="inlineStr"/>
+      <c r="AG85" t="inlineStr"/>
       <c r="AH85" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10975,28 +10985,28 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>BIORITM</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Вибромассажер с щетинками на головке</t>
+          <t>Оральный интимный гель JUICY FRUIT со</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>id-18118-1299</t>
+          <t>id-25798-1299</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -11012,17 +11022,17 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18118/18118_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18118/18118_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18118/18118_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25798/25798_1_650.jpg</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Любите яркий и разнообразный секс? Вибромассажер из серии COSMO создан специально для вас! Эргономичная форма способствует комфортному использованию эротического аксессуара. Небольшие пупырышки на конце секс-игрушки позволяют стимулировать точку G. Изделие имеет вибрацию с возможностью переключения скорости работы.Вибромассажер изготовлен из гипоаллергенного силикона, выполнен в приятном фиолетовом цвете.Для комфортного использования рекомендуется применять лубрикант на водной основе и очищающий спрей с антимикробным эффектом ClearToy для экспресс-обработки. Вибромассажер с щетинками на головке Cosmo Lady's Dream (20 режимов).  Вибромассажер с щетинками на головке Cosmo Lady's Dream (20 режимов). Модель: bioritm-csm-23100. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: фиолетовый. Материал: высококачественный силикон с бархатистой поверхностью. AA x 1 шт (в комплекте)Бренд: BIORITM. </t>
+          <t xml:space="preserve">Интимный гель-лубрикант JUICY FRUIT со вкусом сочной дыни прекрасно увлажняет, тонизирует, стимулирует и обостряет чувствительность интимных мест. Подходит обоим партнерам. Оберегает от раздражения. Универсальный гель на водной основе можно использовать для различных прелюдий. Если у вас возникли трудности на пути преодоления определенного барьера, а также во избежание неудобства и неприятных ощущений мы создали маленькую сладкую хитрость, интимный гель JUICY FRUIT. Отлично подойдет для легкого массажа эрогенных зон. Натуральные вещества и экстракты, содержащиеся в геле, помогут нормализовать кровообращение, снять усталость, улучшить эмоциональный фон и почувствовать бодрость и прилив сил. Идеально увлажняет кожу интимных зон, повышая комфортность интимных отношений. Оральный интимный гель JUICY FRUIT со вкусом дыни (100 мл).  Оральный интимный гель JUICY FRUIT со вкусом дыни (100 мл). Модель: bmn-0020. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -11035,44 +11045,34 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+      <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U86" t="inlineStr"/>
+          <t>100 мл</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>15</v>
-      </c>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
       <c r="AC86" t="inlineStr"/>
       <c r="AD86" t="inlineStr"/>
       <c r="AE86" t="inlineStr"/>
-      <c r="AF86" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="AF86" t="inlineStr"/>
+      <c r="AG86" t="inlineStr"/>
       <c r="AH86" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11105,28 +11105,28 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>BIORITM</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Возбуждающий крем для мужчин Sextaz-M c</t>
+          <t>Лубрикант Juicy Fruit на водной основе</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>id-2315-1299</t>
+          <t>id-20253-1299</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -11142,12 +11142,12 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/2315/2315_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/2315/2315_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20253/20253_1_650.jpg</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Крем для мужчин с возбуждающим эффектом. Действует мгновенно и продолжительно. Обостряет ощущения во время близости. Усиливает возбуждение и эрекцию. Быстрая и длительная стимуляция возбуждения. Наносится на половой орган мужчины (головка полового члена и крайняя плоть) перед контактом. Дозировка от 1-2 капель, подбирается индивидуально. Возбуждающий крем для мужчин Sextaz-M c разогревающим эффектом (20 мл).  Возбуждающий крем для мужчин Sextaz-M c разогревающим эффектом (20 мл). Модель: bioritm-m9. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Препараты и возбудители &gt; Усиление эрекции. Батареек нет в комплекте. Бренд: BIORITM. </t>
+          <t xml:space="preserve">Любите эксперименты в сексе и не боитесь радовать партнера новыми интересными идеями? Попробуйте интимный гель JUICY FRUIT со сладким ароматом дыни, чтобы провести незабываемую ночь страсти. Лубрикант облегчает проникновение и гарантирует легкое скольжение, он позволит получить максимум удовольствия без каких-либо неприятных ощущений. Гель-смазка подойдет для легкого массажа чувствительных эрогенных зон, чтобы прелюдия стала источником наслаждения для обоих партнеров.Гель изготовлен на водной основе без добавления жировых компонентов, поэтому им легко и удобно пользоваться. Он не оставляет пятен на постельном белье, после применения его можно просто смыть водой. Лубрикант легко распределяется по поверхности, шелковистая текстура дает приятное ощущение прохлады и свежести. Ощущения во время секса станут более яркими. Выбрать его стоит еще по нескольким причинам:    Гипоаллергенный состав. Безопасное средство не вызывает раздражения кожи и слизистой, не провоцирует неприятных ощущений.    Экономичность. Одной упаковки смазки хватает на долгое время благодаря небольшому расходу.    Легкое нанесение. Улучшение тонуса интимных мышц позволит сделать удовольствие насыщенным и продолжительным. Средство подойдет для использования во время упражнений Кегеля.Особенности примененияИспользуйте лубрикант во время прелюдии, чтобы максимально насладиться интимной близостью с партнером и создать нужный настрой. Он подходит для использования с силиконовыми и иными эротическими игрушками, это универсальный выбор для анального и вагинального секса. Лубрикант Juicy Fruit на водной основе с ароматом ДЫНИ (200 мл).  Лубрикант Juicy Fruit на водной основе с ароматом ДЫНИ (200 мл). Модель: bmn-0024. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -11169,17 +11169,17 @@
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr">
         <is>
-          <t>20 мл</t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>200</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>20 мл</t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W87" t="inlineStr"/>
@@ -11225,40 +11225,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Пояса верности</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>BLUE LINE</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Плотная сбруя целомудрия для члена с</t>
+          <t>Лубрикант Juicy Fruit на водной основе</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>id-22799-1299</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>40-42</t>
-        </is>
-      </c>
+          <t>id-20252-1299</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
         <v>99999</v>
@@ -11270,44 +11262,44 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22799/22799_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22799/22799_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20252/20252_1_650.jpg</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Фиксирующая оболочка целомудрия - идеальный способ запереть член во время сексуальных пыток. Уникальный дизайн выполнен из 2 стальных колец и фиксирующего ремешка. Плотная сбруя целомудрия для члена с замком.  Плотная сбруя целомудрия для члена с замком. Модель: blueline-blm3069. БДСМ. БДСМ товары и фетиш &gt; Пояса верности. Цвет: черный с серебристым. Материал: эко кожа, металл. Батареек нет в комплекте. Бренд: BLUE LINE. </t>
+          <t xml:space="preserve">Интимный гель JUICY FRUIT с освежающим ароматом кокоса внесет приятное разнообразие в интимную жизнь пары и поможет открыть новые грани удовольствия. Смазка подойдет для вагинального и анального секса, это универсальный вариант для любых эротических экспериментов вдвоем или наедине с собой. Состав на водной основе удобен для нанесения, он не пачкается и легко смывается.Гипоаллергенный гель подходит всем, смазка станет пикантным дополнением к любовной прелюдии и повысит удовольствие от секса. Легкий запах кокоса не покажется навязчивым, тропическая свежесть поможет забыть о скованности во время любовной игры и полностью отдаться наслаждению. Продукт имеет ряд преимуществ:    Удобное применение. Средством легко воспользоваться во время эротической прелюдии. Нежными массирующими движениями нанесите его на чувствительные зоны, чтобы обеспечить легкое проникновение.    Безопасность. В составе отсутствуют любые вредные компоненты, средство не вызывает аллергических реакций.    Экономичность. Благодаря небольшому расходу одной упаковки хватит надолго.Гель поможет забыть о скованности и дискомфорте, он специально создан для тех, кто не боится экспериментировать. Лубрикант Juicy Fruit на водной основе с ароматом КОКОСА (200 мл).  Лубрикант Juicy Fruit на водной основе с ароматом КОКОСА (200 мл). Модель: bmn-0025. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>эко кожа, металл</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U88" t="inlineStr"/>
+          <t>200 мл</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W88" t="inlineStr"/>
@@ -11353,7 +11345,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -11369,12 +11361,12 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Интимный гель-смазка на водной основе</t>
+          <t>Лубрикант Juicy Fruit на водной основе</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>id-19693-1299</t>
+          <t>id-20251-1299</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -11390,12 +11382,12 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19693/19693_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19693/19693_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20251/20251_1_650.jpg</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Освежить сексуальную жизнь и привнести в нее нотку новизны поможет интимная смазка в стильной упаковке UNIVERSAL SEX. Гель имеет ненавязчивый запах, пробуждающий чувственность. С ним легко безбоязненно экспериментировать и открывать новые горизонты в сексе - лубрикант увлажняет, питает, улучшает скольжение. Он позволит забыть о натирании, жжении, боли и других неприятных ощущениях. Интимный гель-смазка на водной основе UNIVERSAL SEX (200 мл).  Интимный гель-смазка на водной основе UNIVERSAL SEX (200 мл). Модель: bmn-0002. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
+          <t xml:space="preserve">Гель JUICY FRUIT со вкусом и ароматом коктейля Пина колада - отличный выбор для тех, кто хочет разнообразить интимную жизнь и подарить партнеру незабываемую ночь страсти. Гель-смазка подойдет для вагинального или анального секса, его легко использовать с любыми эротическими игрушками и презервативами. Он сделает интимные места более чувствительными, что позволит получить максимум удовольствия от любовных переживаний.Гель обеспечивает мягкое проникновение и нежное скольжение, он позволит забыть о любых неприятных ощущениях и отдаться чувственной страсти. Использовать его удобно по нескольким причинам:    Водная основа. Состав без жировых компонентов не пачкает одежду и постельное белье, его легко смыть водой.    Гипоаллергенный состав. Смазка не содержит веществ, способных спровоцировать неприятные реакции.    Освежающий аромат. Ненавязчивый запах поможет создать нужный настрой, чтобы забыть о скованности и раскрыться перед партнером.В составе присутствуют натуральные компоненты и экстракты, которые подарят бодрость и обеспечат прилив сил для любовных свершений.Способ примененияСмазка наносится тонким слоем на интимную зону или секс-предмет, ее удобно использовать во время эротической прелюдии. Она отлично подойдет для массажа чувствительных областей тела для возбуждения и положительного настроя. Идеальное увлажнение повысит комфорт обоих партнеров во время секса, и ночь станет по-настоящему незабываемой. Лубрикант Juicy Fruit на водной основе и с ароматом Пина Колада (200 мл).  Лубрикант Juicy Fruit на водной основе и с ароматом Пина Колада (200 мл). Модель: bmn-0026. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -11473,7 +11465,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -11489,12 +11481,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Увлажняющий интимный гель-смазка на</t>
+          <t>Анальный лубрикант ANAL SEX FIST 200</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>id-19694-1299</t>
+          <t>id-26804-1299</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -11510,12 +11502,12 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19694/19694_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26804/26804_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26804/26804_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26804/26804_3_650.jpg</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Интимный гель-смазка (лубрикант) SAVE SEX увлажняет, стимулирует и обостряет чувствительность, делая интимную близость страстной и чувственной. Шелковая и нежная структура лубриканта нежно заботится о самых нежных частях женского тела: предотвращает покраснения, препятствует натиранию, обладает регенерирующими и антибактериальным свойствами. Поддерживает и нормализует PH микрофлоры. Гель смазка идентична по органолептической структуре естественной смазке влагалища. Идеально сочетается с презервативами не вызывает натирания, долго сохраняет структуру скольжения, удобна и проста в применении. Эфирное масла Жасмина, входящие в состав геля, способствуют возбуждению партнеров, а нежный аромат этого цветка расслабит и настроит на ночь любви. Антоцианы (экстракт черники) в свою очередь выполняют роль спазмолитического, противовоспалительного, бактерицидного и антивирусного средства. Идеально сочетается со средствами контрацепции (презервативы) и любыми секс игрушками.  Удобен в применении. Легко смывается водой, не оставляет следов на одежде. Безопасен для применения с резиной и латексом, а также с устройствами, призванными обострить и разнообразить сексуальные отношения. Благодаря натуральным веществам, содержащимся в лубриканте нормализуется кровообращение половых органов обоих партнеров. Идеально увлажняет кожу интимных зон, повышая комфортность интимных отношений, обостряет эротические чувства, повышает чувственность эрогенных зон. Создает частый интерес и наслаждение к сексу. Увлажняющий интимный гель-смазка на водной основе SAVE SEX (200 мл).  Увлажняющий интимный гель-смазка на водной основе SAVE SEX (200 мл). Модель: bmn-0004. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
+          <t xml:space="preserve">Интимный гель-смазка (лубрикант) ANAL SEX FIST идеально подходит для анального секса, фистинга, а также для использования с большими игрушками. Уникальная формула состава была создана специально для того, чтобы обеспечить максимально комфортное ощущение и максимально предотвратить болезненное проникновение, но при этом сохранить чувствительность. Не травмирует, регенерирует и расслабляет анальное кольцо. Дополнительно увлажняет и тонизирует. Обладает антибактериальным эффектом. Идеально сочетается с презервативами и секс-игрушками больших размеров. Эфирное масло майорана, входящее в состав геля, способствует болеутоляющему, противовоспалительному и спазмолитическому действию, а также, используется в качестве антибактериального, противогрибкового и антисептического средства. Легко смывается водой, не оставляет следов на одежде. Безопасен для применения с резиной и латексом, а также с устройствами, призванными обострить и разнообразить сексуальные отношения. Способ применения: Гель наносится на область анального отверстия, внешнюю сторону презерватива или часть тела призванную подарить незабываемые ощущения. После полового акта желательно смыть гель-смазку теплой водой с мылом. Избегайте попадания в глаза. Использовать строго по назначению! Не является контрацептивом. Не использовать при поврежденной коже, при чувствительности на какой-либо компонент средства или при возникновении аллергии. Анальный лубрикант ANAL SEX FIST (200 мл).  Анальный лубрикант ANAL SEX FIST (200 мл). Модель: bmn-0036. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Смазки, косметика &gt; Для фистинга. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -11593,7 +11585,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -11609,12 +11601,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Интимный гель-смазка на водной основе</t>
+          <t>Натуральное массажное масло с</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>id-19684-1299</t>
+          <t>id-21698-1299</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -11630,12 +11622,12 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19684/19684_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21698/21698_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21698/21698_2_650.jpg</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Интимный гель лубрикант JUICY FRUIT увлажняет, тонизирует, стимулирует и обостряет чувствительность интимных мест. Подходит обоим партнерам. Оберегает от раздражения. Универсальный гель на водной основе можно использовать для различных прелюдий. Если у вас возникли трудности на пути преодоления определенного барьера, а также во избежание неудобства и неприятных ощущений мы создали маленькую сладкую хитрость, интимный гель JUICY FRUIT Отлично подойдет для легкого массажа эрогенных зон. Натуральные вещества и экстракты, содержащиеся в геле помогут нормализовать кровообращение, снять усталость, улучшить эмоциональный фон и почувствовать бодрость и прилив сил. Идеально увлажняет кожу интимных зон, повышая комфортность интимных отношений. Интимный гель-смазка на водной основе JUICY FRUIT (200 мл).  Интимный гель-смазка на водной основе JUICY FRUIT (200 мл). Модель: bmn-0012. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
+          <t xml:space="preserve">Массажное масло с феромонами и чувственными ароматами, усилит сексуальные переживания и подарит незабываемое наслаждение! Создано специально для интимного массажа, мягко стимулирует самые чувствительные участки тела Вашего партнера и служит идеальной прелюдией для самых изысканных эротических сценариев.Всего несколько его капель обеспечивают отзывчивость эрогенных зон и прекрасное скольжение, приглашая Вас окунуться в проникновенный мир любовных приключений.Прекрасно ухаживает за кожей, увлажняя ее, не оставляет ощущения липкости.Натуральные ингредиенты, входящие в его состав, бережно питают и восстанавливают вашу кожу, делая ее бархатистой, насыщая витаминами, в то время пока Вы наслаждаетесь страстными прикосновения Вашего партнера. Натуральное массажное масло с феромонами Клубника в сливках (50 мл).  Натуральное массажное масло с феромонами Клубника в сливках (50 мл). Модель: bmn-0039. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -11657,17 +11649,17 @@
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W91" t="inlineStr"/>
@@ -11713,7 +11705,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -11729,12 +11721,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Интимный гель-смазка для фистинга и</t>
+          <t>Натуральное массажное масло с</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>id-19692-1299</t>
+          <t>id-21703-1299</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -11750,12 +11742,12 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19692/19692_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19692/19692_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19692/19692_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19692/19692_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19692/19692_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21703/21703_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21703/21703_2_650.jpg</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальная смазка (лубрикант) ANAL SEX FIST идеально подходит для анального секса, фистинга, а так же для использования с большими игрушками. Уникальная формула состава была создана специально для того, чтобы обеспечить максимально комфортное ощущение и максимально предотвратить болезненное проникновение, но при этом сохранить чувствительность. Не травмирует, регенерирует и расслабляет анальное кольцо. Дополнительно увлажняет и тонизирует. Эта смазка для фистинга антибактериальным эффектом. Идеально сочетается с презервативами и секс-игрушками больших размеров. Эфирное масло майорана, входящее в состав геля, способствует болеутоляющему, противовоспалительному и спазмолитическому действию, а так же, используется в качестве антибактериального, противогрибкового и антисептического средства. Смазка для анального фистинга смывается водой, не оставляет следов на одежде. Безопасен для применения с резиной и латексом, а так же с устройствами, призванными обострить и разнообразить сексуальные отношения.   Способ применения: Гель наносится на область анального отверстия, внешнюю сторону презерватива или часть тела призванную подарить незабываемые ощущения. После полового акта желательно смыть гель-смазку теплой водой с мылом. Избегайте попадания в глаза. Использовать строго по назначению! Не является контрацептивом. Не использовать при поврежденной коже, при чувствительности на какой-либо компонент средства или при возникновении аллергии. Интимный гель-смазка для фистинга и анального секса ANAL SEX fist (200 мл).  Интимный гель-смазка для фистинга и анального секса ANAL SEX fist (200 мл). Модель: bmn-0013. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Смазки, косметика &gt; Для фистинга. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
+          <t xml:space="preserve">Массажное масло с феромонами и чувственными ароматами, усилит сексуальные переживания и подарит незабываемое наслаждение! Создано специально для интимного массажа, мягко стимулирует самые чувствительные участки тела Вашего партнера и служит идеальной прелюдией для самых изысканных эротических сценариев.Всего несколько его капель обеспечивают отзывчивость эрогенных зон и прекрасное скольжение, приглашая Вас окунуться в проникновенный мир любовных приключений.Прекрасно ухаживает за кожей, увлажняя ее, не оставляет ощущения липкости.Натуральные ингредиенты, входящие в его состав, бережно питают и восстанавливают вашу кожу, делая ее бархатистой, насыщая витаминами, в то время пока Вы наслаждаетесь страстными прикосновения Вашего партнера. Натуральное массажное масло с феромонами Янтарное утро (50 мл).  Натуральное массажное масло с феромонами Янтарное утро (50 мл). Модель: bmn-0040. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -11777,17 +11769,17 @@
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W92" t="inlineStr"/>
@@ -11833,7 +11825,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -11849,12 +11841,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Оральный интимный гель JUICY FRUIT со</t>
+          <t>Натуральное массажное масло с</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>id-25798-1299</t>
+          <t>id-21705-1299</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -11870,12 +11862,12 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25798/25798_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21705/21705_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21705/21705_1_650.jpg</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Интимный гель-лубрикант JUICY FRUIT со вкусом сочной дыни прекрасно увлажняет, тонизирует, стимулирует и обостряет чувствительность интимных мест. Подходит обоим партнерам. Оберегает от раздражения. Универсальный гель на водной основе можно использовать для различных прелюдий. Если у вас возникли трудности на пути преодоления определенного барьера, а также во избежание неудобства и неприятных ощущений мы создали маленькую сладкую хитрость, интимный гель JUICY FRUIT. Отлично подойдет для легкого массажа эрогенных зон. Натуральные вещества и экстракты, содержащиеся в геле, помогут нормализовать кровообращение, снять усталость, улучшить эмоциональный фон и почувствовать бодрость и прилив сил. Идеально увлажняет кожу интимных зон, повышая комфортность интимных отношений. Оральный интимный гель JUICY FRUIT со вкусом дыни (100 мл).  Оральный интимный гель JUICY FRUIT со вкусом дыни (100 мл). Модель: bmn-0020. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
+          <t xml:space="preserve">Массажное масло с феромонами и чувственными ароматами, усилит сексуальные переживания и подарит незабываемое наслаждение! Создано специально для интимного массажа, мягко стимулирует самые чувствительные участки тела Вашего партнера и служит идеальной прелюдией для самых изысканных эротических сценариев.Всего несколько его капель обеспечивают отзывчивость эрогенных зон и прекрасное скольжение, приглашая Вас окунуться в проникновенный мир любовных приключений.Прекрасно ухаживает за кожей, увлажняя ее, не оставляет ощущения липкости.Натуральные ингредиенты, входящие в его состав, бережно питают и восстанавливают вашу кожу, делая ее бархатистой, насыщая витаминами, в то время пока Вы наслаждаетесь страстными прикосновения Вашего партнера. Натуральное массажное масло с феромонами Гавайское лето (50 мл).  Натуральное массажное масло с феромонами Гавайское лето (50 мл). Модель: bmn-0042. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -11897,17 +11889,17 @@
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W93" t="inlineStr"/>
@@ -11953,7 +11945,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -11969,12 +11961,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Лубрикант Juicy Fruit на водной основе</t>
+          <t>Натуральное массажное масло с</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>id-20253-1299</t>
+          <t>id-21704-1299</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -11990,12 +11982,12 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20253/20253_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21704/21704_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21704/21704_2_650.jpg</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Любите эксперименты в сексе и не боитесь радовать партнера новыми интересными идеями? Попробуйте интимный гель JUICY FRUIT со сладким ароматом дыни, чтобы провести незабываемую ночь страсти. Лубрикант облегчает проникновение и гарантирует легкое скольжение, он позволит получить максимум удовольствия без каких-либо неприятных ощущений. Гель-смазка подойдет для легкого массажа чувствительных эрогенных зон, чтобы прелюдия стала источником наслаждения для обоих партнеров.Гель изготовлен на водной основе без добавления жировых компонентов, поэтому им легко и удобно пользоваться. Он не оставляет пятен на постельном белье, после применения его можно просто смыть водой. Лубрикант легко распределяется по поверхности, шелковистая текстура дает приятное ощущение прохлады и свежести. Ощущения во время секса станут более яркими. Выбрать его стоит еще по нескольким причинам:    Гипоаллергенный состав. Безопасное средство не вызывает раздражения кожи и слизистой, не провоцирует неприятных ощущений.    Экономичность. Одной упаковки смазки хватает на долгое время благодаря небольшому расходу.    Легкое нанесение. Улучшение тонуса интимных мышц позволит сделать удовольствие насыщенным и продолжительным. Средство подойдет для использования во время упражнений Кегеля.Особенности примененияИспользуйте лубрикант во время прелюдии, чтобы максимально насладиться интимной близостью с партнером и создать нужный настрой. Он подходит для использования с силиконовыми и иными эротическими игрушками, это универсальный выбор для анального и вагинального секса. Лубрикант Juicy Fruit на водной основе с ароматом ДЫНИ (200 мл).  Лубрикант Juicy Fruit на водной основе с ароматом ДЫНИ (200 мл). Модель: bmn-0024. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
+          <t xml:space="preserve">Массажное масло с феромонами и чувственными ароматами, усилит сексуальные переживания и подарит незабываемое наслаждение! Создано специально для интимного массажа, мягко стимулирует самые чувствительные участки тела Вашего партнера и служит идеальной прелюдией для самых изысканных эротических сценариев.Всего несколько его капель обеспечивают отзывчивость эрогенных зон и прекрасное скольжение, приглашая Вас окунуться в проникновенный мир любовных приключений.Прекрасно ухаживает за кожей, увлажняя ее, не оставляет ощущения липкости.Натуральные ингредиенты, входящие в его состав, бережно питают и восстанавливают вашу кожу, делая ее бархатистой, насыщая витаминами, в то время пока Вы наслаждаетесь страстными прикосновения Вашего партнера. Натуральное массажное масло с феромонами Райская вишня (50 мл).  Натуральное массажное масло с феромонами Райская вишня (50 мл). Модель: bmn-0043. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -12017,17 +12009,17 @@
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W94" t="inlineStr"/>
@@ -12073,7 +12065,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -12089,12 +12081,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Лубрикант Juicy Fruit на водной основе</t>
+          <t>Натуральное массажное масло с</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>id-20252-1299</t>
+          <t>id-21700-1299</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -12110,12 +12102,12 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20252/20252_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21700/21700_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21700/21700_2_650.jpg</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Интимный гель JUICY FRUIT с освежающим ароматом кокоса внесет приятное разнообразие в интимную жизнь пары и поможет открыть новые грани удовольствия. Смазка подойдет для вагинального и анального секса, это универсальный вариант для любых эротических экспериментов вдвоем или наедине с собой. Состав на водной основе удобен для нанесения, он не пачкается и легко смывается.Гипоаллергенный гель подходит всем, смазка станет пикантным дополнением к любовной прелюдии и повысит удовольствие от секса. Легкий запах кокоса не покажется навязчивым, тропическая свежесть поможет забыть о скованности во время любовной игры и полностью отдаться наслаждению. Продукт имеет ряд преимуществ:    Удобное применение. Средством легко воспользоваться во время эротической прелюдии. Нежными массирующими движениями нанесите его на чувствительные зоны, чтобы обеспечить легкое проникновение.    Безопасность. В составе отсутствуют любые вредные компоненты, средство не вызывает аллергических реакций.    Экономичность. Благодаря небольшому расходу одной упаковки хватит надолго.Гель поможет забыть о скованности и дискомфорте, он специально создан для тех, кто не боится экспериментировать. Лубрикант Juicy Fruit на водной основе с ароматом КОКОСА (200 мл).  Лубрикант Juicy Fruit на водной основе с ароматом КОКОСА (200 мл). Модель: bmn-0025. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
+          <t xml:space="preserve">Массажное масло с феромонами и чувственными ароматами, усилит сексуальные переживания и подарит незабываемое наслаждение! Создано специально для интимного массажа, мягко стимулирует самые чувствительные участки тела Вашего партнера и служит идеальной прелюдией для самых изысканных эротических сценариев.Всего несколько его капель обеспечивают отзывчивость эрогенных зон и прекрасное скольжение, приглашая Вас окунуться в проникновенный мир любовных приключений.Прекрасно ухаживает за кожей, увлажняя ее, не оставляет ощущения липкости.Натуральные ингредиенты, входящие в его состав, бережно питают и восстанавливают вашу кожу, делая ее бархатистой, насыщая витаминами, в то время пока Вы наслаждаетесь страстными прикосновения Вашего партнера. Натуральное массажное масло с феромонами Весенняя роса (50 мл).  Натуральное массажное масло с феромонами Весенняя роса (50 мл). Модель: bmn-0045. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -12137,17 +12129,17 @@
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W95" t="inlineStr"/>
@@ -12193,7 +12185,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -12209,12 +12201,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Лубрикант Juicy Fruit на водной основе</t>
+          <t>Натуральное массажное масло с</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>id-20251-1299</t>
+          <t>id-21702-1299</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -12230,12 +12222,12 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20251/20251_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21702/21702_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21702/21702_2_650.jpg</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гель JUICY FRUIT со вкусом и ароматом коктейля Пина колада - отличный выбор для тех, кто хочет разнообразить интимную жизнь и подарить партнеру незабываемую ночь страсти. Гель-смазка подойдет для вагинального или анального секса, его легко использовать с любыми эротическими игрушками и презервативами. Он сделает интимные места более чувствительными, что позволит получить максимум удовольствия от любовных переживаний.Гель обеспечивает мягкое проникновение и нежное скольжение, он позволит забыть о любых неприятных ощущениях и отдаться чувственной страсти. Использовать его удобно по нескольким причинам:    Водная основа. Состав без жировых компонентов не пачкает одежду и постельное белье, его легко смыть водой.    Гипоаллергенный состав. Смазка не содержит веществ, способных спровоцировать неприятные реакции.    Освежающий аромат. Ненавязчивый запах поможет создать нужный настрой, чтобы забыть о скованности и раскрыться перед партнером.В составе присутствуют натуральные компоненты и экстракты, которые подарят бодрость и обеспечат прилив сил для любовных свершений.Способ примененияСмазка наносится тонким слоем на интимную зону или секс-предмет, ее удобно использовать во время эротической прелюдии. Она отлично подойдет для массажа чувствительных областей тела для возбуждения и положительного настроя. Идеальное увлажнение повысит комфорт обоих партнеров во время секса, и ночь станет по-настоящему незабываемой. Лубрикант Juicy Fruit на водной основе и с ароматом Пина Колада (200 мл).  Лубрикант Juicy Fruit на водной основе и с ароматом Пина Колада (200 мл). Модель: bmn-0026. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
+          <t xml:space="preserve">Массажное масло с феромонами и чувственными ароматами, усилит сексуальные переживания и подарит незабываемое наслаждение! Создано специально для интимного массажа, мягко стимулирует самые чувствительные участки тела Вашего партнера и служит идеальной прелюдией для самых изысканных эротических сценариев.Всего несколько его капель обеспечивают отзывчивость эрогенных зон и прекрасное скольжение, приглашая Вас окунуться в проникновенный мир любовных приключений.Прекрасно ухаживает за кожей, увлажняя ее, не оставляет ощущения липкости.Натуральные ингредиенты, входящие в его состав, бережно питают и восстанавливают вашу кожу, делая ее бархатистой, насыщая витаминами, в то время пока Вы наслаждаетесь страстными прикосновения Вашего партнера. Натуральное массажное масло с феромонами Фруктовая фантазия (50 мл).  Натуральное массажное масло с феромонами Фруктовая фантазия (50 мл). Модель: bmn-0046. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -12257,17 +12249,17 @@
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W96" t="inlineStr"/>
@@ -12313,7 +12305,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -12329,12 +12321,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Анальный лубрикант ANAL SEX FIST 200</t>
+          <t>Натуральное массажное масло с</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>id-26804-1299</t>
+          <t>id-21699-1299</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -12350,12 +12342,12 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26804/26804_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26804/26804_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26804/26804_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21699/21699_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21699/21699_2_650.jpg</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Интимный гель-смазка (лубрикант) ANAL SEX FIST идеально подходит для анального секса, фистинга, а также для использования с большими игрушками. Уникальная формула состава была создана специально для того, чтобы обеспечить максимально комфортное ощущение и максимально предотвратить болезненное проникновение, но при этом сохранить чувствительность. Не травмирует, регенерирует и расслабляет анальное кольцо. Дополнительно увлажняет и тонизирует. Обладает антибактериальным эффектом. Идеально сочетается с презервативами и секс-игрушками больших размеров. Эфирное масло майорана, входящее в состав геля, способствует болеутоляющему, противовоспалительному и спазмолитическому действию, а также, используется в качестве антибактериального, противогрибкового и антисептического средства. Легко смывается водой, не оставляет следов на одежде. Безопасен для применения с резиной и латексом, а также с устройствами, призванными обострить и разнообразить сексуальные отношения. Способ применения: Гель наносится на область анального отверстия, внешнюю сторону презерватива или часть тела призванную подарить незабываемые ощущения. После полового акта желательно смыть гель-смазку теплой водой с мылом. Избегайте попадания в глаза. Использовать строго по назначению! Не является контрацептивом. Не использовать при поврежденной коже, при чувствительности на какой-либо компонент средства или при возникновении аллергии. Анальный лубрикант ANAL SEX FIST (200 мл).  Анальный лубрикант ANAL SEX FIST (200 мл). Модель: bmn-0036. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Смазки, косметика &gt; Для фистинга. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
+          <t xml:space="preserve">Массажное масло с феромонами и чувственными ароматами, усилит сексуальные переживания и подарит незабываемое наслаждение! Создано специально для интимного массажа, мягко стимулирует самые чувствительные участки тела Вашего партнера и служит идеальной прелюдией для самых изысканных эротических сценариев.Всего несколько его капель обеспечивают отзывчивость эрогенных зон и прекрасное скольжение, приглашая Вас окунуться в проникновенный мир любовных приключений.Прекрасно ухаживает за кожей, увлажняя ее, не оставляет ощущения липкости.Натуральные ингредиенты, входящие в его состав, бережно питают и восстанавливают вашу кожу, делая ее бархатистой, насыщая витаминами, в то время пока Вы наслаждаетесь страстными прикосновения Вашего партнера. Натуральное массажное масло с феромонами Смузи бум (50 мл).  Натуральное массажное масло с феромонами Смузи бум (50 мл). Модель: bmn-0050. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -12377,17 +12369,13 @@
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr">
         <is>
-          <t>200 мл</t>
-        </is>
-      </c>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W97" t="inlineStr"/>
@@ -12433,28 +12421,28 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Свечи эротик</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ДЖАГА ДЖАГА</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>высокое качество</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Натуральное массажное масло с</t>
+          <t xml:space="preserve">Массажная свеча Relaxing </t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>id-21698-1299</t>
+          <t>id-23985-1299</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -12465,17 +12453,17 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>два свечи в металлическом футляре</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21698/21698_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21698/21698_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23985/23985_23985_650.jpg</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажное масло с феромонами и чувственными ароматами, усилит сексуальные переживания и подарит незабываемое наслаждение! Создано специально для интимного массажа, мягко стимулирует самые чувствительные участки тела Вашего партнера и служит идеальной прелюдией для самых изысканных эротических сценариев.Всего несколько его капель обеспечивают отзывчивость эрогенных зон и прекрасное скольжение, приглашая Вас окунуться в проникновенный мир любовных приключений.Прекрасно ухаживает за кожей, увлажняя ее, не оставляет ощущения липкости.Натуральные ингредиенты, входящие в его состав, бережно питают и восстанавливают вашу кожу, делая ее бархатистой, насыщая витаминами, в то время пока Вы наслаждаетесь страстными прикосновения Вашего партнера. Натуральное массажное масло с феромонами Клубника в сливках (50 мл).  Натуральное массажное масло с феромонами Клубника в сливках (50 мл). Модель: bmn-0039. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
+          <t xml:space="preserve">Это чувственная массажная свеча с феромонами из 100 % натуральных масел, которая настроит и подарит вам романтическую атмосферу. Идеально подходит для всех типов кожи и для всех частей тела. Погрузитесь в ощущение блаженства и расслабления.Способ применения: зажгите свечу и ваша комната наполнится афродизиаками и возбуждающим ароматом. Через 10 мин. погасите пламя, и нанесите теплое (но не горячее!) растаявшее масло на тело массажными движениями. Наслаждайтесь новыми интимными ощущениями. Массажная свеча Relaxing &amp; Exciting Massage Candle Янтарное Утро (30 мл).  Массажная свеча Relaxing . Модель: bmn-0072. Россия.  Exciting Massage Candle Янтарное Утро (30 мл). Цвет: для женщин и мужчин. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -12485,29 +12473,25 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Косметика, препараты</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Косметика, препараты</t>
         </is>
       </c>
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="U98" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W98" t="inlineStr"/>
@@ -12533,7 +12517,7 @@
       <c r="AM98" t="inlineStr"/>
       <c r="AN98" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>2*15 мл</t>
         </is>
       </c>
       <c r="AO98" t="inlineStr">
@@ -12553,28 +12537,28 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Свечи эротик</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ДЖАГА ДЖАГА</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>высокое качество</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Натуральное массажное масло с</t>
+          <t xml:space="preserve">Массажная свеча Relaxing </t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>id-21703-1299</t>
+          <t>id-23986-1299</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -12585,17 +12569,17 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>два свечи в металлическом футляре</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21703/21703_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21703/21703_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23986/23986_23986_650.jpg</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажное масло с феромонами и чувственными ароматами, усилит сексуальные переживания и подарит незабываемое наслаждение! Создано специально для интимного массажа, мягко стимулирует самые чувствительные участки тела Вашего партнера и служит идеальной прелюдией для самых изысканных эротических сценариев.Всего несколько его капель обеспечивают отзывчивость эрогенных зон и прекрасное скольжение, приглашая Вас окунуться в проникновенный мир любовных приключений.Прекрасно ухаживает за кожей, увлажняя ее, не оставляет ощущения липкости.Натуральные ингредиенты, входящие в его состав, бережно питают и восстанавливают вашу кожу, делая ее бархатистой, насыщая витаминами, в то время пока Вы наслаждаетесь страстными прикосновения Вашего партнера. Натуральное массажное масло с феромонами Янтарное утро (50 мл).  Натуральное массажное масло с феромонами Янтарное утро (50 мл). Модель: bmn-0040. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
+          <t xml:space="preserve">Это чувственная массажная свеча с феромонами из 100 % натуральных масел, которая настроит и подарит вам романтическую атмосферу. Идеально подходит для всех типов кожи и для всех частей тела. Погрузитесь в ощущение блаженства и расслабления.Способ применения: зажгите свечу и ваша комната наполнится афродизиаками и возбуждающим ароматом. Через 10 мин. погасите пламя, и нанесите теплое (но не горячее!) растаявшее масло на тело массажными движениями. Наслаждайтесь новыми интимными ощущениями. Массажная свеча Relaxing &amp; Exciting Massage Candle Тайна Востока (30 мл).  Массажная свеча Relaxing . Модель: bmn-0073. Россия.  Exciting Massage Candle Тайна Востока (30 мл). Цвет: для женщин и мужчин. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -12605,29 +12589,25 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Косметика, препараты</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Косметика, препараты</t>
         </is>
       </c>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W99" t="inlineStr"/>
@@ -12653,7 +12633,7 @@
       <c r="AM99" t="inlineStr"/>
       <c r="AN99" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>2*15 мл</t>
         </is>
       </c>
       <c r="AO99" t="inlineStr">
@@ -12673,28 +12653,28 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Свечи эротик</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ДЖАГА ДЖАГА</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>высокое качество</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Натуральное массажное масло с</t>
+          <t xml:space="preserve">Массажная свеча Relaxing </t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>id-21705-1299</t>
+          <t>id-23990-1299</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -12705,17 +12685,17 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>два свечи в металлическом футляре</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21705/21705_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21705/21705_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23990/23990_23990_650.jpg</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажное масло с феромонами и чувственными ароматами, усилит сексуальные переживания и подарит незабываемое наслаждение! Создано специально для интимного массажа, мягко стимулирует самые чувствительные участки тела Вашего партнера и служит идеальной прелюдией для самых изысканных эротических сценариев.Всего несколько его капель обеспечивают отзывчивость эрогенных зон и прекрасное скольжение, приглашая Вас окунуться в проникновенный мир любовных приключений.Прекрасно ухаживает за кожей, увлажняя ее, не оставляет ощущения липкости.Натуральные ингредиенты, входящие в его состав, бережно питают и восстанавливают вашу кожу, делая ее бархатистой, насыщая витаминами, в то время пока Вы наслаждаетесь страстными прикосновения Вашего партнера. Натуральное массажное масло с феромонами Гавайское лето (50 мл).  Натуральное массажное масло с феромонами Гавайское лето (50 мл). Модель: bmn-0042. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
+          <t xml:space="preserve">Это чувственная массажная свеча с феромонами из 100 % натуральных масел, которая настроит и подарит вам романтическую атмосферу. Идеально подходит для всех типов кожи и для всех частей тела. Погрузитесь в ощущение блаженства и расслабления.Способ применения: зажгите свечу и ваша комната наполнится афродизиаками и возбуждающим ароматом. Через 10 мин. погасите пламя, и нанесите теплое (но не горячее!) растаявшее масло на тело массажными движениями. Наслаждайтесь новыми интимными ощущениями. Массажная свеча Relaxing &amp; Exciting Massage Candle Смузи Бум (30 мл).  Массажная свеча Relaxing . Модель: bmn-0074. Россия.  Exciting Massage Candle Смузи Бум (30 мл). Цвет: для женщин и мужчин. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -12725,29 +12705,25 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Косметика, препараты</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Косметика, препараты</t>
         </is>
       </c>
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W100" t="inlineStr"/>
@@ -12773,7 +12749,7 @@
       <c r="AM100" t="inlineStr"/>
       <c r="AN100" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>2*15 мл</t>
         </is>
       </c>
       <c r="AO100" t="inlineStr">
@@ -12793,28 +12769,28 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Свечи эротик</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ДЖАГА ДЖАГА</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>высокое качество</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Натуральное массажное масло с</t>
+          <t xml:space="preserve">Массажная свеча Relaxing </t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>id-21704-1299</t>
+          <t>id-25009-1299</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -12825,17 +12801,17 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>два свечи в металлическом футляре</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21704/21704_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21704/21704_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25009/25009_25009_650.jpg</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажное масло с феромонами и чувственными ароматами, усилит сексуальные переживания и подарит незабываемое наслаждение! Создано специально для интимного массажа, мягко стимулирует самые чувствительные участки тела Вашего партнера и служит идеальной прелюдией для самых изысканных эротических сценариев.Всего несколько его капель обеспечивают отзывчивость эрогенных зон и прекрасное скольжение, приглашая Вас окунуться в проникновенный мир любовных приключений.Прекрасно ухаживает за кожей, увлажняя ее, не оставляет ощущения липкости.Натуральные ингредиенты, входящие в его состав, бережно питают и восстанавливают вашу кожу, делая ее бархатистой, насыщая витаминами, в то время пока Вы наслаждаетесь страстными прикосновения Вашего партнера. Натуральное массажное масло с феромонами Райская вишня (50 мл).  Натуральное массажное масло с феромонами Райская вишня (50 мл). Модель: bmn-0043. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
+          <t xml:space="preserve">Это чувственная массажная свеча с феромонами из 100 % натуральных масел, которая настроит и подарит вам романтическую атмосферу. Идеально подходит для всех типов кожи и для всех частей тела. Погрузитесь в ощущение блаженства и расслабления.Способ применения: зажгите свечу и ваша комната наполнится афродизиаками и возбуждающим ароматом. Через 10 мин. погасите пламя, и нанесите теплое (но не горячее!) растаявшее масло на тело массажными движениями. Наслаждайтесь новыми интимными ощущениями.Аромат: Чайная роза. Это дорогой, роскошный, но очень элегантный и выдержанный аромат самой настоящей розы, распустившейся ранним утром, а на ее лепестках дрожат капельки росы. Насыщенная текстура дарит коже бархатистость и окутывает ее изысканным благоуханием. Сердечные ноты раскрывают очарование цветущей весны: юной, таинственной и бесконечно нежной, даря невероятно глубокое новое звучание, похожее на восхитительную сказку. Композиционный букет манит, легкие и непринужденные оттенки завораживают, создавая яркую и манящую ауру, способную довести до восхищения. Сюда же добавляется вдохновляющая свежесть и живительная, мягко звучащая прохлада, радующая своей легкостью, прозрачностью и чистотой. В шлейфе ароматов сплетение солнечных аккордов и лакомых ноток цветочного сердца подчеркивает всю чувственность аромата и придает глубину Вашим ощущениям. Массажная свеча Relaxing &amp; Exciting Massage Candle Весенняя Роса (30 мл).  Массажная свеча Relaxing . Модель: bmn-0076. Россия.  Exciting Massage Candle Весенняя Роса (30 мл). Цвет: для женщин и мужчин. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -12845,29 +12821,25 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Косметика, препараты</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Косметика, препараты</t>
         </is>
       </c>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W101" t="inlineStr"/>
@@ -12893,7 +12865,7 @@
       <c r="AM101" t="inlineStr"/>
       <c r="AN101" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>2*15 мл</t>
         </is>
       </c>
       <c r="AO101" t="inlineStr">
